--- a/Översikt LJUSDAL.xlsx
+++ b/Översikt LJUSDAL.xlsx
@@ -572,7 +572,7 @@
         <v>44358</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -675,7 +675,7 @@
         <v>43922</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -781,7 +781,7 @@
         <v>44449</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -881,7 +881,7 @@
         <v>43354</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         <v>43798</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1081,7 +1081,7 @@
         <v>43872</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1174,7 +1174,7 @@
         <v>44722</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1271,7 +1271,7 @@
         <v>44743</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1369,7 +1369,7 @@
         <v>44194</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1465,7 +1465,7 @@
         <v>45096</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1557,7 +1557,7 @@
         <v>44869</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1653,7 +1653,7 @@
         <v>44687</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1752,7 +1752,7 @@
         <v>44687</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1851,7 +1851,7 @@
         <v>44700</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1946,7 +1946,7 @@
         <v>43711</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2040,7 +2040,7 @@
         <v>44530</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2133,7 +2133,7 @@
         <v>44755</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2231,7 +2231,7 @@
         <v>44774</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2329,7 +2329,7 @@
         <v>44775</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2423,7 +2423,7 @@
         <v>44902</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2516,7 +2516,7 @@
         <v>45089</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2609,7 +2609,7 @@
         <v>45090</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2702,7 +2702,7 @@
         <v>43367</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2790,7 +2790,7 @@
         <v>43432</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2883,7 +2883,7 @@
         <v>43872</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2971,7 +2971,7 @@
         <v>44449</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3064,7 +3064,7 @@
         <v>44686</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3156,7 +3156,7 @@
         <v>45072</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3248,7 +3248,7 @@
         <v>45093</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3341,7 +3341,7 @@
         <v>43357</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3428,7 +3428,7 @@
         <v>43628</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3524,7 +3524,7 @@
         <v>43852</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3620,7 +3620,7 @@
         <v>43872</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3707,7 +3707,7 @@
         <v>43977</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3799,7 +3799,7 @@
         <v>44137</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3890,7 +3890,7 @@
         <v>44148</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3982,7 +3982,7 @@
         <v>44152</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4074,7 +4074,7 @@
         <v>44169</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4166,7 +4166,7 @@
         <v>44326</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4258,7 +4258,7 @@
         <v>44706</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4350,7 +4350,7 @@
         <v>44708</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4442,7 +4442,7 @@
         <v>44734</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4534,7 +4534,7 @@
         <v>44821</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4626,7 +4626,7 @@
         <v>44998</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4717,7 +4717,7 @@
         <v>43338</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4803,7 +4803,7 @@
         <v>43354</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4894,7 +4894,7 @@
         <v>43377</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4980,7 +4980,7 @@
         <v>43381</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5071,7 +5071,7 @@
         <v>43476</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5157,7 +5157,7 @@
         <v>43629</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5252,7 +5252,7 @@
         <v>43977</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5343,7 +5343,7 @@
         <v>44322</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5434,7 +5434,7 @@
         <v>44351</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5525,7 +5525,7 @@
         <v>44357</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5616,7 +5616,7 @@
         <v>44438</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5707,7 +5707,7 @@
         <v>44722</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5802,7 +5802,7 @@
         <v>44988</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5888,7 +5888,7 @@
         <v>45092</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5979,7 +5979,7 @@
         <v>45110</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6070,7 +6070,7 @@
         <v>43347</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6155,7 +6155,7 @@
         <v>43355</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6245,7 +6245,7 @@
         <v>43367</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6330,7 +6330,7 @@
         <v>43385</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6420,7 +6420,7 @@
         <v>43385</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6510,7 +6510,7 @@
         <v>43389</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6600,7 +6600,7 @@
         <v>43445</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6690,7 +6690,7 @@
         <v>43481</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6775,7 +6775,7 @@
         <v>43557</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6860,7 +6860,7 @@
         <v>43811</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6945,7 +6945,7 @@
         <v>43872</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7030,7 +7030,7 @@
         <v>43936</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7115,7 +7115,7 @@
         <v>43979</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7205,7 +7205,7 @@
         <v>44062</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7299,7 +7299,7 @@
         <v>44069</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7389,7 +7389,7 @@
         <v>44342</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7478,7 +7478,7 @@
         <v>44379</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7568,7 +7568,7 @@
         <v>44405</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7662,7 +7662,7 @@
         <v>44406</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7752,7 +7752,7 @@
         <v>44432</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7842,7 +7842,7 @@
         <v>44438</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7932,7 +7932,7 @@
         <v>44449</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8022,7 +8022,7 @@
         <v>44480</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8107,7 +8107,7 @@
         <v>44489</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8197,7 +8197,7 @@
         <v>44491</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8291,7 +8291,7 @@
         <v>44662</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8385,7 +8385,7 @@
         <v>44684</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8475,7 +8475,7 @@
         <v>44742</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8565,7 +8565,7 @@
         <v>44743</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8655,7 +8655,7 @@
         <v>44763</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8745,7 +8745,7 @@
         <v>44778</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8835,7 +8835,7 @@
         <v>44784</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8925,7 +8925,7 @@
         <v>44833</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -9010,7 +9010,7 @@
         <v>44839</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -9100,7 +9100,7 @@
         <v>44988</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9185,7 +9185,7 @@
         <v>45086</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9274,7 +9274,7 @@
         <v>45090</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9364,7 +9364,7 @@
         <v>45092</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9454,7 +9454,7 @@
         <v>45107</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9539,7 +9539,7 @@
         <v>45162</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9628,7 +9628,7 @@
         <v>43319</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9690,7 +9690,7 @@
         <v>43320</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -9747,7 +9747,7 @@
         <v>43329</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -9804,7 +9804,7 @@
         <v>43329</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9866,7 +9866,7 @@
         <v>43329</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9923,7 +9923,7 @@
         <v>43329</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -9980,7 +9980,7 @@
         <v>43329</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -10037,7 +10037,7 @@
         <v>43333</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -10094,7 +10094,7 @@
         <v>43334</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -10151,7 +10151,7 @@
         <v>43342</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -10213,7 +10213,7 @@
         <v>43343</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -10270,7 +10270,7 @@
         <v>43347</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -10327,7 +10327,7 @@
         <v>43348</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -10384,7 +10384,7 @@
         <v>43348</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -10446,7 +10446,7 @@
         <v>43349</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -10503,7 +10503,7 @@
         <v>43349</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -10560,7 +10560,7 @@
         <v>43349</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -10617,7 +10617,7 @@
         <v>43353</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -10674,7 +10674,7 @@
         <v>43353</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -10731,7 +10731,7 @@
         <v>43354</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -10793,7 +10793,7 @@
         <v>43355</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -10855,7 +10855,7 @@
         <v>43355</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -10917,7 +10917,7 @@
         <v>43369</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -10974,7 +10974,7 @@
         <v>43369</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -11036,7 +11036,7 @@
         <v>43370</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -11098,7 +11098,7 @@
         <v>43376</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -11155,7 +11155,7 @@
         <v>43377</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -11217,7 +11217,7 @@
         <v>43381</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -11274,7 +11274,7 @@
         <v>43381</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -11331,7 +11331,7 @@
         <v>43381</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -11388,7 +11388,7 @@
         <v>43381</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -11445,7 +11445,7 @@
         <v>43382</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -11507,7 +11507,7 @@
         <v>43382</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -11569,7 +11569,7 @@
         <v>43385</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -11631,7 +11631,7 @@
         <v>43385</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -11693,7 +11693,7 @@
         <v>43389</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -11755,7 +11755,7 @@
         <v>43391</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -11812,7 +11812,7 @@
         <v>43391</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -11869,7 +11869,7 @@
         <v>43395</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -11926,7 +11926,7 @@
         <v>43403</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -11988,7 +11988,7 @@
         <v>43409</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -12045,7 +12045,7 @@
         <v>43409</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -12102,7 +12102,7 @@
         <v>43410</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -12159,7 +12159,7 @@
         <v>43410</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -12221,7 +12221,7 @@
         <v>43410</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -12283,7 +12283,7 @@
         <v>43411</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -12340,7 +12340,7 @@
         <v>43412</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -12397,7 +12397,7 @@
         <v>43412</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -12454,7 +12454,7 @@
         <v>43412</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -12511,7 +12511,7 @@
         <v>43416</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -12573,7 +12573,7 @@
         <v>43416</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -12635,7 +12635,7 @@
         <v>43419</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -12692,7 +12692,7 @@
         <v>43419</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -12749,7 +12749,7 @@
         <v>43420</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -12806,7 +12806,7 @@
         <v>43420</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -12863,7 +12863,7 @@
         <v>43424</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -12920,7 +12920,7 @@
         <v>43425</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -12982,7 +12982,7 @@
         <v>43425</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -13039,7 +13039,7 @@
         <v>43425</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -13101,7 +13101,7 @@
         <v>43425</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -13158,7 +13158,7 @@
         <v>43427</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -13220,7 +13220,7 @@
         <v>43430</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -13282,7 +13282,7 @@
         <v>43431</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -13344,7 +13344,7 @@
         <v>43431</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -13401,7 +13401,7 @@
         <v>43432</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -13463,7 +13463,7 @@
         <v>43432</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -13520,7 +13520,7 @@
         <v>43432</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -13582,7 +13582,7 @@
         <v>43434</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -13644,7 +13644,7 @@
         <v>43437</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -13706,7 +13706,7 @@
         <v>43438</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -13768,7 +13768,7 @@
         <v>43439</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -13825,7 +13825,7 @@
         <v>43439</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -13882,7 +13882,7 @@
         <v>43439</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -13939,7 +13939,7 @@
         <v>43441</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -14001,7 +14001,7 @@
         <v>43441</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -14058,7 +14058,7 @@
         <v>43444</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -14115,7 +14115,7 @@
         <v>43444</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -14172,7 +14172,7 @@
         <v>43444</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -14229,7 +14229,7 @@
         <v>43444</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -14286,7 +14286,7 @@
         <v>43445</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -14348,7 +14348,7 @@
         <v>43445</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -14410,7 +14410,7 @@
         <v>43448</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -14472,7 +14472,7 @@
         <v>43448</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -14534,7 +14534,7 @@
         <v>43448</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -14596,7 +14596,7 @@
         <v>43449</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -14653,7 +14653,7 @@
         <v>43452</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -14710,7 +14710,7 @@
         <v>43452</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -14772,7 +14772,7 @@
         <v>43453</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -14829,7 +14829,7 @@
         <v>43455</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -14891,7 +14891,7 @@
         <v>43455</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -14948,7 +14948,7 @@
         <v>43468</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -15005,7 +15005,7 @@
         <v>43469</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -15062,7 +15062,7 @@
         <v>43472</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -15119,7 +15119,7 @@
         <v>43472</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -15181,7 +15181,7 @@
         <v>43472</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -15243,7 +15243,7 @@
         <v>43474</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -15305,7 +15305,7 @@
         <v>43481</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -15362,7 +15362,7 @@
         <v>43483</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -15419,7 +15419,7 @@
         <v>43486</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -15481,7 +15481,7 @@
         <v>43487</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -15538,7 +15538,7 @@
         <v>43489</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -15595,7 +15595,7 @@
         <v>43490</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -15657,7 +15657,7 @@
         <v>43493</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -15714,7 +15714,7 @@
         <v>43497</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -15776,7 +15776,7 @@
         <v>43501</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -15833,7 +15833,7 @@
         <v>43508</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -15890,7 +15890,7 @@
         <v>43508</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -15947,7 +15947,7 @@
         <v>43510</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -16004,7 +16004,7 @@
         <v>43510</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -16061,7 +16061,7 @@
         <v>43514</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -16118,7 +16118,7 @@
         <v>43514</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -16175,7 +16175,7 @@
         <v>43515</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -16237,7 +16237,7 @@
         <v>43516</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -16294,7 +16294,7 @@
         <v>43516</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -16351,7 +16351,7 @@
         <v>43517</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -16408,7 +16408,7 @@
         <v>43517</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -16465,7 +16465,7 @@
         <v>43521</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -16522,7 +16522,7 @@
         <v>43521</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -16579,7 +16579,7 @@
         <v>43524</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -16636,7 +16636,7 @@
         <v>43524</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -16693,7 +16693,7 @@
         <v>43524</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -16750,7 +16750,7 @@
         <v>43525</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -16807,7 +16807,7 @@
         <v>43525</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -16864,7 +16864,7 @@
         <v>43528</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -16921,7 +16921,7 @@
         <v>43535</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -16978,7 +16978,7 @@
         <v>43536</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -17035,7 +17035,7 @@
         <v>43542</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -17092,7 +17092,7 @@
         <v>43549</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -17149,7 +17149,7 @@
         <v>43549</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -17206,7 +17206,7 @@
         <v>43550</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -17263,7 +17263,7 @@
         <v>43552</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -17320,7 +17320,7 @@
         <v>43552</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -17377,7 +17377,7 @@
         <v>43552</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -17434,7 +17434,7 @@
         <v>43557</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -17491,7 +17491,7 @@
         <v>43557</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -17553,7 +17553,7 @@
         <v>43578</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -17630,7 +17630,7 @@
         <v>43581</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -17692,7 +17692,7 @@
         <v>43584</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -17754,7 +17754,7 @@
         <v>43600</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -17816,7 +17816,7 @@
         <v>43600</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -17878,7 +17878,7 @@
         <v>43601</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -17935,7 +17935,7 @@
         <v>43601</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -17992,7 +17992,7 @@
         <v>43605</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -18049,7 +18049,7 @@
         <v>43607</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -18106,7 +18106,7 @@
         <v>43612</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -18168,7 +18168,7 @@
         <v>43613</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -18230,7 +18230,7 @@
         <v>43616</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -18292,7 +18292,7 @@
         <v>43619</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -18349,7 +18349,7 @@
         <v>43619</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -18411,7 +18411,7 @@
         <v>43619</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -18473,7 +18473,7 @@
         <v>43619</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -18535,7 +18535,7 @@
         <v>43619</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -18597,7 +18597,7 @@
         <v>43620</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -18654,7 +18654,7 @@
         <v>43628</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -18711,7 +18711,7 @@
         <v>43628</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -18773,7 +18773,7 @@
         <v>43628</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -18835,7 +18835,7 @@
         <v>43629</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -18892,7 +18892,7 @@
         <v>43629</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -18954,7 +18954,7 @@
         <v>43630</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -19016,7 +19016,7 @@
         <v>43630</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -19078,7 +19078,7 @@
         <v>43636</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -19140,7 +19140,7 @@
         <v>43636</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -19202,7 +19202,7 @@
         <v>43641</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -19259,7 +19259,7 @@
         <v>43642</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -19321,7 +19321,7 @@
         <v>43642</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -19383,7 +19383,7 @@
         <v>43644</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -19440,7 +19440,7 @@
         <v>43650</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -19497,7 +19497,7 @@
         <v>43651</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -19559,7 +19559,7 @@
         <v>43651</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -19621,7 +19621,7 @@
         <v>43655</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -19678,7 +19678,7 @@
         <v>43656</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -19735,7 +19735,7 @@
         <v>43661</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -19792,7 +19792,7 @@
         <v>43661</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -19849,7 +19849,7 @@
         <v>43661</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -19906,7 +19906,7 @@
         <v>43662</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -19968,7 +19968,7 @@
         <v>43663</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -20025,7 +20025,7 @@
         <v>43663</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -20082,7 +20082,7 @@
         <v>43665</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -20139,7 +20139,7 @@
         <v>43665</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -20201,7 +20201,7 @@
         <v>43668</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -20258,7 +20258,7 @@
         <v>43668</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -20320,7 +20320,7 @@
         <v>43669</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -20377,7 +20377,7 @@
         <v>43677</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -20434,7 +20434,7 @@
         <v>43679</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -20491,7 +20491,7 @@
         <v>43679</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -20548,7 +20548,7 @@
         <v>43686</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -20605,7 +20605,7 @@
         <v>43691</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -20662,7 +20662,7 @@
         <v>43692</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -20719,7 +20719,7 @@
         <v>43693</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -20781,7 +20781,7 @@
         <v>43693</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -20843,7 +20843,7 @@
         <v>43693</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -20905,7 +20905,7 @@
         <v>43697</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -20967,7 +20967,7 @@
         <v>43698</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -21024,7 +21024,7 @@
         <v>43698</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -21086,7 +21086,7 @@
         <v>43700</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -21143,7 +21143,7 @@
         <v>43700</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -21205,7 +21205,7 @@
         <v>43700</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -21262,7 +21262,7 @@
         <v>43704</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -21319,7 +21319,7 @@
         <v>43705</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -21381,7 +21381,7 @@
         <v>43710</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -21443,7 +21443,7 @@
         <v>43710</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -21505,7 +21505,7 @@
         <v>43710</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -21567,7 +21567,7 @@
         <v>43712</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -21624,7 +21624,7 @@
         <v>43713</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -21686,7 +21686,7 @@
         <v>43714</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -21748,7 +21748,7 @@
         <v>43714</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -21810,7 +21810,7 @@
         <v>43717</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -21867,7 +21867,7 @@
         <v>43719</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -21929,7 +21929,7 @@
         <v>43720</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -21991,7 +21991,7 @@
         <v>43721</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -22048,7 +22048,7 @@
         <v>43721</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -22105,7 +22105,7 @@
         <v>43721</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -22162,7 +22162,7 @@
         <v>43726</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -22224,7 +22224,7 @@
         <v>43726</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -22286,7 +22286,7 @@
         <v>43727</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -22348,7 +22348,7 @@
         <v>43728</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -22410,7 +22410,7 @@
         <v>43731</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -22467,7 +22467,7 @@
         <v>43732</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -22529,7 +22529,7 @@
         <v>43732</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -22591,7 +22591,7 @@
         <v>43734</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -22648,7 +22648,7 @@
         <v>43735</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -22705,7 +22705,7 @@
         <v>43738</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -22762,7 +22762,7 @@
         <v>43738</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -22819,7 +22819,7 @@
         <v>43741</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -22881,7 +22881,7 @@
         <v>43742</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -22938,7 +22938,7 @@
         <v>43745</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -22995,7 +22995,7 @@
         <v>43745</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -23057,7 +23057,7 @@
         <v>43746</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -23114,7 +23114,7 @@
         <v>43747</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -23176,7 +23176,7 @@
         <v>43748</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -23238,7 +23238,7 @@
         <v>43749</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -23300,7 +23300,7 @@
         <v>43754</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -23362,7 +23362,7 @@
         <v>43754</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -23424,7 +23424,7 @@
         <v>43755</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -23486,7 +23486,7 @@
         <v>43755</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -23548,7 +23548,7 @@
         <v>43759</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -23610,7 +23610,7 @@
         <v>43759</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -23667,7 +23667,7 @@
         <v>43760</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -23729,7 +23729,7 @@
         <v>43763</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -23786,7 +23786,7 @@
         <v>43763</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -23843,7 +23843,7 @@
         <v>43767</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -23905,7 +23905,7 @@
         <v>43774</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -23962,7 +23962,7 @@
         <v>43774</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -24019,7 +24019,7 @@
         <v>43775</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -24076,7 +24076,7 @@
         <v>43775</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -24133,7 +24133,7 @@
         <v>43776</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -24190,7 +24190,7 @@
         <v>43776</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -24247,7 +24247,7 @@
         <v>43777</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -24309,7 +24309,7 @@
         <v>43781</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -24371,7 +24371,7 @@
         <v>43781</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -24433,7 +24433,7 @@
         <v>43782</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -24490,7 +24490,7 @@
         <v>43782</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -24547,7 +24547,7 @@
         <v>43784</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -24609,7 +24609,7 @@
         <v>43787</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -24671,7 +24671,7 @@
         <v>43787</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -24733,7 +24733,7 @@
         <v>43789</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -24795,7 +24795,7 @@
         <v>43789</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -24857,7 +24857,7 @@
         <v>43791</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -24919,7 +24919,7 @@
         <v>43791</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -24981,7 +24981,7 @@
         <v>43791</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -25043,7 +25043,7 @@
         <v>43794</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -25100,7 +25100,7 @@
         <v>43794</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -25157,7 +25157,7 @@
         <v>43797</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -25214,7 +25214,7 @@
         <v>43801</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -25276,7 +25276,7 @@
         <v>43802</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -25333,7 +25333,7 @@
         <v>43802</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -25390,7 +25390,7 @@
         <v>43808</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -25447,7 +25447,7 @@
         <v>43810</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -25509,7 +25509,7 @@
         <v>43810</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -25571,7 +25571,7 @@
         <v>43815</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -25628,7 +25628,7 @@
         <v>43815</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -25685,7 +25685,7 @@
         <v>43816</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -25742,7 +25742,7 @@
         <v>43837</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -25799,7 +25799,7 @@
         <v>43838</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -25856,7 +25856,7 @@
         <v>43840</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -25918,7 +25918,7 @@
         <v>43850</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -25975,7 +25975,7 @@
         <v>43850</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -26032,7 +26032,7 @@
         <v>43850</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -26089,7 +26089,7 @@
         <v>43850</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -26146,7 +26146,7 @@
         <v>43851</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -26203,7 +26203,7 @@
         <v>43851</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -26260,7 +26260,7 @@
         <v>43858</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -26317,7 +26317,7 @@
         <v>43861</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -26374,7 +26374,7 @@
         <v>43865</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -26431,7 +26431,7 @@
         <v>43866</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -26488,7 +26488,7 @@
         <v>43879</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -26545,7 +26545,7 @@
         <v>43882</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -26602,7 +26602,7 @@
         <v>43885</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -26659,7 +26659,7 @@
         <v>43886</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -26716,7 +26716,7 @@
         <v>43886</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -26773,7 +26773,7 @@
         <v>43892</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -26830,7 +26830,7 @@
         <v>43892</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -26887,7 +26887,7 @@
         <v>43894</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -26949,7 +26949,7 @@
         <v>43902</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -27011,7 +27011,7 @@
         <v>43903</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -27068,7 +27068,7 @@
         <v>43908</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -27125,7 +27125,7 @@
         <v>43913</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -27182,7 +27182,7 @@
         <v>43913</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -27239,7 +27239,7 @@
         <v>43922</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -27301,7 +27301,7 @@
         <v>43924</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -27358,7 +27358,7 @@
         <v>43924</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -27415,7 +27415,7 @@
         <v>43930</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -27472,7 +27472,7 @@
         <v>43935</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -27534,7 +27534,7 @@
         <v>43943</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -27591,7 +27591,7 @@
         <v>43943</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -27648,7 +27648,7 @@
         <v>43943</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -27705,7 +27705,7 @@
         <v>43944</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -27762,7 +27762,7 @@
         <v>43944</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -27819,7 +27819,7 @@
         <v>43945</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -27876,7 +27876,7 @@
         <v>43945</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -27938,7 +27938,7 @@
         <v>43945</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -27995,7 +27995,7 @@
         <v>43945</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -28057,7 +28057,7 @@
         <v>43949</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -28119,7 +28119,7 @@
         <v>43951</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -28181,7 +28181,7 @@
         <v>43951</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -28243,7 +28243,7 @@
         <v>43951</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -28305,7 +28305,7 @@
         <v>43951</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -28367,7 +28367,7 @@
         <v>43951</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -28424,7 +28424,7 @@
         <v>43955</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -28486,7 +28486,7 @@
         <v>43959</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -28548,7 +28548,7 @@
         <v>43959</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -28610,7 +28610,7 @@
         <v>43959</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -28672,7 +28672,7 @@
         <v>43959</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -28734,7 +28734,7 @@
         <v>43962</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -28796,7 +28796,7 @@
         <v>43962</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -28858,7 +28858,7 @@
         <v>43962</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -28920,7 +28920,7 @@
         <v>43962</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -28982,7 +28982,7 @@
         <v>43964</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -29044,7 +29044,7 @@
         <v>43965</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -29106,7 +29106,7 @@
         <v>43965</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -29168,7 +29168,7 @@
         <v>43966</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -29230,7 +29230,7 @@
         <v>43966</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -29292,7 +29292,7 @@
         <v>43966</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -29354,7 +29354,7 @@
         <v>43969</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -29416,7 +29416,7 @@
         <v>43971</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -29478,7 +29478,7 @@
         <v>43971</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -29540,7 +29540,7 @@
         <v>43971</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -29602,7 +29602,7 @@
         <v>43977</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -29664,7 +29664,7 @@
         <v>43978</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -29721,7 +29721,7 @@
         <v>43979</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -29783,7 +29783,7 @@
         <v>43979</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -29845,7 +29845,7 @@
         <v>43979</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -29907,7 +29907,7 @@
         <v>43979</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -29969,7 +29969,7 @@
         <v>43979</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -30031,7 +30031,7 @@
         <v>43986</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -30088,7 +30088,7 @@
         <v>43990</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -30150,7 +30150,7 @@
         <v>43990</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -30212,7 +30212,7 @@
         <v>43991</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -30274,7 +30274,7 @@
         <v>43993</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -30336,7 +30336,7 @@
         <v>44000</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -30398,7 +30398,7 @@
         <v>44000</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -30460,7 +30460,7 @@
         <v>44005</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -30522,7 +30522,7 @@
         <v>44005</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -30584,7 +30584,7 @@
         <v>44006</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -30641,7 +30641,7 @@
         <v>44007</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -30703,7 +30703,7 @@
         <v>44007</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -30765,7 +30765,7 @@
         <v>44008</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -30827,7 +30827,7 @@
         <v>44008</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -30889,7 +30889,7 @@
         <v>44014</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -30951,7 +30951,7 @@
         <v>44014</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -31013,7 +31013,7 @@
         <v>44014</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -31075,7 +31075,7 @@
         <v>44022</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -31137,7 +31137,7 @@
         <v>44022</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -31194,7 +31194,7 @@
         <v>44025</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -31251,7 +31251,7 @@
         <v>44026</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -31313,7 +31313,7 @@
         <v>44027</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -31370,7 +31370,7 @@
         <v>44028</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -31432,7 +31432,7 @@
         <v>44029</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -31494,7 +31494,7 @@
         <v>44029</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -31556,7 +31556,7 @@
         <v>44031</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -31618,7 +31618,7 @@
         <v>44032</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -31675,7 +31675,7 @@
         <v>44032</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -31737,7 +31737,7 @@
         <v>44032</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -31799,7 +31799,7 @@
         <v>44033</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -31856,7 +31856,7 @@
         <v>44041</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -31918,7 +31918,7 @@
         <v>44041</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -31980,7 +31980,7 @@
         <v>44041</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -32042,7 +32042,7 @@
         <v>44042</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -32104,7 +32104,7 @@
         <v>44049</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -32166,7 +32166,7 @@
         <v>44049</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -32228,7 +32228,7 @@
         <v>44053</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -32285,7 +32285,7 @@
         <v>44056</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -32347,7 +32347,7 @@
         <v>44057</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -32409,7 +32409,7 @@
         <v>44060</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -32471,7 +32471,7 @@
         <v>44061</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -32528,7 +32528,7 @@
         <v>44061</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -32585,7 +32585,7 @@
         <v>44061</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -32642,7 +32642,7 @@
         <v>44061</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -32704,7 +32704,7 @@
         <v>44062</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -32766,7 +32766,7 @@
         <v>44064</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -32828,7 +32828,7 @@
         <v>44064</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -32890,7 +32890,7 @@
         <v>44064</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -32952,7 +32952,7 @@
         <v>44064</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -33014,7 +33014,7 @@
         <v>44067</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -33076,7 +33076,7 @@
         <v>44068</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -33138,7 +33138,7 @@
         <v>44069</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -33200,7 +33200,7 @@
         <v>44069</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -33262,7 +33262,7 @@
         <v>44069</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -33324,7 +33324,7 @@
         <v>44069</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -33386,7 +33386,7 @@
         <v>44070</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -33443,7 +33443,7 @@
         <v>44074</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -33505,7 +33505,7 @@
         <v>44074</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -33567,7 +33567,7 @@
         <v>44075</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -33629,7 +33629,7 @@
         <v>44075</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -33691,7 +33691,7 @@
         <v>44075</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -33753,7 +33753,7 @@
         <v>44078</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -33810,7 +33810,7 @@
         <v>44078</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -33867,7 +33867,7 @@
         <v>44078</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -33929,7 +33929,7 @@
         <v>44080</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -33991,7 +33991,7 @@
         <v>44081</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -34053,7 +34053,7 @@
         <v>44081</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -34115,7 +34115,7 @@
         <v>44082</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -34177,7 +34177,7 @@
         <v>44082</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -34234,7 +34234,7 @@
         <v>44082</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -34296,7 +34296,7 @@
         <v>44083</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -34353,7 +34353,7 @@
         <v>44084</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -34415,7 +34415,7 @@
         <v>44085</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -34477,7 +34477,7 @@
         <v>44085</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -34539,7 +34539,7 @@
         <v>44085</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -34601,7 +34601,7 @@
         <v>44085</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -34663,7 +34663,7 @@
         <v>44085</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -34720,7 +34720,7 @@
         <v>44088</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -34782,7 +34782,7 @@
         <v>44088</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -34844,7 +34844,7 @@
         <v>44088</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -34906,7 +34906,7 @@
         <v>44088</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -34968,7 +34968,7 @@
         <v>44091</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -35030,7 +35030,7 @@
         <v>44092</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -35092,7 +35092,7 @@
         <v>44092</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -35154,7 +35154,7 @@
         <v>44092</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -35216,7 +35216,7 @@
         <v>44095</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -35273,7 +35273,7 @@
         <v>44099</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -35335,7 +35335,7 @@
         <v>44099</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -35397,7 +35397,7 @@
         <v>44099</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -35459,7 +35459,7 @@
         <v>44103</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -35521,7 +35521,7 @@
         <v>44103</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -35583,7 +35583,7 @@
         <v>44104</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -35645,7 +35645,7 @@
         <v>44104</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -35707,7 +35707,7 @@
         <v>44104</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -35769,7 +35769,7 @@
         <v>44108</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -35826,7 +35826,7 @@
         <v>44109</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -35888,7 +35888,7 @@
         <v>44109</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -35950,7 +35950,7 @@
         <v>44110</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -36012,7 +36012,7 @@
         <v>44111</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -36074,7 +36074,7 @@
         <v>44112</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -36136,7 +36136,7 @@
         <v>44112</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -36193,7 +36193,7 @@
         <v>44112</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -36255,7 +36255,7 @@
         <v>44116</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -36317,7 +36317,7 @@
         <v>44116</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -36379,7 +36379,7 @@
         <v>44116</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -36436,7 +36436,7 @@
         <v>44116</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -36498,7 +36498,7 @@
         <v>44116</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -36560,7 +36560,7 @@
         <v>44117</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -36622,7 +36622,7 @@
         <v>44119</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -36684,7 +36684,7 @@
         <v>44119</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -36746,7 +36746,7 @@
         <v>44119</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -36808,7 +36808,7 @@
         <v>44120</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -36870,7 +36870,7 @@
         <v>44123</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -36932,7 +36932,7 @@
         <v>44124</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -36994,7 +36994,7 @@
         <v>44124</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -37051,7 +37051,7 @@
         <v>44125</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -37108,7 +37108,7 @@
         <v>44125</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -37170,7 +37170,7 @@
         <v>44125</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -37232,7 +37232,7 @@
         <v>44125</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -37294,7 +37294,7 @@
         <v>44126</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -37356,7 +37356,7 @@
         <v>44126</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -37418,7 +37418,7 @@
         <v>44126</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -37475,7 +37475,7 @@
         <v>44126</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -37537,7 +37537,7 @@
         <v>44133</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -37599,7 +37599,7 @@
         <v>44141</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -37661,7 +37661,7 @@
         <v>44144</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -37723,7 +37723,7 @@
         <v>44145</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -37785,7 +37785,7 @@
         <v>44146</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -37842,7 +37842,7 @@
         <v>44147</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -37904,7 +37904,7 @@
         <v>44148</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -37966,7 +37966,7 @@
         <v>44148</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -38028,7 +38028,7 @@
         <v>44150</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -38090,7 +38090,7 @@
         <v>44151</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -38152,7 +38152,7 @@
         <v>44159</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -38214,7 +38214,7 @@
         <v>44159</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -38271,7 +38271,7 @@
         <v>44160</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -38333,7 +38333,7 @@
         <v>44161</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -38390,7 +38390,7 @@
         <v>44162</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -38452,7 +38452,7 @@
         <v>44162</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -38514,7 +38514,7 @@
         <v>44166</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -38571,7 +38571,7 @@
         <v>44167</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -38633,7 +38633,7 @@
         <v>44179</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -38695,7 +38695,7 @@
         <v>44180</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -38757,7 +38757,7 @@
         <v>44180</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -38819,7 +38819,7 @@
         <v>44194</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -38876,7 +38876,7 @@
         <v>44194</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -38953,7 +38953,7 @@
         <v>44199</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -39010,7 +39010,7 @@
         <v>44200</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -39067,7 +39067,7 @@
         <v>44203</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -39129,7 +39129,7 @@
         <v>44208</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -39191,7 +39191,7 @@
         <v>44221</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -39248,7 +39248,7 @@
         <v>44223</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -39310,7 +39310,7 @@
         <v>44228</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -39367,7 +39367,7 @@
         <v>44229</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -39424,7 +39424,7 @@
         <v>44236</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -39481,7 +39481,7 @@
         <v>44239</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -39538,7 +39538,7 @@
         <v>44243</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -39595,7 +39595,7 @@
         <v>44250</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -39652,7 +39652,7 @@
         <v>44251</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -39709,7 +39709,7 @@
         <v>44253</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -39766,7 +39766,7 @@
         <v>44259</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -39823,7 +39823,7 @@
         <v>44265</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -39880,7 +39880,7 @@
         <v>44265</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -39937,7 +39937,7 @@
         <v>44267</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -39994,7 +39994,7 @@
         <v>44273</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -40056,7 +40056,7 @@
         <v>44273</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -40118,7 +40118,7 @@
         <v>44294</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -40180,7 +40180,7 @@
         <v>44294</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -40242,7 +40242,7 @@
         <v>44295</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -40304,7 +40304,7 @@
         <v>44302</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -40366,7 +40366,7 @@
         <v>44307</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -40423,7 +40423,7 @@
         <v>44308</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -40480,7 +40480,7 @@
         <v>44308</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -40542,7 +40542,7 @@
         <v>44309</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -40599,7 +40599,7 @@
         <v>44313</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -40661,7 +40661,7 @@
         <v>44313</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -40723,7 +40723,7 @@
         <v>44322</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -40785,7 +40785,7 @@
         <v>44322</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -40847,7 +40847,7 @@
         <v>44322</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -40909,7 +40909,7 @@
         <v>44322</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -40971,7 +40971,7 @@
         <v>44326</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -41028,7 +41028,7 @@
         <v>44326</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -41085,7 +41085,7 @@
         <v>44333</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -41142,7 +41142,7 @@
         <v>44336</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -41199,7 +41199,7 @@
         <v>44341</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -41256,7 +41256,7 @@
         <v>44341</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -41313,7 +41313,7 @@
         <v>44350</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -41375,7 +41375,7 @@
         <v>44350</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -41437,7 +41437,7 @@
         <v>44354</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -41499,7 +41499,7 @@
         <v>44358</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -41561,7 +41561,7 @@
         <v>44358</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -41623,7 +41623,7 @@
         <v>44361</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -41680,7 +41680,7 @@
         <v>44361</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -41742,7 +41742,7 @@
         <v>44361</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -41799,7 +41799,7 @@
         <v>44361</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -41856,7 +41856,7 @@
         <v>44361</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -41913,7 +41913,7 @@
         <v>44361</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -41970,7 +41970,7 @@
         <v>44363</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -42027,7 +42027,7 @@
         <v>44364</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -42084,7 +42084,7 @@
         <v>44365</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -42141,7 +42141,7 @@
         <v>44368</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -42203,7 +42203,7 @@
         <v>44368</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -42265,7 +42265,7 @@
         <v>44378</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -42327,7 +42327,7 @@
         <v>44382</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -42389,7 +42389,7 @@
         <v>44382</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -42451,7 +42451,7 @@
         <v>44382</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -42513,7 +42513,7 @@
         <v>44384</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -42575,7 +42575,7 @@
         <v>44385</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -42632,7 +42632,7 @@
         <v>44390</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -42689,7 +42689,7 @@
         <v>44391</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -42746,7 +42746,7 @@
         <v>44397</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -42808,7 +42808,7 @@
         <v>44400</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -42870,7 +42870,7 @@
         <v>44400</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -42932,7 +42932,7 @@
         <v>44400</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -42994,7 +42994,7 @@
         <v>44403</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -43056,7 +43056,7 @@
         <v>44403</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -43113,7 +43113,7 @@
         <v>44404</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -43170,7 +43170,7 @@
         <v>44406</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -43232,7 +43232,7 @@
         <v>44418</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -43294,7 +43294,7 @@
         <v>44418</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -43356,7 +43356,7 @@
         <v>44419</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -43418,7 +43418,7 @@
         <v>44425</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -43480,7 +43480,7 @@
         <v>44425</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -43542,7 +43542,7 @@
         <v>44426</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -43599,7 +43599,7 @@
         <v>44427</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -43656,7 +43656,7 @@
         <v>44428</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -43718,7 +43718,7 @@
         <v>44431</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -43775,7 +43775,7 @@
         <v>44435</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -43837,7 +43837,7 @@
         <v>44435</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -43899,7 +43899,7 @@
         <v>44435</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -43956,7 +43956,7 @@
         <v>44435</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -44018,7 +44018,7 @@
         <v>44438</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -44080,7 +44080,7 @@
         <v>44439</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -44137,7 +44137,7 @@
         <v>44440</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -44194,7 +44194,7 @@
         <v>44445</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -44256,7 +44256,7 @@
         <v>44445</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -44318,7 +44318,7 @@
         <v>44445</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -44375,7 +44375,7 @@
         <v>44447</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -44437,7 +44437,7 @@
         <v>44447</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -44494,7 +44494,7 @@
         <v>44448</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -44551,7 +44551,7 @@
         <v>44448</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -44608,7 +44608,7 @@
         <v>44449</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -44665,7 +44665,7 @@
         <v>44452</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -44727,7 +44727,7 @@
         <v>44453</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -44789,7 +44789,7 @@
         <v>44455</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -44851,7 +44851,7 @@
         <v>44460</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -44908,7 +44908,7 @@
         <v>44460</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -44970,7 +44970,7 @@
         <v>44460</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -45032,7 +45032,7 @@
         <v>44461</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -45089,7 +45089,7 @@
         <v>44466</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -45146,7 +45146,7 @@
         <v>44467</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -45208,7 +45208,7 @@
         <v>44470</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -45265,7 +45265,7 @@
         <v>44473</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -45322,7 +45322,7 @@
         <v>44475</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -45384,7 +45384,7 @@
         <v>44475</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -45446,7 +45446,7 @@
         <v>44475</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -45503,7 +45503,7 @@
         <v>44480</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -45565,7 +45565,7 @@
         <v>44481</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -45622,7 +45622,7 @@
         <v>44483</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -45684,7 +45684,7 @@
         <v>44484</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -45746,7 +45746,7 @@
         <v>44488</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -45803,7 +45803,7 @@
         <v>44489</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -45865,7 +45865,7 @@
         <v>44489</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -45927,7 +45927,7 @@
         <v>44489</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -45989,7 +45989,7 @@
         <v>44489</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -46051,7 +46051,7 @@
         <v>44490</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -46113,7 +46113,7 @@
         <v>44497</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -46175,7 +46175,7 @@
         <v>44497</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -46232,7 +46232,7 @@
         <v>44497</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -46294,7 +46294,7 @@
         <v>44497</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -46351,7 +46351,7 @@
         <v>44502</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -46408,7 +46408,7 @@
         <v>44503</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -46470,7 +46470,7 @@
         <v>44504</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -46532,7 +46532,7 @@
         <v>44510</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -46594,7 +46594,7 @@
         <v>44511</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -46656,7 +46656,7 @@
         <v>44511</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -46718,7 +46718,7 @@
         <v>44523</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -46780,7 +46780,7 @@
         <v>44523</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -46837,7 +46837,7 @@
         <v>44531</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -46894,7 +46894,7 @@
         <v>44536</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -46951,7 +46951,7 @@
         <v>44538</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -47008,7 +47008,7 @@
         <v>44544</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -47070,7 +47070,7 @@
         <v>44550</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -47132,7 +47132,7 @@
         <v>44551</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -47189,7 +47189,7 @@
         <v>44552</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -47246,7 +47246,7 @@
         <v>44552</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -47303,7 +47303,7 @@
         <v>44564</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -47360,7 +47360,7 @@
         <v>44566</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -47417,7 +47417,7 @@
         <v>44572</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -47474,7 +47474,7 @@
         <v>44579</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -47536,7 +47536,7 @@
         <v>44582</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -47593,7 +47593,7 @@
         <v>44587</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -47655,7 +47655,7 @@
         <v>44592</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -47717,7 +47717,7 @@
         <v>44595</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -47774,7 +47774,7 @@
         <v>44615</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -47831,7 +47831,7 @@
         <v>44615</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -47888,7 +47888,7 @@
         <v>44616</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -47945,7 +47945,7 @@
         <v>44621</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -48007,7 +48007,7 @@
         <v>44627</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -48064,7 +48064,7 @@
         <v>44627</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -48121,7 +48121,7 @@
         <v>44629</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -48178,7 +48178,7 @@
         <v>44648</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -48235,7 +48235,7 @@
         <v>44650</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -48292,7 +48292,7 @@
         <v>44657</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -48349,7 +48349,7 @@
         <v>44662</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -48411,7 +48411,7 @@
         <v>44663</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -48468,7 +48468,7 @@
         <v>44663</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -48525,7 +48525,7 @@
         <v>44685</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -48587,7 +48587,7 @@
         <v>44691</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -48649,7 +48649,7 @@
         <v>44692</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -48711,7 +48711,7 @@
         <v>44692</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -48773,7 +48773,7 @@
         <v>44693</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -48835,7 +48835,7 @@
         <v>44697</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -48892,7 +48892,7 @@
         <v>44701</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -48954,7 +48954,7 @@
         <v>44711</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -49016,7 +49016,7 @@
         <v>44711</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -49078,7 +49078,7 @@
         <v>44712</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -49135,7 +49135,7 @@
         <v>44714</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -49192,7 +49192,7 @@
         <v>44719</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -49249,7 +49249,7 @@
         <v>44726</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -49306,7 +49306,7 @@
         <v>44726</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -49363,7 +49363,7 @@
         <v>44726</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -49420,7 +49420,7 @@
         <v>44726</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -49482,7 +49482,7 @@
         <v>44726</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -49539,7 +49539,7 @@
         <v>44732</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -49601,7 +49601,7 @@
         <v>44743</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -49663,7 +49663,7 @@
         <v>44743</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -49725,7 +49725,7 @@
         <v>44743</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -49787,7 +49787,7 @@
         <v>44743</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -49849,7 +49849,7 @@
         <v>44743</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -49911,7 +49911,7 @@
         <v>44743</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -49973,7 +49973,7 @@
         <v>44743</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -50035,7 +50035,7 @@
         <v>44747</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -50092,7 +50092,7 @@
         <v>44747</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -50149,7 +50149,7 @@
         <v>44748</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -50206,7 +50206,7 @@
         <v>44749</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -50263,7 +50263,7 @@
         <v>44757</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -50325,7 +50325,7 @@
         <v>44757</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -50387,7 +50387,7 @@
         <v>44762</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -50449,7 +50449,7 @@
         <v>44774</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -50511,7 +50511,7 @@
         <v>44774</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -50573,7 +50573,7 @@
         <v>44774</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -50635,7 +50635,7 @@
         <v>44777</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -50692,7 +50692,7 @@
         <v>44778</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -50754,7 +50754,7 @@
         <v>44781</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -50816,7 +50816,7 @@
         <v>44781</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -50878,7 +50878,7 @@
         <v>44789</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -50935,7 +50935,7 @@
         <v>44791</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -50997,7 +50997,7 @@
         <v>44791</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -51054,7 +51054,7 @@
         <v>44792</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -51116,7 +51116,7 @@
         <v>44792</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -51178,7 +51178,7 @@
         <v>44792</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -51235,7 +51235,7 @@
         <v>44792</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -51297,7 +51297,7 @@
         <v>44792</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -51359,7 +51359,7 @@
         <v>44795</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -51421,7 +51421,7 @@
         <v>44795</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -51478,7 +51478,7 @@
         <v>44797</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -51535,7 +51535,7 @@
         <v>44798</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -51592,7 +51592,7 @@
         <v>44799</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -51654,7 +51654,7 @@
         <v>44799</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -51716,7 +51716,7 @@
         <v>44799</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -51778,7 +51778,7 @@
         <v>44799</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -51840,7 +51840,7 @@
         <v>44803</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -51897,7 +51897,7 @@
         <v>44804</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -51954,7 +51954,7 @@
         <v>44806</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -52016,7 +52016,7 @@
         <v>44812</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -52073,7 +52073,7 @@
         <v>44813</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -52135,7 +52135,7 @@
         <v>44813</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -52192,7 +52192,7 @@
         <v>44813</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -52254,7 +52254,7 @@
         <v>44817</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -52316,7 +52316,7 @@
         <v>44824</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -52378,7 +52378,7 @@
         <v>44824</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -52440,7 +52440,7 @@
         <v>44824</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -52502,7 +52502,7 @@
         <v>44825</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -52564,7 +52564,7 @@
         <v>44827</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -52626,7 +52626,7 @@
         <v>44827</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -52688,7 +52688,7 @@
         <v>44832</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -52750,7 +52750,7 @@
         <v>44833</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -52812,7 +52812,7 @@
         <v>44833</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -52874,7 +52874,7 @@
         <v>44833</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -52931,7 +52931,7 @@
         <v>44833</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -52993,7 +52993,7 @@
         <v>44833</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -53050,7 +53050,7 @@
         <v>44833</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -53112,7 +53112,7 @@
         <v>44834</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -53174,7 +53174,7 @@
         <v>44834</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -53236,7 +53236,7 @@
         <v>44837</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -53298,7 +53298,7 @@
         <v>44837</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -53355,7 +53355,7 @@
         <v>44837</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -53417,7 +53417,7 @@
         <v>44838</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -53474,7 +53474,7 @@
         <v>44838</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -53531,7 +53531,7 @@
         <v>44844</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -53593,7 +53593,7 @@
         <v>44846</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -53655,7 +53655,7 @@
         <v>44846</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -53712,7 +53712,7 @@
         <v>44847</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -53774,7 +53774,7 @@
         <v>44847</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -53836,7 +53836,7 @@
         <v>44847</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -53898,7 +53898,7 @@
         <v>44848</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -53960,7 +53960,7 @@
         <v>44853</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -54017,7 +54017,7 @@
         <v>44855</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -54079,7 +54079,7 @@
         <v>44858</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -54141,7 +54141,7 @@
         <v>44860</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -54198,7 +54198,7 @@
         <v>44864</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -54255,7 +54255,7 @@
         <v>44866</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -54317,7 +54317,7 @@
         <v>44866</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -54379,7 +54379,7 @@
         <v>44867</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -54441,7 +54441,7 @@
         <v>44867</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -54498,7 +54498,7 @@
         <v>44867</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -54560,7 +54560,7 @@
         <v>44868</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -54622,7 +54622,7 @@
         <v>44872</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -54684,7 +54684,7 @@
         <v>44872</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -54746,7 +54746,7 @@
         <v>44872</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -54808,7 +54808,7 @@
         <v>44872</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -54865,7 +54865,7 @@
         <v>44873</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -54922,7 +54922,7 @@
         <v>44873</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -54979,7 +54979,7 @@
         <v>44874</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -55041,7 +55041,7 @@
         <v>44874</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -55103,7 +55103,7 @@
         <v>44874</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -55165,7 +55165,7 @@
         <v>44875</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -55222,7 +55222,7 @@
         <v>44875</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -55284,7 +55284,7 @@
         <v>44876</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -55346,7 +55346,7 @@
         <v>44880</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -55408,7 +55408,7 @@
         <v>44880</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -55470,7 +55470,7 @@
         <v>44882</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -55532,7 +55532,7 @@
         <v>44886</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -55594,7 +55594,7 @@
         <v>44886</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -55656,7 +55656,7 @@
         <v>44886</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -55718,7 +55718,7 @@
         <v>44888</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -55780,7 +55780,7 @@
         <v>44889</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -55837,7 +55837,7 @@
         <v>44894</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -55899,7 +55899,7 @@
         <v>44895</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -55956,7 +55956,7 @@
         <v>44900</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -56018,7 +56018,7 @@
         <v>44902</v>
       </c>
       <c r="C876" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -56075,7 +56075,7 @@
         <v>44903</v>
       </c>
       <c r="C877" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -56137,7 +56137,7 @@
         <v>44903</v>
       </c>
       <c r="C878" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -56219,7 +56219,7 @@
         <v>44903</v>
       </c>
       <c r="C879" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -56281,7 +56281,7 @@
         <v>44904</v>
       </c>
       <c r="C880" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -56343,7 +56343,7 @@
         <v>44904</v>
       </c>
       <c r="C881" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -56400,7 +56400,7 @@
         <v>44909</v>
       </c>
       <c r="C882" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -56462,7 +56462,7 @@
         <v>44909</v>
       </c>
       <c r="C883" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>
@@ -56524,7 +56524,7 @@
         <v>44909</v>
       </c>
       <c r="C884" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D884" t="inlineStr">
         <is>
@@ -56586,7 +56586,7 @@
         <v>44910</v>
       </c>
       <c r="C885" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D885" t="inlineStr">
         <is>
@@ -56648,7 +56648,7 @@
         <v>44911</v>
       </c>
       <c r="C886" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D886" t="inlineStr">
         <is>
@@ -56710,7 +56710,7 @@
         <v>44911</v>
       </c>
       <c r="C887" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D887" t="inlineStr">
         <is>
@@ -56772,7 +56772,7 @@
         <v>44915</v>
       </c>
       <c r="C888" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D888" t="inlineStr">
         <is>
@@ -56834,7 +56834,7 @@
         <v>44916</v>
       </c>
       <c r="C889" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D889" t="inlineStr">
         <is>
@@ -56891,7 +56891,7 @@
         <v>44924</v>
       </c>
       <c r="C890" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D890" t="inlineStr">
         <is>
@@ -56948,7 +56948,7 @@
         <v>44924</v>
       </c>
       <c r="C891" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D891" t="inlineStr">
         <is>
@@ -57005,7 +57005,7 @@
         <v>44925</v>
       </c>
       <c r="C892" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D892" t="inlineStr">
         <is>
@@ -57062,7 +57062,7 @@
         <v>44931</v>
       </c>
       <c r="C893" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D893" t="inlineStr">
         <is>
@@ -57119,7 +57119,7 @@
         <v>44935</v>
       </c>
       <c r="C894" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D894" t="inlineStr">
         <is>
@@ -57181,7 +57181,7 @@
         <v>44937</v>
       </c>
       <c r="C895" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D895" t="inlineStr">
         <is>
@@ -57243,7 +57243,7 @@
         <v>44939</v>
       </c>
       <c r="C896" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D896" t="inlineStr">
         <is>
@@ -57305,7 +57305,7 @@
         <v>44942</v>
       </c>
       <c r="C897" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D897" t="inlineStr">
         <is>
@@ -57362,7 +57362,7 @@
         <v>44942</v>
       </c>
       <c r="C898" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D898" t="inlineStr">
         <is>
@@ -57419,7 +57419,7 @@
         <v>44946</v>
       </c>
       <c r="C899" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D899" t="inlineStr">
         <is>
@@ -57481,7 +57481,7 @@
         <v>44946</v>
       </c>
       <c r="C900" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D900" t="inlineStr">
         <is>
@@ -57538,7 +57538,7 @@
         <v>44949</v>
       </c>
       <c r="C901" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D901" t="inlineStr">
         <is>
@@ -57600,7 +57600,7 @@
         <v>44950</v>
       </c>
       <c r="C902" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D902" t="inlineStr">
         <is>
@@ -57657,7 +57657,7 @@
         <v>44950</v>
       </c>
       <c r="C903" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D903" t="inlineStr">
         <is>
@@ -57714,7 +57714,7 @@
         <v>44952</v>
       </c>
       <c r="C904" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D904" t="inlineStr">
         <is>
@@ -57771,7 +57771,7 @@
         <v>44953</v>
       </c>
       <c r="C905" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D905" t="inlineStr">
         <is>
@@ -57833,7 +57833,7 @@
         <v>44953</v>
       </c>
       <c r="C906" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D906" t="inlineStr">
         <is>
@@ -57895,7 +57895,7 @@
         <v>44956</v>
       </c>
       <c r="C907" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D907" t="inlineStr">
         <is>
@@ -57952,7 +57952,7 @@
         <v>44957</v>
       </c>
       <c r="C908" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D908" t="inlineStr">
         <is>
@@ -58014,7 +58014,7 @@
         <v>44957</v>
       </c>
       <c r="C909" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D909" t="inlineStr">
         <is>
@@ -58071,7 +58071,7 @@
         <v>44959</v>
       </c>
       <c r="C910" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D910" t="inlineStr">
         <is>
@@ -58128,7 +58128,7 @@
         <v>44960</v>
       </c>
       <c r="C911" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D911" t="inlineStr">
         <is>
@@ -58185,7 +58185,7 @@
         <v>44963</v>
       </c>
       <c r="C912" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D912" t="inlineStr">
         <is>
@@ -58242,7 +58242,7 @@
         <v>44964</v>
       </c>
       <c r="C913" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D913" t="inlineStr">
         <is>
@@ -58304,7 +58304,7 @@
         <v>44965</v>
       </c>
       <c r="C914" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D914" t="inlineStr">
         <is>
@@ -58366,7 +58366,7 @@
         <v>44967</v>
       </c>
       <c r="C915" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D915" t="inlineStr">
         <is>
@@ -58423,7 +58423,7 @@
         <v>44970</v>
       </c>
       <c r="C916" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D916" t="inlineStr">
         <is>
@@ -58480,7 +58480,7 @@
         <v>44970</v>
       </c>
       <c r="C917" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D917" t="inlineStr">
         <is>
@@ -58537,7 +58537,7 @@
         <v>44970</v>
       </c>
       <c r="C918" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D918" t="inlineStr">
         <is>
@@ -58594,7 +58594,7 @@
         <v>44972</v>
       </c>
       <c r="C919" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D919" t="inlineStr">
         <is>
@@ -58656,7 +58656,7 @@
         <v>44974</v>
       </c>
       <c r="C920" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D920" t="inlineStr">
         <is>
@@ -58713,7 +58713,7 @@
         <v>44977</v>
       </c>
       <c r="C921" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D921" t="inlineStr">
         <is>
@@ -58775,7 +58775,7 @@
         <v>44977</v>
       </c>
       <c r="C922" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D922" t="inlineStr">
         <is>
@@ -58837,7 +58837,7 @@
         <v>44977</v>
       </c>
       <c r="C923" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D923" t="inlineStr">
         <is>
@@ -58899,7 +58899,7 @@
         <v>44977</v>
       </c>
       <c r="C924" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D924" t="inlineStr">
         <is>
@@ -58961,7 +58961,7 @@
         <v>44977</v>
       </c>
       <c r="C925" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D925" t="inlineStr">
         <is>
@@ -59023,7 +59023,7 @@
         <v>44977</v>
       </c>
       <c r="C926" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D926" t="inlineStr">
         <is>
@@ -59085,7 +59085,7 @@
         <v>44980</v>
       </c>
       <c r="C927" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D927" t="inlineStr">
         <is>
@@ -59147,7 +59147,7 @@
         <v>44980</v>
       </c>
       <c r="C928" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D928" t="inlineStr">
         <is>
@@ -59204,7 +59204,7 @@
         <v>44984</v>
       </c>
       <c r="C929" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D929" t="inlineStr">
         <is>
@@ -59261,7 +59261,7 @@
         <v>44985</v>
       </c>
       <c r="C930" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D930" t="inlineStr">
         <is>
@@ -59323,7 +59323,7 @@
         <v>44985</v>
       </c>
       <c r="C931" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D931" t="inlineStr">
         <is>
@@ -59385,7 +59385,7 @@
         <v>44985</v>
       </c>
       <c r="C932" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D932" t="inlineStr">
         <is>
@@ -59442,7 +59442,7 @@
         <v>44985</v>
       </c>
       <c r="C933" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D933" t="inlineStr">
         <is>
@@ -59504,7 +59504,7 @@
         <v>44986</v>
       </c>
       <c r="C934" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D934" t="inlineStr">
         <is>
@@ -59566,7 +59566,7 @@
         <v>45000</v>
       </c>
       <c r="C935" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D935" t="inlineStr">
         <is>
@@ -59628,7 +59628,7 @@
         <v>45006</v>
       </c>
       <c r="C936" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D936" t="inlineStr">
         <is>
@@ -59685,7 +59685,7 @@
         <v>45007</v>
       </c>
       <c r="C937" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D937" t="inlineStr">
         <is>
@@ -59742,7 +59742,7 @@
         <v>45007</v>
       </c>
       <c r="C938" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D938" t="inlineStr">
         <is>
@@ -59804,7 +59804,7 @@
         <v>45012</v>
       </c>
       <c r="C939" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D939" t="inlineStr">
         <is>
@@ -59866,7 +59866,7 @@
         <v>45012</v>
       </c>
       <c r="C940" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D940" t="inlineStr">
         <is>
@@ -59928,7 +59928,7 @@
         <v>45016</v>
       </c>
       <c r="C941" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D941" t="inlineStr">
         <is>
@@ -59985,7 +59985,7 @@
         <v>45020</v>
       </c>
       <c r="C942" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D942" t="inlineStr">
         <is>
@@ -60042,7 +60042,7 @@
         <v>45027</v>
       </c>
       <c r="C943" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D943" t="inlineStr">
         <is>
@@ -60104,7 +60104,7 @@
         <v>45027</v>
       </c>
       <c r="C944" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D944" t="inlineStr">
         <is>
@@ -60166,7 +60166,7 @@
         <v>45028</v>
       </c>
       <c r="C945" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D945" t="inlineStr">
         <is>
@@ -60223,7 +60223,7 @@
         <v>45033</v>
       </c>
       <c r="C946" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D946" t="inlineStr">
         <is>
@@ -60285,7 +60285,7 @@
         <v>45036</v>
       </c>
       <c r="C947" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D947" t="inlineStr">
         <is>
@@ -60342,7 +60342,7 @@
         <v>45037</v>
       </c>
       <c r="C948" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D948" t="inlineStr">
         <is>
@@ -60399,7 +60399,7 @@
         <v>45041</v>
       </c>
       <c r="C949" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D949" t="inlineStr">
         <is>
@@ -60461,7 +60461,7 @@
         <v>45047</v>
       </c>
       <c r="C950" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D950" t="inlineStr">
         <is>
@@ -60518,7 +60518,7 @@
         <v>45055</v>
       </c>
       <c r="C951" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D951" t="inlineStr">
         <is>
@@ -60580,7 +60580,7 @@
         <v>45056</v>
       </c>
       <c r="C952" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D952" t="inlineStr">
         <is>
@@ -60642,7 +60642,7 @@
         <v>45058</v>
       </c>
       <c r="C953" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D953" t="inlineStr">
         <is>
@@ -60699,7 +60699,7 @@
         <v>45058</v>
       </c>
       <c r="C954" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D954" t="inlineStr">
         <is>
@@ -60756,7 +60756,7 @@
         <v>45060</v>
       </c>
       <c r="C955" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D955" t="inlineStr">
         <is>
@@ -60813,7 +60813,7 @@
         <v>45061</v>
       </c>
       <c r="C956" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D956" t="inlineStr">
         <is>
@@ -60875,7 +60875,7 @@
         <v>45061</v>
       </c>
       <c r="C957" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D957" t="inlineStr">
         <is>
@@ -60937,7 +60937,7 @@
         <v>45061</v>
       </c>
       <c r="C958" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D958" t="inlineStr">
         <is>
@@ -60999,7 +60999,7 @@
         <v>45063</v>
       </c>
       <c r="C959" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D959" t="inlineStr">
         <is>
@@ -61056,7 +61056,7 @@
         <v>45065</v>
       </c>
       <c r="C960" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D960" t="inlineStr">
         <is>
@@ -61118,7 +61118,7 @@
         <v>45068</v>
       </c>
       <c r="C961" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D961" t="inlineStr">
         <is>
@@ -61180,7 +61180,7 @@
         <v>45068</v>
       </c>
       <c r="C962" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D962" t="inlineStr">
         <is>
@@ -61242,7 +61242,7 @@
         <v>45069</v>
       </c>
       <c r="C963" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D963" t="inlineStr">
         <is>
@@ -61304,7 +61304,7 @@
         <v>45069</v>
       </c>
       <c r="C964" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D964" t="inlineStr">
         <is>
@@ -61361,7 +61361,7 @@
         <v>45069</v>
       </c>
       <c r="C965" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D965" t="inlineStr">
         <is>
@@ -61418,7 +61418,7 @@
         <v>45070</v>
       </c>
       <c r="C966" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D966" t="inlineStr">
         <is>
@@ -61480,7 +61480,7 @@
         <v>45070</v>
       </c>
       <c r="C967" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D967" t="inlineStr">
         <is>
@@ -61537,7 +61537,7 @@
         <v>45070</v>
       </c>
       <c r="C968" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D968" t="inlineStr">
         <is>
@@ -61594,7 +61594,7 @@
         <v>45070</v>
       </c>
       <c r="C969" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D969" t="inlineStr">
         <is>
@@ -61651,7 +61651,7 @@
         <v>45070</v>
       </c>
       <c r="C970" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D970" t="inlineStr">
         <is>
@@ -61708,7 +61708,7 @@
         <v>45071</v>
       </c>
       <c r="C971" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D971" t="inlineStr">
         <is>
@@ -61770,7 +61770,7 @@
         <v>45071</v>
       </c>
       <c r="C972" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D972" t="inlineStr">
         <is>
@@ -61827,7 +61827,7 @@
         <v>45071</v>
       </c>
       <c r="C973" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D973" t="inlineStr">
         <is>
@@ -61884,7 +61884,7 @@
         <v>45071</v>
       </c>
       <c r="C974" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D974" t="inlineStr">
         <is>
@@ -61941,7 +61941,7 @@
         <v>45072</v>
       </c>
       <c r="C975" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D975" t="inlineStr">
         <is>
@@ -61998,7 +61998,7 @@
         <v>45077</v>
       </c>
       <c r="C976" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D976" t="inlineStr">
         <is>
@@ -62060,7 +62060,7 @@
         <v>45078</v>
       </c>
       <c r="C977" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D977" t="inlineStr">
         <is>
@@ -62122,7 +62122,7 @@
         <v>45078</v>
       </c>
       <c r="C978" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D978" t="inlineStr">
         <is>
@@ -62179,7 +62179,7 @@
         <v>45078</v>
       </c>
       <c r="C979" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D979" t="inlineStr">
         <is>
@@ -62236,7 +62236,7 @@
         <v>45079</v>
       </c>
       <c r="C980" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D980" t="inlineStr">
         <is>
@@ -62293,7 +62293,7 @@
         <v>45084</v>
       </c>
       <c r="C981" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D981" t="inlineStr">
         <is>
@@ -62355,7 +62355,7 @@
         <v>45090</v>
       </c>
       <c r="C982" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D982" t="inlineStr">
         <is>
@@ -62417,7 +62417,7 @@
         <v>45090</v>
       </c>
       <c r="C983" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D983" t="inlineStr">
         <is>
@@ -62474,7 +62474,7 @@
         <v>45092</v>
       </c>
       <c r="C984" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D984" t="inlineStr">
         <is>
@@ -62536,7 +62536,7 @@
         <v>45092</v>
       </c>
       <c r="C985" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D985" t="inlineStr">
         <is>
@@ -62598,7 +62598,7 @@
         <v>45092</v>
       </c>
       <c r="C986" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D986" t="inlineStr">
         <is>
@@ -62660,7 +62660,7 @@
         <v>45092</v>
       </c>
       <c r="C987" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D987" t="inlineStr">
         <is>
@@ -62722,7 +62722,7 @@
         <v>45093</v>
       </c>
       <c r="C988" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D988" t="inlineStr">
         <is>
@@ -62784,7 +62784,7 @@
         <v>45097</v>
       </c>
       <c r="C989" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D989" t="inlineStr">
         <is>
@@ -62846,7 +62846,7 @@
         <v>45097</v>
       </c>
       <c r="C990" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D990" t="inlineStr">
         <is>
@@ -62903,7 +62903,7 @@
         <v>45097</v>
       </c>
       <c r="C991" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D991" t="inlineStr">
         <is>
@@ -62960,7 +62960,7 @@
         <v>45097</v>
       </c>
       <c r="C992" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D992" t="inlineStr">
         <is>
@@ -63022,7 +63022,7 @@
         <v>45097</v>
       </c>
       <c r="C993" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D993" t="inlineStr">
         <is>
@@ -63084,7 +63084,7 @@
         <v>45098</v>
       </c>
       <c r="C994" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D994" t="inlineStr">
         <is>
@@ -63146,7 +63146,7 @@
         <v>45099</v>
       </c>
       <c r="C995" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D995" t="inlineStr">
         <is>
@@ -63203,7 +63203,7 @@
         <v>45099</v>
       </c>
       <c r="C996" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D996" t="inlineStr">
         <is>
@@ -63260,7 +63260,7 @@
         <v>45099</v>
       </c>
       <c r="C997" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D997" t="inlineStr">
         <is>
@@ -63317,7 +63317,7 @@
         <v>45099</v>
       </c>
       <c r="C998" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D998" t="inlineStr">
         <is>
@@ -63374,7 +63374,7 @@
         <v>45099</v>
       </c>
       <c r="C999" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D999" t="inlineStr">
         <is>
@@ -63431,7 +63431,7 @@
         <v>45104</v>
       </c>
       <c r="C1000" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D1000" t="inlineStr">
         <is>
@@ -63488,7 +63488,7 @@
         <v>45105</v>
       </c>
       <c r="C1001" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D1001" t="inlineStr">
         <is>
@@ -63545,7 +63545,7 @@
         <v>45106</v>
       </c>
       <c r="C1002" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D1002" t="inlineStr">
         <is>
@@ -63602,7 +63602,7 @@
         <v>45107</v>
       </c>
       <c r="C1003" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D1003" t="inlineStr">
         <is>
@@ -63659,7 +63659,7 @@
         <v>45107</v>
       </c>
       <c r="C1004" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D1004" t="inlineStr">
         <is>
@@ -63716,7 +63716,7 @@
         <v>45107</v>
       </c>
       <c r="C1005" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D1005" t="inlineStr">
         <is>
@@ -63778,7 +63778,7 @@
         <v>45107</v>
       </c>
       <c r="C1006" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D1006" t="inlineStr">
         <is>
@@ -63835,7 +63835,7 @@
         <v>45107</v>
       </c>
       <c r="C1007" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D1007" t="inlineStr">
         <is>
@@ -63892,7 +63892,7 @@
         <v>45110</v>
       </c>
       <c r="C1008" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D1008" t="inlineStr">
         <is>
@@ -63949,7 +63949,7 @@
         <v>45110</v>
       </c>
       <c r="C1009" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D1009" t="inlineStr">
         <is>
@@ -64011,7 +64011,7 @@
         <v>45112</v>
       </c>
       <c r="C1010" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D1010" t="inlineStr">
         <is>
@@ -64068,7 +64068,7 @@
         <v>45112</v>
       </c>
       <c r="C1011" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D1011" t="inlineStr">
         <is>
@@ -64130,7 +64130,7 @@
         <v>45113</v>
       </c>
       <c r="C1012" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D1012" t="inlineStr">
         <is>
@@ -64187,7 +64187,7 @@
         <v>45113</v>
       </c>
       <c r="C1013" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D1013" t="inlineStr">
         <is>
@@ -64244,7 +64244,7 @@
         <v>45114</v>
       </c>
       <c r="C1014" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D1014" t="inlineStr">
         <is>
@@ -64306,7 +64306,7 @@
         <v>45118</v>
       </c>
       <c r="C1015" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D1015" t="inlineStr">
         <is>
@@ -64363,7 +64363,7 @@
         <v>45118</v>
       </c>
       <c r="C1016" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D1016" t="inlineStr">
         <is>
@@ -64420,7 +64420,7 @@
         <v>45119</v>
       </c>
       <c r="C1017" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D1017" t="inlineStr">
         <is>
@@ -64477,7 +64477,7 @@
         <v>45119</v>
       </c>
       <c r="C1018" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D1018" t="inlineStr">
         <is>
@@ -64534,7 +64534,7 @@
         <v>45121</v>
       </c>
       <c r="C1019" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D1019" t="inlineStr">
         <is>
@@ -64596,7 +64596,7 @@
         <v>45124</v>
       </c>
       <c r="C1020" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D1020" t="inlineStr">
         <is>
@@ -64658,7 +64658,7 @@
         <v>45125</v>
       </c>
       <c r="C1021" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D1021" t="inlineStr">
         <is>
@@ -64715,7 +64715,7 @@
         <v>45125</v>
       </c>
       <c r="C1022" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D1022" t="inlineStr">
         <is>
@@ -64772,7 +64772,7 @@
         <v>45125</v>
       </c>
       <c r="C1023" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D1023" t="inlineStr">
         <is>
@@ -64834,7 +64834,7 @@
         <v>45125</v>
       </c>
       <c r="C1024" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D1024" t="inlineStr">
         <is>
@@ -64891,7 +64891,7 @@
         <v>45127</v>
       </c>
       <c r="C1025" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D1025" t="inlineStr">
         <is>
@@ -64953,7 +64953,7 @@
         <v>45127</v>
       </c>
       <c r="C1026" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D1026" t="inlineStr">
         <is>
@@ -65015,7 +65015,7 @@
         <v>45127</v>
       </c>
       <c r="C1027" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D1027" t="inlineStr">
         <is>
@@ -65072,7 +65072,7 @@
         <v>45127</v>
       </c>
       <c r="C1028" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D1028" t="inlineStr">
         <is>
@@ -65134,7 +65134,7 @@
         <v>45141</v>
       </c>
       <c r="C1029" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D1029" t="inlineStr">
         <is>
@@ -65191,7 +65191,7 @@
         <v>45142</v>
       </c>
       <c r="C1030" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D1030" t="inlineStr">
         <is>
@@ -65248,7 +65248,7 @@
         <v>45145</v>
       </c>
       <c r="C1031" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D1031" t="inlineStr">
         <is>
@@ -65305,7 +65305,7 @@
         <v>45145</v>
       </c>
       <c r="C1032" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D1032" t="inlineStr">
         <is>
@@ -65362,7 +65362,7 @@
         <v>45147</v>
       </c>
       <c r="C1033" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D1033" t="inlineStr">
         <is>
@@ -65419,7 +65419,7 @@
         <v>45148</v>
       </c>
       <c r="C1034" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D1034" t="inlineStr">
         <is>
@@ -65476,7 +65476,7 @@
         <v>45148</v>
       </c>
       <c r="C1035" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D1035" t="inlineStr">
         <is>
@@ -65533,7 +65533,7 @@
         <v>45159</v>
       </c>
       <c r="C1036" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D1036" t="inlineStr">
         <is>
@@ -65595,7 +65595,7 @@
         <v>45159</v>
       </c>
       <c r="C1037" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D1037" t="inlineStr">
         <is>
@@ -65657,7 +65657,7 @@
         <v>45160</v>
       </c>
       <c r="C1038" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D1038" t="inlineStr">
         <is>
@@ -65719,7 +65719,7 @@
         <v>45160</v>
       </c>
       <c r="C1039" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D1039" t="inlineStr">
         <is>
@@ -65781,7 +65781,7 @@
         <v>45162</v>
       </c>
       <c r="C1040" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D1040" t="inlineStr">
         <is>
@@ -65838,7 +65838,7 @@
         <v>45167</v>
       </c>
       <c r="C1041" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D1041" t="inlineStr">
         <is>
@@ -65895,7 +65895,7 @@
         <v>45168</v>
       </c>
       <c r="C1042" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D1042" t="inlineStr">
         <is>

--- a/Översikt LJUSDAL.xlsx
+++ b/Översikt LJUSDAL.xlsx
@@ -572,7 +572,7 @@
         <v>44358</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -675,7 +675,7 @@
         <v>43922</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -781,7 +781,7 @@
         <v>44449</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -881,7 +881,7 @@
         <v>43354</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         <v>43798</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1081,7 +1081,7 @@
         <v>43872</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1174,7 +1174,7 @@
         <v>44722</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1271,7 +1271,7 @@
         <v>44743</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1369,7 +1369,7 @@
         <v>44194</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1465,7 +1465,7 @@
         <v>45096</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1557,7 +1557,7 @@
         <v>43343</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1648,7 +1648,7 @@
         <v>44869</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1744,7 +1744,7 @@
         <v>44687</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1843,7 +1843,7 @@
         <v>44687</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1942,7 +1942,7 @@
         <v>44700</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2037,7 +2037,7 @@
         <v>43711</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2131,7 +2131,7 @@
         <v>44530</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2224,7 +2224,7 @@
         <v>44755</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2322,7 +2322,7 @@
         <v>44774</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2420,7 +2420,7 @@
         <v>44775</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2514,7 +2514,7 @@
         <v>44902</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2607,7 +2607,7 @@
         <v>45089</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2700,7 +2700,7 @@
         <v>45090</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2793,7 +2793,7 @@
         <v>43367</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2881,7 +2881,7 @@
         <v>43432</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2974,7 +2974,7 @@
         <v>43872</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3062,7 +3062,7 @@
         <v>44449</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3155,7 +3155,7 @@
         <v>44686</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3247,7 +3247,7 @@
         <v>45072</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3339,7 +3339,7 @@
         <v>45093</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3432,7 +3432,7 @@
         <v>43357</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3519,7 +3519,7 @@
         <v>43628</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3615,7 +3615,7 @@
         <v>43852</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3711,7 +3711,7 @@
         <v>43872</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3798,7 +3798,7 @@
         <v>43977</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3890,7 +3890,7 @@
         <v>44137</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3981,7 +3981,7 @@
         <v>44148</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4073,7 +4073,7 @@
         <v>44152</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4165,7 +4165,7 @@
         <v>44169</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4257,7 +4257,7 @@
         <v>44326</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4349,7 +4349,7 @@
         <v>44706</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4441,7 +4441,7 @@
         <v>44708</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4533,7 +4533,7 @@
         <v>44734</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4625,7 +4625,7 @@
         <v>44821</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4717,7 +4717,7 @@
         <v>44998</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4808,7 +4808,7 @@
         <v>43338</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4894,7 +4894,7 @@
         <v>43354</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4985,7 +4985,7 @@
         <v>43377</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5071,7 +5071,7 @@
         <v>43381</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5162,7 +5162,7 @@
         <v>43476</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5248,7 +5248,7 @@
         <v>43629</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5343,7 +5343,7 @@
         <v>43977</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5434,7 +5434,7 @@
         <v>44322</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5525,7 +5525,7 @@
         <v>44351</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5616,7 +5616,7 @@
         <v>44357</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5707,7 +5707,7 @@
         <v>44438</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5798,7 +5798,7 @@
         <v>44722</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5893,7 +5893,7 @@
         <v>44988</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5979,7 +5979,7 @@
         <v>45092</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6070,7 +6070,7 @@
         <v>45110</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6161,7 +6161,7 @@
         <v>43347</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6246,7 +6246,7 @@
         <v>43355</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6336,7 +6336,7 @@
         <v>43367</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6421,7 +6421,7 @@
         <v>43385</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6511,7 +6511,7 @@
         <v>43385</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6601,7 +6601,7 @@
         <v>43389</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6691,7 +6691,7 @@
         <v>43445</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6781,7 +6781,7 @@
         <v>43481</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6866,7 +6866,7 @@
         <v>43557</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6951,7 +6951,7 @@
         <v>43811</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7036,7 +7036,7 @@
         <v>43872</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7121,7 +7121,7 @@
         <v>43936</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7206,7 +7206,7 @@
         <v>43979</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7296,7 +7296,7 @@
         <v>44062</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7390,7 +7390,7 @@
         <v>44069</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7480,7 +7480,7 @@
         <v>44342</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7569,7 +7569,7 @@
         <v>44379</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7659,7 +7659,7 @@
         <v>44405</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7753,7 +7753,7 @@
         <v>44406</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7843,7 +7843,7 @@
         <v>44432</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7933,7 +7933,7 @@
         <v>44438</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8023,7 +8023,7 @@
         <v>44449</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8113,7 +8113,7 @@
         <v>44480</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8198,7 +8198,7 @@
         <v>44489</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8288,7 +8288,7 @@
         <v>44491</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8382,7 +8382,7 @@
         <v>44662</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8476,7 +8476,7 @@
         <v>44684</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8566,7 +8566,7 @@
         <v>44742</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8656,7 +8656,7 @@
         <v>44743</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8746,7 +8746,7 @@
         <v>44763</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8836,7 +8836,7 @@
         <v>44778</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8926,7 +8926,7 @@
         <v>44784</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -9016,7 +9016,7 @@
         <v>44833</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -9101,7 +9101,7 @@
         <v>44839</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9191,7 +9191,7 @@
         <v>44988</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9276,7 +9276,7 @@
         <v>45086</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9365,7 +9365,7 @@
         <v>45090</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9455,7 +9455,7 @@
         <v>45092</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9545,7 +9545,7 @@
         <v>45107</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9630,7 +9630,7 @@
         <v>45162</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9719,7 +9719,7 @@
         <v>43319</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -9781,7 +9781,7 @@
         <v>43320</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -9838,7 +9838,7 @@
         <v>43329</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9895,7 +9895,7 @@
         <v>43329</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9957,7 +9957,7 @@
         <v>43329</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -10014,7 +10014,7 @@
         <v>43329</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -10071,7 +10071,7 @@
         <v>43329</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -10128,7 +10128,7 @@
         <v>43333</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -10185,7 +10185,7 @@
         <v>43334</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -10242,7 +10242,7 @@
         <v>43342</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -10304,7 +10304,7 @@
         <v>43347</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -10361,7 +10361,7 @@
         <v>43348</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -10418,7 +10418,7 @@
         <v>43348</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -10480,7 +10480,7 @@
         <v>43349</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -10537,7 +10537,7 @@
         <v>43349</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -10594,7 +10594,7 @@
         <v>43349</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -10651,7 +10651,7 @@
         <v>43353</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -10708,7 +10708,7 @@
         <v>43353</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -10765,7 +10765,7 @@
         <v>43354</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -10827,7 +10827,7 @@
         <v>43355</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -10889,7 +10889,7 @@
         <v>43355</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -10951,7 +10951,7 @@
         <v>43369</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -11008,7 +11008,7 @@
         <v>43369</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -11070,7 +11070,7 @@
         <v>43370</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -11132,7 +11132,7 @@
         <v>43376</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -11189,7 +11189,7 @@
         <v>43377</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -11251,7 +11251,7 @@
         <v>43381</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -11308,7 +11308,7 @@
         <v>43381</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -11365,7 +11365,7 @@
         <v>43381</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -11422,7 +11422,7 @@
         <v>43381</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -11479,7 +11479,7 @@
         <v>43382</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -11541,7 +11541,7 @@
         <v>43382</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -11603,7 +11603,7 @@
         <v>43385</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -11665,7 +11665,7 @@
         <v>43385</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -11727,7 +11727,7 @@
         <v>43389</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -11789,7 +11789,7 @@
         <v>43391</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -11846,7 +11846,7 @@
         <v>43391</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -11903,7 +11903,7 @@
         <v>43395</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -11960,7 +11960,7 @@
         <v>43403</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -12022,7 +12022,7 @@
         <v>43409</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -12079,7 +12079,7 @@
         <v>43409</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -12136,7 +12136,7 @@
         <v>43410</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -12193,7 +12193,7 @@
         <v>43410</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -12255,7 +12255,7 @@
         <v>43410</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -12317,7 +12317,7 @@
         <v>43411</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -12374,7 +12374,7 @@
         <v>43412</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -12431,7 +12431,7 @@
         <v>43412</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -12488,7 +12488,7 @@
         <v>43412</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -12545,7 +12545,7 @@
         <v>43416</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -12607,7 +12607,7 @@
         <v>43416</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -12669,7 +12669,7 @@
         <v>43419</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -12726,7 +12726,7 @@
         <v>43419</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -12783,7 +12783,7 @@
         <v>43420</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -12840,7 +12840,7 @@
         <v>43420</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -12897,7 +12897,7 @@
         <v>43424</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -12954,7 +12954,7 @@
         <v>43425</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -13016,7 +13016,7 @@
         <v>43425</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -13073,7 +13073,7 @@
         <v>43425</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -13135,7 +13135,7 @@
         <v>43425</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -13192,7 +13192,7 @@
         <v>43427</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -13254,7 +13254,7 @@
         <v>43430</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -13316,7 +13316,7 @@
         <v>43431</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -13378,7 +13378,7 @@
         <v>43431</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -13435,7 +13435,7 @@
         <v>43432</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -13497,7 +13497,7 @@
         <v>43432</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -13554,7 +13554,7 @@
         <v>43432</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -13616,7 +13616,7 @@
         <v>43434</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -13678,7 +13678,7 @@
         <v>43437</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -13740,7 +13740,7 @@
         <v>43438</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -13802,7 +13802,7 @@
         <v>43439</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -13859,7 +13859,7 @@
         <v>43439</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -13916,7 +13916,7 @@
         <v>43439</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -13973,7 +13973,7 @@
         <v>43441</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -14035,7 +14035,7 @@
         <v>43441</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -14092,7 +14092,7 @@
         <v>43444</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -14149,7 +14149,7 @@
         <v>43444</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -14206,7 +14206,7 @@
         <v>43444</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -14263,7 +14263,7 @@
         <v>43444</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -14320,7 +14320,7 @@
         <v>43445</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -14382,7 +14382,7 @@
         <v>43445</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -14444,7 +14444,7 @@
         <v>43448</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -14506,7 +14506,7 @@
         <v>43448</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -14568,7 +14568,7 @@
         <v>43448</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -14630,7 +14630,7 @@
         <v>43449</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -14687,7 +14687,7 @@
         <v>43452</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -14744,7 +14744,7 @@
         <v>43452</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -14806,7 +14806,7 @@
         <v>43453</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -14863,7 +14863,7 @@
         <v>43455</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -14925,7 +14925,7 @@
         <v>43455</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -14982,7 +14982,7 @@
         <v>43468</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -15039,7 +15039,7 @@
         <v>43469</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -15096,7 +15096,7 @@
         <v>43472</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -15153,7 +15153,7 @@
         <v>43472</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -15215,7 +15215,7 @@
         <v>43472</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -15277,7 +15277,7 @@
         <v>43474</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -15339,7 +15339,7 @@
         <v>43481</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -15396,7 +15396,7 @@
         <v>43483</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -15453,7 +15453,7 @@
         <v>43486</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -15515,7 +15515,7 @@
         <v>43487</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -15572,7 +15572,7 @@
         <v>43489</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -15629,7 +15629,7 @@
         <v>43490</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -15691,7 +15691,7 @@
         <v>43493</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -15748,7 +15748,7 @@
         <v>43497</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -15810,7 +15810,7 @@
         <v>43501</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -15867,7 +15867,7 @@
         <v>43508</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -15924,7 +15924,7 @@
         <v>43508</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -15981,7 +15981,7 @@
         <v>43510</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -16038,7 +16038,7 @@
         <v>43510</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -16095,7 +16095,7 @@
         <v>43514</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -16152,7 +16152,7 @@
         <v>43514</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -16209,7 +16209,7 @@
         <v>43515</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -16271,7 +16271,7 @@
         <v>43516</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -16328,7 +16328,7 @@
         <v>43516</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -16385,7 +16385,7 @@
         <v>43517</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -16442,7 +16442,7 @@
         <v>43517</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -16499,7 +16499,7 @@
         <v>43521</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -16556,7 +16556,7 @@
         <v>43521</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -16613,7 +16613,7 @@
         <v>43524</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -16670,7 +16670,7 @@
         <v>43524</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -16727,7 +16727,7 @@
         <v>43524</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -16784,7 +16784,7 @@
         <v>43525</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -16841,7 +16841,7 @@
         <v>43525</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -16898,7 +16898,7 @@
         <v>43528</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -16955,7 +16955,7 @@
         <v>43535</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -17012,7 +17012,7 @@
         <v>43536</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -17069,7 +17069,7 @@
         <v>43542</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -17126,7 +17126,7 @@
         <v>43549</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -17183,7 +17183,7 @@
         <v>43549</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -17240,7 +17240,7 @@
         <v>43550</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -17297,7 +17297,7 @@
         <v>43552</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -17354,7 +17354,7 @@
         <v>43552</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -17411,7 +17411,7 @@
         <v>43552</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -17468,7 +17468,7 @@
         <v>43557</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -17525,7 +17525,7 @@
         <v>43557</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -17587,7 +17587,7 @@
         <v>43578</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -17664,7 +17664,7 @@
         <v>43581</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -17726,7 +17726,7 @@
         <v>43584</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -17788,7 +17788,7 @@
         <v>43600</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -17850,7 +17850,7 @@
         <v>43600</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -17912,7 +17912,7 @@
         <v>43601</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -17969,7 +17969,7 @@
         <v>43601</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -18026,7 +18026,7 @@
         <v>43605</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -18083,7 +18083,7 @@
         <v>43607</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -18140,7 +18140,7 @@
         <v>43612</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -18202,7 +18202,7 @@
         <v>43613</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -18264,7 +18264,7 @@
         <v>43616</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -18326,7 +18326,7 @@
         <v>43619</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -18383,7 +18383,7 @@
         <v>43619</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -18445,7 +18445,7 @@
         <v>43619</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -18507,7 +18507,7 @@
         <v>43619</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -18569,7 +18569,7 @@
         <v>43619</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -18631,7 +18631,7 @@
         <v>43620</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -18688,7 +18688,7 @@
         <v>43628</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -18745,7 +18745,7 @@
         <v>43628</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -18807,7 +18807,7 @@
         <v>43628</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -18869,7 +18869,7 @@
         <v>43629</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -18926,7 +18926,7 @@
         <v>43629</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -18988,7 +18988,7 @@
         <v>43630</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -19050,7 +19050,7 @@
         <v>43630</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -19112,7 +19112,7 @@
         <v>43636</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -19174,7 +19174,7 @@
         <v>43636</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -19236,7 +19236,7 @@
         <v>43641</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -19293,7 +19293,7 @@
         <v>43642</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -19355,7 +19355,7 @@
         <v>43642</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -19417,7 +19417,7 @@
         <v>43644</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -19474,7 +19474,7 @@
         <v>43650</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -19531,7 +19531,7 @@
         <v>43651</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -19593,7 +19593,7 @@
         <v>43651</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -19655,7 +19655,7 @@
         <v>43655</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -19712,7 +19712,7 @@
         <v>43656</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -19769,7 +19769,7 @@
         <v>43661</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -19826,7 +19826,7 @@
         <v>43661</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -19883,7 +19883,7 @@
         <v>43661</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -19940,7 +19940,7 @@
         <v>43662</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -20002,7 +20002,7 @@
         <v>43663</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -20059,7 +20059,7 @@
         <v>43663</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -20116,7 +20116,7 @@
         <v>43665</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -20173,7 +20173,7 @@
         <v>43665</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -20235,7 +20235,7 @@
         <v>43668</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -20292,7 +20292,7 @@
         <v>43668</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -20354,7 +20354,7 @@
         <v>43669</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -20411,7 +20411,7 @@
         <v>43677</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -20468,7 +20468,7 @@
         <v>43679</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -20525,7 +20525,7 @@
         <v>43679</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -20582,7 +20582,7 @@
         <v>43686</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -20639,7 +20639,7 @@
         <v>43691</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -20696,7 +20696,7 @@
         <v>43692</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -20753,7 +20753,7 @@
         <v>43693</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -20815,7 +20815,7 @@
         <v>43693</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -20877,7 +20877,7 @@
         <v>43693</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -20939,7 +20939,7 @@
         <v>43697</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -21001,7 +21001,7 @@
         <v>43698</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -21058,7 +21058,7 @@
         <v>43698</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -21120,7 +21120,7 @@
         <v>43700</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -21177,7 +21177,7 @@
         <v>43700</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -21239,7 +21239,7 @@
         <v>43700</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -21296,7 +21296,7 @@
         <v>43704</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -21353,7 +21353,7 @@
         <v>43705</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -21415,7 +21415,7 @@
         <v>43710</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -21477,7 +21477,7 @@
         <v>43710</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -21539,7 +21539,7 @@
         <v>43710</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -21601,7 +21601,7 @@
         <v>43712</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -21658,7 +21658,7 @@
         <v>43713</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -21720,7 +21720,7 @@
         <v>43714</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -21782,7 +21782,7 @@
         <v>43714</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -21844,7 +21844,7 @@
         <v>43717</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -21901,7 +21901,7 @@
         <v>43719</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -21963,7 +21963,7 @@
         <v>43720</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -22025,7 +22025,7 @@
         <v>43721</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -22082,7 +22082,7 @@
         <v>43721</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -22139,7 +22139,7 @@
         <v>43721</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -22196,7 +22196,7 @@
         <v>43726</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -22258,7 +22258,7 @@
         <v>43726</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -22320,7 +22320,7 @@
         <v>43727</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -22382,7 +22382,7 @@
         <v>43728</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -22444,7 +22444,7 @@
         <v>43731</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -22501,7 +22501,7 @@
         <v>43732</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -22563,7 +22563,7 @@
         <v>43732</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -22625,7 +22625,7 @@
         <v>43734</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -22682,7 +22682,7 @@
         <v>43735</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -22739,7 +22739,7 @@
         <v>43738</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -22796,7 +22796,7 @@
         <v>43738</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -22853,7 +22853,7 @@
         <v>43741</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -22915,7 +22915,7 @@
         <v>43742</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -22972,7 +22972,7 @@
         <v>43745</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -23029,7 +23029,7 @@
         <v>43745</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -23091,7 +23091,7 @@
         <v>43746</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -23148,7 +23148,7 @@
         <v>43747</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -23210,7 +23210,7 @@
         <v>43748</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -23272,7 +23272,7 @@
         <v>43749</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -23334,7 +23334,7 @@
         <v>43754</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -23396,7 +23396,7 @@
         <v>43754</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -23458,7 +23458,7 @@
         <v>43755</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -23520,7 +23520,7 @@
         <v>43755</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -23582,7 +23582,7 @@
         <v>43759</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -23644,7 +23644,7 @@
         <v>43759</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -23701,7 +23701,7 @@
         <v>43760</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -23763,7 +23763,7 @@
         <v>43763</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -23820,7 +23820,7 @@
         <v>43763</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -23877,7 +23877,7 @@
         <v>43767</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -23939,7 +23939,7 @@
         <v>43774</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -23996,7 +23996,7 @@
         <v>43774</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -24053,7 +24053,7 @@
         <v>43775</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -24110,7 +24110,7 @@
         <v>43775</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -24167,7 +24167,7 @@
         <v>43776</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -24224,7 +24224,7 @@
         <v>43776</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -24281,7 +24281,7 @@
         <v>43777</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -24343,7 +24343,7 @@
         <v>43781</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -24405,7 +24405,7 @@
         <v>43781</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -24467,7 +24467,7 @@
         <v>43782</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -24524,7 +24524,7 @@
         <v>43782</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -24581,7 +24581,7 @@
         <v>43784</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -24643,7 +24643,7 @@
         <v>43787</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -24705,7 +24705,7 @@
         <v>43787</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -24767,7 +24767,7 @@
         <v>43789</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -24829,7 +24829,7 @@
         <v>43789</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -24891,7 +24891,7 @@
         <v>43791</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -24953,7 +24953,7 @@
         <v>43791</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -25015,7 +25015,7 @@
         <v>43791</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -25077,7 +25077,7 @@
         <v>43794</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -25134,7 +25134,7 @@
         <v>43794</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -25191,7 +25191,7 @@
         <v>43797</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -25248,7 +25248,7 @@
         <v>43801</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -25310,7 +25310,7 @@
         <v>43802</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -25367,7 +25367,7 @@
         <v>43802</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -25424,7 +25424,7 @@
         <v>43808</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -25481,7 +25481,7 @@
         <v>43810</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -25543,7 +25543,7 @@
         <v>43810</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -25605,7 +25605,7 @@
         <v>43815</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -25662,7 +25662,7 @@
         <v>43815</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -25719,7 +25719,7 @@
         <v>43816</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -25776,7 +25776,7 @@
         <v>43837</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -25833,7 +25833,7 @@
         <v>43838</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -25890,7 +25890,7 @@
         <v>43840</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -25952,7 +25952,7 @@
         <v>43850</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -26009,7 +26009,7 @@
         <v>43850</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -26066,7 +26066,7 @@
         <v>43850</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -26123,7 +26123,7 @@
         <v>43850</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -26180,7 +26180,7 @@
         <v>43851</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -26237,7 +26237,7 @@
         <v>43851</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -26294,7 +26294,7 @@
         <v>43858</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -26351,7 +26351,7 @@
         <v>43861</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -26408,7 +26408,7 @@
         <v>43865</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -26465,7 +26465,7 @@
         <v>43866</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -26522,7 +26522,7 @@
         <v>43879</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -26579,7 +26579,7 @@
         <v>43882</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -26636,7 +26636,7 @@
         <v>43885</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -26693,7 +26693,7 @@
         <v>43886</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -26750,7 +26750,7 @@
         <v>43886</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -26807,7 +26807,7 @@
         <v>43892</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -26864,7 +26864,7 @@
         <v>43892</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -26921,7 +26921,7 @@
         <v>43894</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -26983,7 +26983,7 @@
         <v>43902</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -27045,7 +27045,7 @@
         <v>43903</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -27102,7 +27102,7 @@
         <v>43908</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -27159,7 +27159,7 @@
         <v>43913</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -27216,7 +27216,7 @@
         <v>43913</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -27273,7 +27273,7 @@
         <v>43922</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -27335,7 +27335,7 @@
         <v>43924</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -27392,7 +27392,7 @@
         <v>43924</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -27449,7 +27449,7 @@
         <v>43930</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -27506,7 +27506,7 @@
         <v>43935</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -27568,7 +27568,7 @@
         <v>43943</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -27625,7 +27625,7 @@
         <v>43943</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -27682,7 +27682,7 @@
         <v>43943</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -27739,7 +27739,7 @@
         <v>43944</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -27796,7 +27796,7 @@
         <v>43944</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -27853,7 +27853,7 @@
         <v>43945</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -27910,7 +27910,7 @@
         <v>43945</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -27972,7 +27972,7 @@
         <v>43945</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -28029,7 +28029,7 @@
         <v>43945</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -28091,7 +28091,7 @@
         <v>43949</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -28153,7 +28153,7 @@
         <v>43951</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -28215,7 +28215,7 @@
         <v>43951</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -28277,7 +28277,7 @@
         <v>43951</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -28339,7 +28339,7 @@
         <v>43951</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -28401,7 +28401,7 @@
         <v>43951</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -28458,7 +28458,7 @@
         <v>43955</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -28520,7 +28520,7 @@
         <v>43959</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -28582,7 +28582,7 @@
         <v>43959</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -28644,7 +28644,7 @@
         <v>43959</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -28706,7 +28706,7 @@
         <v>43959</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -28768,7 +28768,7 @@
         <v>43962</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -28830,7 +28830,7 @@
         <v>43962</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -28892,7 +28892,7 @@
         <v>43962</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -28954,7 +28954,7 @@
         <v>43962</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -29016,7 +29016,7 @@
         <v>43964</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -29078,7 +29078,7 @@
         <v>43965</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -29140,7 +29140,7 @@
         <v>43965</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -29202,7 +29202,7 @@
         <v>43966</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -29264,7 +29264,7 @@
         <v>43966</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -29326,7 +29326,7 @@
         <v>43966</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -29388,7 +29388,7 @@
         <v>43969</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -29450,7 +29450,7 @@
         <v>43971</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -29512,7 +29512,7 @@
         <v>43971</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -29574,7 +29574,7 @@
         <v>43971</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -29636,7 +29636,7 @@
         <v>43977</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -29698,7 +29698,7 @@
         <v>43978</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -29755,7 +29755,7 @@
         <v>43979</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -29817,7 +29817,7 @@
         <v>43979</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -29879,7 +29879,7 @@
         <v>43979</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -29941,7 +29941,7 @@
         <v>43979</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -30003,7 +30003,7 @@
         <v>43979</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -30065,7 +30065,7 @@
         <v>43986</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -30122,7 +30122,7 @@
         <v>43990</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -30184,7 +30184,7 @@
         <v>43990</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -30246,7 +30246,7 @@
         <v>43991</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -30308,7 +30308,7 @@
         <v>43993</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -30370,7 +30370,7 @@
         <v>44000</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -30432,7 +30432,7 @@
         <v>44000</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -30494,7 +30494,7 @@
         <v>44005</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -30556,7 +30556,7 @@
         <v>44005</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -30618,7 +30618,7 @@
         <v>44006</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -30675,7 +30675,7 @@
         <v>44007</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -30737,7 +30737,7 @@
         <v>44007</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -30799,7 +30799,7 @@
         <v>44008</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -30861,7 +30861,7 @@
         <v>44008</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -30923,7 +30923,7 @@
         <v>44014</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -30985,7 +30985,7 @@
         <v>44014</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -31047,7 +31047,7 @@
         <v>44014</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -31109,7 +31109,7 @@
         <v>44022</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -31171,7 +31171,7 @@
         <v>44022</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -31228,7 +31228,7 @@
         <v>44025</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -31285,7 +31285,7 @@
         <v>44026</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -31347,7 +31347,7 @@
         <v>44027</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -31404,7 +31404,7 @@
         <v>44028</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -31466,7 +31466,7 @@
         <v>44029</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -31528,7 +31528,7 @@
         <v>44029</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -31590,7 +31590,7 @@
         <v>44031</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -31652,7 +31652,7 @@
         <v>44032</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -31709,7 +31709,7 @@
         <v>44032</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -31771,7 +31771,7 @@
         <v>44032</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -31833,7 +31833,7 @@
         <v>44033</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -31890,7 +31890,7 @@
         <v>44041</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -31952,7 +31952,7 @@
         <v>44041</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -32014,7 +32014,7 @@
         <v>44041</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -32076,7 +32076,7 @@
         <v>44042</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -32138,7 +32138,7 @@
         <v>44049</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -32200,7 +32200,7 @@
         <v>44049</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -32262,7 +32262,7 @@
         <v>44053</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -32319,7 +32319,7 @@
         <v>44056</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -32381,7 +32381,7 @@
         <v>44057</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -32443,7 +32443,7 @@
         <v>44060</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -32505,7 +32505,7 @@
         <v>44061</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -32562,7 +32562,7 @@
         <v>44061</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -32619,7 +32619,7 @@
         <v>44061</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -32676,7 +32676,7 @@
         <v>44061</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -32738,7 +32738,7 @@
         <v>44062</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -32800,7 +32800,7 @@
         <v>44064</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -32862,7 +32862,7 @@
         <v>44064</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -32924,7 +32924,7 @@
         <v>44064</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -32986,7 +32986,7 @@
         <v>44064</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -33048,7 +33048,7 @@
         <v>44067</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -33110,7 +33110,7 @@
         <v>44068</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -33172,7 +33172,7 @@
         <v>44069</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -33234,7 +33234,7 @@
         <v>44069</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -33296,7 +33296,7 @@
         <v>44069</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -33358,7 +33358,7 @@
         <v>44069</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -33420,7 +33420,7 @@
         <v>44070</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -33477,7 +33477,7 @@
         <v>44074</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -33539,7 +33539,7 @@
         <v>44074</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -33601,7 +33601,7 @@
         <v>44075</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -33663,7 +33663,7 @@
         <v>44075</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -33725,7 +33725,7 @@
         <v>44075</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -33787,7 +33787,7 @@
         <v>44078</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -33844,7 +33844,7 @@
         <v>44078</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -33901,7 +33901,7 @@
         <v>44078</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -33963,7 +33963,7 @@
         <v>44080</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -34025,7 +34025,7 @@
         <v>44081</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -34087,7 +34087,7 @@
         <v>44081</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -34149,7 +34149,7 @@
         <v>44082</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -34211,7 +34211,7 @@
         <v>44082</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -34268,7 +34268,7 @@
         <v>44082</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -34330,7 +34330,7 @@
         <v>44083</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -34387,7 +34387,7 @@
         <v>44084</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -34449,7 +34449,7 @@
         <v>44085</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -34511,7 +34511,7 @@
         <v>44085</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -34573,7 +34573,7 @@
         <v>44085</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -34635,7 +34635,7 @@
         <v>44085</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -34697,7 +34697,7 @@
         <v>44085</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -34754,7 +34754,7 @@
         <v>44088</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -34816,7 +34816,7 @@
         <v>44088</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -34878,7 +34878,7 @@
         <v>44088</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -34940,7 +34940,7 @@
         <v>44088</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -35002,7 +35002,7 @@
         <v>44091</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -35064,7 +35064,7 @@
         <v>44092</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -35126,7 +35126,7 @@
         <v>44092</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -35188,7 +35188,7 @@
         <v>44092</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -35250,7 +35250,7 @@
         <v>44095</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -35307,7 +35307,7 @@
         <v>44099</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -35369,7 +35369,7 @@
         <v>44099</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -35431,7 +35431,7 @@
         <v>44099</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -35493,7 +35493,7 @@
         <v>44103</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -35555,7 +35555,7 @@
         <v>44103</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -35617,7 +35617,7 @@
         <v>44104</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -35679,7 +35679,7 @@
         <v>44104</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -35741,7 +35741,7 @@
         <v>44104</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -35803,7 +35803,7 @@
         <v>44108</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -35860,7 +35860,7 @@
         <v>44109</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -35922,7 +35922,7 @@
         <v>44109</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -35984,7 +35984,7 @@
         <v>44110</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -36046,7 +36046,7 @@
         <v>44111</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -36108,7 +36108,7 @@
         <v>44112</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -36170,7 +36170,7 @@
         <v>44112</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -36227,7 +36227,7 @@
         <v>44112</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -36289,7 +36289,7 @@
         <v>44116</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -36351,7 +36351,7 @@
         <v>44116</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -36413,7 +36413,7 @@
         <v>44116</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -36470,7 +36470,7 @@
         <v>44116</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -36532,7 +36532,7 @@
         <v>44116</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -36594,7 +36594,7 @@
         <v>44117</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -36656,7 +36656,7 @@
         <v>44119</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -36718,7 +36718,7 @@
         <v>44119</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -36780,7 +36780,7 @@
         <v>44119</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -36842,7 +36842,7 @@
         <v>44120</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -36904,7 +36904,7 @@
         <v>44123</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -36966,7 +36966,7 @@
         <v>44124</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -37028,7 +37028,7 @@
         <v>44124</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -37085,7 +37085,7 @@
         <v>44125</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -37142,7 +37142,7 @@
         <v>44125</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -37204,7 +37204,7 @@
         <v>44125</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -37266,7 +37266,7 @@
         <v>44125</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -37328,7 +37328,7 @@
         <v>44126</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -37390,7 +37390,7 @@
         <v>44126</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -37452,7 +37452,7 @@
         <v>44126</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -37509,7 +37509,7 @@
         <v>44126</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -37571,7 +37571,7 @@
         <v>44133</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -37633,7 +37633,7 @@
         <v>44141</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -37695,7 +37695,7 @@
         <v>44144</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -37757,7 +37757,7 @@
         <v>44145</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -37819,7 +37819,7 @@
         <v>44146</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -37876,7 +37876,7 @@
         <v>44147</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -37938,7 +37938,7 @@
         <v>44148</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -38000,7 +38000,7 @@
         <v>44148</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -38062,7 +38062,7 @@
         <v>44150</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -38124,7 +38124,7 @@
         <v>44151</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -38186,7 +38186,7 @@
         <v>44159</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -38248,7 +38248,7 @@
         <v>44159</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -38305,7 +38305,7 @@
         <v>44160</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -38367,7 +38367,7 @@
         <v>44161</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -38424,7 +38424,7 @@
         <v>44162</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -38486,7 +38486,7 @@
         <v>44162</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -38548,7 +38548,7 @@
         <v>44166</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -38605,7 +38605,7 @@
         <v>44167</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -38667,7 +38667,7 @@
         <v>44179</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -38729,7 +38729,7 @@
         <v>44180</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -38791,7 +38791,7 @@
         <v>44180</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -38853,7 +38853,7 @@
         <v>44194</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -38910,7 +38910,7 @@
         <v>44194</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -38987,7 +38987,7 @@
         <v>44199</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -39044,7 +39044,7 @@
         <v>44200</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -39101,7 +39101,7 @@
         <v>44203</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -39163,7 +39163,7 @@
         <v>44208</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -39225,7 +39225,7 @@
         <v>44221</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -39282,7 +39282,7 @@
         <v>44223</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -39344,7 +39344,7 @@
         <v>44228</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -39401,7 +39401,7 @@
         <v>44229</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -39458,7 +39458,7 @@
         <v>44236</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -39515,7 +39515,7 @@
         <v>44239</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -39572,7 +39572,7 @@
         <v>44243</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -39629,7 +39629,7 @@
         <v>44250</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -39686,7 +39686,7 @@
         <v>44251</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -39743,7 +39743,7 @@
         <v>44253</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -39800,7 +39800,7 @@
         <v>44259</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -39857,7 +39857,7 @@
         <v>44265</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -39914,7 +39914,7 @@
         <v>44265</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -39971,7 +39971,7 @@
         <v>44267</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -40028,7 +40028,7 @@
         <v>44273</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -40090,7 +40090,7 @@
         <v>44273</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -40152,7 +40152,7 @@
         <v>44294</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -40214,7 +40214,7 @@
         <v>44294</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -40276,7 +40276,7 @@
         <v>44295</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -40338,7 +40338,7 @@
         <v>44302</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -40400,7 +40400,7 @@
         <v>44307</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -40457,7 +40457,7 @@
         <v>44308</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -40514,7 +40514,7 @@
         <v>44308</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -40576,7 +40576,7 @@
         <v>44309</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -40633,7 +40633,7 @@
         <v>44313</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -40695,7 +40695,7 @@
         <v>44313</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -40757,7 +40757,7 @@
         <v>44322</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -40819,7 +40819,7 @@
         <v>44322</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -40881,7 +40881,7 @@
         <v>44322</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -40943,7 +40943,7 @@
         <v>44322</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -41005,7 +41005,7 @@
         <v>44326</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -41062,7 +41062,7 @@
         <v>44326</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -41119,7 +41119,7 @@
         <v>44333</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -41176,7 +41176,7 @@
         <v>44336</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -41233,7 +41233,7 @@
         <v>44341</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -41290,7 +41290,7 @@
         <v>44341</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -41347,7 +41347,7 @@
         <v>44350</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -41409,7 +41409,7 @@
         <v>44350</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -41471,7 +41471,7 @@
         <v>44354</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -41533,7 +41533,7 @@
         <v>44358</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -41595,7 +41595,7 @@
         <v>44358</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -41657,7 +41657,7 @@
         <v>44361</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -41714,7 +41714,7 @@
         <v>44361</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -41776,7 +41776,7 @@
         <v>44361</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -41833,7 +41833,7 @@
         <v>44361</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -41890,7 +41890,7 @@
         <v>44361</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -41947,7 +41947,7 @@
         <v>44361</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -42004,7 +42004,7 @@
         <v>44363</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -42061,7 +42061,7 @@
         <v>44364</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -42118,7 +42118,7 @@
         <v>44365</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -42175,7 +42175,7 @@
         <v>44368</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -42237,7 +42237,7 @@
         <v>44368</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -42299,7 +42299,7 @@
         <v>44378</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -42361,7 +42361,7 @@
         <v>44382</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -42423,7 +42423,7 @@
         <v>44382</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -42485,7 +42485,7 @@
         <v>44382</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -42547,7 +42547,7 @@
         <v>44384</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -42609,7 +42609,7 @@
         <v>44385</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -42666,7 +42666,7 @@
         <v>44390</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -42723,7 +42723,7 @@
         <v>44391</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -42780,7 +42780,7 @@
         <v>44397</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -42842,7 +42842,7 @@
         <v>44400</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -42904,7 +42904,7 @@
         <v>44400</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -42966,7 +42966,7 @@
         <v>44400</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -43028,7 +43028,7 @@
         <v>44403</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -43090,7 +43090,7 @@
         <v>44403</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -43147,7 +43147,7 @@
         <v>44404</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -43204,7 +43204,7 @@
         <v>44406</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -43266,7 +43266,7 @@
         <v>44418</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -43328,7 +43328,7 @@
         <v>44418</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -43390,7 +43390,7 @@
         <v>44419</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -43452,7 +43452,7 @@
         <v>44425</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -43514,7 +43514,7 @@
         <v>44425</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -43576,7 +43576,7 @@
         <v>44426</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -43633,7 +43633,7 @@
         <v>44427</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -43690,7 +43690,7 @@
         <v>44428</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -43752,7 +43752,7 @@
         <v>44431</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -43809,7 +43809,7 @@
         <v>44435</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -43871,7 +43871,7 @@
         <v>44435</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -43933,7 +43933,7 @@
         <v>44435</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -43990,7 +43990,7 @@
         <v>44435</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -44052,7 +44052,7 @@
         <v>44438</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -44114,7 +44114,7 @@
         <v>44439</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -44171,7 +44171,7 @@
         <v>44440</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -44228,7 +44228,7 @@
         <v>44445</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -44290,7 +44290,7 @@
         <v>44445</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -44352,7 +44352,7 @@
         <v>44445</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -44409,7 +44409,7 @@
         <v>44447</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -44471,7 +44471,7 @@
         <v>44447</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -44528,7 +44528,7 @@
         <v>44448</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -44585,7 +44585,7 @@
         <v>44448</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -44642,7 +44642,7 @@
         <v>44449</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -44699,7 +44699,7 @@
         <v>44452</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -44761,7 +44761,7 @@
         <v>44453</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -44823,7 +44823,7 @@
         <v>44455</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -44885,7 +44885,7 @@
         <v>44460</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -44942,7 +44942,7 @@
         <v>44460</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -45004,7 +45004,7 @@
         <v>44460</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -45066,7 +45066,7 @@
         <v>44461</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -45123,7 +45123,7 @@
         <v>44466</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -45180,7 +45180,7 @@
         <v>44467</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -45242,7 +45242,7 @@
         <v>44470</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -45299,7 +45299,7 @@
         <v>44473</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -45356,7 +45356,7 @@
         <v>44475</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -45418,7 +45418,7 @@
         <v>44475</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -45480,7 +45480,7 @@
         <v>44475</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -45537,7 +45537,7 @@
         <v>44480</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -45599,7 +45599,7 @@
         <v>44481</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -45656,7 +45656,7 @@
         <v>44483</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -45718,7 +45718,7 @@
         <v>44484</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -45780,7 +45780,7 @@
         <v>44488</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -45837,7 +45837,7 @@
         <v>44489</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -45899,7 +45899,7 @@
         <v>44489</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -45961,7 +45961,7 @@
         <v>44489</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -46023,7 +46023,7 @@
         <v>44489</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -46085,7 +46085,7 @@
         <v>44490</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -46147,7 +46147,7 @@
         <v>44497</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -46209,7 +46209,7 @@
         <v>44497</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -46266,7 +46266,7 @@
         <v>44497</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -46328,7 +46328,7 @@
         <v>44497</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -46385,7 +46385,7 @@
         <v>44502</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -46442,7 +46442,7 @@
         <v>44503</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -46504,7 +46504,7 @@
         <v>44504</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -46566,7 +46566,7 @@
         <v>44510</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -46628,7 +46628,7 @@
         <v>44511</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -46690,7 +46690,7 @@
         <v>44511</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -46752,7 +46752,7 @@
         <v>44523</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -46814,7 +46814,7 @@
         <v>44523</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -46871,7 +46871,7 @@
         <v>44531</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -46928,7 +46928,7 @@
         <v>44536</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -46985,7 +46985,7 @@
         <v>44538</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -47042,7 +47042,7 @@
         <v>44544</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -47104,7 +47104,7 @@
         <v>44550</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -47166,7 +47166,7 @@
         <v>44551</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -47223,7 +47223,7 @@
         <v>44552</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -47280,7 +47280,7 @@
         <v>44552</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -47337,7 +47337,7 @@
         <v>44564</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -47394,7 +47394,7 @@
         <v>44566</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -47451,7 +47451,7 @@
         <v>44572</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -47508,7 +47508,7 @@
         <v>44579</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -47570,7 +47570,7 @@
         <v>44582</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -47627,7 +47627,7 @@
         <v>44587</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -47689,7 +47689,7 @@
         <v>44592</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -47751,7 +47751,7 @@
         <v>44595</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -47808,7 +47808,7 @@
         <v>44615</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -47865,7 +47865,7 @@
         <v>44615</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -47922,7 +47922,7 @@
         <v>44616</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -47979,7 +47979,7 @@
         <v>44621</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -48041,7 +48041,7 @@
         <v>44627</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -48098,7 +48098,7 @@
         <v>44627</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -48155,7 +48155,7 @@
         <v>44629</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -48212,7 +48212,7 @@
         <v>44648</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -48269,7 +48269,7 @@
         <v>44650</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -48326,7 +48326,7 @@
         <v>44657</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -48383,7 +48383,7 @@
         <v>44662</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -48445,7 +48445,7 @@
         <v>44663</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -48502,7 +48502,7 @@
         <v>44663</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -48559,7 +48559,7 @@
         <v>44685</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -48621,7 +48621,7 @@
         <v>44691</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -48683,7 +48683,7 @@
         <v>44692</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -48745,7 +48745,7 @@
         <v>44692</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -48807,7 +48807,7 @@
         <v>44693</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -48869,7 +48869,7 @@
         <v>44697</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -48926,7 +48926,7 @@
         <v>44701</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -48988,7 +48988,7 @@
         <v>44711</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -49050,7 +49050,7 @@
         <v>44711</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -49112,7 +49112,7 @@
         <v>44712</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -49169,7 +49169,7 @@
         <v>44714</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -49226,7 +49226,7 @@
         <v>44719</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -49283,7 +49283,7 @@
         <v>44726</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -49340,7 +49340,7 @@
         <v>44726</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -49397,7 +49397,7 @@
         <v>44726</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -49454,7 +49454,7 @@
         <v>44726</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -49516,7 +49516,7 @@
         <v>44726</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -49573,7 +49573,7 @@
         <v>44732</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -49635,7 +49635,7 @@
         <v>44743</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -49697,7 +49697,7 @@
         <v>44743</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -49759,7 +49759,7 @@
         <v>44743</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -49821,7 +49821,7 @@
         <v>44743</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -49883,7 +49883,7 @@
         <v>44743</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -49945,7 +49945,7 @@
         <v>44743</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -50007,7 +50007,7 @@
         <v>44743</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -50069,7 +50069,7 @@
         <v>44747</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -50126,7 +50126,7 @@
         <v>44747</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -50183,7 +50183,7 @@
         <v>44748</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -50240,7 +50240,7 @@
         <v>44749</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -50297,7 +50297,7 @@
         <v>44757</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -50359,7 +50359,7 @@
         <v>44757</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -50421,7 +50421,7 @@
         <v>44762</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -50483,7 +50483,7 @@
         <v>44774</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -50545,7 +50545,7 @@
         <v>44774</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -50607,7 +50607,7 @@
         <v>44774</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -50669,7 +50669,7 @@
         <v>44777</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -50726,7 +50726,7 @@
         <v>44778</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -50788,7 +50788,7 @@
         <v>44781</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -50850,7 +50850,7 @@
         <v>44781</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -50912,7 +50912,7 @@
         <v>44789</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -50969,7 +50969,7 @@
         <v>44791</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -51031,7 +51031,7 @@
         <v>44791</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -51088,7 +51088,7 @@
         <v>44792</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -51150,7 +51150,7 @@
         <v>44792</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -51212,7 +51212,7 @@
         <v>44792</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -51269,7 +51269,7 @@
         <v>44792</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -51331,7 +51331,7 @@
         <v>44792</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -51393,7 +51393,7 @@
         <v>44795</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -51455,7 +51455,7 @@
         <v>44795</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -51512,7 +51512,7 @@
         <v>44797</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -51569,7 +51569,7 @@
         <v>44798</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -51626,7 +51626,7 @@
         <v>44799</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -51688,7 +51688,7 @@
         <v>44799</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -51750,7 +51750,7 @@
         <v>44799</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -51812,7 +51812,7 @@
         <v>44799</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -51874,7 +51874,7 @@
         <v>44803</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -51931,7 +51931,7 @@
         <v>44804</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -51988,7 +51988,7 @@
         <v>44806</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -52050,7 +52050,7 @@
         <v>44812</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -52107,7 +52107,7 @@
         <v>44813</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -52169,7 +52169,7 @@
         <v>44813</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -52226,7 +52226,7 @@
         <v>44813</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -52288,7 +52288,7 @@
         <v>44817</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -52350,7 +52350,7 @@
         <v>44824</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -52412,7 +52412,7 @@
         <v>44824</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -52474,7 +52474,7 @@
         <v>44824</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -52536,7 +52536,7 @@
         <v>44825</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -52598,7 +52598,7 @@
         <v>44827</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -52660,7 +52660,7 @@
         <v>44827</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -52722,7 +52722,7 @@
         <v>44832</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -52784,7 +52784,7 @@
         <v>44833</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -52846,7 +52846,7 @@
         <v>44833</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -52908,7 +52908,7 @@
         <v>44833</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -52965,7 +52965,7 @@
         <v>44833</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -53027,7 +53027,7 @@
         <v>44833</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -53084,7 +53084,7 @@
         <v>44833</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -53146,7 +53146,7 @@
         <v>44834</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -53208,7 +53208,7 @@
         <v>44834</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -53270,7 +53270,7 @@
         <v>44837</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -53332,7 +53332,7 @@
         <v>44837</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -53389,7 +53389,7 @@
         <v>44837</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -53451,7 +53451,7 @@
         <v>44838</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -53508,7 +53508,7 @@
         <v>44838</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -53565,7 +53565,7 @@
         <v>44844</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -53627,7 +53627,7 @@
         <v>44846</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -53689,7 +53689,7 @@
         <v>44846</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -53746,7 +53746,7 @@
         <v>44847</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -53808,7 +53808,7 @@
         <v>44847</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -53870,7 +53870,7 @@
         <v>44847</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -53932,7 +53932,7 @@
         <v>44848</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -53994,7 +53994,7 @@
         <v>44853</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -54051,7 +54051,7 @@
         <v>44855</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -54113,7 +54113,7 @@
         <v>44858</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -54175,7 +54175,7 @@
         <v>44860</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -54232,7 +54232,7 @@
         <v>44864</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -54289,7 +54289,7 @@
         <v>44866</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -54351,7 +54351,7 @@
         <v>44866</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -54413,7 +54413,7 @@
         <v>44867</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -54475,7 +54475,7 @@
         <v>44867</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -54532,7 +54532,7 @@
         <v>44867</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -54594,7 +54594,7 @@
         <v>44868</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -54656,7 +54656,7 @@
         <v>44872</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -54718,7 +54718,7 @@
         <v>44872</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -54780,7 +54780,7 @@
         <v>44872</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -54842,7 +54842,7 @@
         <v>44872</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -54899,7 +54899,7 @@
         <v>44873</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -54956,7 +54956,7 @@
         <v>44873</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -55013,7 +55013,7 @@
         <v>44874</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -55075,7 +55075,7 @@
         <v>44874</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -55137,7 +55137,7 @@
         <v>44874</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -55199,7 +55199,7 @@
         <v>44875</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -55256,7 +55256,7 @@
         <v>44875</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -55318,7 +55318,7 @@
         <v>44876</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -55380,7 +55380,7 @@
         <v>44880</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -55442,7 +55442,7 @@
         <v>44880</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -55504,7 +55504,7 @@
         <v>44882</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -55566,7 +55566,7 @@
         <v>44886</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -55628,7 +55628,7 @@
         <v>44886</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -55690,7 +55690,7 @@
         <v>44886</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -55752,7 +55752,7 @@
         <v>44888</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -55814,7 +55814,7 @@
         <v>44889</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -55871,7 +55871,7 @@
         <v>44894</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -55933,7 +55933,7 @@
         <v>44895</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -55990,7 +55990,7 @@
         <v>44900</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -56052,7 +56052,7 @@
         <v>44902</v>
       </c>
       <c r="C876" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -56109,7 +56109,7 @@
         <v>44903</v>
       </c>
       <c r="C877" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -56171,7 +56171,7 @@
         <v>44903</v>
       </c>
       <c r="C878" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -56253,7 +56253,7 @@
         <v>44903</v>
       </c>
       <c r="C879" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -56315,7 +56315,7 @@
         <v>44904</v>
       </c>
       <c r="C880" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -56377,7 +56377,7 @@
         <v>44904</v>
       </c>
       <c r="C881" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -56434,7 +56434,7 @@
         <v>44909</v>
       </c>
       <c r="C882" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -56496,7 +56496,7 @@
         <v>44909</v>
       </c>
       <c r="C883" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>
@@ -56558,7 +56558,7 @@
         <v>44909</v>
       </c>
       <c r="C884" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D884" t="inlineStr">
         <is>
@@ -56620,7 +56620,7 @@
         <v>44910</v>
       </c>
       <c r="C885" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D885" t="inlineStr">
         <is>
@@ -56682,7 +56682,7 @@
         <v>44911</v>
       </c>
       <c r="C886" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D886" t="inlineStr">
         <is>
@@ -56744,7 +56744,7 @@
         <v>44911</v>
       </c>
       <c r="C887" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D887" t="inlineStr">
         <is>
@@ -56806,7 +56806,7 @@
         <v>44915</v>
       </c>
       <c r="C888" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D888" t="inlineStr">
         <is>
@@ -56868,7 +56868,7 @@
         <v>44916</v>
       </c>
       <c r="C889" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D889" t="inlineStr">
         <is>
@@ -56925,7 +56925,7 @@
         <v>44924</v>
       </c>
       <c r="C890" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D890" t="inlineStr">
         <is>
@@ -56982,7 +56982,7 @@
         <v>44924</v>
       </c>
       <c r="C891" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D891" t="inlineStr">
         <is>
@@ -57039,7 +57039,7 @@
         <v>44925</v>
       </c>
       <c r="C892" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D892" t="inlineStr">
         <is>
@@ -57096,7 +57096,7 @@
         <v>44931</v>
       </c>
       <c r="C893" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D893" t="inlineStr">
         <is>
@@ -57153,7 +57153,7 @@
         <v>44935</v>
       </c>
       <c r="C894" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D894" t="inlineStr">
         <is>
@@ -57215,7 +57215,7 @@
         <v>44937</v>
       </c>
       <c r="C895" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D895" t="inlineStr">
         <is>
@@ -57277,7 +57277,7 @@
         <v>44939</v>
       </c>
       <c r="C896" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D896" t="inlineStr">
         <is>
@@ -57339,7 +57339,7 @@
         <v>44942</v>
       </c>
       <c r="C897" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D897" t="inlineStr">
         <is>
@@ -57396,7 +57396,7 @@
         <v>44942</v>
       </c>
       <c r="C898" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D898" t="inlineStr">
         <is>
@@ -57453,7 +57453,7 @@
         <v>44946</v>
       </c>
       <c r="C899" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D899" t="inlineStr">
         <is>
@@ -57515,7 +57515,7 @@
         <v>44946</v>
       </c>
       <c r="C900" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D900" t="inlineStr">
         <is>
@@ -57572,7 +57572,7 @@
         <v>44949</v>
       </c>
       <c r="C901" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D901" t="inlineStr">
         <is>
@@ -57634,7 +57634,7 @@
         <v>44950</v>
       </c>
       <c r="C902" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D902" t="inlineStr">
         <is>
@@ -57691,7 +57691,7 @@
         <v>44950</v>
       </c>
       <c r="C903" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D903" t="inlineStr">
         <is>
@@ -57748,7 +57748,7 @@
         <v>44952</v>
       </c>
       <c r="C904" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D904" t="inlineStr">
         <is>
@@ -57805,7 +57805,7 @@
         <v>44953</v>
       </c>
       <c r="C905" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D905" t="inlineStr">
         <is>
@@ -57867,7 +57867,7 @@
         <v>44953</v>
       </c>
       <c r="C906" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D906" t="inlineStr">
         <is>
@@ -57929,7 +57929,7 @@
         <v>44956</v>
       </c>
       <c r="C907" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D907" t="inlineStr">
         <is>
@@ -57986,7 +57986,7 @@
         <v>44957</v>
       </c>
       <c r="C908" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D908" t="inlineStr">
         <is>
@@ -58048,7 +58048,7 @@
         <v>44957</v>
       </c>
       <c r="C909" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D909" t="inlineStr">
         <is>
@@ -58105,7 +58105,7 @@
         <v>44959</v>
       </c>
       <c r="C910" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D910" t="inlineStr">
         <is>
@@ -58162,7 +58162,7 @@
         <v>44960</v>
       </c>
       <c r="C911" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D911" t="inlineStr">
         <is>
@@ -58219,7 +58219,7 @@
         <v>44963</v>
       </c>
       <c r="C912" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D912" t="inlineStr">
         <is>
@@ -58276,7 +58276,7 @@
         <v>44964</v>
       </c>
       <c r="C913" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D913" t="inlineStr">
         <is>
@@ -58338,7 +58338,7 @@
         <v>44965</v>
       </c>
       <c r="C914" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D914" t="inlineStr">
         <is>
@@ -58400,7 +58400,7 @@
         <v>44967</v>
       </c>
       <c r="C915" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D915" t="inlineStr">
         <is>
@@ -58457,7 +58457,7 @@
         <v>44970</v>
       </c>
       <c r="C916" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D916" t="inlineStr">
         <is>
@@ -58514,7 +58514,7 @@
         <v>44970</v>
       </c>
       <c r="C917" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D917" t="inlineStr">
         <is>
@@ -58571,7 +58571,7 @@
         <v>44970</v>
       </c>
       <c r="C918" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D918" t="inlineStr">
         <is>
@@ -58628,7 +58628,7 @@
         <v>44972</v>
       </c>
       <c r="C919" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D919" t="inlineStr">
         <is>
@@ -58690,7 +58690,7 @@
         <v>44974</v>
       </c>
       <c r="C920" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D920" t="inlineStr">
         <is>
@@ -58747,7 +58747,7 @@
         <v>44977</v>
       </c>
       <c r="C921" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D921" t="inlineStr">
         <is>
@@ -58809,7 +58809,7 @@
         <v>44977</v>
       </c>
       <c r="C922" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D922" t="inlineStr">
         <is>
@@ -58871,7 +58871,7 @@
         <v>44977</v>
       </c>
       <c r="C923" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D923" t="inlineStr">
         <is>
@@ -58933,7 +58933,7 @@
         <v>44977</v>
       </c>
       <c r="C924" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D924" t="inlineStr">
         <is>
@@ -58995,7 +58995,7 @@
         <v>44977</v>
       </c>
       <c r="C925" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D925" t="inlineStr">
         <is>
@@ -59057,7 +59057,7 @@
         <v>44977</v>
       </c>
       <c r="C926" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D926" t="inlineStr">
         <is>
@@ -59119,7 +59119,7 @@
         <v>44980</v>
       </c>
       <c r="C927" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D927" t="inlineStr">
         <is>
@@ -59181,7 +59181,7 @@
         <v>44980</v>
       </c>
       <c r="C928" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D928" t="inlineStr">
         <is>
@@ -59238,7 +59238,7 @@
         <v>44984</v>
       </c>
       <c r="C929" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D929" t="inlineStr">
         <is>
@@ -59295,7 +59295,7 @@
         <v>44985</v>
       </c>
       <c r="C930" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D930" t="inlineStr">
         <is>
@@ -59357,7 +59357,7 @@
         <v>44985</v>
       </c>
       <c r="C931" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D931" t="inlineStr">
         <is>
@@ -59419,7 +59419,7 @@
         <v>44985</v>
       </c>
       <c r="C932" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D932" t="inlineStr">
         <is>
@@ -59476,7 +59476,7 @@
         <v>44985</v>
       </c>
       <c r="C933" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D933" t="inlineStr">
         <is>
@@ -59538,7 +59538,7 @@
         <v>44986</v>
       </c>
       <c r="C934" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D934" t="inlineStr">
         <is>
@@ -59600,7 +59600,7 @@
         <v>45000</v>
       </c>
       <c r="C935" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D935" t="inlineStr">
         <is>
@@ -59662,7 +59662,7 @@
         <v>45006</v>
       </c>
       <c r="C936" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D936" t="inlineStr">
         <is>
@@ -59719,7 +59719,7 @@
         <v>45007</v>
       </c>
       <c r="C937" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D937" t="inlineStr">
         <is>
@@ -59776,7 +59776,7 @@
         <v>45007</v>
       </c>
       <c r="C938" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D938" t="inlineStr">
         <is>
@@ -59838,7 +59838,7 @@
         <v>45012</v>
       </c>
       <c r="C939" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D939" t="inlineStr">
         <is>
@@ -59900,7 +59900,7 @@
         <v>45012</v>
       </c>
       <c r="C940" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D940" t="inlineStr">
         <is>
@@ -59962,7 +59962,7 @@
         <v>45016</v>
       </c>
       <c r="C941" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D941" t="inlineStr">
         <is>
@@ -60019,7 +60019,7 @@
         <v>45020</v>
       </c>
       <c r="C942" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D942" t="inlineStr">
         <is>
@@ -60076,7 +60076,7 @@
         <v>45027</v>
       </c>
       <c r="C943" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D943" t="inlineStr">
         <is>
@@ -60138,7 +60138,7 @@
         <v>45027</v>
       </c>
       <c r="C944" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D944" t="inlineStr">
         <is>
@@ -60200,7 +60200,7 @@
         <v>45028</v>
       </c>
       <c r="C945" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D945" t="inlineStr">
         <is>
@@ -60257,7 +60257,7 @@
         <v>45033</v>
       </c>
       <c r="C946" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D946" t="inlineStr">
         <is>
@@ -60319,7 +60319,7 @@
         <v>45036</v>
       </c>
       <c r="C947" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D947" t="inlineStr">
         <is>
@@ -60376,7 +60376,7 @@
         <v>45037</v>
       </c>
       <c r="C948" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D948" t="inlineStr">
         <is>
@@ -60433,7 +60433,7 @@
         <v>45041</v>
       </c>
       <c r="C949" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D949" t="inlineStr">
         <is>
@@ -60495,7 +60495,7 @@
         <v>45047</v>
       </c>
       <c r="C950" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D950" t="inlineStr">
         <is>
@@ -60552,7 +60552,7 @@
         <v>45055</v>
       </c>
       <c r="C951" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D951" t="inlineStr">
         <is>
@@ -60614,7 +60614,7 @@
         <v>45056</v>
       </c>
       <c r="C952" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D952" t="inlineStr">
         <is>
@@ -60676,7 +60676,7 @@
         <v>45058</v>
       </c>
       <c r="C953" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D953" t="inlineStr">
         <is>
@@ -60733,7 +60733,7 @@
         <v>45058</v>
       </c>
       <c r="C954" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D954" t="inlineStr">
         <is>
@@ -60790,7 +60790,7 @@
         <v>45060</v>
       </c>
       <c r="C955" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D955" t="inlineStr">
         <is>
@@ -60847,7 +60847,7 @@
         <v>45061</v>
       </c>
       <c r="C956" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D956" t="inlineStr">
         <is>
@@ -60909,7 +60909,7 @@
         <v>45061</v>
       </c>
       <c r="C957" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D957" t="inlineStr">
         <is>
@@ -60971,7 +60971,7 @@
         <v>45061</v>
       </c>
       <c r="C958" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D958" t="inlineStr">
         <is>
@@ -61033,7 +61033,7 @@
         <v>45063</v>
       </c>
       <c r="C959" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D959" t="inlineStr">
         <is>
@@ -61090,7 +61090,7 @@
         <v>45065</v>
       </c>
       <c r="C960" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D960" t="inlineStr">
         <is>
@@ -61152,7 +61152,7 @@
         <v>45068</v>
       </c>
       <c r="C961" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D961" t="inlineStr">
         <is>
@@ -61214,7 +61214,7 @@
         <v>45068</v>
       </c>
       <c r="C962" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D962" t="inlineStr">
         <is>
@@ -61276,7 +61276,7 @@
         <v>45069</v>
       </c>
       <c r="C963" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D963" t="inlineStr">
         <is>
@@ -61338,7 +61338,7 @@
         <v>45069</v>
       </c>
       <c r="C964" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D964" t="inlineStr">
         <is>
@@ -61395,7 +61395,7 @@
         <v>45069</v>
       </c>
       <c r="C965" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D965" t="inlineStr">
         <is>
@@ -61452,7 +61452,7 @@
         <v>45070</v>
       </c>
       <c r="C966" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D966" t="inlineStr">
         <is>
@@ -61514,7 +61514,7 @@
         <v>45070</v>
       </c>
       <c r="C967" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D967" t="inlineStr">
         <is>
@@ -61571,7 +61571,7 @@
         <v>45070</v>
       </c>
       <c r="C968" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D968" t="inlineStr">
         <is>
@@ -61628,7 +61628,7 @@
         <v>45070</v>
       </c>
       <c r="C969" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D969" t="inlineStr">
         <is>
@@ -61685,7 +61685,7 @@
         <v>45070</v>
       </c>
       <c r="C970" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D970" t="inlineStr">
         <is>
@@ -61742,7 +61742,7 @@
         <v>45071</v>
       </c>
       <c r="C971" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D971" t="inlineStr">
         <is>
@@ -61804,7 +61804,7 @@
         <v>45071</v>
       </c>
       <c r="C972" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D972" t="inlineStr">
         <is>
@@ -61861,7 +61861,7 @@
         <v>45071</v>
       </c>
       <c r="C973" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D973" t="inlineStr">
         <is>
@@ -61918,7 +61918,7 @@
         <v>45071</v>
       </c>
       <c r="C974" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D974" t="inlineStr">
         <is>
@@ -61975,7 +61975,7 @@
         <v>45072</v>
       </c>
       <c r="C975" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D975" t="inlineStr">
         <is>
@@ -62032,7 +62032,7 @@
         <v>45077</v>
       </c>
       <c r="C976" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D976" t="inlineStr">
         <is>
@@ -62094,7 +62094,7 @@
         <v>45078</v>
       </c>
       <c r="C977" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D977" t="inlineStr">
         <is>
@@ -62156,7 +62156,7 @@
         <v>45078</v>
       </c>
       <c r="C978" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D978" t="inlineStr">
         <is>
@@ -62213,7 +62213,7 @@
         <v>45078</v>
       </c>
       <c r="C979" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D979" t="inlineStr">
         <is>
@@ -62270,7 +62270,7 @@
         <v>45079</v>
       </c>
       <c r="C980" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D980" t="inlineStr">
         <is>
@@ -62327,7 +62327,7 @@
         <v>45084</v>
       </c>
       <c r="C981" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D981" t="inlineStr">
         <is>
@@ -62389,7 +62389,7 @@
         <v>45090</v>
       </c>
       <c r="C982" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D982" t="inlineStr">
         <is>
@@ -62451,7 +62451,7 @@
         <v>45090</v>
       </c>
       <c r="C983" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D983" t="inlineStr">
         <is>
@@ -62508,7 +62508,7 @@
         <v>45092</v>
       </c>
       <c r="C984" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D984" t="inlineStr">
         <is>
@@ -62570,7 +62570,7 @@
         <v>45092</v>
       </c>
       <c r="C985" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D985" t="inlineStr">
         <is>
@@ -62632,7 +62632,7 @@
         <v>45092</v>
       </c>
       <c r="C986" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D986" t="inlineStr">
         <is>
@@ -62694,7 +62694,7 @@
         <v>45092</v>
       </c>
       <c r="C987" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D987" t="inlineStr">
         <is>
@@ -62756,7 +62756,7 @@
         <v>45093</v>
       </c>
       <c r="C988" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D988" t="inlineStr">
         <is>
@@ -62818,7 +62818,7 @@
         <v>45097</v>
       </c>
       <c r="C989" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D989" t="inlineStr">
         <is>
@@ -62880,7 +62880,7 @@
         <v>45097</v>
       </c>
       <c r="C990" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D990" t="inlineStr">
         <is>
@@ -62937,7 +62937,7 @@
         <v>45097</v>
       </c>
       <c r="C991" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D991" t="inlineStr">
         <is>
@@ -62994,7 +62994,7 @@
         <v>45097</v>
       </c>
       <c r="C992" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D992" t="inlineStr">
         <is>
@@ -63056,7 +63056,7 @@
         <v>45097</v>
       </c>
       <c r="C993" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D993" t="inlineStr">
         <is>
@@ -63118,7 +63118,7 @@
         <v>45098</v>
       </c>
       <c r="C994" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D994" t="inlineStr">
         <is>
@@ -63180,7 +63180,7 @@
         <v>45099</v>
       </c>
       <c r="C995" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D995" t="inlineStr">
         <is>
@@ -63237,7 +63237,7 @@
         <v>45099</v>
       </c>
       <c r="C996" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D996" t="inlineStr">
         <is>
@@ -63294,7 +63294,7 @@
         <v>45099</v>
       </c>
       <c r="C997" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D997" t="inlineStr">
         <is>
@@ -63351,7 +63351,7 @@
         <v>45099</v>
       </c>
       <c r="C998" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D998" t="inlineStr">
         <is>
@@ -63408,7 +63408,7 @@
         <v>45099</v>
       </c>
       <c r="C999" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D999" t="inlineStr">
         <is>
@@ -63465,7 +63465,7 @@
         <v>45104</v>
       </c>
       <c r="C1000" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D1000" t="inlineStr">
         <is>
@@ -63522,7 +63522,7 @@
         <v>45105</v>
       </c>
       <c r="C1001" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D1001" t="inlineStr">
         <is>
@@ -63579,7 +63579,7 @@
         <v>45106</v>
       </c>
       <c r="C1002" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D1002" t="inlineStr">
         <is>
@@ -63636,7 +63636,7 @@
         <v>45107</v>
       </c>
       <c r="C1003" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D1003" t="inlineStr">
         <is>
@@ -63693,7 +63693,7 @@
         <v>45107</v>
       </c>
       <c r="C1004" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D1004" t="inlineStr">
         <is>
@@ -63750,7 +63750,7 @@
         <v>45107</v>
       </c>
       <c r="C1005" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D1005" t="inlineStr">
         <is>
@@ -63812,7 +63812,7 @@
         <v>45107</v>
       </c>
       <c r="C1006" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D1006" t="inlineStr">
         <is>
@@ -63869,7 +63869,7 @@
         <v>45107</v>
       </c>
       <c r="C1007" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D1007" t="inlineStr">
         <is>
@@ -63926,7 +63926,7 @@
         <v>45110</v>
       </c>
       <c r="C1008" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D1008" t="inlineStr">
         <is>
@@ -63983,7 +63983,7 @@
         <v>45110</v>
       </c>
       <c r="C1009" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D1009" t="inlineStr">
         <is>
@@ -64045,7 +64045,7 @@
         <v>45112</v>
       </c>
       <c r="C1010" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D1010" t="inlineStr">
         <is>
@@ -64102,7 +64102,7 @@
         <v>45112</v>
       </c>
       <c r="C1011" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D1011" t="inlineStr">
         <is>
@@ -64164,7 +64164,7 @@
         <v>45113</v>
       </c>
       <c r="C1012" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D1012" t="inlineStr">
         <is>
@@ -64221,7 +64221,7 @@
         <v>45113</v>
       </c>
       <c r="C1013" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D1013" t="inlineStr">
         <is>
@@ -64278,7 +64278,7 @@
         <v>45114</v>
       </c>
       <c r="C1014" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D1014" t="inlineStr">
         <is>
@@ -64340,7 +64340,7 @@
         <v>45118</v>
       </c>
       <c r="C1015" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D1015" t="inlineStr">
         <is>
@@ -64397,7 +64397,7 @@
         <v>45118</v>
       </c>
       <c r="C1016" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D1016" t="inlineStr">
         <is>
@@ -64454,7 +64454,7 @@
         <v>45119</v>
       </c>
       <c r="C1017" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D1017" t="inlineStr">
         <is>
@@ -64511,7 +64511,7 @@
         <v>45119</v>
       </c>
       <c r="C1018" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D1018" t="inlineStr">
         <is>
@@ -64568,7 +64568,7 @@
         <v>45121</v>
       </c>
       <c r="C1019" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D1019" t="inlineStr">
         <is>
@@ -64630,7 +64630,7 @@
         <v>45124</v>
       </c>
       <c r="C1020" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D1020" t="inlineStr">
         <is>
@@ -64692,7 +64692,7 @@
         <v>45125</v>
       </c>
       <c r="C1021" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D1021" t="inlineStr">
         <is>
@@ -64749,7 +64749,7 @@
         <v>45125</v>
       </c>
       <c r="C1022" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D1022" t="inlineStr">
         <is>
@@ -64806,7 +64806,7 @@
         <v>45125</v>
       </c>
       <c r="C1023" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D1023" t="inlineStr">
         <is>
@@ -64868,7 +64868,7 @@
         <v>45125</v>
       </c>
       <c r="C1024" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D1024" t="inlineStr">
         <is>
@@ -64925,7 +64925,7 @@
         <v>45127</v>
       </c>
       <c r="C1025" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D1025" t="inlineStr">
         <is>
@@ -64987,7 +64987,7 @@
         <v>45127</v>
       </c>
       <c r="C1026" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D1026" t="inlineStr">
         <is>
@@ -65049,7 +65049,7 @@
         <v>45127</v>
       </c>
       <c r="C1027" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D1027" t="inlineStr">
         <is>
@@ -65106,7 +65106,7 @@
         <v>45127</v>
       </c>
       <c r="C1028" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D1028" t="inlineStr">
         <is>
@@ -65168,7 +65168,7 @@
         <v>45141</v>
       </c>
       <c r="C1029" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D1029" t="inlineStr">
         <is>
@@ -65225,7 +65225,7 @@
         <v>45142</v>
       </c>
       <c r="C1030" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D1030" t="inlineStr">
         <is>
@@ -65282,7 +65282,7 @@
         <v>45145</v>
       </c>
       <c r="C1031" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D1031" t="inlineStr">
         <is>
@@ -65339,7 +65339,7 @@
         <v>45145</v>
       </c>
       <c r="C1032" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D1032" t="inlineStr">
         <is>
@@ -65396,7 +65396,7 @@
         <v>45147</v>
       </c>
       <c r="C1033" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D1033" t="inlineStr">
         <is>
@@ -65453,7 +65453,7 @@
         <v>45148</v>
       </c>
       <c r="C1034" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D1034" t="inlineStr">
         <is>
@@ -65510,7 +65510,7 @@
         <v>45148</v>
       </c>
       <c r="C1035" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D1035" t="inlineStr">
         <is>
@@ -65567,7 +65567,7 @@
         <v>45159</v>
       </c>
       <c r="C1036" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D1036" t="inlineStr">
         <is>
@@ -65629,7 +65629,7 @@
         <v>45159</v>
       </c>
       <c r="C1037" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D1037" t="inlineStr">
         <is>
@@ -65691,7 +65691,7 @@
         <v>45160</v>
       </c>
       <c r="C1038" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D1038" t="inlineStr">
         <is>
@@ -65753,7 +65753,7 @@
         <v>45160</v>
       </c>
       <c r="C1039" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D1039" t="inlineStr">
         <is>
@@ -65815,7 +65815,7 @@
         <v>45162</v>
       </c>
       <c r="C1040" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D1040" t="inlineStr">
         <is>
@@ -65872,7 +65872,7 @@
         <v>45167</v>
       </c>
       <c r="C1041" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D1041" t="inlineStr">
         <is>
@@ -65929,7 +65929,7 @@
         <v>45168</v>
       </c>
       <c r="C1042" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D1042" t="inlineStr">
         <is>
@@ -65991,7 +65991,7 @@
         <v>45173</v>
       </c>
       <c r="C1043" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D1043" t="inlineStr">
         <is>

--- a/Översikt LJUSDAL.xlsx
+++ b/Översikt LJUSDAL.xlsx
@@ -572,7 +572,7 @@
         <v>44358</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -675,7 +675,7 @@
         <v>43922</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -781,7 +781,7 @@
         <v>44449</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -881,7 +881,7 @@
         <v>43354</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         <v>43798</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1081,7 +1081,7 @@
         <v>43872</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1174,7 +1174,7 @@
         <v>44722</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1271,7 +1271,7 @@
         <v>44743</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1369,7 +1369,7 @@
         <v>44194</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1465,7 +1465,7 @@
         <v>45096</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1557,7 +1557,7 @@
         <v>43343</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1648,7 +1648,7 @@
         <v>44869</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1744,7 +1744,7 @@
         <v>44687</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1843,7 +1843,7 @@
         <v>44687</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1942,7 +1942,7 @@
         <v>44700</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2037,7 +2037,7 @@
         <v>43711</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2131,7 +2131,7 @@
         <v>44530</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2224,7 +2224,7 @@
         <v>44755</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2322,7 +2322,7 @@
         <v>44774</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2420,7 +2420,7 @@
         <v>44775</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2514,7 +2514,7 @@
         <v>44902</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2607,7 +2607,7 @@
         <v>45089</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2700,7 +2700,7 @@
         <v>45090</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2793,7 +2793,7 @@
         <v>43367</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2881,7 +2881,7 @@
         <v>43432</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2974,7 +2974,7 @@
         <v>43872</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3062,7 +3062,7 @@
         <v>44449</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3155,7 +3155,7 @@
         <v>44686</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3247,7 +3247,7 @@
         <v>45072</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3339,7 +3339,7 @@
         <v>45093</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3432,7 +3432,7 @@
         <v>43357</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3519,7 +3519,7 @@
         <v>43628</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3615,7 +3615,7 @@
         <v>43852</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3711,7 +3711,7 @@
         <v>43872</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3798,7 +3798,7 @@
         <v>43977</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3890,7 +3890,7 @@
         <v>44137</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3981,7 +3981,7 @@
         <v>44148</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4073,7 +4073,7 @@
         <v>44152</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4165,7 +4165,7 @@
         <v>44169</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4257,7 +4257,7 @@
         <v>44326</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4349,7 +4349,7 @@
         <v>44706</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4441,7 +4441,7 @@
         <v>44708</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4533,7 +4533,7 @@
         <v>44734</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4625,7 +4625,7 @@
         <v>44821</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4717,7 +4717,7 @@
         <v>44998</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4808,7 +4808,7 @@
         <v>43338</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4894,7 +4894,7 @@
         <v>43354</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4985,7 +4985,7 @@
         <v>43377</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5071,7 +5071,7 @@
         <v>43381</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5162,7 +5162,7 @@
         <v>43476</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5248,7 +5248,7 @@
         <v>43629</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5343,7 +5343,7 @@
         <v>43977</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5434,7 +5434,7 @@
         <v>44322</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5525,7 +5525,7 @@
         <v>44351</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5616,7 +5616,7 @@
         <v>44357</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5707,7 +5707,7 @@
         <v>44438</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5798,7 +5798,7 @@
         <v>44722</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5893,7 +5893,7 @@
         <v>44988</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5979,7 +5979,7 @@
         <v>45092</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6070,7 +6070,7 @@
         <v>45110</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6161,7 +6161,7 @@
         <v>43347</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6246,7 +6246,7 @@
         <v>43355</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6336,7 +6336,7 @@
         <v>43367</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6421,7 +6421,7 @@
         <v>43385</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6511,7 +6511,7 @@
         <v>43385</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6601,7 +6601,7 @@
         <v>43389</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6691,7 +6691,7 @@
         <v>43445</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6781,7 +6781,7 @@
         <v>43481</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6866,7 +6866,7 @@
         <v>43557</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6951,7 +6951,7 @@
         <v>43811</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7036,7 +7036,7 @@
         <v>43872</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7121,7 +7121,7 @@
         <v>43936</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7206,7 +7206,7 @@
         <v>43979</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7296,7 +7296,7 @@
         <v>44062</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7390,7 +7390,7 @@
         <v>44069</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7480,7 +7480,7 @@
         <v>44342</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7569,7 +7569,7 @@
         <v>44379</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7659,7 +7659,7 @@
         <v>44405</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7753,7 +7753,7 @@
         <v>44406</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7843,7 +7843,7 @@
         <v>44432</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7933,7 +7933,7 @@
         <v>44438</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8023,7 +8023,7 @@
         <v>44449</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8113,7 +8113,7 @@
         <v>44480</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8198,7 +8198,7 @@
         <v>44489</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8288,7 +8288,7 @@
         <v>44491</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8382,7 +8382,7 @@
         <v>44662</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8476,7 +8476,7 @@
         <v>44684</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8566,7 +8566,7 @@
         <v>44742</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8656,7 +8656,7 @@
         <v>44743</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8746,7 +8746,7 @@
         <v>44763</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8836,7 +8836,7 @@
         <v>44778</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8926,7 +8926,7 @@
         <v>44784</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -9016,7 +9016,7 @@
         <v>44833</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -9101,7 +9101,7 @@
         <v>44839</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9191,7 +9191,7 @@
         <v>44988</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9276,7 +9276,7 @@
         <v>45086</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9365,7 +9365,7 @@
         <v>45090</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9455,7 +9455,7 @@
         <v>45092</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9545,7 +9545,7 @@
         <v>45107</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9630,7 +9630,7 @@
         <v>45162</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9719,7 +9719,7 @@
         <v>43319</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -9781,7 +9781,7 @@
         <v>43320</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -9838,7 +9838,7 @@
         <v>43329</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9895,7 +9895,7 @@
         <v>43329</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9957,7 +9957,7 @@
         <v>43329</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -10014,7 +10014,7 @@
         <v>43329</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -10071,7 +10071,7 @@
         <v>43329</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -10128,7 +10128,7 @@
         <v>43333</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -10185,7 +10185,7 @@
         <v>43334</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -10242,7 +10242,7 @@
         <v>43342</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -10304,7 +10304,7 @@
         <v>43347</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -10361,7 +10361,7 @@
         <v>43348</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -10418,7 +10418,7 @@
         <v>43348</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -10480,7 +10480,7 @@
         <v>43349</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -10537,7 +10537,7 @@
         <v>43349</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -10594,7 +10594,7 @@
         <v>43349</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -10651,7 +10651,7 @@
         <v>43353</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -10708,7 +10708,7 @@
         <v>43353</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -10765,7 +10765,7 @@
         <v>43354</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -10827,7 +10827,7 @@
         <v>43355</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -10889,7 +10889,7 @@
         <v>43355</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -10951,7 +10951,7 @@
         <v>43369</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -11008,7 +11008,7 @@
         <v>43369</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -11070,7 +11070,7 @@
         <v>43370</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -11132,7 +11132,7 @@
         <v>43376</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -11189,7 +11189,7 @@
         <v>43377</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -11251,7 +11251,7 @@
         <v>43381</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -11308,7 +11308,7 @@
         <v>43381</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -11365,7 +11365,7 @@
         <v>43381</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -11422,7 +11422,7 @@
         <v>43381</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -11479,7 +11479,7 @@
         <v>43382</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -11541,7 +11541,7 @@
         <v>43382</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -11603,7 +11603,7 @@
         <v>43385</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -11665,7 +11665,7 @@
         <v>43385</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -11727,7 +11727,7 @@
         <v>43389</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -11789,7 +11789,7 @@
         <v>43391</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -11846,7 +11846,7 @@
         <v>43391</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -11903,7 +11903,7 @@
         <v>43395</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -11960,7 +11960,7 @@
         <v>43403</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -12022,7 +12022,7 @@
         <v>43409</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -12079,7 +12079,7 @@
         <v>43409</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -12136,7 +12136,7 @@
         <v>43410</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -12193,7 +12193,7 @@
         <v>43410</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -12255,7 +12255,7 @@
         <v>43410</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -12317,7 +12317,7 @@
         <v>43411</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -12374,7 +12374,7 @@
         <v>43412</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -12431,7 +12431,7 @@
         <v>43412</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -12488,7 +12488,7 @@
         <v>43412</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -12545,7 +12545,7 @@
         <v>43416</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -12607,7 +12607,7 @@
         <v>43416</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -12669,7 +12669,7 @@
         <v>43419</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -12726,7 +12726,7 @@
         <v>43419</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -12783,7 +12783,7 @@
         <v>43420</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -12840,7 +12840,7 @@
         <v>43420</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -12897,7 +12897,7 @@
         <v>43424</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -12954,7 +12954,7 @@
         <v>43425</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -13016,7 +13016,7 @@
         <v>43425</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -13073,7 +13073,7 @@
         <v>43425</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -13135,7 +13135,7 @@
         <v>43425</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -13192,7 +13192,7 @@
         <v>43427</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -13254,7 +13254,7 @@
         <v>43430</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -13316,7 +13316,7 @@
         <v>43431</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -13378,7 +13378,7 @@
         <v>43431</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -13435,7 +13435,7 @@
         <v>43432</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -13497,7 +13497,7 @@
         <v>43432</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -13554,7 +13554,7 @@
         <v>43432</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -13616,7 +13616,7 @@
         <v>43434</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -13678,7 +13678,7 @@
         <v>43437</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -13740,7 +13740,7 @@
         <v>43438</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -13802,7 +13802,7 @@
         <v>43439</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -13859,7 +13859,7 @@
         <v>43439</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -13916,7 +13916,7 @@
         <v>43439</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -13973,7 +13973,7 @@
         <v>43441</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -14035,7 +14035,7 @@
         <v>43441</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -14092,7 +14092,7 @@
         <v>43444</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -14149,7 +14149,7 @@
         <v>43444</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -14206,7 +14206,7 @@
         <v>43444</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -14263,7 +14263,7 @@
         <v>43444</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -14320,7 +14320,7 @@
         <v>43445</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -14382,7 +14382,7 @@
         <v>43445</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -14444,7 +14444,7 @@
         <v>43448</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -14506,7 +14506,7 @@
         <v>43448</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -14568,7 +14568,7 @@
         <v>43448</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -14630,7 +14630,7 @@
         <v>43449</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -14687,7 +14687,7 @@
         <v>43452</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -14744,7 +14744,7 @@
         <v>43452</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -14806,7 +14806,7 @@
         <v>43453</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -14863,7 +14863,7 @@
         <v>43455</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -14925,7 +14925,7 @@
         <v>43455</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -14982,7 +14982,7 @@
         <v>43468</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -15039,7 +15039,7 @@
         <v>43469</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -15096,7 +15096,7 @@
         <v>43472</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -15153,7 +15153,7 @@
         <v>43472</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -15215,7 +15215,7 @@
         <v>43472</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -15277,7 +15277,7 @@
         <v>43474</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -15339,7 +15339,7 @@
         <v>43481</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -15396,7 +15396,7 @@
         <v>43483</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -15453,7 +15453,7 @@
         <v>43486</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -15515,7 +15515,7 @@
         <v>43487</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -15572,7 +15572,7 @@
         <v>43489</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -15629,7 +15629,7 @@
         <v>43490</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -15691,7 +15691,7 @@
         <v>43493</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -15748,7 +15748,7 @@
         <v>43497</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -15810,7 +15810,7 @@
         <v>43501</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -15867,7 +15867,7 @@
         <v>43508</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -15924,7 +15924,7 @@
         <v>43508</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -15981,7 +15981,7 @@
         <v>43510</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -16038,7 +16038,7 @@
         <v>43510</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -16095,7 +16095,7 @@
         <v>43514</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -16152,7 +16152,7 @@
         <v>43514</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -16209,7 +16209,7 @@
         <v>43515</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -16271,7 +16271,7 @@
         <v>43516</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -16328,7 +16328,7 @@
         <v>43516</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -16385,7 +16385,7 @@
         <v>43517</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -16442,7 +16442,7 @@
         <v>43517</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -16499,7 +16499,7 @@
         <v>43521</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -16556,7 +16556,7 @@
         <v>43521</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -16613,7 +16613,7 @@
         <v>43524</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -16670,7 +16670,7 @@
         <v>43524</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -16727,7 +16727,7 @@
         <v>43524</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -16784,7 +16784,7 @@
         <v>43525</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -16841,7 +16841,7 @@
         <v>43525</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -16898,7 +16898,7 @@
         <v>43528</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -16955,7 +16955,7 @@
         <v>43535</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -17012,7 +17012,7 @@
         <v>43536</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -17069,7 +17069,7 @@
         <v>43542</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -17126,7 +17126,7 @@
         <v>43549</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -17183,7 +17183,7 @@
         <v>43549</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -17240,7 +17240,7 @@
         <v>43550</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -17297,7 +17297,7 @@
         <v>43552</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -17354,7 +17354,7 @@
         <v>43552</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -17411,7 +17411,7 @@
         <v>43552</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -17468,7 +17468,7 @@
         <v>43557</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -17525,7 +17525,7 @@
         <v>43557</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -17587,7 +17587,7 @@
         <v>43578</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -17664,7 +17664,7 @@
         <v>43581</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -17726,7 +17726,7 @@
         <v>43584</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -17788,7 +17788,7 @@
         <v>43600</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -17850,7 +17850,7 @@
         <v>43600</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -17912,7 +17912,7 @@
         <v>43601</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -17969,7 +17969,7 @@
         <v>43601</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -18026,7 +18026,7 @@
         <v>43605</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -18083,7 +18083,7 @@
         <v>43607</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -18140,7 +18140,7 @@
         <v>43612</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -18202,7 +18202,7 @@
         <v>43613</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -18264,7 +18264,7 @@
         <v>43616</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -18326,7 +18326,7 @@
         <v>43619</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -18383,7 +18383,7 @@
         <v>43619</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -18445,7 +18445,7 @@
         <v>43619</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -18507,7 +18507,7 @@
         <v>43619</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -18569,7 +18569,7 @@
         <v>43619</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -18631,7 +18631,7 @@
         <v>43620</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -18688,7 +18688,7 @@
         <v>43628</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -18745,7 +18745,7 @@
         <v>43628</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -18807,7 +18807,7 @@
         <v>43628</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -18869,7 +18869,7 @@
         <v>43629</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -18926,7 +18926,7 @@
         <v>43629</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -18988,7 +18988,7 @@
         <v>43630</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -19050,7 +19050,7 @@
         <v>43630</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -19112,7 +19112,7 @@
         <v>43636</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -19174,7 +19174,7 @@
         <v>43636</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -19236,7 +19236,7 @@
         <v>43641</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -19293,7 +19293,7 @@
         <v>43642</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -19355,7 +19355,7 @@
         <v>43642</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -19417,7 +19417,7 @@
         <v>43644</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -19474,7 +19474,7 @@
         <v>43650</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -19531,7 +19531,7 @@
         <v>43651</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -19593,7 +19593,7 @@
         <v>43651</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -19655,7 +19655,7 @@
         <v>43655</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -19712,7 +19712,7 @@
         <v>43656</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -19769,7 +19769,7 @@
         <v>43661</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -19826,7 +19826,7 @@
         <v>43661</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -19883,7 +19883,7 @@
         <v>43661</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -19940,7 +19940,7 @@
         <v>43662</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -20002,7 +20002,7 @@
         <v>43663</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -20059,7 +20059,7 @@
         <v>43663</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -20116,7 +20116,7 @@
         <v>43665</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -20173,7 +20173,7 @@
         <v>43665</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -20235,7 +20235,7 @@
         <v>43668</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -20292,7 +20292,7 @@
         <v>43668</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -20354,7 +20354,7 @@
         <v>43669</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -20411,7 +20411,7 @@
         <v>43677</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -20468,7 +20468,7 @@
         <v>43679</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -20525,7 +20525,7 @@
         <v>43679</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -20582,7 +20582,7 @@
         <v>43686</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -20639,7 +20639,7 @@
         <v>43691</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -20696,7 +20696,7 @@
         <v>43692</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -20753,7 +20753,7 @@
         <v>43693</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -20815,7 +20815,7 @@
         <v>43693</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -20877,7 +20877,7 @@
         <v>43693</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -20939,7 +20939,7 @@
         <v>43697</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -21001,7 +21001,7 @@
         <v>43698</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -21058,7 +21058,7 @@
         <v>43698</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -21120,7 +21120,7 @@
         <v>43700</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -21177,7 +21177,7 @@
         <v>43700</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -21239,7 +21239,7 @@
         <v>43700</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -21296,7 +21296,7 @@
         <v>43704</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -21353,7 +21353,7 @@
         <v>43705</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -21415,7 +21415,7 @@
         <v>43710</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -21477,7 +21477,7 @@
         <v>43710</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -21539,7 +21539,7 @@
         <v>43710</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -21601,7 +21601,7 @@
         <v>43712</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -21658,7 +21658,7 @@
         <v>43713</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -21720,7 +21720,7 @@
         <v>43714</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -21782,7 +21782,7 @@
         <v>43714</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -21844,7 +21844,7 @@
         <v>43717</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -21901,7 +21901,7 @@
         <v>43719</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -21963,7 +21963,7 @@
         <v>43720</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -22025,7 +22025,7 @@
         <v>43721</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -22082,7 +22082,7 @@
         <v>43721</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -22139,7 +22139,7 @@
         <v>43721</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -22196,7 +22196,7 @@
         <v>43726</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -22258,7 +22258,7 @@
         <v>43726</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -22320,7 +22320,7 @@
         <v>43727</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -22382,7 +22382,7 @@
         <v>43728</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -22444,7 +22444,7 @@
         <v>43731</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -22501,7 +22501,7 @@
         <v>43732</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -22563,7 +22563,7 @@
         <v>43732</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -22625,7 +22625,7 @@
         <v>43734</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -22682,7 +22682,7 @@
         <v>43735</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -22739,7 +22739,7 @@
         <v>43738</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -22796,7 +22796,7 @@
         <v>43738</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -22853,7 +22853,7 @@
         <v>43741</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -22915,7 +22915,7 @@
         <v>43742</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -22972,7 +22972,7 @@
         <v>43745</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -23029,7 +23029,7 @@
         <v>43745</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -23091,7 +23091,7 @@
         <v>43746</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -23148,7 +23148,7 @@
         <v>43747</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -23210,7 +23210,7 @@
         <v>43748</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -23272,7 +23272,7 @@
         <v>43749</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -23334,7 +23334,7 @@
         <v>43754</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -23396,7 +23396,7 @@
         <v>43754</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -23458,7 +23458,7 @@
         <v>43755</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -23520,7 +23520,7 @@
         <v>43755</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -23582,7 +23582,7 @@
         <v>43759</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -23644,7 +23644,7 @@
         <v>43759</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -23701,7 +23701,7 @@
         <v>43760</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -23763,7 +23763,7 @@
         <v>43763</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -23820,7 +23820,7 @@
         <v>43763</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -23877,7 +23877,7 @@
         <v>43767</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -23939,7 +23939,7 @@
         <v>43774</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -23996,7 +23996,7 @@
         <v>43774</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -24053,7 +24053,7 @@
         <v>43775</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -24110,7 +24110,7 @@
         <v>43775</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -24167,7 +24167,7 @@
         <v>43776</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -24224,7 +24224,7 @@
         <v>43776</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -24281,7 +24281,7 @@
         <v>43777</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -24343,7 +24343,7 @@
         <v>43781</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -24405,7 +24405,7 @@
         <v>43781</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -24467,7 +24467,7 @@
         <v>43782</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -24524,7 +24524,7 @@
         <v>43782</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -24581,7 +24581,7 @@
         <v>43784</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -24643,7 +24643,7 @@
         <v>43787</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -24705,7 +24705,7 @@
         <v>43787</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -24767,7 +24767,7 @@
         <v>43789</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -24829,7 +24829,7 @@
         <v>43789</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -24891,7 +24891,7 @@
         <v>43791</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -24953,7 +24953,7 @@
         <v>43791</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -25015,7 +25015,7 @@
         <v>43791</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -25077,7 +25077,7 @@
         <v>43794</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -25134,7 +25134,7 @@
         <v>43794</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -25191,7 +25191,7 @@
         <v>43797</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -25248,7 +25248,7 @@
         <v>43801</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -25310,7 +25310,7 @@
         <v>43802</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -25367,7 +25367,7 @@
         <v>43802</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -25424,7 +25424,7 @@
         <v>43808</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -25481,7 +25481,7 @@
         <v>43810</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -25543,7 +25543,7 @@
         <v>43810</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -25605,7 +25605,7 @@
         <v>43815</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -25662,7 +25662,7 @@
         <v>43815</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -25719,7 +25719,7 @@
         <v>43816</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -25776,7 +25776,7 @@
         <v>43837</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -25833,7 +25833,7 @@
         <v>43838</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -25890,7 +25890,7 @@
         <v>43840</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -25952,7 +25952,7 @@
         <v>43850</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -26009,7 +26009,7 @@
         <v>43850</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -26066,7 +26066,7 @@
         <v>43850</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -26123,7 +26123,7 @@
         <v>43850</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -26180,7 +26180,7 @@
         <v>43851</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -26237,7 +26237,7 @@
         <v>43851</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -26294,7 +26294,7 @@
         <v>43858</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -26351,7 +26351,7 @@
         <v>43861</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -26408,7 +26408,7 @@
         <v>43865</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -26465,7 +26465,7 @@
         <v>43866</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -26522,7 +26522,7 @@
         <v>43879</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -26579,7 +26579,7 @@
         <v>43882</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -26636,7 +26636,7 @@
         <v>43885</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -26693,7 +26693,7 @@
         <v>43886</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -26750,7 +26750,7 @@
         <v>43886</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -26807,7 +26807,7 @@
         <v>43892</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -26864,7 +26864,7 @@
         <v>43892</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -26921,7 +26921,7 @@
         <v>43894</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -26983,7 +26983,7 @@
         <v>43902</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -27045,7 +27045,7 @@
         <v>43903</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -27102,7 +27102,7 @@
         <v>43908</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -27159,7 +27159,7 @@
         <v>43913</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -27216,7 +27216,7 @@
         <v>43913</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -27273,7 +27273,7 @@
         <v>43922</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -27335,7 +27335,7 @@
         <v>43924</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -27392,7 +27392,7 @@
         <v>43924</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -27449,7 +27449,7 @@
         <v>43930</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -27506,7 +27506,7 @@
         <v>43935</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -27568,7 +27568,7 @@
         <v>43943</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -27625,7 +27625,7 @@
         <v>43943</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -27682,7 +27682,7 @@
         <v>43943</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -27739,7 +27739,7 @@
         <v>43944</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -27796,7 +27796,7 @@
         <v>43944</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -27853,7 +27853,7 @@
         <v>43945</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -27910,7 +27910,7 @@
         <v>43945</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -27972,7 +27972,7 @@
         <v>43945</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -28029,7 +28029,7 @@
         <v>43945</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -28091,7 +28091,7 @@
         <v>43949</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -28153,7 +28153,7 @@
         <v>43951</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -28215,7 +28215,7 @@
         <v>43951</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -28277,7 +28277,7 @@
         <v>43951</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -28339,7 +28339,7 @@
         <v>43951</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -28401,7 +28401,7 @@
         <v>43951</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -28458,7 +28458,7 @@
         <v>43955</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -28520,7 +28520,7 @@
         <v>43959</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -28582,7 +28582,7 @@
         <v>43959</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -28644,7 +28644,7 @@
         <v>43959</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -28706,7 +28706,7 @@
         <v>43959</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -28768,7 +28768,7 @@
         <v>43962</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -28830,7 +28830,7 @@
         <v>43962</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -28892,7 +28892,7 @@
         <v>43962</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -28954,7 +28954,7 @@
         <v>43962</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -29016,7 +29016,7 @@
         <v>43964</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -29078,7 +29078,7 @@
         <v>43965</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -29140,7 +29140,7 @@
         <v>43965</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -29202,7 +29202,7 @@
         <v>43966</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -29264,7 +29264,7 @@
         <v>43966</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -29326,7 +29326,7 @@
         <v>43966</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -29388,7 +29388,7 @@
         <v>43969</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -29450,7 +29450,7 @@
         <v>43971</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -29512,7 +29512,7 @@
         <v>43971</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -29574,7 +29574,7 @@
         <v>43971</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -29636,7 +29636,7 @@
         <v>43977</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -29698,7 +29698,7 @@
         <v>43978</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -29755,7 +29755,7 @@
         <v>43979</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -29817,7 +29817,7 @@
         <v>43979</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -29879,7 +29879,7 @@
         <v>43979</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -29941,7 +29941,7 @@
         <v>43979</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -30003,7 +30003,7 @@
         <v>43979</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -30065,7 +30065,7 @@
         <v>43986</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -30122,7 +30122,7 @@
         <v>43990</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -30184,7 +30184,7 @@
         <v>43990</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -30246,7 +30246,7 @@
         <v>43991</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -30308,7 +30308,7 @@
         <v>43993</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -30370,7 +30370,7 @@
         <v>44000</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -30432,7 +30432,7 @@
         <v>44000</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -30494,7 +30494,7 @@
         <v>44005</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -30556,7 +30556,7 @@
         <v>44005</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -30618,7 +30618,7 @@
         <v>44006</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -30675,7 +30675,7 @@
         <v>44007</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -30737,7 +30737,7 @@
         <v>44007</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -30799,7 +30799,7 @@
         <v>44008</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -30861,7 +30861,7 @@
         <v>44008</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -30923,7 +30923,7 @@
         <v>44014</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -30985,7 +30985,7 @@
         <v>44014</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -31047,7 +31047,7 @@
         <v>44014</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -31109,7 +31109,7 @@
         <v>44022</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -31171,7 +31171,7 @@
         <v>44022</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -31228,7 +31228,7 @@
         <v>44025</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -31285,7 +31285,7 @@
         <v>44026</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -31347,7 +31347,7 @@
         <v>44027</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -31404,7 +31404,7 @@
         <v>44028</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -31466,7 +31466,7 @@
         <v>44029</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -31528,7 +31528,7 @@
         <v>44029</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -31590,7 +31590,7 @@
         <v>44031</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -31652,7 +31652,7 @@
         <v>44032</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -31709,7 +31709,7 @@
         <v>44032</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -31771,7 +31771,7 @@
         <v>44032</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -31833,7 +31833,7 @@
         <v>44033</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -31890,7 +31890,7 @@
         <v>44041</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -31952,7 +31952,7 @@
         <v>44041</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -32014,7 +32014,7 @@
         <v>44041</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -32076,7 +32076,7 @@
         <v>44042</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -32138,7 +32138,7 @@
         <v>44049</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -32200,7 +32200,7 @@
         <v>44049</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -32262,7 +32262,7 @@
         <v>44053</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -32319,7 +32319,7 @@
         <v>44056</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -32381,7 +32381,7 @@
         <v>44057</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -32443,7 +32443,7 @@
         <v>44060</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -32505,7 +32505,7 @@
         <v>44061</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -32562,7 +32562,7 @@
         <v>44061</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -32619,7 +32619,7 @@
         <v>44061</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -32676,7 +32676,7 @@
         <v>44061</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -32738,7 +32738,7 @@
         <v>44062</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -32800,7 +32800,7 @@
         <v>44064</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -32862,7 +32862,7 @@
         <v>44064</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -32924,7 +32924,7 @@
         <v>44064</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -32986,7 +32986,7 @@
         <v>44064</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -33048,7 +33048,7 @@
         <v>44067</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -33110,7 +33110,7 @@
         <v>44068</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -33172,7 +33172,7 @@
         <v>44069</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -33234,7 +33234,7 @@
         <v>44069</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -33296,7 +33296,7 @@
         <v>44069</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -33358,7 +33358,7 @@
         <v>44069</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -33420,7 +33420,7 @@
         <v>44070</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -33477,7 +33477,7 @@
         <v>44074</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -33539,7 +33539,7 @@
         <v>44074</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -33601,7 +33601,7 @@
         <v>44075</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -33663,7 +33663,7 @@
         <v>44075</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -33725,7 +33725,7 @@
         <v>44075</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -33787,7 +33787,7 @@
         <v>44078</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -33844,7 +33844,7 @@
         <v>44078</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -33901,7 +33901,7 @@
         <v>44078</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -33963,7 +33963,7 @@
         <v>44080</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -34025,7 +34025,7 @@
         <v>44081</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -34087,7 +34087,7 @@
         <v>44081</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -34149,7 +34149,7 @@
         <v>44082</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -34211,7 +34211,7 @@
         <v>44082</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -34268,7 +34268,7 @@
         <v>44082</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -34330,7 +34330,7 @@
         <v>44083</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -34387,7 +34387,7 @@
         <v>44084</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -34449,7 +34449,7 @@
         <v>44085</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -34511,7 +34511,7 @@
         <v>44085</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -34573,7 +34573,7 @@
         <v>44085</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -34635,7 +34635,7 @@
         <v>44085</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -34697,7 +34697,7 @@
         <v>44085</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -34754,7 +34754,7 @@
         <v>44088</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -34816,7 +34816,7 @@
         <v>44088</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -34878,7 +34878,7 @@
         <v>44088</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -34940,7 +34940,7 @@
         <v>44088</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -35002,7 +35002,7 @@
         <v>44091</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -35064,7 +35064,7 @@
         <v>44092</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -35126,7 +35126,7 @@
         <v>44092</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -35188,7 +35188,7 @@
         <v>44092</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -35250,7 +35250,7 @@
         <v>44095</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -35307,7 +35307,7 @@
         <v>44099</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -35369,7 +35369,7 @@
         <v>44099</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -35431,7 +35431,7 @@
         <v>44099</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -35493,7 +35493,7 @@
         <v>44103</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -35555,7 +35555,7 @@
         <v>44103</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -35617,7 +35617,7 @@
         <v>44104</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -35679,7 +35679,7 @@
         <v>44104</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -35741,7 +35741,7 @@
         <v>44104</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -35803,7 +35803,7 @@
         <v>44108</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -35860,7 +35860,7 @@
         <v>44109</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -35922,7 +35922,7 @@
         <v>44109</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -35984,7 +35984,7 @@
         <v>44110</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -36046,7 +36046,7 @@
         <v>44111</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -36108,7 +36108,7 @@
         <v>44112</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -36170,7 +36170,7 @@
         <v>44112</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -36227,7 +36227,7 @@
         <v>44112</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -36289,7 +36289,7 @@
         <v>44116</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -36351,7 +36351,7 @@
         <v>44116</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -36413,7 +36413,7 @@
         <v>44116</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -36470,7 +36470,7 @@
         <v>44116</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -36532,7 +36532,7 @@
         <v>44116</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -36594,7 +36594,7 @@
         <v>44117</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -36656,7 +36656,7 @@
         <v>44119</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -36718,7 +36718,7 @@
         <v>44119</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -36780,7 +36780,7 @@
         <v>44119</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -36842,7 +36842,7 @@
         <v>44120</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -36904,7 +36904,7 @@
         <v>44123</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -36966,7 +36966,7 @@
         <v>44124</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -37028,7 +37028,7 @@
         <v>44124</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -37085,7 +37085,7 @@
         <v>44125</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -37142,7 +37142,7 @@
         <v>44125</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -37204,7 +37204,7 @@
         <v>44125</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -37266,7 +37266,7 @@
         <v>44125</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -37328,7 +37328,7 @@
         <v>44126</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -37390,7 +37390,7 @@
         <v>44126</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -37452,7 +37452,7 @@
         <v>44126</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -37509,7 +37509,7 @@
         <v>44126</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -37571,7 +37571,7 @@
         <v>44133</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -37633,7 +37633,7 @@
         <v>44141</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -37695,7 +37695,7 @@
         <v>44144</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -37757,7 +37757,7 @@
         <v>44145</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -37819,7 +37819,7 @@
         <v>44146</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -37876,7 +37876,7 @@
         <v>44147</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -37938,7 +37938,7 @@
         <v>44148</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -38000,7 +38000,7 @@
         <v>44148</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -38062,7 +38062,7 @@
         <v>44150</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -38124,7 +38124,7 @@
         <v>44151</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -38186,7 +38186,7 @@
         <v>44159</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -38248,7 +38248,7 @@
         <v>44159</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -38305,7 +38305,7 @@
         <v>44160</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -38367,7 +38367,7 @@
         <v>44161</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -38424,7 +38424,7 @@
         <v>44162</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -38486,7 +38486,7 @@
         <v>44162</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -38548,7 +38548,7 @@
         <v>44166</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -38605,7 +38605,7 @@
         <v>44167</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -38667,7 +38667,7 @@
         <v>44179</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -38729,7 +38729,7 @@
         <v>44180</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -38791,7 +38791,7 @@
         <v>44180</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -38853,7 +38853,7 @@
         <v>44194</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -38910,7 +38910,7 @@
         <v>44194</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -38987,7 +38987,7 @@
         <v>44199</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -39044,7 +39044,7 @@
         <v>44200</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -39101,7 +39101,7 @@
         <v>44203</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -39163,7 +39163,7 @@
         <v>44208</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -39225,7 +39225,7 @@
         <v>44221</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -39282,7 +39282,7 @@
         <v>44223</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -39344,7 +39344,7 @@
         <v>44228</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -39401,7 +39401,7 @@
         <v>44229</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -39458,7 +39458,7 @@
         <v>44236</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -39515,7 +39515,7 @@
         <v>44239</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -39572,7 +39572,7 @@
         <v>44243</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -39629,7 +39629,7 @@
         <v>44250</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -39686,7 +39686,7 @@
         <v>44251</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -39743,7 +39743,7 @@
         <v>44253</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -39800,7 +39800,7 @@
         <v>44259</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -39857,7 +39857,7 @@
         <v>44265</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -39914,7 +39914,7 @@
         <v>44265</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -39971,7 +39971,7 @@
         <v>44267</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -40028,7 +40028,7 @@
         <v>44273</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -40090,7 +40090,7 @@
         <v>44273</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -40152,7 +40152,7 @@
         <v>44294</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -40214,7 +40214,7 @@
         <v>44294</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -40276,7 +40276,7 @@
         <v>44295</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -40338,7 +40338,7 @@
         <v>44302</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -40400,7 +40400,7 @@
         <v>44307</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -40457,7 +40457,7 @@
         <v>44308</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -40514,7 +40514,7 @@
         <v>44308</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -40576,7 +40576,7 @@
         <v>44309</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -40633,7 +40633,7 @@
         <v>44313</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -40695,7 +40695,7 @@
         <v>44313</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -40757,7 +40757,7 @@
         <v>44322</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -40819,7 +40819,7 @@
         <v>44322</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -40881,7 +40881,7 @@
         <v>44322</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -40943,7 +40943,7 @@
         <v>44322</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -41005,7 +41005,7 @@
         <v>44326</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -41062,7 +41062,7 @@
         <v>44326</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -41119,7 +41119,7 @@
         <v>44333</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -41176,7 +41176,7 @@
         <v>44336</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -41233,7 +41233,7 @@
         <v>44341</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -41290,7 +41290,7 @@
         <v>44341</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -41347,7 +41347,7 @@
         <v>44350</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -41409,7 +41409,7 @@
         <v>44350</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -41471,7 +41471,7 @@
         <v>44354</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -41533,7 +41533,7 @@
         <v>44358</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -41595,7 +41595,7 @@
         <v>44358</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -41657,7 +41657,7 @@
         <v>44361</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -41714,7 +41714,7 @@
         <v>44361</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -41776,7 +41776,7 @@
         <v>44361</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -41833,7 +41833,7 @@
         <v>44361</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -41890,7 +41890,7 @@
         <v>44361</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -41947,7 +41947,7 @@
         <v>44361</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -42004,7 +42004,7 @@
         <v>44363</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -42061,7 +42061,7 @@
         <v>44364</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -42118,7 +42118,7 @@
         <v>44365</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -42175,7 +42175,7 @@
         <v>44368</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -42237,7 +42237,7 @@
         <v>44368</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -42299,7 +42299,7 @@
         <v>44378</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -42361,7 +42361,7 @@
         <v>44382</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -42423,7 +42423,7 @@
         <v>44382</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -42485,7 +42485,7 @@
         <v>44382</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -42547,7 +42547,7 @@
         <v>44384</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -42609,7 +42609,7 @@
         <v>44385</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -42666,7 +42666,7 @@
         <v>44390</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -42723,7 +42723,7 @@
         <v>44391</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -42780,7 +42780,7 @@
         <v>44397</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -42842,7 +42842,7 @@
         <v>44400</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -42904,7 +42904,7 @@
         <v>44400</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -42966,7 +42966,7 @@
         <v>44400</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -43028,7 +43028,7 @@
         <v>44403</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -43090,7 +43090,7 @@
         <v>44403</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -43147,7 +43147,7 @@
         <v>44404</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -43204,7 +43204,7 @@
         <v>44406</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -43266,7 +43266,7 @@
         <v>44418</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -43328,7 +43328,7 @@
         <v>44418</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -43390,7 +43390,7 @@
         <v>44419</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -43452,7 +43452,7 @@
         <v>44425</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -43514,7 +43514,7 @@
         <v>44425</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -43576,7 +43576,7 @@
         <v>44426</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -43633,7 +43633,7 @@
         <v>44427</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -43690,7 +43690,7 @@
         <v>44428</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -43752,7 +43752,7 @@
         <v>44431</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -43809,7 +43809,7 @@
         <v>44435</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -43871,7 +43871,7 @@
         <v>44435</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -43933,7 +43933,7 @@
         <v>44435</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -43990,7 +43990,7 @@
         <v>44435</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -44052,7 +44052,7 @@
         <v>44438</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -44114,7 +44114,7 @@
         <v>44439</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -44171,7 +44171,7 @@
         <v>44440</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -44228,7 +44228,7 @@
         <v>44445</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -44290,7 +44290,7 @@
         <v>44445</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -44352,7 +44352,7 @@
         <v>44445</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -44409,7 +44409,7 @@
         <v>44447</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -44471,7 +44471,7 @@
         <v>44447</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -44528,7 +44528,7 @@
         <v>44448</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -44585,7 +44585,7 @@
         <v>44448</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -44642,7 +44642,7 @@
         <v>44449</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -44699,7 +44699,7 @@
         <v>44452</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -44761,7 +44761,7 @@
         <v>44453</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -44823,7 +44823,7 @@
         <v>44455</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -44885,7 +44885,7 @@
         <v>44460</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -44942,7 +44942,7 @@
         <v>44460</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -45004,7 +45004,7 @@
         <v>44460</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -45066,7 +45066,7 @@
         <v>44461</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -45123,7 +45123,7 @@
         <v>44466</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -45180,7 +45180,7 @@
         <v>44467</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -45242,7 +45242,7 @@
         <v>44470</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -45299,7 +45299,7 @@
         <v>44473</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -45356,7 +45356,7 @@
         <v>44475</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -45418,7 +45418,7 @@
         <v>44475</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -45480,7 +45480,7 @@
         <v>44475</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -45537,7 +45537,7 @@
         <v>44480</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -45599,7 +45599,7 @@
         <v>44481</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -45656,7 +45656,7 @@
         <v>44483</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -45718,7 +45718,7 @@
         <v>44484</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -45780,7 +45780,7 @@
         <v>44488</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -45837,7 +45837,7 @@
         <v>44489</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -45899,7 +45899,7 @@
         <v>44489</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -45961,7 +45961,7 @@
         <v>44489</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -46023,7 +46023,7 @@
         <v>44489</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -46085,7 +46085,7 @@
         <v>44490</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -46147,7 +46147,7 @@
         <v>44497</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -46209,7 +46209,7 @@
         <v>44497</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -46266,7 +46266,7 @@
         <v>44497</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -46328,7 +46328,7 @@
         <v>44497</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -46385,7 +46385,7 @@
         <v>44502</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -46442,7 +46442,7 @@
         <v>44503</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -46504,7 +46504,7 @@
         <v>44504</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -46566,7 +46566,7 @@
         <v>44510</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -46628,7 +46628,7 @@
         <v>44511</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -46690,7 +46690,7 @@
         <v>44511</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -46752,7 +46752,7 @@
         <v>44523</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -46814,7 +46814,7 @@
         <v>44523</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -46871,7 +46871,7 @@
         <v>44531</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -46928,7 +46928,7 @@
         <v>44536</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -46985,7 +46985,7 @@
         <v>44538</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -47042,7 +47042,7 @@
         <v>44544</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -47104,7 +47104,7 @@
         <v>44550</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -47166,7 +47166,7 @@
         <v>44551</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -47223,7 +47223,7 @@
         <v>44552</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -47280,7 +47280,7 @@
         <v>44552</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -47337,7 +47337,7 @@
         <v>44564</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -47394,7 +47394,7 @@
         <v>44566</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -47451,7 +47451,7 @@
         <v>44572</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -47508,7 +47508,7 @@
         <v>44579</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -47570,7 +47570,7 @@
         <v>44582</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -47627,7 +47627,7 @@
         <v>44587</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -47689,7 +47689,7 @@
         <v>44592</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -47751,7 +47751,7 @@
         <v>44595</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -47808,7 +47808,7 @@
         <v>44615</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -47865,7 +47865,7 @@
         <v>44615</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -47922,7 +47922,7 @@
         <v>44616</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -47979,7 +47979,7 @@
         <v>44621</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -48041,7 +48041,7 @@
         <v>44627</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -48098,7 +48098,7 @@
         <v>44627</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -48155,7 +48155,7 @@
         <v>44629</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -48212,7 +48212,7 @@
         <v>44648</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -48269,7 +48269,7 @@
         <v>44650</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -48326,7 +48326,7 @@
         <v>44657</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -48383,7 +48383,7 @@
         <v>44662</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -48445,7 +48445,7 @@
         <v>44663</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -48502,7 +48502,7 @@
         <v>44663</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -48559,7 +48559,7 @@
         <v>44685</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -48621,7 +48621,7 @@
         <v>44691</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -48683,7 +48683,7 @@
         <v>44692</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -48745,7 +48745,7 @@
         <v>44692</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -48807,7 +48807,7 @@
         <v>44693</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -48869,7 +48869,7 @@
         <v>44697</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -48926,7 +48926,7 @@
         <v>44701</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -48988,7 +48988,7 @@
         <v>44711</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -49050,7 +49050,7 @@
         <v>44711</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -49112,7 +49112,7 @@
         <v>44712</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -49169,7 +49169,7 @@
         <v>44714</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -49226,7 +49226,7 @@
         <v>44719</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -49283,7 +49283,7 @@
         <v>44726</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -49340,7 +49340,7 @@
         <v>44726</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -49397,7 +49397,7 @@
         <v>44726</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -49454,7 +49454,7 @@
         <v>44726</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -49516,7 +49516,7 @@
         <v>44726</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -49573,7 +49573,7 @@
         <v>44732</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -49635,7 +49635,7 @@
         <v>44743</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -49697,7 +49697,7 @@
         <v>44743</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -49759,7 +49759,7 @@
         <v>44743</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -49821,7 +49821,7 @@
         <v>44743</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -49883,7 +49883,7 @@
         <v>44743</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -49945,7 +49945,7 @@
         <v>44743</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -50007,7 +50007,7 @@
         <v>44743</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -50069,7 +50069,7 @@
         <v>44747</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -50126,7 +50126,7 @@
         <v>44747</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -50183,7 +50183,7 @@
         <v>44748</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -50240,7 +50240,7 @@
         <v>44749</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -50297,7 +50297,7 @@
         <v>44757</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -50359,7 +50359,7 @@
         <v>44757</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -50421,7 +50421,7 @@
         <v>44762</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -50483,7 +50483,7 @@
         <v>44774</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -50545,7 +50545,7 @@
         <v>44774</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -50607,7 +50607,7 @@
         <v>44774</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -50669,7 +50669,7 @@
         <v>44777</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -50726,7 +50726,7 @@
         <v>44778</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -50788,7 +50788,7 @@
         <v>44781</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -50850,7 +50850,7 @@
         <v>44781</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -50912,7 +50912,7 @@
         <v>44789</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -50969,7 +50969,7 @@
         <v>44791</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -51031,7 +51031,7 @@
         <v>44791</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -51088,7 +51088,7 @@
         <v>44792</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -51150,7 +51150,7 @@
         <v>44792</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -51212,7 +51212,7 @@
         <v>44792</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -51269,7 +51269,7 @@
         <v>44792</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -51331,7 +51331,7 @@
         <v>44792</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -51393,7 +51393,7 @@
         <v>44795</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -51455,7 +51455,7 @@
         <v>44795</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -51512,7 +51512,7 @@
         <v>44797</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -51569,7 +51569,7 @@
         <v>44798</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -51626,7 +51626,7 @@
         <v>44799</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -51688,7 +51688,7 @@
         <v>44799</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -51750,7 +51750,7 @@
         <v>44799</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -51812,7 +51812,7 @@
         <v>44799</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -51874,7 +51874,7 @@
         <v>44803</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -51931,7 +51931,7 @@
         <v>44804</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -51988,7 +51988,7 @@
         <v>44806</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -52050,7 +52050,7 @@
         <v>44812</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -52107,7 +52107,7 @@
         <v>44813</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -52169,7 +52169,7 @@
         <v>44813</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -52226,7 +52226,7 @@
         <v>44813</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -52288,7 +52288,7 @@
         <v>44817</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -52350,7 +52350,7 @@
         <v>44824</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -52412,7 +52412,7 @@
         <v>44824</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -52474,7 +52474,7 @@
         <v>44824</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -52536,7 +52536,7 @@
         <v>44825</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -52598,7 +52598,7 @@
         <v>44827</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -52660,7 +52660,7 @@
         <v>44827</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -52722,7 +52722,7 @@
         <v>44832</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -52784,7 +52784,7 @@
         <v>44833</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -52846,7 +52846,7 @@
         <v>44833</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -52908,7 +52908,7 @@
         <v>44833</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -52965,7 +52965,7 @@
         <v>44833</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -53027,7 +53027,7 @@
         <v>44833</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -53084,7 +53084,7 @@
         <v>44833</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -53146,7 +53146,7 @@
         <v>44834</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -53208,7 +53208,7 @@
         <v>44834</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -53270,7 +53270,7 @@
         <v>44837</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -53332,7 +53332,7 @@
         <v>44837</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -53389,7 +53389,7 @@
         <v>44837</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -53451,7 +53451,7 @@
         <v>44838</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -53508,7 +53508,7 @@
         <v>44838</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -53565,7 +53565,7 @@
         <v>44844</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -53627,7 +53627,7 @@
         <v>44846</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -53689,7 +53689,7 @@
         <v>44846</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -53746,7 +53746,7 @@
         <v>44847</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -53808,7 +53808,7 @@
         <v>44847</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -53870,7 +53870,7 @@
         <v>44847</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -53932,7 +53932,7 @@
         <v>44848</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -53994,7 +53994,7 @@
         <v>44853</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -54051,7 +54051,7 @@
         <v>44855</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -54113,7 +54113,7 @@
         <v>44858</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -54175,7 +54175,7 @@
         <v>44860</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -54232,7 +54232,7 @@
         <v>44864</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -54289,7 +54289,7 @@
         <v>44866</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -54351,7 +54351,7 @@
         <v>44866</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -54413,7 +54413,7 @@
         <v>44867</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -54475,7 +54475,7 @@
         <v>44867</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -54532,7 +54532,7 @@
         <v>44867</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -54594,7 +54594,7 @@
         <v>44868</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -54656,7 +54656,7 @@
         <v>44872</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -54718,7 +54718,7 @@
         <v>44872</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -54780,7 +54780,7 @@
         <v>44872</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -54842,7 +54842,7 @@
         <v>44872</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -54899,7 +54899,7 @@
         <v>44873</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -54956,7 +54956,7 @@
         <v>44873</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -55013,7 +55013,7 @@
         <v>44874</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -55075,7 +55075,7 @@
         <v>44874</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -55137,7 +55137,7 @@
         <v>44874</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -55199,7 +55199,7 @@
         <v>44875</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -55256,7 +55256,7 @@
         <v>44875</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -55318,7 +55318,7 @@
         <v>44876</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -55380,7 +55380,7 @@
         <v>44880</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -55442,7 +55442,7 @@
         <v>44880</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -55504,7 +55504,7 @@
         <v>44882</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -55566,7 +55566,7 @@
         <v>44886</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -55628,7 +55628,7 @@
         <v>44886</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -55690,7 +55690,7 @@
         <v>44886</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -55752,7 +55752,7 @@
         <v>44888</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -55814,7 +55814,7 @@
         <v>44889</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -55871,7 +55871,7 @@
         <v>44894</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -55933,7 +55933,7 @@
         <v>44895</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -55990,7 +55990,7 @@
         <v>44900</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -56052,7 +56052,7 @@
         <v>44902</v>
       </c>
       <c r="C876" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -56109,7 +56109,7 @@
         <v>44903</v>
       </c>
       <c r="C877" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -56171,7 +56171,7 @@
         <v>44903</v>
       </c>
       <c r="C878" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -56253,7 +56253,7 @@
         <v>44903</v>
       </c>
       <c r="C879" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -56315,7 +56315,7 @@
         <v>44904</v>
       </c>
       <c r="C880" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -56377,7 +56377,7 @@
         <v>44904</v>
       </c>
       <c r="C881" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -56434,7 +56434,7 @@
         <v>44909</v>
       </c>
       <c r="C882" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -56496,7 +56496,7 @@
         <v>44909</v>
       </c>
       <c r="C883" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>
@@ -56558,7 +56558,7 @@
         <v>44909</v>
       </c>
       <c r="C884" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D884" t="inlineStr">
         <is>
@@ -56620,7 +56620,7 @@
         <v>44910</v>
       </c>
       <c r="C885" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D885" t="inlineStr">
         <is>
@@ -56682,7 +56682,7 @@
         <v>44911</v>
       </c>
       <c r="C886" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D886" t="inlineStr">
         <is>
@@ -56744,7 +56744,7 @@
         <v>44911</v>
       </c>
       <c r="C887" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D887" t="inlineStr">
         <is>
@@ -56806,7 +56806,7 @@
         <v>44915</v>
       </c>
       <c r="C888" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D888" t="inlineStr">
         <is>
@@ -56868,7 +56868,7 @@
         <v>44916</v>
       </c>
       <c r="C889" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D889" t="inlineStr">
         <is>
@@ -56925,7 +56925,7 @@
         <v>44924</v>
       </c>
       <c r="C890" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D890" t="inlineStr">
         <is>
@@ -56982,7 +56982,7 @@
         <v>44924</v>
       </c>
       <c r="C891" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D891" t="inlineStr">
         <is>
@@ -57039,7 +57039,7 @@
         <v>44925</v>
       </c>
       <c r="C892" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D892" t="inlineStr">
         <is>
@@ -57096,7 +57096,7 @@
         <v>44931</v>
       </c>
       <c r="C893" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D893" t="inlineStr">
         <is>
@@ -57153,7 +57153,7 @@
         <v>44935</v>
       </c>
       <c r="C894" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D894" t="inlineStr">
         <is>
@@ -57215,7 +57215,7 @@
         <v>44937</v>
       </c>
       <c r="C895" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D895" t="inlineStr">
         <is>
@@ -57277,7 +57277,7 @@
         <v>44939</v>
       </c>
       <c r="C896" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D896" t="inlineStr">
         <is>
@@ -57339,7 +57339,7 @@
         <v>44942</v>
       </c>
       <c r="C897" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D897" t="inlineStr">
         <is>
@@ -57396,7 +57396,7 @@
         <v>44942</v>
       </c>
       <c r="C898" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D898" t="inlineStr">
         <is>
@@ -57453,7 +57453,7 @@
         <v>44946</v>
       </c>
       <c r="C899" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D899" t="inlineStr">
         <is>
@@ -57515,7 +57515,7 @@
         <v>44946</v>
       </c>
       <c r="C900" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D900" t="inlineStr">
         <is>
@@ -57572,7 +57572,7 @@
         <v>44949</v>
       </c>
       <c r="C901" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D901" t="inlineStr">
         <is>
@@ -57634,7 +57634,7 @@
         <v>44950</v>
       </c>
       <c r="C902" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D902" t="inlineStr">
         <is>
@@ -57691,7 +57691,7 @@
         <v>44950</v>
       </c>
       <c r="C903" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D903" t="inlineStr">
         <is>
@@ -57748,7 +57748,7 @@
         <v>44952</v>
       </c>
       <c r="C904" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D904" t="inlineStr">
         <is>
@@ -57805,7 +57805,7 @@
         <v>44953</v>
       </c>
       <c r="C905" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D905" t="inlineStr">
         <is>
@@ -57867,7 +57867,7 @@
         <v>44953</v>
       </c>
       <c r="C906" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D906" t="inlineStr">
         <is>
@@ -57929,7 +57929,7 @@
         <v>44956</v>
       </c>
       <c r="C907" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D907" t="inlineStr">
         <is>
@@ -57986,7 +57986,7 @@
         <v>44957</v>
       </c>
       <c r="C908" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D908" t="inlineStr">
         <is>
@@ -58048,7 +58048,7 @@
         <v>44957</v>
       </c>
       <c r="C909" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D909" t="inlineStr">
         <is>
@@ -58105,7 +58105,7 @@
         <v>44959</v>
       </c>
       <c r="C910" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D910" t="inlineStr">
         <is>
@@ -58162,7 +58162,7 @@
         <v>44960</v>
       </c>
       <c r="C911" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D911" t="inlineStr">
         <is>
@@ -58219,7 +58219,7 @@
         <v>44963</v>
       </c>
       <c r="C912" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D912" t="inlineStr">
         <is>
@@ -58276,7 +58276,7 @@
         <v>44964</v>
       </c>
       <c r="C913" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D913" t="inlineStr">
         <is>
@@ -58338,7 +58338,7 @@
         <v>44965</v>
       </c>
       <c r="C914" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D914" t="inlineStr">
         <is>
@@ -58400,7 +58400,7 @@
         <v>44967</v>
       </c>
       <c r="C915" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D915" t="inlineStr">
         <is>
@@ -58457,7 +58457,7 @@
         <v>44970</v>
       </c>
       <c r="C916" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D916" t="inlineStr">
         <is>
@@ -58514,7 +58514,7 @@
         <v>44970</v>
       </c>
       <c r="C917" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D917" t="inlineStr">
         <is>
@@ -58571,7 +58571,7 @@
         <v>44970</v>
       </c>
       <c r="C918" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D918" t="inlineStr">
         <is>
@@ -58628,7 +58628,7 @@
         <v>44972</v>
       </c>
       <c r="C919" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D919" t="inlineStr">
         <is>
@@ -58690,7 +58690,7 @@
         <v>44974</v>
       </c>
       <c r="C920" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D920" t="inlineStr">
         <is>
@@ -58747,7 +58747,7 @@
         <v>44977</v>
       </c>
       <c r="C921" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D921" t="inlineStr">
         <is>
@@ -58809,7 +58809,7 @@
         <v>44977</v>
       </c>
       <c r="C922" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D922" t="inlineStr">
         <is>
@@ -58871,7 +58871,7 @@
         <v>44977</v>
       </c>
       <c r="C923" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D923" t="inlineStr">
         <is>
@@ -58933,7 +58933,7 @@
         <v>44977</v>
       </c>
       <c r="C924" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D924" t="inlineStr">
         <is>
@@ -58995,7 +58995,7 @@
         <v>44977</v>
       </c>
       <c r="C925" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D925" t="inlineStr">
         <is>
@@ -59057,7 +59057,7 @@
         <v>44977</v>
       </c>
       <c r="C926" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D926" t="inlineStr">
         <is>
@@ -59119,7 +59119,7 @@
         <v>44980</v>
       </c>
       <c r="C927" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D927" t="inlineStr">
         <is>
@@ -59181,7 +59181,7 @@
         <v>44980</v>
       </c>
       <c r="C928" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D928" t="inlineStr">
         <is>
@@ -59238,7 +59238,7 @@
         <v>44984</v>
       </c>
       <c r="C929" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D929" t="inlineStr">
         <is>
@@ -59295,7 +59295,7 @@
         <v>44985</v>
       </c>
       <c r="C930" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D930" t="inlineStr">
         <is>
@@ -59357,7 +59357,7 @@
         <v>44985</v>
       </c>
       <c r="C931" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D931" t="inlineStr">
         <is>
@@ -59419,7 +59419,7 @@
         <v>44985</v>
       </c>
       <c r="C932" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D932" t="inlineStr">
         <is>
@@ -59476,7 +59476,7 @@
         <v>44985</v>
       </c>
       <c r="C933" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D933" t="inlineStr">
         <is>
@@ -59538,7 +59538,7 @@
         <v>44986</v>
       </c>
       <c r="C934" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D934" t="inlineStr">
         <is>
@@ -59600,7 +59600,7 @@
         <v>45000</v>
       </c>
       <c r="C935" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D935" t="inlineStr">
         <is>
@@ -59662,7 +59662,7 @@
         <v>45006</v>
       </c>
       <c r="C936" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D936" t="inlineStr">
         <is>
@@ -59719,7 +59719,7 @@
         <v>45007</v>
       </c>
       <c r="C937" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D937" t="inlineStr">
         <is>
@@ -59776,7 +59776,7 @@
         <v>45007</v>
       </c>
       <c r="C938" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D938" t="inlineStr">
         <is>
@@ -59838,7 +59838,7 @@
         <v>45012</v>
       </c>
       <c r="C939" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D939" t="inlineStr">
         <is>
@@ -59900,7 +59900,7 @@
         <v>45012</v>
       </c>
       <c r="C940" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D940" t="inlineStr">
         <is>
@@ -59962,7 +59962,7 @@
         <v>45016</v>
       </c>
       <c r="C941" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D941" t="inlineStr">
         <is>
@@ -60019,7 +60019,7 @@
         <v>45020</v>
       </c>
       <c r="C942" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D942" t="inlineStr">
         <is>
@@ -60076,7 +60076,7 @@
         <v>45027</v>
       </c>
       <c r="C943" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D943" t="inlineStr">
         <is>
@@ -60138,7 +60138,7 @@
         <v>45027</v>
       </c>
       <c r="C944" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D944" t="inlineStr">
         <is>
@@ -60200,7 +60200,7 @@
         <v>45028</v>
       </c>
       <c r="C945" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D945" t="inlineStr">
         <is>
@@ -60257,7 +60257,7 @@
         <v>45033</v>
       </c>
       <c r="C946" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D946" t="inlineStr">
         <is>
@@ -60319,7 +60319,7 @@
         <v>45036</v>
       </c>
       <c r="C947" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D947" t="inlineStr">
         <is>
@@ -60376,7 +60376,7 @@
         <v>45037</v>
       </c>
       <c r="C948" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D948" t="inlineStr">
         <is>
@@ -60433,7 +60433,7 @@
         <v>45041</v>
       </c>
       <c r="C949" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D949" t="inlineStr">
         <is>
@@ -60495,7 +60495,7 @@
         <v>45047</v>
       </c>
       <c r="C950" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D950" t="inlineStr">
         <is>
@@ -60552,7 +60552,7 @@
         <v>45055</v>
       </c>
       <c r="C951" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D951" t="inlineStr">
         <is>
@@ -60614,7 +60614,7 @@
         <v>45056</v>
       </c>
       <c r="C952" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D952" t="inlineStr">
         <is>
@@ -60676,7 +60676,7 @@
         <v>45058</v>
       </c>
       <c r="C953" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D953" t="inlineStr">
         <is>
@@ -60733,7 +60733,7 @@
         <v>45058</v>
       </c>
       <c r="C954" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D954" t="inlineStr">
         <is>
@@ -60790,7 +60790,7 @@
         <v>45060</v>
       </c>
       <c r="C955" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D955" t="inlineStr">
         <is>
@@ -60847,7 +60847,7 @@
         <v>45061</v>
       </c>
       <c r="C956" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D956" t="inlineStr">
         <is>
@@ -60909,7 +60909,7 @@
         <v>45061</v>
       </c>
       <c r="C957" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D957" t="inlineStr">
         <is>
@@ -60971,7 +60971,7 @@
         <v>45061</v>
       </c>
       <c r="C958" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D958" t="inlineStr">
         <is>
@@ -61033,7 +61033,7 @@
         <v>45063</v>
       </c>
       <c r="C959" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D959" t="inlineStr">
         <is>
@@ -61090,7 +61090,7 @@
         <v>45065</v>
       </c>
       <c r="C960" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D960" t="inlineStr">
         <is>
@@ -61152,7 +61152,7 @@
         <v>45068</v>
       </c>
       <c r="C961" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D961" t="inlineStr">
         <is>
@@ -61214,7 +61214,7 @@
         <v>45068</v>
       </c>
       <c r="C962" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D962" t="inlineStr">
         <is>
@@ -61276,7 +61276,7 @@
         <v>45069</v>
       </c>
       <c r="C963" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D963" t="inlineStr">
         <is>
@@ -61338,7 +61338,7 @@
         <v>45069</v>
       </c>
       <c r="C964" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D964" t="inlineStr">
         <is>
@@ -61395,7 +61395,7 @@
         <v>45069</v>
       </c>
       <c r="C965" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D965" t="inlineStr">
         <is>
@@ -61452,7 +61452,7 @@
         <v>45070</v>
       </c>
       <c r="C966" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D966" t="inlineStr">
         <is>
@@ -61514,7 +61514,7 @@
         <v>45070</v>
       </c>
       <c r="C967" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D967" t="inlineStr">
         <is>
@@ -61571,7 +61571,7 @@
         <v>45070</v>
       </c>
       <c r="C968" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D968" t="inlineStr">
         <is>
@@ -61628,7 +61628,7 @@
         <v>45070</v>
       </c>
       <c r="C969" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D969" t="inlineStr">
         <is>
@@ -61685,7 +61685,7 @@
         <v>45070</v>
       </c>
       <c r="C970" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D970" t="inlineStr">
         <is>
@@ -61742,7 +61742,7 @@
         <v>45071</v>
       </c>
       <c r="C971" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D971" t="inlineStr">
         <is>
@@ -61804,7 +61804,7 @@
         <v>45071</v>
       </c>
       <c r="C972" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D972" t="inlineStr">
         <is>
@@ -61861,7 +61861,7 @@
         <v>45071</v>
       </c>
       <c r="C973" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D973" t="inlineStr">
         <is>
@@ -61918,7 +61918,7 @@
         <v>45071</v>
       </c>
       <c r="C974" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D974" t="inlineStr">
         <is>
@@ -61975,7 +61975,7 @@
         <v>45072</v>
       </c>
       <c r="C975" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D975" t="inlineStr">
         <is>
@@ -62032,7 +62032,7 @@
         <v>45077</v>
       </c>
       <c r="C976" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D976" t="inlineStr">
         <is>
@@ -62094,7 +62094,7 @@
         <v>45078</v>
       </c>
       <c r="C977" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D977" t="inlineStr">
         <is>
@@ -62156,7 +62156,7 @@
         <v>45078</v>
       </c>
       <c r="C978" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D978" t="inlineStr">
         <is>
@@ -62213,7 +62213,7 @@
         <v>45078</v>
       </c>
       <c r="C979" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D979" t="inlineStr">
         <is>
@@ -62270,7 +62270,7 @@
         <v>45079</v>
       </c>
       <c r="C980" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D980" t="inlineStr">
         <is>
@@ -62327,7 +62327,7 @@
         <v>45084</v>
       </c>
       <c r="C981" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D981" t="inlineStr">
         <is>
@@ -62389,7 +62389,7 @@
         <v>45090</v>
       </c>
       <c r="C982" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D982" t="inlineStr">
         <is>
@@ -62451,7 +62451,7 @@
         <v>45090</v>
       </c>
       <c r="C983" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D983" t="inlineStr">
         <is>
@@ -62508,7 +62508,7 @@
         <v>45092</v>
       </c>
       <c r="C984" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D984" t="inlineStr">
         <is>
@@ -62570,7 +62570,7 @@
         <v>45092</v>
       </c>
       <c r="C985" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D985" t="inlineStr">
         <is>
@@ -62632,7 +62632,7 @@
         <v>45092</v>
       </c>
       <c r="C986" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D986" t="inlineStr">
         <is>
@@ -62694,7 +62694,7 @@
         <v>45092</v>
       </c>
       <c r="C987" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D987" t="inlineStr">
         <is>
@@ -62756,7 +62756,7 @@
         <v>45093</v>
       </c>
       <c r="C988" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D988" t="inlineStr">
         <is>
@@ -62818,7 +62818,7 @@
         <v>45097</v>
       </c>
       <c r="C989" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D989" t="inlineStr">
         <is>
@@ -62880,7 +62880,7 @@
         <v>45097</v>
       </c>
       <c r="C990" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D990" t="inlineStr">
         <is>
@@ -62937,7 +62937,7 @@
         <v>45097</v>
       </c>
       <c r="C991" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D991" t="inlineStr">
         <is>
@@ -62994,7 +62994,7 @@
         <v>45097</v>
       </c>
       <c r="C992" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D992" t="inlineStr">
         <is>
@@ -63056,7 +63056,7 @@
         <v>45097</v>
       </c>
       <c r="C993" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D993" t="inlineStr">
         <is>
@@ -63118,7 +63118,7 @@
         <v>45098</v>
       </c>
       <c r="C994" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D994" t="inlineStr">
         <is>
@@ -63180,7 +63180,7 @@
         <v>45099</v>
       </c>
       <c r="C995" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D995" t="inlineStr">
         <is>
@@ -63237,7 +63237,7 @@
         <v>45099</v>
       </c>
       <c r="C996" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D996" t="inlineStr">
         <is>
@@ -63294,7 +63294,7 @@
         <v>45099</v>
       </c>
       <c r="C997" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D997" t="inlineStr">
         <is>
@@ -63351,7 +63351,7 @@
         <v>45099</v>
       </c>
       <c r="C998" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D998" t="inlineStr">
         <is>
@@ -63408,7 +63408,7 @@
         <v>45099</v>
       </c>
       <c r="C999" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D999" t="inlineStr">
         <is>
@@ -63465,7 +63465,7 @@
         <v>45104</v>
       </c>
       <c r="C1000" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D1000" t="inlineStr">
         <is>
@@ -63522,7 +63522,7 @@
         <v>45105</v>
       </c>
       <c r="C1001" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D1001" t="inlineStr">
         <is>
@@ -63579,7 +63579,7 @@
         <v>45106</v>
       </c>
       <c r="C1002" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D1002" t="inlineStr">
         <is>
@@ -63636,7 +63636,7 @@
         <v>45107</v>
       </c>
       <c r="C1003" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D1003" t="inlineStr">
         <is>
@@ -63693,7 +63693,7 @@
         <v>45107</v>
       </c>
       <c r="C1004" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D1004" t="inlineStr">
         <is>
@@ -63750,7 +63750,7 @@
         <v>45107</v>
       </c>
       <c r="C1005" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D1005" t="inlineStr">
         <is>
@@ -63812,7 +63812,7 @@
         <v>45107</v>
       </c>
       <c r="C1006" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D1006" t="inlineStr">
         <is>
@@ -63869,7 +63869,7 @@
         <v>45107</v>
       </c>
       <c r="C1007" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D1007" t="inlineStr">
         <is>
@@ -63926,7 +63926,7 @@
         <v>45110</v>
       </c>
       <c r="C1008" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D1008" t="inlineStr">
         <is>
@@ -63983,7 +63983,7 @@
         <v>45110</v>
       </c>
       <c r="C1009" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D1009" t="inlineStr">
         <is>
@@ -64045,7 +64045,7 @@
         <v>45112</v>
       </c>
       <c r="C1010" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D1010" t="inlineStr">
         <is>
@@ -64102,7 +64102,7 @@
         <v>45112</v>
       </c>
       <c r="C1011" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D1011" t="inlineStr">
         <is>
@@ -64164,7 +64164,7 @@
         <v>45113</v>
       </c>
       <c r="C1012" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D1012" t="inlineStr">
         <is>
@@ -64221,7 +64221,7 @@
         <v>45113</v>
       </c>
       <c r="C1013" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D1013" t="inlineStr">
         <is>
@@ -64278,7 +64278,7 @@
         <v>45114</v>
       </c>
       <c r="C1014" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D1014" t="inlineStr">
         <is>
@@ -64340,7 +64340,7 @@
         <v>45118</v>
       </c>
       <c r="C1015" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D1015" t="inlineStr">
         <is>
@@ -64397,7 +64397,7 @@
         <v>45118</v>
       </c>
       <c r="C1016" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D1016" t="inlineStr">
         <is>
@@ -64454,7 +64454,7 @@
         <v>45119</v>
       </c>
       <c r="C1017" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D1017" t="inlineStr">
         <is>
@@ -64511,7 +64511,7 @@
         <v>45119</v>
       </c>
       <c r="C1018" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D1018" t="inlineStr">
         <is>
@@ -64568,7 +64568,7 @@
         <v>45121</v>
       </c>
       <c r="C1019" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D1019" t="inlineStr">
         <is>
@@ -64630,7 +64630,7 @@
         <v>45124</v>
       </c>
       <c r="C1020" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D1020" t="inlineStr">
         <is>
@@ -64692,7 +64692,7 @@
         <v>45125</v>
       </c>
       <c r="C1021" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D1021" t="inlineStr">
         <is>
@@ -64749,7 +64749,7 @@
         <v>45125</v>
       </c>
       <c r="C1022" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D1022" t="inlineStr">
         <is>
@@ -64806,7 +64806,7 @@
         <v>45125</v>
       </c>
       <c r="C1023" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D1023" t="inlineStr">
         <is>
@@ -64868,7 +64868,7 @@
         <v>45125</v>
       </c>
       <c r="C1024" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D1024" t="inlineStr">
         <is>
@@ -64925,7 +64925,7 @@
         <v>45127</v>
       </c>
       <c r="C1025" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D1025" t="inlineStr">
         <is>
@@ -64987,7 +64987,7 @@
         <v>45127</v>
       </c>
       <c r="C1026" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D1026" t="inlineStr">
         <is>
@@ -65049,7 +65049,7 @@
         <v>45127</v>
       </c>
       <c r="C1027" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D1027" t="inlineStr">
         <is>
@@ -65106,7 +65106,7 @@
         <v>45127</v>
       </c>
       <c r="C1028" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D1028" t="inlineStr">
         <is>
@@ -65168,7 +65168,7 @@
         <v>45141</v>
       </c>
       <c r="C1029" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D1029" t="inlineStr">
         <is>
@@ -65225,7 +65225,7 @@
         <v>45142</v>
       </c>
       <c r="C1030" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D1030" t="inlineStr">
         <is>
@@ -65282,7 +65282,7 @@
         <v>45145</v>
       </c>
       <c r="C1031" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D1031" t="inlineStr">
         <is>
@@ -65339,7 +65339,7 @@
         <v>45145</v>
       </c>
       <c r="C1032" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D1032" t="inlineStr">
         <is>
@@ -65396,7 +65396,7 @@
         <v>45147</v>
       </c>
       <c r="C1033" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D1033" t="inlineStr">
         <is>
@@ -65453,7 +65453,7 @@
         <v>45148</v>
       </c>
       <c r="C1034" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D1034" t="inlineStr">
         <is>
@@ -65510,7 +65510,7 @@
         <v>45148</v>
       </c>
       <c r="C1035" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D1035" t="inlineStr">
         <is>
@@ -65567,7 +65567,7 @@
         <v>45159</v>
       </c>
       <c r="C1036" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D1036" t="inlineStr">
         <is>
@@ -65629,7 +65629,7 @@
         <v>45159</v>
       </c>
       <c r="C1037" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D1037" t="inlineStr">
         <is>
@@ -65691,7 +65691,7 @@
         <v>45160</v>
       </c>
       <c r="C1038" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D1038" t="inlineStr">
         <is>
@@ -65753,7 +65753,7 @@
         <v>45160</v>
       </c>
       <c r="C1039" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D1039" t="inlineStr">
         <is>
@@ -65815,7 +65815,7 @@
         <v>45162</v>
       </c>
       <c r="C1040" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D1040" t="inlineStr">
         <is>
@@ -65872,7 +65872,7 @@
         <v>45167</v>
       </c>
       <c r="C1041" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D1041" t="inlineStr">
         <is>
@@ -65929,7 +65929,7 @@
         <v>45168</v>
       </c>
       <c r="C1042" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D1042" t="inlineStr">
         <is>
@@ -65991,7 +65991,7 @@
         <v>45173</v>
       </c>
       <c r="C1043" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D1043" t="inlineStr">
         <is>

--- a/Översikt LJUSDAL.xlsx
+++ b/Översikt LJUSDAL.xlsx
@@ -572,7 +572,7 @@
         <v>44358</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -675,7 +675,7 @@
         <v>43922</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -781,7 +781,7 @@
         <v>44449</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -881,7 +881,7 @@
         <v>43354</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         <v>43798</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1081,7 +1081,7 @@
         <v>43872</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1174,7 +1174,7 @@
         <v>44722</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1271,7 +1271,7 @@
         <v>44743</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1369,7 +1369,7 @@
         <v>44194</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1465,7 +1465,7 @@
         <v>45096</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1557,7 +1557,7 @@
         <v>43343</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1648,7 +1648,7 @@
         <v>44869</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1744,7 +1744,7 @@
         <v>44687</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1843,7 +1843,7 @@
         <v>44687</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1942,7 +1942,7 @@
         <v>44700</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2037,7 +2037,7 @@
         <v>43711</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2131,7 +2131,7 @@
         <v>44530</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2224,7 +2224,7 @@
         <v>44755</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2322,7 +2322,7 @@
         <v>44774</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2420,7 +2420,7 @@
         <v>44775</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2514,7 +2514,7 @@
         <v>44902</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2607,7 +2607,7 @@
         <v>45089</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2700,7 +2700,7 @@
         <v>45090</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2793,7 +2793,7 @@
         <v>43367</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2881,7 +2881,7 @@
         <v>43432</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2974,7 +2974,7 @@
         <v>43872</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3062,7 +3062,7 @@
         <v>44449</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3155,7 +3155,7 @@
         <v>44686</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3247,7 +3247,7 @@
         <v>45072</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3339,7 +3339,7 @@
         <v>45093</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3432,7 +3432,7 @@
         <v>43357</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3519,7 +3519,7 @@
         <v>43628</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3615,7 +3615,7 @@
         <v>43852</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3711,7 +3711,7 @@
         <v>43872</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3798,7 +3798,7 @@
         <v>43977</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3890,7 +3890,7 @@
         <v>44137</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3981,7 +3981,7 @@
         <v>44148</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4073,7 +4073,7 @@
         <v>44152</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4165,7 +4165,7 @@
         <v>44169</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4257,7 +4257,7 @@
         <v>44326</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4349,7 +4349,7 @@
         <v>44706</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4441,7 +4441,7 @@
         <v>44708</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4533,7 +4533,7 @@
         <v>44734</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4625,7 +4625,7 @@
         <v>44821</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4717,7 +4717,7 @@
         <v>44998</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4808,7 +4808,7 @@
         <v>43338</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4894,7 +4894,7 @@
         <v>43354</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4985,7 +4985,7 @@
         <v>43377</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5071,7 +5071,7 @@
         <v>43381</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5162,7 +5162,7 @@
         <v>43476</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5248,7 +5248,7 @@
         <v>43629</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5343,7 +5343,7 @@
         <v>43977</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5434,7 +5434,7 @@
         <v>44322</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5525,7 +5525,7 @@
         <v>44351</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5616,7 +5616,7 @@
         <v>44357</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5707,7 +5707,7 @@
         <v>44438</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5798,7 +5798,7 @@
         <v>44722</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5893,7 +5893,7 @@
         <v>44988</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5979,7 +5979,7 @@
         <v>45092</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6070,7 +6070,7 @@
         <v>45110</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6161,7 +6161,7 @@
         <v>43347</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6246,7 +6246,7 @@
         <v>43355</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6336,7 +6336,7 @@
         <v>43367</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6421,7 +6421,7 @@
         <v>43385</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6511,7 +6511,7 @@
         <v>43385</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6601,7 +6601,7 @@
         <v>43389</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6691,7 +6691,7 @@
         <v>43445</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6781,7 +6781,7 @@
         <v>43481</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6866,7 +6866,7 @@
         <v>43557</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6951,7 +6951,7 @@
         <v>43811</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7036,7 +7036,7 @@
         <v>43872</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7121,7 +7121,7 @@
         <v>43936</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7206,7 +7206,7 @@
         <v>43979</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7296,7 +7296,7 @@
         <v>44062</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7390,7 +7390,7 @@
         <v>44069</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7480,7 +7480,7 @@
         <v>44342</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7569,7 +7569,7 @@
         <v>44379</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7659,7 +7659,7 @@
         <v>44405</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7753,7 +7753,7 @@
         <v>44406</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7843,7 +7843,7 @@
         <v>44432</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7933,7 +7933,7 @@
         <v>44438</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8023,7 +8023,7 @@
         <v>44449</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8113,7 +8113,7 @@
         <v>44480</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8198,7 +8198,7 @@
         <v>44489</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8288,7 +8288,7 @@
         <v>44491</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8382,7 +8382,7 @@
         <v>44662</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8476,7 +8476,7 @@
         <v>44684</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8566,7 +8566,7 @@
         <v>44742</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8656,7 +8656,7 @@
         <v>44743</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8746,7 +8746,7 @@
         <v>44763</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8836,7 +8836,7 @@
         <v>44778</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8926,7 +8926,7 @@
         <v>44784</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -9016,7 +9016,7 @@
         <v>44833</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -9101,7 +9101,7 @@
         <v>44839</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9191,7 +9191,7 @@
         <v>44988</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9276,7 +9276,7 @@
         <v>45086</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9365,7 +9365,7 @@
         <v>45090</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9455,7 +9455,7 @@
         <v>45092</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9545,7 +9545,7 @@
         <v>45107</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9630,7 +9630,7 @@
         <v>45162</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9719,7 +9719,7 @@
         <v>43319</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -9781,7 +9781,7 @@
         <v>43320</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -9838,7 +9838,7 @@
         <v>43329</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9895,7 +9895,7 @@
         <v>43329</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9957,7 +9957,7 @@
         <v>43329</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -10014,7 +10014,7 @@
         <v>43329</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -10071,7 +10071,7 @@
         <v>43329</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -10128,7 +10128,7 @@
         <v>43333</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -10185,7 +10185,7 @@
         <v>43334</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -10242,7 +10242,7 @@
         <v>43342</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -10304,7 +10304,7 @@
         <v>43347</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -10361,7 +10361,7 @@
         <v>43348</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -10418,7 +10418,7 @@
         <v>43348</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -10480,7 +10480,7 @@
         <v>43349</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -10537,7 +10537,7 @@
         <v>43349</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -10594,7 +10594,7 @@
         <v>43349</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -10651,7 +10651,7 @@
         <v>43353</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -10708,7 +10708,7 @@
         <v>43353</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -10765,7 +10765,7 @@
         <v>43354</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -10827,7 +10827,7 @@
         <v>43355</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -10889,7 +10889,7 @@
         <v>43355</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -10951,7 +10951,7 @@
         <v>43369</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -11008,7 +11008,7 @@
         <v>43369</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -11070,7 +11070,7 @@
         <v>43370</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -11132,7 +11132,7 @@
         <v>43376</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -11189,7 +11189,7 @@
         <v>43377</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -11251,7 +11251,7 @@
         <v>43381</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -11308,7 +11308,7 @@
         <v>43381</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -11365,7 +11365,7 @@
         <v>43381</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -11422,7 +11422,7 @@
         <v>43381</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -11479,7 +11479,7 @@
         <v>43382</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -11541,7 +11541,7 @@
         <v>43382</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -11603,7 +11603,7 @@
         <v>43385</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -11665,7 +11665,7 @@
         <v>43385</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -11727,7 +11727,7 @@
         <v>43389</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -11789,7 +11789,7 @@
         <v>43391</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -11846,7 +11846,7 @@
         <v>43391</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -11903,7 +11903,7 @@
         <v>43395</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -11960,7 +11960,7 @@
         <v>43403</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -12022,7 +12022,7 @@
         <v>43409</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -12079,7 +12079,7 @@
         <v>43409</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -12136,7 +12136,7 @@
         <v>43410</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -12193,7 +12193,7 @@
         <v>43410</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -12255,7 +12255,7 @@
         <v>43410</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -12317,7 +12317,7 @@
         <v>43411</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -12374,7 +12374,7 @@
         <v>43412</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -12431,7 +12431,7 @@
         <v>43412</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -12488,7 +12488,7 @@
         <v>43412</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -12545,7 +12545,7 @@
         <v>43416</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -12607,7 +12607,7 @@
         <v>43416</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -12669,7 +12669,7 @@
         <v>43419</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -12726,7 +12726,7 @@
         <v>43419</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -12783,7 +12783,7 @@
         <v>43420</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -12840,7 +12840,7 @@
         <v>43420</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -12897,7 +12897,7 @@
         <v>43424</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -12954,7 +12954,7 @@
         <v>43425</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -13016,7 +13016,7 @@
         <v>43425</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -13073,7 +13073,7 @@
         <v>43425</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -13135,7 +13135,7 @@
         <v>43425</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -13192,7 +13192,7 @@
         <v>43427</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -13254,7 +13254,7 @@
         <v>43430</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -13316,7 +13316,7 @@
         <v>43431</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -13378,7 +13378,7 @@
         <v>43431</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -13435,7 +13435,7 @@
         <v>43432</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -13497,7 +13497,7 @@
         <v>43432</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -13554,7 +13554,7 @@
         <v>43432</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -13616,7 +13616,7 @@
         <v>43434</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -13678,7 +13678,7 @@
         <v>43437</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -13740,7 +13740,7 @@
         <v>43438</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -13802,7 +13802,7 @@
         <v>43439</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -13859,7 +13859,7 @@
         <v>43439</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -13916,7 +13916,7 @@
         <v>43439</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -13973,7 +13973,7 @@
         <v>43441</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -14035,7 +14035,7 @@
         <v>43441</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -14092,7 +14092,7 @@
         <v>43444</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -14149,7 +14149,7 @@
         <v>43444</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -14206,7 +14206,7 @@
         <v>43444</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -14263,7 +14263,7 @@
         <v>43444</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -14320,7 +14320,7 @@
         <v>43445</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -14382,7 +14382,7 @@
         <v>43445</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -14444,7 +14444,7 @@
         <v>43448</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -14506,7 +14506,7 @@
         <v>43448</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -14568,7 +14568,7 @@
         <v>43448</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -14630,7 +14630,7 @@
         <v>43449</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -14687,7 +14687,7 @@
         <v>43452</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -14744,7 +14744,7 @@
         <v>43452</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -14806,7 +14806,7 @@
         <v>43453</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -14863,7 +14863,7 @@
         <v>43455</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -14925,7 +14925,7 @@
         <v>43455</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -14982,7 +14982,7 @@
         <v>43468</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -15039,7 +15039,7 @@
         <v>43469</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -15096,7 +15096,7 @@
         <v>43472</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -15153,7 +15153,7 @@
         <v>43472</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -15215,7 +15215,7 @@
         <v>43472</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -15277,7 +15277,7 @@
         <v>43474</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -15339,7 +15339,7 @@
         <v>43481</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -15396,7 +15396,7 @@
         <v>43483</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -15453,7 +15453,7 @@
         <v>43486</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -15515,7 +15515,7 @@
         <v>43487</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -15572,7 +15572,7 @@
         <v>43489</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -15629,7 +15629,7 @@
         <v>43490</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -15691,7 +15691,7 @@
         <v>43493</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -15748,7 +15748,7 @@
         <v>43497</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -15810,7 +15810,7 @@
         <v>43501</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -15867,7 +15867,7 @@
         <v>43508</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -15924,7 +15924,7 @@
         <v>43508</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -15981,7 +15981,7 @@
         <v>43510</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -16038,7 +16038,7 @@
         <v>43510</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -16095,7 +16095,7 @@
         <v>43514</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -16152,7 +16152,7 @@
         <v>43514</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -16209,7 +16209,7 @@
         <v>43515</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -16271,7 +16271,7 @@
         <v>43516</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -16328,7 +16328,7 @@
         <v>43516</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -16385,7 +16385,7 @@
         <v>43517</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -16442,7 +16442,7 @@
         <v>43517</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -16499,7 +16499,7 @@
         <v>43521</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -16556,7 +16556,7 @@
         <v>43521</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -16613,7 +16613,7 @@
         <v>43524</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -16670,7 +16670,7 @@
         <v>43524</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -16727,7 +16727,7 @@
         <v>43524</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -16784,7 +16784,7 @@
         <v>43525</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -16841,7 +16841,7 @@
         <v>43525</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -16898,7 +16898,7 @@
         <v>43528</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -16955,7 +16955,7 @@
         <v>43535</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -17012,7 +17012,7 @@
         <v>43536</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -17069,7 +17069,7 @@
         <v>43542</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -17126,7 +17126,7 @@
         <v>43549</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -17183,7 +17183,7 @@
         <v>43549</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -17240,7 +17240,7 @@
         <v>43550</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -17297,7 +17297,7 @@
         <v>43552</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -17354,7 +17354,7 @@
         <v>43552</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -17411,7 +17411,7 @@
         <v>43552</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -17468,7 +17468,7 @@
         <v>43557</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -17525,7 +17525,7 @@
         <v>43557</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -17587,7 +17587,7 @@
         <v>43578</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -17664,7 +17664,7 @@
         <v>43581</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -17726,7 +17726,7 @@
         <v>43584</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -17788,7 +17788,7 @@
         <v>43600</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -17850,7 +17850,7 @@
         <v>43600</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -17912,7 +17912,7 @@
         <v>43601</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -17969,7 +17969,7 @@
         <v>43601</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -18026,7 +18026,7 @@
         <v>43605</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -18083,7 +18083,7 @@
         <v>43607</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -18140,7 +18140,7 @@
         <v>43612</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -18202,7 +18202,7 @@
         <v>43613</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -18264,7 +18264,7 @@
         <v>43616</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -18326,7 +18326,7 @@
         <v>43619</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -18383,7 +18383,7 @@
         <v>43619</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -18445,7 +18445,7 @@
         <v>43619</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -18507,7 +18507,7 @@
         <v>43619</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -18569,7 +18569,7 @@
         <v>43619</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -18631,7 +18631,7 @@
         <v>43620</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -18688,7 +18688,7 @@
         <v>43628</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -18745,7 +18745,7 @@
         <v>43628</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -18807,7 +18807,7 @@
         <v>43628</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -18869,7 +18869,7 @@
         <v>43629</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -18926,7 +18926,7 @@
         <v>43629</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -18988,7 +18988,7 @@
         <v>43630</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -19050,7 +19050,7 @@
         <v>43630</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -19112,7 +19112,7 @@
         <v>43636</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -19174,7 +19174,7 @@
         <v>43636</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -19236,7 +19236,7 @@
         <v>43641</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -19293,7 +19293,7 @@
         <v>43642</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -19355,7 +19355,7 @@
         <v>43642</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -19417,7 +19417,7 @@
         <v>43644</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -19474,7 +19474,7 @@
         <v>43650</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -19531,7 +19531,7 @@
         <v>43651</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -19593,7 +19593,7 @@
         <v>43651</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -19655,7 +19655,7 @@
         <v>43655</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -19712,7 +19712,7 @@
         <v>43656</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -19769,7 +19769,7 @@
         <v>43661</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -19826,7 +19826,7 @@
         <v>43661</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -19883,7 +19883,7 @@
         <v>43661</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -19940,7 +19940,7 @@
         <v>43662</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -20002,7 +20002,7 @@
         <v>43663</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -20059,7 +20059,7 @@
         <v>43663</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -20116,7 +20116,7 @@
         <v>43665</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -20173,7 +20173,7 @@
         <v>43665</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -20235,7 +20235,7 @@
         <v>43668</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -20292,7 +20292,7 @@
         <v>43668</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -20354,7 +20354,7 @@
         <v>43669</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -20411,7 +20411,7 @@
         <v>43677</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -20468,7 +20468,7 @@
         <v>43679</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -20525,7 +20525,7 @@
         <v>43679</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -20582,7 +20582,7 @@
         <v>43686</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -20639,7 +20639,7 @@
         <v>43691</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -20696,7 +20696,7 @@
         <v>43692</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -20753,7 +20753,7 @@
         <v>43693</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -20815,7 +20815,7 @@
         <v>43693</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -20877,7 +20877,7 @@
         <v>43693</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -20939,7 +20939,7 @@
         <v>43697</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -21001,7 +21001,7 @@
         <v>43698</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -21058,7 +21058,7 @@
         <v>43698</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -21120,7 +21120,7 @@
         <v>43700</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -21177,7 +21177,7 @@
         <v>43700</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -21239,7 +21239,7 @@
         <v>43700</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -21296,7 +21296,7 @@
         <v>43704</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -21353,7 +21353,7 @@
         <v>43705</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -21415,7 +21415,7 @@
         <v>43710</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -21477,7 +21477,7 @@
         <v>43710</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -21539,7 +21539,7 @@
         <v>43710</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -21601,7 +21601,7 @@
         <v>43712</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -21658,7 +21658,7 @@
         <v>43713</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -21720,7 +21720,7 @@
         <v>43714</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -21782,7 +21782,7 @@
         <v>43714</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -21844,7 +21844,7 @@
         <v>43717</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -21901,7 +21901,7 @@
         <v>43719</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -21963,7 +21963,7 @@
         <v>43720</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -22025,7 +22025,7 @@
         <v>43721</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -22082,7 +22082,7 @@
         <v>43721</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -22139,7 +22139,7 @@
         <v>43721</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -22196,7 +22196,7 @@
         <v>43726</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -22258,7 +22258,7 @@
         <v>43726</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -22320,7 +22320,7 @@
         <v>43727</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -22382,7 +22382,7 @@
         <v>43728</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -22444,7 +22444,7 @@
         <v>43731</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -22501,7 +22501,7 @@
         <v>43732</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -22563,7 +22563,7 @@
         <v>43732</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -22625,7 +22625,7 @@
         <v>43734</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -22682,7 +22682,7 @@
         <v>43735</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -22739,7 +22739,7 @@
         <v>43738</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -22796,7 +22796,7 @@
         <v>43738</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -22853,7 +22853,7 @@
         <v>43741</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -22915,7 +22915,7 @@
         <v>43742</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -22972,7 +22972,7 @@
         <v>43745</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -23029,7 +23029,7 @@
         <v>43745</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -23091,7 +23091,7 @@
         <v>43746</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -23148,7 +23148,7 @@
         <v>43747</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -23210,7 +23210,7 @@
         <v>43748</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -23272,7 +23272,7 @@
         <v>43749</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -23334,7 +23334,7 @@
         <v>43754</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -23396,7 +23396,7 @@
         <v>43754</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -23458,7 +23458,7 @@
         <v>43755</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -23520,7 +23520,7 @@
         <v>43755</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -23582,7 +23582,7 @@
         <v>43759</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -23644,7 +23644,7 @@
         <v>43759</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -23701,7 +23701,7 @@
         <v>43760</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -23763,7 +23763,7 @@
         <v>43763</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -23820,7 +23820,7 @@
         <v>43763</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -23877,7 +23877,7 @@
         <v>43767</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -23939,7 +23939,7 @@
         <v>43774</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -23996,7 +23996,7 @@
         <v>43774</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -24053,7 +24053,7 @@
         <v>43775</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -24110,7 +24110,7 @@
         <v>43775</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -24167,7 +24167,7 @@
         <v>43776</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -24224,7 +24224,7 @@
         <v>43776</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -24281,7 +24281,7 @@
         <v>43777</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -24343,7 +24343,7 @@
         <v>43781</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -24405,7 +24405,7 @@
         <v>43781</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -24467,7 +24467,7 @@
         <v>43782</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -24524,7 +24524,7 @@
         <v>43782</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -24581,7 +24581,7 @@
         <v>43784</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -24643,7 +24643,7 @@
         <v>43787</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -24705,7 +24705,7 @@
         <v>43787</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -24767,7 +24767,7 @@
         <v>43789</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -24829,7 +24829,7 @@
         <v>43789</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -24891,7 +24891,7 @@
         <v>43791</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -24953,7 +24953,7 @@
         <v>43791</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -25015,7 +25015,7 @@
         <v>43791</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -25077,7 +25077,7 @@
         <v>43794</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -25134,7 +25134,7 @@
         <v>43794</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -25191,7 +25191,7 @@
         <v>43797</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -25248,7 +25248,7 @@
         <v>43801</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -25310,7 +25310,7 @@
         <v>43802</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -25367,7 +25367,7 @@
         <v>43802</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -25424,7 +25424,7 @@
         <v>43808</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -25481,7 +25481,7 @@
         <v>43810</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -25543,7 +25543,7 @@
         <v>43810</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -25605,7 +25605,7 @@
         <v>43815</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -25662,7 +25662,7 @@
         <v>43815</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -25719,7 +25719,7 @@
         <v>43816</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -25776,7 +25776,7 @@
         <v>43837</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -25833,7 +25833,7 @@
         <v>43838</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -25890,7 +25890,7 @@
         <v>43840</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -25952,7 +25952,7 @@
         <v>43850</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -26009,7 +26009,7 @@
         <v>43850</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -26066,7 +26066,7 @@
         <v>43850</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -26123,7 +26123,7 @@
         <v>43850</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -26180,7 +26180,7 @@
         <v>43851</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -26237,7 +26237,7 @@
         <v>43851</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -26294,7 +26294,7 @@
         <v>43858</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -26351,7 +26351,7 @@
         <v>43861</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -26408,7 +26408,7 @@
         <v>43865</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -26465,7 +26465,7 @@
         <v>43866</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -26522,7 +26522,7 @@
         <v>43879</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -26579,7 +26579,7 @@
         <v>43882</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -26636,7 +26636,7 @@
         <v>43885</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -26693,7 +26693,7 @@
         <v>43886</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -26750,7 +26750,7 @@
         <v>43886</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -26807,7 +26807,7 @@
         <v>43892</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -26864,7 +26864,7 @@
         <v>43892</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -26921,7 +26921,7 @@
         <v>43894</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -26983,7 +26983,7 @@
         <v>43902</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -27045,7 +27045,7 @@
         <v>43903</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -27102,7 +27102,7 @@
         <v>43908</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -27159,7 +27159,7 @@
         <v>43913</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -27216,7 +27216,7 @@
         <v>43913</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -27273,7 +27273,7 @@
         <v>43922</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -27335,7 +27335,7 @@
         <v>43924</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -27392,7 +27392,7 @@
         <v>43924</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -27449,7 +27449,7 @@
         <v>43930</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -27506,7 +27506,7 @@
         <v>43935</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -27568,7 +27568,7 @@
         <v>43943</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -27625,7 +27625,7 @@
         <v>43943</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -27682,7 +27682,7 @@
         <v>43943</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -27739,7 +27739,7 @@
         <v>43944</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -27796,7 +27796,7 @@
         <v>43944</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -27853,7 +27853,7 @@
         <v>43945</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -27910,7 +27910,7 @@
         <v>43945</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -27972,7 +27972,7 @@
         <v>43945</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -28029,7 +28029,7 @@
         <v>43945</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -28091,7 +28091,7 @@
         <v>43949</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -28153,7 +28153,7 @@
         <v>43951</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -28215,7 +28215,7 @@
         <v>43951</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -28277,7 +28277,7 @@
         <v>43951</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -28339,7 +28339,7 @@
         <v>43951</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -28401,7 +28401,7 @@
         <v>43951</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -28458,7 +28458,7 @@
         <v>43955</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -28520,7 +28520,7 @@
         <v>43959</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -28582,7 +28582,7 @@
         <v>43959</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -28644,7 +28644,7 @@
         <v>43959</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -28706,7 +28706,7 @@
         <v>43959</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -28768,7 +28768,7 @@
         <v>43962</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -28830,7 +28830,7 @@
         <v>43962</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -28892,7 +28892,7 @@
         <v>43962</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -28954,7 +28954,7 @@
         <v>43962</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -29016,7 +29016,7 @@
         <v>43964</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -29078,7 +29078,7 @@
         <v>43965</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -29140,7 +29140,7 @@
         <v>43965</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -29202,7 +29202,7 @@
         <v>43966</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -29264,7 +29264,7 @@
         <v>43966</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -29326,7 +29326,7 @@
         <v>43966</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -29388,7 +29388,7 @@
         <v>43969</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -29450,7 +29450,7 @@
         <v>43971</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -29512,7 +29512,7 @@
         <v>43971</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -29574,7 +29574,7 @@
         <v>43971</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -29636,7 +29636,7 @@
         <v>43977</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -29698,7 +29698,7 @@
         <v>43978</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -29755,7 +29755,7 @@
         <v>43979</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -29817,7 +29817,7 @@
         <v>43979</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -29879,7 +29879,7 @@
         <v>43979</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -29941,7 +29941,7 @@
         <v>43979</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -30003,7 +30003,7 @@
         <v>43979</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -30065,7 +30065,7 @@
         <v>43986</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -30122,7 +30122,7 @@
         <v>43990</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -30184,7 +30184,7 @@
         <v>43990</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -30246,7 +30246,7 @@
         <v>43991</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -30308,7 +30308,7 @@
         <v>43993</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -30370,7 +30370,7 @@
         <v>44000</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -30432,7 +30432,7 @@
         <v>44000</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -30494,7 +30494,7 @@
         <v>44005</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -30556,7 +30556,7 @@
         <v>44005</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -30618,7 +30618,7 @@
         <v>44006</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -30675,7 +30675,7 @@
         <v>44007</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -30737,7 +30737,7 @@
         <v>44007</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -30799,7 +30799,7 @@
         <v>44008</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -30861,7 +30861,7 @@
         <v>44008</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -30923,7 +30923,7 @@
         <v>44014</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -30985,7 +30985,7 @@
         <v>44014</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -31047,7 +31047,7 @@
         <v>44014</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -31109,7 +31109,7 @@
         <v>44022</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -31171,7 +31171,7 @@
         <v>44022</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -31228,7 +31228,7 @@
         <v>44025</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -31285,7 +31285,7 @@
         <v>44026</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -31347,7 +31347,7 @@
         <v>44027</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -31404,7 +31404,7 @@
         <v>44028</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -31466,7 +31466,7 @@
         <v>44029</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -31528,7 +31528,7 @@
         <v>44029</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -31590,7 +31590,7 @@
         <v>44031</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -31652,7 +31652,7 @@
         <v>44032</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -31709,7 +31709,7 @@
         <v>44032</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -31771,7 +31771,7 @@
         <v>44032</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -31833,7 +31833,7 @@
         <v>44033</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -31890,7 +31890,7 @@
         <v>44041</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -31952,7 +31952,7 @@
         <v>44041</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -32014,7 +32014,7 @@
         <v>44041</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -32076,7 +32076,7 @@
         <v>44042</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -32138,7 +32138,7 @@
         <v>44049</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -32200,7 +32200,7 @@
         <v>44049</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -32262,7 +32262,7 @@
         <v>44053</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -32319,7 +32319,7 @@
         <v>44056</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -32381,7 +32381,7 @@
         <v>44057</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -32443,7 +32443,7 @@
         <v>44060</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -32505,7 +32505,7 @@
         <v>44061</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -32562,7 +32562,7 @@
         <v>44061</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -32619,7 +32619,7 @@
         <v>44061</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -32676,7 +32676,7 @@
         <v>44061</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -32738,7 +32738,7 @@
         <v>44062</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -32800,7 +32800,7 @@
         <v>44064</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -32862,7 +32862,7 @@
         <v>44064</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -32924,7 +32924,7 @@
         <v>44064</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -32986,7 +32986,7 @@
         <v>44064</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -33048,7 +33048,7 @@
         <v>44067</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -33110,7 +33110,7 @@
         <v>44068</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -33172,7 +33172,7 @@
         <v>44069</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -33234,7 +33234,7 @@
         <v>44069</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -33296,7 +33296,7 @@
         <v>44069</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -33358,7 +33358,7 @@
         <v>44069</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -33420,7 +33420,7 @@
         <v>44070</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -33477,7 +33477,7 @@
         <v>44074</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -33539,7 +33539,7 @@
         <v>44074</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -33601,7 +33601,7 @@
         <v>44075</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -33663,7 +33663,7 @@
         <v>44075</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -33725,7 +33725,7 @@
         <v>44075</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -33787,7 +33787,7 @@
         <v>44078</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -33844,7 +33844,7 @@
         <v>44078</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -33901,7 +33901,7 @@
         <v>44078</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -33963,7 +33963,7 @@
         <v>44080</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -34025,7 +34025,7 @@
         <v>44081</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -34087,7 +34087,7 @@
         <v>44081</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -34149,7 +34149,7 @@
         <v>44082</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -34211,7 +34211,7 @@
         <v>44082</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -34268,7 +34268,7 @@
         <v>44082</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -34330,7 +34330,7 @@
         <v>44083</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -34387,7 +34387,7 @@
         <v>44084</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -34449,7 +34449,7 @@
         <v>44085</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -34511,7 +34511,7 @@
         <v>44085</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -34573,7 +34573,7 @@
         <v>44085</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -34635,7 +34635,7 @@
         <v>44085</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -34697,7 +34697,7 @@
         <v>44085</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -34754,7 +34754,7 @@
         <v>44088</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -34816,7 +34816,7 @@
         <v>44088</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -34878,7 +34878,7 @@
         <v>44088</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -34940,7 +34940,7 @@
         <v>44088</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -35002,7 +35002,7 @@
         <v>44091</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -35064,7 +35064,7 @@
         <v>44092</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -35126,7 +35126,7 @@
         <v>44092</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -35188,7 +35188,7 @@
         <v>44092</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -35250,7 +35250,7 @@
         <v>44095</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -35307,7 +35307,7 @@
         <v>44099</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -35369,7 +35369,7 @@
         <v>44099</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -35431,7 +35431,7 @@
         <v>44099</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -35493,7 +35493,7 @@
         <v>44103</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -35555,7 +35555,7 @@
         <v>44103</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -35617,7 +35617,7 @@
         <v>44104</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -35679,7 +35679,7 @@
         <v>44104</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -35741,7 +35741,7 @@
         <v>44104</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -35803,7 +35803,7 @@
         <v>44108</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -35860,7 +35860,7 @@
         <v>44109</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -35922,7 +35922,7 @@
         <v>44109</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -35984,7 +35984,7 @@
         <v>44110</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -36046,7 +36046,7 @@
         <v>44111</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -36108,7 +36108,7 @@
         <v>44112</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -36170,7 +36170,7 @@
         <v>44112</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -36227,7 +36227,7 @@
         <v>44112</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -36289,7 +36289,7 @@
         <v>44116</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -36351,7 +36351,7 @@
         <v>44116</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -36413,7 +36413,7 @@
         <v>44116</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -36470,7 +36470,7 @@
         <v>44116</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -36532,7 +36532,7 @@
         <v>44116</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -36594,7 +36594,7 @@
         <v>44117</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -36656,7 +36656,7 @@
         <v>44119</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -36718,7 +36718,7 @@
         <v>44119</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -36780,7 +36780,7 @@
         <v>44119</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -36842,7 +36842,7 @@
         <v>44120</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -36904,7 +36904,7 @@
         <v>44123</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -36966,7 +36966,7 @@
         <v>44124</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -37028,7 +37028,7 @@
         <v>44124</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -37085,7 +37085,7 @@
         <v>44125</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -37142,7 +37142,7 @@
         <v>44125</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -37204,7 +37204,7 @@
         <v>44125</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -37266,7 +37266,7 @@
         <v>44125</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -37328,7 +37328,7 @@
         <v>44126</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -37390,7 +37390,7 @@
         <v>44126</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -37452,7 +37452,7 @@
         <v>44126</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -37509,7 +37509,7 @@
         <v>44126</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -37571,7 +37571,7 @@
         <v>44133</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -37633,7 +37633,7 @@
         <v>44141</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -37695,7 +37695,7 @@
         <v>44144</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -37757,7 +37757,7 @@
         <v>44145</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -37819,7 +37819,7 @@
         <v>44146</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -37876,7 +37876,7 @@
         <v>44147</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -37938,7 +37938,7 @@
         <v>44148</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -38000,7 +38000,7 @@
         <v>44148</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -38062,7 +38062,7 @@
         <v>44150</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -38124,7 +38124,7 @@
         <v>44151</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -38186,7 +38186,7 @@
         <v>44159</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -38248,7 +38248,7 @@
         <v>44159</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -38305,7 +38305,7 @@
         <v>44160</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -38367,7 +38367,7 @@
         <v>44161</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -38424,7 +38424,7 @@
         <v>44162</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -38486,7 +38486,7 @@
         <v>44162</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -38548,7 +38548,7 @@
         <v>44166</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -38605,7 +38605,7 @@
         <v>44167</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -38667,7 +38667,7 @@
         <v>44179</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -38729,7 +38729,7 @@
         <v>44180</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -38791,7 +38791,7 @@
         <v>44180</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -38853,7 +38853,7 @@
         <v>44194</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -38910,7 +38910,7 @@
         <v>44194</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -38987,7 +38987,7 @@
         <v>44199</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -39044,7 +39044,7 @@
         <v>44200</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -39101,7 +39101,7 @@
         <v>44203</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -39163,7 +39163,7 @@
         <v>44208</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -39225,7 +39225,7 @@
         <v>44221</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -39282,7 +39282,7 @@
         <v>44223</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -39344,7 +39344,7 @@
         <v>44228</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -39401,7 +39401,7 @@
         <v>44229</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -39458,7 +39458,7 @@
         <v>44236</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -39515,7 +39515,7 @@
         <v>44239</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -39572,7 +39572,7 @@
         <v>44243</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -39629,7 +39629,7 @@
         <v>44250</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -39686,7 +39686,7 @@
         <v>44251</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -39743,7 +39743,7 @@
         <v>44253</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -39800,7 +39800,7 @@
         <v>44259</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -39857,7 +39857,7 @@
         <v>44265</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -39914,7 +39914,7 @@
         <v>44265</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -39971,7 +39971,7 @@
         <v>44267</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -40028,7 +40028,7 @@
         <v>44273</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -40090,7 +40090,7 @@
         <v>44273</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -40152,7 +40152,7 @@
         <v>44294</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -40214,7 +40214,7 @@
         <v>44294</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -40276,7 +40276,7 @@
         <v>44295</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -40338,7 +40338,7 @@
         <v>44302</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -40400,7 +40400,7 @@
         <v>44307</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -40457,7 +40457,7 @@
         <v>44308</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -40514,7 +40514,7 @@
         <v>44308</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -40576,7 +40576,7 @@
         <v>44309</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -40633,7 +40633,7 @@
         <v>44313</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -40695,7 +40695,7 @@
         <v>44313</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -40757,7 +40757,7 @@
         <v>44322</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -40819,7 +40819,7 @@
         <v>44322</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -40881,7 +40881,7 @@
         <v>44322</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -40943,7 +40943,7 @@
         <v>44322</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -41005,7 +41005,7 @@
         <v>44326</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -41062,7 +41062,7 @@
         <v>44326</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -41119,7 +41119,7 @@
         <v>44333</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -41176,7 +41176,7 @@
         <v>44336</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -41233,7 +41233,7 @@
         <v>44341</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -41290,7 +41290,7 @@
         <v>44341</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -41347,7 +41347,7 @@
         <v>44350</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -41409,7 +41409,7 @@
         <v>44350</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -41471,7 +41471,7 @@
         <v>44354</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -41533,7 +41533,7 @@
         <v>44358</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -41595,7 +41595,7 @@
         <v>44358</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -41657,7 +41657,7 @@
         <v>44361</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -41714,7 +41714,7 @@
         <v>44361</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -41776,7 +41776,7 @@
         <v>44361</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -41833,7 +41833,7 @@
         <v>44361</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -41890,7 +41890,7 @@
         <v>44361</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -41947,7 +41947,7 @@
         <v>44361</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -42004,7 +42004,7 @@
         <v>44363</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -42061,7 +42061,7 @@
         <v>44364</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -42118,7 +42118,7 @@
         <v>44365</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -42175,7 +42175,7 @@
         <v>44368</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -42237,7 +42237,7 @@
         <v>44368</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -42299,7 +42299,7 @@
         <v>44378</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -42361,7 +42361,7 @@
         <v>44382</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -42423,7 +42423,7 @@
         <v>44382</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -42485,7 +42485,7 @@
         <v>44382</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -42547,7 +42547,7 @@
         <v>44384</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -42609,7 +42609,7 @@
         <v>44385</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -42666,7 +42666,7 @@
         <v>44390</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -42723,7 +42723,7 @@
         <v>44391</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -42780,7 +42780,7 @@
         <v>44397</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -42842,7 +42842,7 @@
         <v>44400</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -42904,7 +42904,7 @@
         <v>44400</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -42966,7 +42966,7 @@
         <v>44400</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -43028,7 +43028,7 @@
         <v>44403</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -43090,7 +43090,7 @@
         <v>44403</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -43147,7 +43147,7 @@
         <v>44404</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -43204,7 +43204,7 @@
         <v>44406</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -43266,7 +43266,7 @@
         <v>44418</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -43328,7 +43328,7 @@
         <v>44418</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -43390,7 +43390,7 @@
         <v>44419</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -43452,7 +43452,7 @@
         <v>44425</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -43514,7 +43514,7 @@
         <v>44425</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -43576,7 +43576,7 @@
         <v>44426</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -43633,7 +43633,7 @@
         <v>44427</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -43690,7 +43690,7 @@
         <v>44428</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -43752,7 +43752,7 @@
         <v>44431</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -43809,7 +43809,7 @@
         <v>44435</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -43871,7 +43871,7 @@
         <v>44435</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -43933,7 +43933,7 @@
         <v>44435</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -43990,7 +43990,7 @@
         <v>44435</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -44052,7 +44052,7 @@
         <v>44438</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -44114,7 +44114,7 @@
         <v>44439</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -44171,7 +44171,7 @@
         <v>44440</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -44228,7 +44228,7 @@
         <v>44445</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -44290,7 +44290,7 @@
         <v>44445</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -44352,7 +44352,7 @@
         <v>44445</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -44409,7 +44409,7 @@
         <v>44447</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -44471,7 +44471,7 @@
         <v>44447</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -44528,7 +44528,7 @@
         <v>44448</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -44585,7 +44585,7 @@
         <v>44448</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -44642,7 +44642,7 @@
         <v>44449</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -44699,7 +44699,7 @@
         <v>44452</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -44761,7 +44761,7 @@
         <v>44453</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -44823,7 +44823,7 @@
         <v>44455</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -44885,7 +44885,7 @@
         <v>44460</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -44942,7 +44942,7 @@
         <v>44460</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -45004,7 +45004,7 @@
         <v>44460</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -45066,7 +45066,7 @@
         <v>44461</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -45123,7 +45123,7 @@
         <v>44466</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -45180,7 +45180,7 @@
         <v>44467</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -45242,7 +45242,7 @@
         <v>44470</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -45299,7 +45299,7 @@
         <v>44473</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -45356,7 +45356,7 @@
         <v>44475</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -45418,7 +45418,7 @@
         <v>44475</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -45480,7 +45480,7 @@
         <v>44475</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -45537,7 +45537,7 @@
         <v>44480</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -45599,7 +45599,7 @@
         <v>44481</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -45656,7 +45656,7 @@
         <v>44483</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -45718,7 +45718,7 @@
         <v>44484</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -45780,7 +45780,7 @@
         <v>44488</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -45837,7 +45837,7 @@
         <v>44489</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -45899,7 +45899,7 @@
         <v>44489</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -45961,7 +45961,7 @@
         <v>44489</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -46023,7 +46023,7 @@
         <v>44489</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -46085,7 +46085,7 @@
         <v>44490</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -46147,7 +46147,7 @@
         <v>44497</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -46209,7 +46209,7 @@
         <v>44497</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -46266,7 +46266,7 @@
         <v>44497</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -46328,7 +46328,7 @@
         <v>44497</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -46385,7 +46385,7 @@
         <v>44502</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -46442,7 +46442,7 @@
         <v>44503</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -46504,7 +46504,7 @@
         <v>44504</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -46566,7 +46566,7 @@
         <v>44510</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -46628,7 +46628,7 @@
         <v>44511</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -46690,7 +46690,7 @@
         <v>44511</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -46752,7 +46752,7 @@
         <v>44523</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -46814,7 +46814,7 @@
         <v>44523</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -46871,7 +46871,7 @@
         <v>44531</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -46928,7 +46928,7 @@
         <v>44536</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -46985,7 +46985,7 @@
         <v>44538</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -47042,7 +47042,7 @@
         <v>44544</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -47104,7 +47104,7 @@
         <v>44550</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -47166,7 +47166,7 @@
         <v>44551</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -47223,7 +47223,7 @@
         <v>44552</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -47280,7 +47280,7 @@
         <v>44552</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -47337,7 +47337,7 @@
         <v>44564</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -47394,7 +47394,7 @@
         <v>44566</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -47451,7 +47451,7 @@
         <v>44572</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -47508,7 +47508,7 @@
         <v>44579</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -47570,7 +47570,7 @@
         <v>44582</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -47627,7 +47627,7 @@
         <v>44587</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -47689,7 +47689,7 @@
         <v>44592</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -47751,7 +47751,7 @@
         <v>44595</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -47808,7 +47808,7 @@
         <v>44615</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -47865,7 +47865,7 @@
         <v>44615</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -47922,7 +47922,7 @@
         <v>44616</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -47979,7 +47979,7 @@
         <v>44621</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -48041,7 +48041,7 @@
         <v>44627</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -48098,7 +48098,7 @@
         <v>44627</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -48155,7 +48155,7 @@
         <v>44629</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -48212,7 +48212,7 @@
         <v>44648</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -48269,7 +48269,7 @@
         <v>44650</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -48326,7 +48326,7 @@
         <v>44657</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -48383,7 +48383,7 @@
         <v>44662</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -48445,7 +48445,7 @@
         <v>44663</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -48502,7 +48502,7 @@
         <v>44663</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -48559,7 +48559,7 @@
         <v>44685</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -48621,7 +48621,7 @@
         <v>44691</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -48683,7 +48683,7 @@
         <v>44692</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -48745,7 +48745,7 @@
         <v>44692</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -48807,7 +48807,7 @@
         <v>44693</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -48869,7 +48869,7 @@
         <v>44697</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -48926,7 +48926,7 @@
         <v>44701</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -48988,7 +48988,7 @@
         <v>44711</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -49050,7 +49050,7 @@
         <v>44711</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -49112,7 +49112,7 @@
         <v>44712</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -49169,7 +49169,7 @@
         <v>44714</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -49226,7 +49226,7 @@
         <v>44719</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -49283,7 +49283,7 @@
         <v>44726</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -49340,7 +49340,7 @@
         <v>44726</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -49397,7 +49397,7 @@
         <v>44726</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -49454,7 +49454,7 @@
         <v>44726</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -49516,7 +49516,7 @@
         <v>44726</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -49573,7 +49573,7 @@
         <v>44732</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -49635,7 +49635,7 @@
         <v>44743</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -49697,7 +49697,7 @@
         <v>44743</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -49759,7 +49759,7 @@
         <v>44743</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -49821,7 +49821,7 @@
         <v>44743</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -49883,7 +49883,7 @@
         <v>44743</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -49945,7 +49945,7 @@
         <v>44743</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -50007,7 +50007,7 @@
         <v>44743</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -50069,7 +50069,7 @@
         <v>44747</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -50126,7 +50126,7 @@
         <v>44747</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -50183,7 +50183,7 @@
         <v>44748</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -50240,7 +50240,7 @@
         <v>44749</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -50297,7 +50297,7 @@
         <v>44757</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -50359,7 +50359,7 @@
         <v>44757</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -50421,7 +50421,7 @@
         <v>44762</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -50483,7 +50483,7 @@
         <v>44774</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -50545,7 +50545,7 @@
         <v>44774</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -50607,7 +50607,7 @@
         <v>44774</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -50669,7 +50669,7 @@
         <v>44777</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -50726,7 +50726,7 @@
         <v>44778</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -50788,7 +50788,7 @@
         <v>44781</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -50850,7 +50850,7 @@
         <v>44781</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -50912,7 +50912,7 @@
         <v>44789</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -50969,7 +50969,7 @@
         <v>44791</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -51031,7 +51031,7 @@
         <v>44791</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -51088,7 +51088,7 @@
         <v>44792</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -51150,7 +51150,7 @@
         <v>44792</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -51212,7 +51212,7 @@
         <v>44792</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -51269,7 +51269,7 @@
         <v>44792</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -51331,7 +51331,7 @@
         <v>44792</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -51393,7 +51393,7 @@
         <v>44795</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -51455,7 +51455,7 @@
         <v>44795</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -51512,7 +51512,7 @@
         <v>44797</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -51569,7 +51569,7 @@
         <v>44798</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -51626,7 +51626,7 @@
         <v>44799</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -51688,7 +51688,7 @@
         <v>44799</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -51750,7 +51750,7 @@
         <v>44799</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -51812,7 +51812,7 @@
         <v>44799</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -51874,7 +51874,7 @@
         <v>44803</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -51931,7 +51931,7 @@
         <v>44804</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -51988,7 +51988,7 @@
         <v>44806</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -52050,7 +52050,7 @@
         <v>44812</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -52107,7 +52107,7 @@
         <v>44813</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -52169,7 +52169,7 @@
         <v>44813</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -52226,7 +52226,7 @@
         <v>44813</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -52288,7 +52288,7 @@
         <v>44817</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -52350,7 +52350,7 @@
         <v>44824</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -52412,7 +52412,7 @@
         <v>44824</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -52474,7 +52474,7 @@
         <v>44824</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -52536,7 +52536,7 @@
         <v>44825</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -52598,7 +52598,7 @@
         <v>44827</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -52660,7 +52660,7 @@
         <v>44827</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -52722,7 +52722,7 @@
         <v>44832</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -52784,7 +52784,7 @@
         <v>44833</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -52846,7 +52846,7 @@
         <v>44833</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -52908,7 +52908,7 @@
         <v>44833</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -52965,7 +52965,7 @@
         <v>44833</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -53027,7 +53027,7 @@
         <v>44833</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -53084,7 +53084,7 @@
         <v>44833</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -53146,7 +53146,7 @@
         <v>44834</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -53208,7 +53208,7 @@
         <v>44834</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -53270,7 +53270,7 @@
         <v>44837</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -53332,7 +53332,7 @@
         <v>44837</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -53389,7 +53389,7 @@
         <v>44837</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -53451,7 +53451,7 @@
         <v>44838</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -53508,7 +53508,7 @@
         <v>44838</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -53565,7 +53565,7 @@
         <v>44844</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -53627,7 +53627,7 @@
         <v>44846</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -53689,7 +53689,7 @@
         <v>44846</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -53746,7 +53746,7 @@
         <v>44847</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -53808,7 +53808,7 @@
         <v>44847</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -53870,7 +53870,7 @@
         <v>44847</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -53932,7 +53932,7 @@
         <v>44848</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -53994,7 +53994,7 @@
         <v>44853</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -54051,7 +54051,7 @@
         <v>44855</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -54113,7 +54113,7 @@
         <v>44858</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -54175,7 +54175,7 @@
         <v>44860</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -54232,7 +54232,7 @@
         <v>44864</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -54289,7 +54289,7 @@
         <v>44866</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -54351,7 +54351,7 @@
         <v>44866</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -54413,7 +54413,7 @@
         <v>44867</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -54475,7 +54475,7 @@
         <v>44867</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -54532,7 +54532,7 @@
         <v>44867</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -54594,7 +54594,7 @@
         <v>44868</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -54656,7 +54656,7 @@
         <v>44872</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -54718,7 +54718,7 @@
         <v>44872</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -54780,7 +54780,7 @@
         <v>44872</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -54842,7 +54842,7 @@
         <v>44872</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -54899,7 +54899,7 @@
         <v>44873</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -54956,7 +54956,7 @@
         <v>44873</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -55013,7 +55013,7 @@
         <v>44874</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -55075,7 +55075,7 @@
         <v>44874</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -55137,7 +55137,7 @@
         <v>44874</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -55199,7 +55199,7 @@
         <v>44875</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -55256,7 +55256,7 @@
         <v>44875</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -55318,7 +55318,7 @@
         <v>44876</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -55380,7 +55380,7 @@
         <v>44880</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -55442,7 +55442,7 @@
         <v>44880</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -55504,7 +55504,7 @@
         <v>44882</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -55566,7 +55566,7 @@
         <v>44886</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -55628,7 +55628,7 @@
         <v>44886</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -55690,7 +55690,7 @@
         <v>44886</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -55752,7 +55752,7 @@
         <v>44888</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -55814,7 +55814,7 @@
         <v>44889</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -55871,7 +55871,7 @@
         <v>44894</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -55933,7 +55933,7 @@
         <v>44895</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -55990,7 +55990,7 @@
         <v>44900</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -56052,7 +56052,7 @@
         <v>44902</v>
       </c>
       <c r="C876" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -56109,7 +56109,7 @@
         <v>44903</v>
       </c>
       <c r="C877" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -56171,7 +56171,7 @@
         <v>44903</v>
       </c>
       <c r="C878" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -56253,7 +56253,7 @@
         <v>44903</v>
       </c>
       <c r="C879" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -56315,7 +56315,7 @@
         <v>44904</v>
       </c>
       <c r="C880" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -56377,7 +56377,7 @@
         <v>44904</v>
       </c>
       <c r="C881" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -56434,7 +56434,7 @@
         <v>44909</v>
       </c>
       <c r="C882" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -56496,7 +56496,7 @@
         <v>44909</v>
       </c>
       <c r="C883" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>
@@ -56558,7 +56558,7 @@
         <v>44909</v>
       </c>
       <c r="C884" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D884" t="inlineStr">
         <is>
@@ -56620,7 +56620,7 @@
         <v>44910</v>
       </c>
       <c r="C885" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D885" t="inlineStr">
         <is>
@@ -56682,7 +56682,7 @@
         <v>44911</v>
       </c>
       <c r="C886" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D886" t="inlineStr">
         <is>
@@ -56744,7 +56744,7 @@
         <v>44911</v>
       </c>
       <c r="C887" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D887" t="inlineStr">
         <is>
@@ -56806,7 +56806,7 @@
         <v>44915</v>
       </c>
       <c r="C888" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D888" t="inlineStr">
         <is>
@@ -56868,7 +56868,7 @@
         <v>44916</v>
       </c>
       <c r="C889" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D889" t="inlineStr">
         <is>
@@ -56925,7 +56925,7 @@
         <v>44924</v>
       </c>
       <c r="C890" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D890" t="inlineStr">
         <is>
@@ -56982,7 +56982,7 @@
         <v>44924</v>
       </c>
       <c r="C891" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D891" t="inlineStr">
         <is>
@@ -57039,7 +57039,7 @@
         <v>44925</v>
       </c>
       <c r="C892" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D892" t="inlineStr">
         <is>
@@ -57096,7 +57096,7 @@
         <v>44931</v>
       </c>
       <c r="C893" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D893" t="inlineStr">
         <is>
@@ -57153,7 +57153,7 @@
         <v>44935</v>
       </c>
       <c r="C894" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D894" t="inlineStr">
         <is>
@@ -57215,7 +57215,7 @@
         <v>44937</v>
       </c>
       <c r="C895" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D895" t="inlineStr">
         <is>
@@ -57277,7 +57277,7 @@
         <v>44939</v>
       </c>
       <c r="C896" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D896" t="inlineStr">
         <is>
@@ -57339,7 +57339,7 @@
         <v>44942</v>
       </c>
       <c r="C897" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D897" t="inlineStr">
         <is>
@@ -57396,7 +57396,7 @@
         <v>44942</v>
       </c>
       <c r="C898" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D898" t="inlineStr">
         <is>
@@ -57453,7 +57453,7 @@
         <v>44946</v>
       </c>
       <c r="C899" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D899" t="inlineStr">
         <is>
@@ -57515,7 +57515,7 @@
         <v>44946</v>
       </c>
       <c r="C900" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D900" t="inlineStr">
         <is>
@@ -57572,7 +57572,7 @@
         <v>44949</v>
       </c>
       <c r="C901" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D901" t="inlineStr">
         <is>
@@ -57634,7 +57634,7 @@
         <v>44950</v>
       </c>
       <c r="C902" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D902" t="inlineStr">
         <is>
@@ -57691,7 +57691,7 @@
         <v>44950</v>
       </c>
       <c r="C903" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D903" t="inlineStr">
         <is>
@@ -57748,7 +57748,7 @@
         <v>44952</v>
       </c>
       <c r="C904" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D904" t="inlineStr">
         <is>
@@ -57805,7 +57805,7 @@
         <v>44953</v>
       </c>
       <c r="C905" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D905" t="inlineStr">
         <is>
@@ -57867,7 +57867,7 @@
         <v>44953</v>
       </c>
       <c r="C906" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D906" t="inlineStr">
         <is>
@@ -57929,7 +57929,7 @@
         <v>44956</v>
       </c>
       <c r="C907" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D907" t="inlineStr">
         <is>
@@ -57986,7 +57986,7 @@
         <v>44957</v>
       </c>
       <c r="C908" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D908" t="inlineStr">
         <is>
@@ -58048,7 +58048,7 @@
         <v>44957</v>
       </c>
       <c r="C909" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D909" t="inlineStr">
         <is>
@@ -58105,7 +58105,7 @@
         <v>44959</v>
       </c>
       <c r="C910" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D910" t="inlineStr">
         <is>
@@ -58162,7 +58162,7 @@
         <v>44960</v>
       </c>
       <c r="C911" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D911" t="inlineStr">
         <is>
@@ -58219,7 +58219,7 @@
         <v>44963</v>
       </c>
       <c r="C912" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D912" t="inlineStr">
         <is>
@@ -58276,7 +58276,7 @@
         <v>44964</v>
       </c>
       <c r="C913" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D913" t="inlineStr">
         <is>
@@ -58338,7 +58338,7 @@
         <v>44965</v>
       </c>
       <c r="C914" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D914" t="inlineStr">
         <is>
@@ -58400,7 +58400,7 @@
         <v>44967</v>
       </c>
       <c r="C915" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D915" t="inlineStr">
         <is>
@@ -58457,7 +58457,7 @@
         <v>44970</v>
       </c>
       <c r="C916" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D916" t="inlineStr">
         <is>
@@ -58514,7 +58514,7 @@
         <v>44970</v>
       </c>
       <c r="C917" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D917" t="inlineStr">
         <is>
@@ -58571,7 +58571,7 @@
         <v>44970</v>
       </c>
       <c r="C918" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D918" t="inlineStr">
         <is>
@@ -58628,7 +58628,7 @@
         <v>44972</v>
       </c>
       <c r="C919" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D919" t="inlineStr">
         <is>
@@ -58690,7 +58690,7 @@
         <v>44974</v>
       </c>
       <c r="C920" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D920" t="inlineStr">
         <is>
@@ -58747,7 +58747,7 @@
         <v>44977</v>
       </c>
       <c r="C921" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D921" t="inlineStr">
         <is>
@@ -58809,7 +58809,7 @@
         <v>44977</v>
       </c>
       <c r="C922" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D922" t="inlineStr">
         <is>
@@ -58871,7 +58871,7 @@
         <v>44977</v>
       </c>
       <c r="C923" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D923" t="inlineStr">
         <is>
@@ -58933,7 +58933,7 @@
         <v>44977</v>
       </c>
       <c r="C924" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D924" t="inlineStr">
         <is>
@@ -58995,7 +58995,7 @@
         <v>44977</v>
       </c>
       <c r="C925" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D925" t="inlineStr">
         <is>
@@ -59057,7 +59057,7 @@
         <v>44977</v>
       </c>
       <c r="C926" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D926" t="inlineStr">
         <is>
@@ -59119,7 +59119,7 @@
         <v>44980</v>
       </c>
       <c r="C927" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D927" t="inlineStr">
         <is>
@@ -59181,7 +59181,7 @@
         <v>44980</v>
       </c>
       <c r="C928" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D928" t="inlineStr">
         <is>
@@ -59238,7 +59238,7 @@
         <v>44984</v>
       </c>
       <c r="C929" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D929" t="inlineStr">
         <is>
@@ -59295,7 +59295,7 @@
         <v>44985</v>
       </c>
       <c r="C930" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D930" t="inlineStr">
         <is>
@@ -59357,7 +59357,7 @@
         <v>44985</v>
       </c>
       <c r="C931" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D931" t="inlineStr">
         <is>
@@ -59419,7 +59419,7 @@
         <v>44985</v>
       </c>
       <c r="C932" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D932" t="inlineStr">
         <is>
@@ -59476,7 +59476,7 @@
         <v>44985</v>
       </c>
       <c r="C933" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D933" t="inlineStr">
         <is>
@@ -59538,7 +59538,7 @@
         <v>44986</v>
       </c>
       <c r="C934" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D934" t="inlineStr">
         <is>
@@ -59600,7 +59600,7 @@
         <v>45000</v>
       </c>
       <c r="C935" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D935" t="inlineStr">
         <is>
@@ -59662,7 +59662,7 @@
         <v>45006</v>
       </c>
       <c r="C936" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D936" t="inlineStr">
         <is>
@@ -59719,7 +59719,7 @@
         <v>45007</v>
       </c>
       <c r="C937" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D937" t="inlineStr">
         <is>
@@ -59776,7 +59776,7 @@
         <v>45007</v>
       </c>
       <c r="C938" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D938" t="inlineStr">
         <is>
@@ -59838,7 +59838,7 @@
         <v>45012</v>
       </c>
       <c r="C939" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D939" t="inlineStr">
         <is>
@@ -59900,7 +59900,7 @@
         <v>45012</v>
       </c>
       <c r="C940" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D940" t="inlineStr">
         <is>
@@ -59962,7 +59962,7 @@
         <v>45016</v>
       </c>
       <c r="C941" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D941" t="inlineStr">
         <is>
@@ -60019,7 +60019,7 @@
         <v>45020</v>
       </c>
       <c r="C942" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D942" t="inlineStr">
         <is>
@@ -60076,7 +60076,7 @@
         <v>45027</v>
       </c>
       <c r="C943" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D943" t="inlineStr">
         <is>
@@ -60138,7 +60138,7 @@
         <v>45027</v>
       </c>
       <c r="C944" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D944" t="inlineStr">
         <is>
@@ -60200,7 +60200,7 @@
         <v>45028</v>
       </c>
       <c r="C945" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D945" t="inlineStr">
         <is>
@@ -60257,7 +60257,7 @@
         <v>45033</v>
       </c>
       <c r="C946" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D946" t="inlineStr">
         <is>
@@ -60319,7 +60319,7 @@
         <v>45036</v>
       </c>
       <c r="C947" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D947" t="inlineStr">
         <is>
@@ -60376,7 +60376,7 @@
         <v>45037</v>
       </c>
       <c r="C948" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D948" t="inlineStr">
         <is>
@@ -60433,7 +60433,7 @@
         <v>45041</v>
       </c>
       <c r="C949" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D949" t="inlineStr">
         <is>
@@ -60495,7 +60495,7 @@
         <v>45047</v>
       </c>
       <c r="C950" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D950" t="inlineStr">
         <is>
@@ -60552,7 +60552,7 @@
         <v>45055</v>
       </c>
       <c r="C951" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D951" t="inlineStr">
         <is>
@@ -60614,7 +60614,7 @@
         <v>45056</v>
       </c>
       <c r="C952" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D952" t="inlineStr">
         <is>
@@ -60676,7 +60676,7 @@
         <v>45058</v>
       </c>
       <c r="C953" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D953" t="inlineStr">
         <is>
@@ -60733,7 +60733,7 @@
         <v>45058</v>
       </c>
       <c r="C954" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D954" t="inlineStr">
         <is>
@@ -60790,7 +60790,7 @@
         <v>45060</v>
       </c>
       <c r="C955" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D955" t="inlineStr">
         <is>
@@ -60847,7 +60847,7 @@
         <v>45061</v>
       </c>
       <c r="C956" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D956" t="inlineStr">
         <is>
@@ -60909,7 +60909,7 @@
         <v>45061</v>
       </c>
       <c r="C957" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D957" t="inlineStr">
         <is>
@@ -60971,7 +60971,7 @@
         <v>45061</v>
       </c>
       <c r="C958" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D958" t="inlineStr">
         <is>
@@ -61033,7 +61033,7 @@
         <v>45063</v>
       </c>
       <c r="C959" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D959" t="inlineStr">
         <is>
@@ -61090,7 +61090,7 @@
         <v>45065</v>
       </c>
       <c r="C960" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D960" t="inlineStr">
         <is>
@@ -61152,7 +61152,7 @@
         <v>45068</v>
       </c>
       <c r="C961" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D961" t="inlineStr">
         <is>
@@ -61214,7 +61214,7 @@
         <v>45068</v>
       </c>
       <c r="C962" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D962" t="inlineStr">
         <is>
@@ -61276,7 +61276,7 @@
         <v>45069</v>
       </c>
       <c r="C963" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D963" t="inlineStr">
         <is>
@@ -61338,7 +61338,7 @@
         <v>45069</v>
       </c>
       <c r="C964" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D964" t="inlineStr">
         <is>
@@ -61395,7 +61395,7 @@
         <v>45069</v>
       </c>
       <c r="C965" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D965" t="inlineStr">
         <is>
@@ -61452,7 +61452,7 @@
         <v>45070</v>
       </c>
       <c r="C966" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D966" t="inlineStr">
         <is>
@@ -61514,7 +61514,7 @@
         <v>45070</v>
       </c>
       <c r="C967" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D967" t="inlineStr">
         <is>
@@ -61571,7 +61571,7 @@
         <v>45070</v>
       </c>
       <c r="C968" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D968" t="inlineStr">
         <is>
@@ -61628,7 +61628,7 @@
         <v>45070</v>
       </c>
       <c r="C969" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D969" t="inlineStr">
         <is>
@@ -61685,7 +61685,7 @@
         <v>45070</v>
       </c>
       <c r="C970" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D970" t="inlineStr">
         <is>
@@ -61742,7 +61742,7 @@
         <v>45071</v>
       </c>
       <c r="C971" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D971" t="inlineStr">
         <is>
@@ -61804,7 +61804,7 @@
         <v>45071</v>
       </c>
       <c r="C972" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D972" t="inlineStr">
         <is>
@@ -61861,7 +61861,7 @@
         <v>45071</v>
       </c>
       <c r="C973" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D973" t="inlineStr">
         <is>
@@ -61918,7 +61918,7 @@
         <v>45071</v>
       </c>
       <c r="C974" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D974" t="inlineStr">
         <is>
@@ -61975,7 +61975,7 @@
         <v>45072</v>
       </c>
       <c r="C975" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D975" t="inlineStr">
         <is>
@@ -62032,7 +62032,7 @@
         <v>45077</v>
       </c>
       <c r="C976" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D976" t="inlineStr">
         <is>
@@ -62094,7 +62094,7 @@
         <v>45078</v>
       </c>
       <c r="C977" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D977" t="inlineStr">
         <is>
@@ -62156,7 +62156,7 @@
         <v>45078</v>
       </c>
       <c r="C978" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D978" t="inlineStr">
         <is>
@@ -62213,7 +62213,7 @@
         <v>45078</v>
       </c>
       <c r="C979" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D979" t="inlineStr">
         <is>
@@ -62270,7 +62270,7 @@
         <v>45079</v>
       </c>
       <c r="C980" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D980" t="inlineStr">
         <is>
@@ -62327,7 +62327,7 @@
         <v>45084</v>
       </c>
       <c r="C981" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D981" t="inlineStr">
         <is>
@@ -62389,7 +62389,7 @@
         <v>45090</v>
       </c>
       <c r="C982" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D982" t="inlineStr">
         <is>
@@ -62451,7 +62451,7 @@
         <v>45090</v>
       </c>
       <c r="C983" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D983" t="inlineStr">
         <is>
@@ -62508,7 +62508,7 @@
         <v>45092</v>
       </c>
       <c r="C984" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D984" t="inlineStr">
         <is>
@@ -62570,7 +62570,7 @@
         <v>45092</v>
       </c>
       <c r="C985" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D985" t="inlineStr">
         <is>
@@ -62632,7 +62632,7 @@
         <v>45092</v>
       </c>
       <c r="C986" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D986" t="inlineStr">
         <is>
@@ -62694,7 +62694,7 @@
         <v>45092</v>
       </c>
       <c r="C987" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D987" t="inlineStr">
         <is>
@@ -62756,7 +62756,7 @@
         <v>45093</v>
       </c>
       <c r="C988" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D988" t="inlineStr">
         <is>
@@ -62818,7 +62818,7 @@
         <v>45097</v>
       </c>
       <c r="C989" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D989" t="inlineStr">
         <is>
@@ -62880,7 +62880,7 @@
         <v>45097</v>
       </c>
       <c r="C990" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D990" t="inlineStr">
         <is>
@@ -62937,7 +62937,7 @@
         <v>45097</v>
       </c>
       <c r="C991" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D991" t="inlineStr">
         <is>
@@ -62994,7 +62994,7 @@
         <v>45097</v>
       </c>
       <c r="C992" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D992" t="inlineStr">
         <is>
@@ -63056,7 +63056,7 @@
         <v>45097</v>
       </c>
       <c r="C993" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D993" t="inlineStr">
         <is>
@@ -63118,7 +63118,7 @@
         <v>45098</v>
       </c>
       <c r="C994" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D994" t="inlineStr">
         <is>
@@ -63180,7 +63180,7 @@
         <v>45099</v>
       </c>
       <c r="C995" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D995" t="inlineStr">
         <is>
@@ -63237,7 +63237,7 @@
         <v>45099</v>
       </c>
       <c r="C996" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D996" t="inlineStr">
         <is>
@@ -63294,7 +63294,7 @@
         <v>45099</v>
       </c>
       <c r="C997" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D997" t="inlineStr">
         <is>
@@ -63351,7 +63351,7 @@
         <v>45099</v>
       </c>
       <c r="C998" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D998" t="inlineStr">
         <is>
@@ -63408,7 +63408,7 @@
         <v>45099</v>
       </c>
       <c r="C999" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D999" t="inlineStr">
         <is>
@@ -63465,7 +63465,7 @@
         <v>45104</v>
       </c>
       <c r="C1000" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D1000" t="inlineStr">
         <is>
@@ -63522,7 +63522,7 @@
         <v>45105</v>
       </c>
       <c r="C1001" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D1001" t="inlineStr">
         <is>
@@ -63579,7 +63579,7 @@
         <v>45106</v>
       </c>
       <c r="C1002" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D1002" t="inlineStr">
         <is>
@@ -63636,7 +63636,7 @@
         <v>45107</v>
       </c>
       <c r="C1003" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D1003" t="inlineStr">
         <is>
@@ -63693,7 +63693,7 @@
         <v>45107</v>
       </c>
       <c r="C1004" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D1004" t="inlineStr">
         <is>
@@ -63750,7 +63750,7 @@
         <v>45107</v>
       </c>
       <c r="C1005" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D1005" t="inlineStr">
         <is>
@@ -63812,7 +63812,7 @@
         <v>45107</v>
       </c>
       <c r="C1006" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D1006" t="inlineStr">
         <is>
@@ -63869,7 +63869,7 @@
         <v>45107</v>
       </c>
       <c r="C1007" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D1007" t="inlineStr">
         <is>
@@ -63926,7 +63926,7 @@
         <v>45110</v>
       </c>
       <c r="C1008" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D1008" t="inlineStr">
         <is>
@@ -63983,7 +63983,7 @@
         <v>45110</v>
       </c>
       <c r="C1009" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D1009" t="inlineStr">
         <is>
@@ -64045,7 +64045,7 @@
         <v>45112</v>
       </c>
       <c r="C1010" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D1010" t="inlineStr">
         <is>
@@ -64102,7 +64102,7 @@
         <v>45112</v>
       </c>
       <c r="C1011" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D1011" t="inlineStr">
         <is>
@@ -64164,7 +64164,7 @@
         <v>45113</v>
       </c>
       <c r="C1012" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D1012" t="inlineStr">
         <is>
@@ -64221,7 +64221,7 @@
         <v>45113</v>
       </c>
       <c r="C1013" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D1013" t="inlineStr">
         <is>
@@ -64278,7 +64278,7 @@
         <v>45114</v>
       </c>
       <c r="C1014" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D1014" t="inlineStr">
         <is>
@@ -64340,7 +64340,7 @@
         <v>45118</v>
       </c>
       <c r="C1015" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D1015" t="inlineStr">
         <is>
@@ -64397,7 +64397,7 @@
         <v>45118</v>
       </c>
       <c r="C1016" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D1016" t="inlineStr">
         <is>
@@ -64454,7 +64454,7 @@
         <v>45119</v>
       </c>
       <c r="C1017" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D1017" t="inlineStr">
         <is>
@@ -64511,7 +64511,7 @@
         <v>45119</v>
       </c>
       <c r="C1018" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D1018" t="inlineStr">
         <is>
@@ -64568,7 +64568,7 @@
         <v>45121</v>
       </c>
       <c r="C1019" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D1019" t="inlineStr">
         <is>
@@ -64630,7 +64630,7 @@
         <v>45124</v>
       </c>
       <c r="C1020" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D1020" t="inlineStr">
         <is>
@@ -64692,7 +64692,7 @@
         <v>45125</v>
       </c>
       <c r="C1021" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D1021" t="inlineStr">
         <is>
@@ -64749,7 +64749,7 @@
         <v>45125</v>
       </c>
       <c r="C1022" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D1022" t="inlineStr">
         <is>
@@ -64806,7 +64806,7 @@
         <v>45125</v>
       </c>
       <c r="C1023" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D1023" t="inlineStr">
         <is>
@@ -64868,7 +64868,7 @@
         <v>45125</v>
       </c>
       <c r="C1024" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D1024" t="inlineStr">
         <is>
@@ -64925,7 +64925,7 @@
         <v>45127</v>
       </c>
       <c r="C1025" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D1025" t="inlineStr">
         <is>
@@ -64987,7 +64987,7 @@
         <v>45127</v>
       </c>
       <c r="C1026" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D1026" t="inlineStr">
         <is>
@@ -65049,7 +65049,7 @@
         <v>45127</v>
       </c>
       <c r="C1027" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D1027" t="inlineStr">
         <is>
@@ -65106,7 +65106,7 @@
         <v>45127</v>
       </c>
       <c r="C1028" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D1028" t="inlineStr">
         <is>
@@ -65168,7 +65168,7 @@
         <v>45141</v>
       </c>
       <c r="C1029" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D1029" t="inlineStr">
         <is>
@@ -65225,7 +65225,7 @@
         <v>45142</v>
       </c>
       <c r="C1030" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D1030" t="inlineStr">
         <is>
@@ -65282,7 +65282,7 @@
         <v>45145</v>
       </c>
       <c r="C1031" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D1031" t="inlineStr">
         <is>
@@ -65339,7 +65339,7 @@
         <v>45145</v>
       </c>
       <c r="C1032" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D1032" t="inlineStr">
         <is>
@@ -65396,7 +65396,7 @@
         <v>45147</v>
       </c>
       <c r="C1033" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D1033" t="inlineStr">
         <is>
@@ -65453,7 +65453,7 @@
         <v>45148</v>
       </c>
       <c r="C1034" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D1034" t="inlineStr">
         <is>
@@ -65510,7 +65510,7 @@
         <v>45148</v>
       </c>
       <c r="C1035" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D1035" t="inlineStr">
         <is>
@@ -65567,7 +65567,7 @@
         <v>45159</v>
       </c>
       <c r="C1036" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D1036" t="inlineStr">
         <is>
@@ -65629,7 +65629,7 @@
         <v>45159</v>
       </c>
       <c r="C1037" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D1037" t="inlineStr">
         <is>
@@ -65691,7 +65691,7 @@
         <v>45160</v>
       </c>
       <c r="C1038" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D1038" t="inlineStr">
         <is>
@@ -65753,7 +65753,7 @@
         <v>45160</v>
       </c>
       <c r="C1039" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D1039" t="inlineStr">
         <is>
@@ -65815,7 +65815,7 @@
         <v>45162</v>
       </c>
       <c r="C1040" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D1040" t="inlineStr">
         <is>
@@ -65872,7 +65872,7 @@
         <v>45167</v>
       </c>
       <c r="C1041" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D1041" t="inlineStr">
         <is>
@@ -65929,7 +65929,7 @@
         <v>45168</v>
       </c>
       <c r="C1042" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D1042" t="inlineStr">
         <is>
@@ -65991,7 +65991,7 @@
         <v>45173</v>
       </c>
       <c r="C1043" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D1043" t="inlineStr">
         <is>

--- a/Översikt LJUSDAL.xlsx
+++ b/Översikt LJUSDAL.xlsx
@@ -572,7 +572,7 @@
         <v>44358</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -675,7 +675,7 @@
         <v>43922</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -781,7 +781,7 @@
         <v>44449</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -881,7 +881,7 @@
         <v>43354</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         <v>43798</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1081,7 +1081,7 @@
         <v>43872</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1174,7 +1174,7 @@
         <v>44722</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1271,7 +1271,7 @@
         <v>44743</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1369,7 +1369,7 @@
         <v>44194</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1465,7 +1465,7 @@
         <v>45096</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1557,7 +1557,7 @@
         <v>43343</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1648,7 +1648,7 @@
         <v>44869</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1744,7 +1744,7 @@
         <v>44687</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1843,7 +1843,7 @@
         <v>44687</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1942,7 +1942,7 @@
         <v>44700</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2037,7 +2037,7 @@
         <v>43711</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2131,7 +2131,7 @@
         <v>44530</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2224,7 +2224,7 @@
         <v>44755</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2322,7 +2322,7 @@
         <v>44774</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2420,7 +2420,7 @@
         <v>44775</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2514,7 +2514,7 @@
         <v>44902</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2607,7 +2607,7 @@
         <v>45089</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2700,7 +2700,7 @@
         <v>45090</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2793,7 +2793,7 @@
         <v>43367</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2881,7 +2881,7 @@
         <v>43432</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2974,7 +2974,7 @@
         <v>43872</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3062,7 +3062,7 @@
         <v>44449</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3155,7 +3155,7 @@
         <v>44686</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3247,7 +3247,7 @@
         <v>45072</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3339,7 +3339,7 @@
         <v>45093</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3432,7 +3432,7 @@
         <v>43357</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3519,7 +3519,7 @@
         <v>43628</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3615,7 +3615,7 @@
         <v>43852</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3711,7 +3711,7 @@
         <v>43872</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3798,7 +3798,7 @@
         <v>43977</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3890,7 +3890,7 @@
         <v>44137</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3981,7 +3981,7 @@
         <v>44148</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4073,7 +4073,7 @@
         <v>44152</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4165,7 +4165,7 @@
         <v>44169</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4257,7 +4257,7 @@
         <v>44326</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4349,7 +4349,7 @@
         <v>44706</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4441,7 +4441,7 @@
         <v>44708</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4533,7 +4533,7 @@
         <v>44734</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4625,7 +4625,7 @@
         <v>44821</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4717,7 +4717,7 @@
         <v>44998</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4808,7 +4808,7 @@
         <v>43338</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4894,7 +4894,7 @@
         <v>43354</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4985,7 +4985,7 @@
         <v>43377</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5071,7 +5071,7 @@
         <v>43381</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5162,7 +5162,7 @@
         <v>43476</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5248,7 +5248,7 @@
         <v>43629</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5343,7 +5343,7 @@
         <v>43977</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5434,7 +5434,7 @@
         <v>44322</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5525,7 +5525,7 @@
         <v>44351</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5616,7 +5616,7 @@
         <v>44357</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5707,7 +5707,7 @@
         <v>44438</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5798,7 +5798,7 @@
         <v>44722</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5893,7 +5893,7 @@
         <v>44988</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5979,7 +5979,7 @@
         <v>45092</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6070,7 +6070,7 @@
         <v>45110</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6161,7 +6161,7 @@
         <v>43347</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6246,7 +6246,7 @@
         <v>43355</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6336,7 +6336,7 @@
         <v>43367</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6421,7 +6421,7 @@
         <v>43385</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6511,7 +6511,7 @@
         <v>43385</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6601,7 +6601,7 @@
         <v>43389</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6691,7 +6691,7 @@
         <v>43445</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6781,7 +6781,7 @@
         <v>43481</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6866,7 +6866,7 @@
         <v>43557</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6951,7 +6951,7 @@
         <v>43811</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7036,7 +7036,7 @@
         <v>43872</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7121,7 +7121,7 @@
         <v>43936</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7206,7 +7206,7 @@
         <v>43979</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7296,7 +7296,7 @@
         <v>44062</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7390,7 +7390,7 @@
         <v>44069</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7480,7 +7480,7 @@
         <v>44342</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7569,7 +7569,7 @@
         <v>44379</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7659,7 +7659,7 @@
         <v>44405</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7753,7 +7753,7 @@
         <v>44406</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7843,7 +7843,7 @@
         <v>44432</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7933,7 +7933,7 @@
         <v>44438</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8023,7 +8023,7 @@
         <v>44449</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8113,7 +8113,7 @@
         <v>44480</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8198,7 +8198,7 @@
         <v>44489</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8288,7 +8288,7 @@
         <v>44491</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8382,7 +8382,7 @@
         <v>44662</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8476,7 +8476,7 @@
         <v>44684</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8566,7 +8566,7 @@
         <v>44742</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8656,7 +8656,7 @@
         <v>44743</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8746,7 +8746,7 @@
         <v>44763</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8836,7 +8836,7 @@
         <v>44778</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8926,7 +8926,7 @@
         <v>44784</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -9016,7 +9016,7 @@
         <v>44833</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -9101,7 +9101,7 @@
         <v>44839</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9191,7 +9191,7 @@
         <v>44988</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9276,7 +9276,7 @@
         <v>45086</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9365,7 +9365,7 @@
         <v>45090</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9455,7 +9455,7 @@
         <v>45092</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9545,7 +9545,7 @@
         <v>45107</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9630,7 +9630,7 @@
         <v>45162</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9719,7 +9719,7 @@
         <v>43319</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -9781,7 +9781,7 @@
         <v>43320</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -9838,7 +9838,7 @@
         <v>43329</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9895,7 +9895,7 @@
         <v>43329</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9957,7 +9957,7 @@
         <v>43329</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -10014,7 +10014,7 @@
         <v>43329</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -10071,7 +10071,7 @@
         <v>43329</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -10128,7 +10128,7 @@
         <v>43333</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -10185,7 +10185,7 @@
         <v>43334</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -10242,7 +10242,7 @@
         <v>43342</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -10304,7 +10304,7 @@
         <v>43347</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -10361,7 +10361,7 @@
         <v>43348</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -10418,7 +10418,7 @@
         <v>43348</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -10480,7 +10480,7 @@
         <v>43349</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -10537,7 +10537,7 @@
         <v>43349</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -10594,7 +10594,7 @@
         <v>43349</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -10651,7 +10651,7 @@
         <v>43353</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -10708,7 +10708,7 @@
         <v>43353</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -10765,7 +10765,7 @@
         <v>43354</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -10827,7 +10827,7 @@
         <v>43355</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -10889,7 +10889,7 @@
         <v>43355</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -10951,7 +10951,7 @@
         <v>43369</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -11008,7 +11008,7 @@
         <v>43369</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -11070,7 +11070,7 @@
         <v>43370</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -11132,7 +11132,7 @@
         <v>43376</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -11189,7 +11189,7 @@
         <v>43377</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -11251,7 +11251,7 @@
         <v>43381</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -11308,7 +11308,7 @@
         <v>43381</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -11365,7 +11365,7 @@
         <v>43381</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -11422,7 +11422,7 @@
         <v>43381</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -11479,7 +11479,7 @@
         <v>43382</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -11541,7 +11541,7 @@
         <v>43382</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -11603,7 +11603,7 @@
         <v>43385</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -11665,7 +11665,7 @@
         <v>43385</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -11727,7 +11727,7 @@
         <v>43389</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -11789,7 +11789,7 @@
         <v>43391</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -11846,7 +11846,7 @@
         <v>43391</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -11903,7 +11903,7 @@
         <v>43395</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -11960,7 +11960,7 @@
         <v>43403</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -12022,7 +12022,7 @@
         <v>43409</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -12079,7 +12079,7 @@
         <v>43409</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -12136,7 +12136,7 @@
         <v>43410</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -12193,7 +12193,7 @@
         <v>43410</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -12255,7 +12255,7 @@
         <v>43410</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -12317,7 +12317,7 @@
         <v>43411</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -12374,7 +12374,7 @@
         <v>43412</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -12431,7 +12431,7 @@
         <v>43412</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -12488,7 +12488,7 @@
         <v>43412</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -12545,7 +12545,7 @@
         <v>43416</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -12607,7 +12607,7 @@
         <v>43416</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -12669,7 +12669,7 @@
         <v>43419</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -12726,7 +12726,7 @@
         <v>43419</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -12783,7 +12783,7 @@
         <v>43420</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -12840,7 +12840,7 @@
         <v>43420</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -12897,7 +12897,7 @@
         <v>43424</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -12954,7 +12954,7 @@
         <v>43425</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -13016,7 +13016,7 @@
         <v>43425</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -13073,7 +13073,7 @@
         <v>43425</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -13135,7 +13135,7 @@
         <v>43425</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -13192,7 +13192,7 @@
         <v>43427</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -13254,7 +13254,7 @@
         <v>43430</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -13316,7 +13316,7 @@
         <v>43431</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -13378,7 +13378,7 @@
         <v>43431</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -13435,7 +13435,7 @@
         <v>43432</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -13497,7 +13497,7 @@
         <v>43432</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -13554,7 +13554,7 @@
         <v>43432</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -13616,7 +13616,7 @@
         <v>43434</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -13678,7 +13678,7 @@
         <v>43437</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -13740,7 +13740,7 @@
         <v>43438</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -13802,7 +13802,7 @@
         <v>43439</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -13859,7 +13859,7 @@
         <v>43439</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -13916,7 +13916,7 @@
         <v>43439</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -13973,7 +13973,7 @@
         <v>43441</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -14035,7 +14035,7 @@
         <v>43441</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -14092,7 +14092,7 @@
         <v>43444</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -14149,7 +14149,7 @@
         <v>43444</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -14206,7 +14206,7 @@
         <v>43444</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -14263,7 +14263,7 @@
         <v>43444</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -14320,7 +14320,7 @@
         <v>43445</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -14382,7 +14382,7 @@
         <v>43445</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -14444,7 +14444,7 @@
         <v>43448</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -14506,7 +14506,7 @@
         <v>43448</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -14568,7 +14568,7 @@
         <v>43448</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -14630,7 +14630,7 @@
         <v>43449</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -14687,7 +14687,7 @@
         <v>43452</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -14744,7 +14744,7 @@
         <v>43452</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -14806,7 +14806,7 @@
         <v>43453</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -14863,7 +14863,7 @@
         <v>43455</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -14925,7 +14925,7 @@
         <v>43455</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -14982,7 +14982,7 @@
         <v>43468</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -15039,7 +15039,7 @@
         <v>43469</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -15096,7 +15096,7 @@
         <v>43472</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -15153,7 +15153,7 @@
         <v>43472</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -15215,7 +15215,7 @@
         <v>43472</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -15277,7 +15277,7 @@
         <v>43474</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -15339,7 +15339,7 @@
         <v>43481</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -15396,7 +15396,7 @@
         <v>43483</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -15453,7 +15453,7 @@
         <v>43486</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -15515,7 +15515,7 @@
         <v>43487</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -15572,7 +15572,7 @@
         <v>43489</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -15629,7 +15629,7 @@
         <v>43490</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -15691,7 +15691,7 @@
         <v>43493</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -15748,7 +15748,7 @@
         <v>43497</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -15810,7 +15810,7 @@
         <v>43501</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -15867,7 +15867,7 @@
         <v>43508</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -15924,7 +15924,7 @@
         <v>43508</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -15981,7 +15981,7 @@
         <v>43510</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -16038,7 +16038,7 @@
         <v>43510</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -16095,7 +16095,7 @@
         <v>43514</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -16152,7 +16152,7 @@
         <v>43514</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -16209,7 +16209,7 @@
         <v>43515</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -16271,7 +16271,7 @@
         <v>43516</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -16328,7 +16328,7 @@
         <v>43516</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -16385,7 +16385,7 @@
         <v>43517</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -16442,7 +16442,7 @@
         <v>43517</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -16499,7 +16499,7 @@
         <v>43521</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -16556,7 +16556,7 @@
         <v>43521</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -16613,7 +16613,7 @@
         <v>43524</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -16670,7 +16670,7 @@
         <v>43524</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -16727,7 +16727,7 @@
         <v>43524</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -16784,7 +16784,7 @@
         <v>43525</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -16841,7 +16841,7 @@
         <v>43525</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -16898,7 +16898,7 @@
         <v>43528</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -16955,7 +16955,7 @@
         <v>43535</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -17012,7 +17012,7 @@
         <v>43536</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -17069,7 +17069,7 @@
         <v>43542</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -17126,7 +17126,7 @@
         <v>43549</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -17183,7 +17183,7 @@
         <v>43549</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -17240,7 +17240,7 @@
         <v>43550</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -17297,7 +17297,7 @@
         <v>43552</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -17354,7 +17354,7 @@
         <v>43552</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -17411,7 +17411,7 @@
         <v>43552</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -17468,7 +17468,7 @@
         <v>43557</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -17525,7 +17525,7 @@
         <v>43557</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -17587,7 +17587,7 @@
         <v>43578</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -17664,7 +17664,7 @@
         <v>43581</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -17726,7 +17726,7 @@
         <v>43584</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -17788,7 +17788,7 @@
         <v>43600</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -17850,7 +17850,7 @@
         <v>43600</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -17912,7 +17912,7 @@
         <v>43601</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -17969,7 +17969,7 @@
         <v>43601</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -18026,7 +18026,7 @@
         <v>43605</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -18083,7 +18083,7 @@
         <v>43607</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -18140,7 +18140,7 @@
         <v>43612</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -18202,7 +18202,7 @@
         <v>43613</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -18264,7 +18264,7 @@
         <v>43616</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -18326,7 +18326,7 @@
         <v>43619</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -18383,7 +18383,7 @@
         <v>43619</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -18445,7 +18445,7 @@
         <v>43619</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -18507,7 +18507,7 @@
         <v>43619</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -18569,7 +18569,7 @@
         <v>43619</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -18631,7 +18631,7 @@
         <v>43620</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -18688,7 +18688,7 @@
         <v>43628</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -18745,7 +18745,7 @@
         <v>43628</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -18807,7 +18807,7 @@
         <v>43628</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -18869,7 +18869,7 @@
         <v>43629</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -18926,7 +18926,7 @@
         <v>43629</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -18988,7 +18988,7 @@
         <v>43630</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -19050,7 +19050,7 @@
         <v>43630</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -19112,7 +19112,7 @@
         <v>43636</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -19174,7 +19174,7 @@
         <v>43636</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -19236,7 +19236,7 @@
         <v>43641</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -19293,7 +19293,7 @@
         <v>43642</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -19355,7 +19355,7 @@
         <v>43642</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -19417,7 +19417,7 @@
         <v>43644</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -19474,7 +19474,7 @@
         <v>43650</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -19531,7 +19531,7 @@
         <v>43651</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -19593,7 +19593,7 @@
         <v>43651</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -19655,7 +19655,7 @@
         <v>43655</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -19712,7 +19712,7 @@
         <v>43656</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -19769,7 +19769,7 @@
         <v>43661</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -19826,7 +19826,7 @@
         <v>43661</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -19883,7 +19883,7 @@
         <v>43661</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -19940,7 +19940,7 @@
         <v>43662</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -20002,7 +20002,7 @@
         <v>43663</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -20059,7 +20059,7 @@
         <v>43663</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -20116,7 +20116,7 @@
         <v>43665</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -20173,7 +20173,7 @@
         <v>43665</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -20235,7 +20235,7 @@
         <v>43668</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -20292,7 +20292,7 @@
         <v>43668</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -20354,7 +20354,7 @@
         <v>43669</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -20411,7 +20411,7 @@
         <v>43677</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -20468,7 +20468,7 @@
         <v>43679</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -20525,7 +20525,7 @@
         <v>43679</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -20582,7 +20582,7 @@
         <v>43686</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -20639,7 +20639,7 @@
         <v>43691</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -20696,7 +20696,7 @@
         <v>43692</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -20753,7 +20753,7 @@
         <v>43693</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -20815,7 +20815,7 @@
         <v>43693</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -20877,7 +20877,7 @@
         <v>43693</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -20939,7 +20939,7 @@
         <v>43697</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -21001,7 +21001,7 @@
         <v>43698</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -21058,7 +21058,7 @@
         <v>43698</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -21120,7 +21120,7 @@
         <v>43700</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -21177,7 +21177,7 @@
         <v>43700</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -21239,7 +21239,7 @@
         <v>43700</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -21296,7 +21296,7 @@
         <v>43704</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -21353,7 +21353,7 @@
         <v>43705</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -21415,7 +21415,7 @@
         <v>43710</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -21477,7 +21477,7 @@
         <v>43710</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -21539,7 +21539,7 @@
         <v>43710</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -21601,7 +21601,7 @@
         <v>43712</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -21658,7 +21658,7 @@
         <v>43713</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -21720,7 +21720,7 @@
         <v>43714</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -21782,7 +21782,7 @@
         <v>43714</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -21844,7 +21844,7 @@
         <v>43717</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -21901,7 +21901,7 @@
         <v>43719</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -21963,7 +21963,7 @@
         <v>43720</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -22025,7 +22025,7 @@
         <v>43721</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -22082,7 +22082,7 @@
         <v>43721</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -22139,7 +22139,7 @@
         <v>43721</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -22196,7 +22196,7 @@
         <v>43726</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -22258,7 +22258,7 @@
         <v>43726</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -22320,7 +22320,7 @@
         <v>43727</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -22382,7 +22382,7 @@
         <v>43728</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -22444,7 +22444,7 @@
         <v>43731</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -22501,7 +22501,7 @@
         <v>43732</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -22563,7 +22563,7 @@
         <v>43732</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -22625,7 +22625,7 @@
         <v>43734</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -22682,7 +22682,7 @@
         <v>43735</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -22739,7 +22739,7 @@
         <v>43738</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -22796,7 +22796,7 @@
         <v>43738</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -22853,7 +22853,7 @@
         <v>43741</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -22915,7 +22915,7 @@
         <v>43742</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -22972,7 +22972,7 @@
         <v>43745</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -23029,7 +23029,7 @@
         <v>43745</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -23091,7 +23091,7 @@
         <v>43746</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -23148,7 +23148,7 @@
         <v>43747</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -23210,7 +23210,7 @@
         <v>43748</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -23272,7 +23272,7 @@
         <v>43749</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -23334,7 +23334,7 @@
         <v>43754</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -23396,7 +23396,7 @@
         <v>43754</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -23458,7 +23458,7 @@
         <v>43755</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -23520,7 +23520,7 @@
         <v>43755</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -23582,7 +23582,7 @@
         <v>43759</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -23644,7 +23644,7 @@
         <v>43759</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -23701,7 +23701,7 @@
         <v>43760</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -23763,7 +23763,7 @@
         <v>43763</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -23820,7 +23820,7 @@
         <v>43763</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -23877,7 +23877,7 @@
         <v>43767</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -23939,7 +23939,7 @@
         <v>43774</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -23996,7 +23996,7 @@
         <v>43774</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -24053,7 +24053,7 @@
         <v>43775</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -24110,7 +24110,7 @@
         <v>43775</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -24167,7 +24167,7 @@
         <v>43776</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -24224,7 +24224,7 @@
         <v>43776</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -24281,7 +24281,7 @@
         <v>43777</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -24343,7 +24343,7 @@
         <v>43781</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -24405,7 +24405,7 @@
         <v>43781</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -24467,7 +24467,7 @@
         <v>43782</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -24524,7 +24524,7 @@
         <v>43782</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -24581,7 +24581,7 @@
         <v>43784</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -24643,7 +24643,7 @@
         <v>43787</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -24705,7 +24705,7 @@
         <v>43787</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -24767,7 +24767,7 @@
         <v>43789</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -24829,7 +24829,7 @@
         <v>43789</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -24891,7 +24891,7 @@
         <v>43791</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -24953,7 +24953,7 @@
         <v>43791</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -25015,7 +25015,7 @@
         <v>43791</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -25077,7 +25077,7 @@
         <v>43794</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -25134,7 +25134,7 @@
         <v>43794</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -25191,7 +25191,7 @@
         <v>43797</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -25248,7 +25248,7 @@
         <v>43801</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -25310,7 +25310,7 @@
         <v>43802</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -25367,7 +25367,7 @@
         <v>43802</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -25424,7 +25424,7 @@
         <v>43808</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -25481,7 +25481,7 @@
         <v>43810</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -25543,7 +25543,7 @@
         <v>43810</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -25605,7 +25605,7 @@
         <v>43815</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -25662,7 +25662,7 @@
         <v>43815</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -25719,7 +25719,7 @@
         <v>43816</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -25776,7 +25776,7 @@
         <v>43837</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -25833,7 +25833,7 @@
         <v>43838</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -25890,7 +25890,7 @@
         <v>43840</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -25952,7 +25952,7 @@
         <v>43850</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -26009,7 +26009,7 @@
         <v>43850</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -26066,7 +26066,7 @@
         <v>43850</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -26123,7 +26123,7 @@
         <v>43850</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -26180,7 +26180,7 @@
         <v>43851</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -26237,7 +26237,7 @@
         <v>43851</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -26294,7 +26294,7 @@
         <v>43858</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -26351,7 +26351,7 @@
         <v>43861</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -26408,7 +26408,7 @@
         <v>43865</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -26465,7 +26465,7 @@
         <v>43866</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -26522,7 +26522,7 @@
         <v>43879</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -26579,7 +26579,7 @@
         <v>43882</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -26636,7 +26636,7 @@
         <v>43885</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -26693,7 +26693,7 @@
         <v>43886</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -26750,7 +26750,7 @@
         <v>43886</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -26807,7 +26807,7 @@
         <v>43892</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -26864,7 +26864,7 @@
         <v>43892</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -26921,7 +26921,7 @@
         <v>43894</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -26983,7 +26983,7 @@
         <v>43902</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -27045,7 +27045,7 @@
         <v>43903</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -27102,7 +27102,7 @@
         <v>43908</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -27159,7 +27159,7 @@
         <v>43913</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -27216,7 +27216,7 @@
         <v>43913</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -27273,7 +27273,7 @@
         <v>43922</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -27335,7 +27335,7 @@
         <v>43924</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -27392,7 +27392,7 @@
         <v>43924</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -27449,7 +27449,7 @@
         <v>43930</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -27506,7 +27506,7 @@
         <v>43935</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -27568,7 +27568,7 @@
         <v>43943</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -27625,7 +27625,7 @@
         <v>43943</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -27682,7 +27682,7 @@
         <v>43943</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -27739,7 +27739,7 @@
         <v>43944</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -27796,7 +27796,7 @@
         <v>43944</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -27853,7 +27853,7 @@
         <v>43945</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -27910,7 +27910,7 @@
         <v>43945</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -27972,7 +27972,7 @@
         <v>43945</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -28029,7 +28029,7 @@
         <v>43945</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -28091,7 +28091,7 @@
         <v>43949</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -28153,7 +28153,7 @@
         <v>43951</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -28215,7 +28215,7 @@
         <v>43951</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -28277,7 +28277,7 @@
         <v>43951</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -28339,7 +28339,7 @@
         <v>43951</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -28401,7 +28401,7 @@
         <v>43951</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -28458,7 +28458,7 @@
         <v>43955</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -28520,7 +28520,7 @@
         <v>43959</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -28582,7 +28582,7 @@
         <v>43959</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -28644,7 +28644,7 @@
         <v>43959</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -28706,7 +28706,7 @@
         <v>43959</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -28768,7 +28768,7 @@
         <v>43962</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -28830,7 +28830,7 @@
         <v>43962</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -28892,7 +28892,7 @@
         <v>43962</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -28954,7 +28954,7 @@
         <v>43962</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -29016,7 +29016,7 @@
         <v>43964</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -29078,7 +29078,7 @@
         <v>43965</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -29140,7 +29140,7 @@
         <v>43965</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -29202,7 +29202,7 @@
         <v>43966</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -29264,7 +29264,7 @@
         <v>43966</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -29326,7 +29326,7 @@
         <v>43966</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -29388,7 +29388,7 @@
         <v>43969</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -29450,7 +29450,7 @@
         <v>43971</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -29512,7 +29512,7 @@
         <v>43971</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -29574,7 +29574,7 @@
         <v>43971</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -29636,7 +29636,7 @@
         <v>43977</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -29698,7 +29698,7 @@
         <v>43978</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -29755,7 +29755,7 @@
         <v>43979</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -29817,7 +29817,7 @@
         <v>43979</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -29879,7 +29879,7 @@
         <v>43979</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -29941,7 +29941,7 @@
         <v>43979</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -30003,7 +30003,7 @@
         <v>43979</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -30065,7 +30065,7 @@
         <v>43986</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -30122,7 +30122,7 @@
         <v>43990</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -30184,7 +30184,7 @@
         <v>43990</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -30246,7 +30246,7 @@
         <v>43991</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -30308,7 +30308,7 @@
         <v>43993</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -30370,7 +30370,7 @@
         <v>44000</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -30432,7 +30432,7 @@
         <v>44000</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -30494,7 +30494,7 @@
         <v>44005</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -30556,7 +30556,7 @@
         <v>44005</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -30618,7 +30618,7 @@
         <v>44006</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -30675,7 +30675,7 @@
         <v>44007</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -30737,7 +30737,7 @@
         <v>44007</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -30799,7 +30799,7 @@
         <v>44008</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -30861,7 +30861,7 @@
         <v>44008</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -30923,7 +30923,7 @@
         <v>44014</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -30985,7 +30985,7 @@
         <v>44014</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -31047,7 +31047,7 @@
         <v>44014</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -31109,7 +31109,7 @@
         <v>44022</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -31171,7 +31171,7 @@
         <v>44022</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -31228,7 +31228,7 @@
         <v>44025</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -31285,7 +31285,7 @@
         <v>44026</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -31347,7 +31347,7 @@
         <v>44027</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -31404,7 +31404,7 @@
         <v>44028</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -31466,7 +31466,7 @@
         <v>44029</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -31528,7 +31528,7 @@
         <v>44029</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -31590,7 +31590,7 @@
         <v>44031</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -31652,7 +31652,7 @@
         <v>44032</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -31709,7 +31709,7 @@
         <v>44032</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -31771,7 +31771,7 @@
         <v>44032</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -31833,7 +31833,7 @@
         <v>44033</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -31890,7 +31890,7 @@
         <v>44041</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -31952,7 +31952,7 @@
         <v>44041</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -32014,7 +32014,7 @@
         <v>44041</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -32076,7 +32076,7 @@
         <v>44042</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -32138,7 +32138,7 @@
         <v>44049</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -32200,7 +32200,7 @@
         <v>44049</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -32262,7 +32262,7 @@
         <v>44053</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -32319,7 +32319,7 @@
         <v>44056</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -32381,7 +32381,7 @@
         <v>44057</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -32443,7 +32443,7 @@
         <v>44060</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -32505,7 +32505,7 @@
         <v>44061</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -32562,7 +32562,7 @@
         <v>44061</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -32619,7 +32619,7 @@
         <v>44061</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -32676,7 +32676,7 @@
         <v>44061</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -32738,7 +32738,7 @@
         <v>44062</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -32800,7 +32800,7 @@
         <v>44064</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -32862,7 +32862,7 @@
         <v>44064</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -32924,7 +32924,7 @@
         <v>44064</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -32986,7 +32986,7 @@
         <v>44064</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -33048,7 +33048,7 @@
         <v>44067</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -33110,7 +33110,7 @@
         <v>44068</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -33172,7 +33172,7 @@
         <v>44069</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -33234,7 +33234,7 @@
         <v>44069</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -33296,7 +33296,7 @@
         <v>44069</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -33358,7 +33358,7 @@
         <v>44069</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -33420,7 +33420,7 @@
         <v>44070</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -33477,7 +33477,7 @@
         <v>44074</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -33539,7 +33539,7 @@
         <v>44074</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -33601,7 +33601,7 @@
         <v>44075</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -33663,7 +33663,7 @@
         <v>44075</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -33725,7 +33725,7 @@
         <v>44075</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -33787,7 +33787,7 @@
         <v>44078</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -33844,7 +33844,7 @@
         <v>44078</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -33901,7 +33901,7 @@
         <v>44078</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -33963,7 +33963,7 @@
         <v>44080</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -34025,7 +34025,7 @@
         <v>44081</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -34087,7 +34087,7 @@
         <v>44081</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -34149,7 +34149,7 @@
         <v>44082</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -34211,7 +34211,7 @@
         <v>44082</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -34268,7 +34268,7 @@
         <v>44082</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -34330,7 +34330,7 @@
         <v>44083</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -34387,7 +34387,7 @@
         <v>44084</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -34449,7 +34449,7 @@
         <v>44085</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -34511,7 +34511,7 @@
         <v>44085</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -34573,7 +34573,7 @@
         <v>44085</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -34635,7 +34635,7 @@
         <v>44085</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -34697,7 +34697,7 @@
         <v>44085</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -34754,7 +34754,7 @@
         <v>44088</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -34816,7 +34816,7 @@
         <v>44088</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -34878,7 +34878,7 @@
         <v>44088</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -34940,7 +34940,7 @@
         <v>44088</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -35002,7 +35002,7 @@
         <v>44091</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -35064,7 +35064,7 @@
         <v>44092</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -35126,7 +35126,7 @@
         <v>44092</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -35188,7 +35188,7 @@
         <v>44092</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -35250,7 +35250,7 @@
         <v>44095</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -35307,7 +35307,7 @@
         <v>44099</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -35369,7 +35369,7 @@
         <v>44099</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -35431,7 +35431,7 @@
         <v>44099</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -35493,7 +35493,7 @@
         <v>44103</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -35555,7 +35555,7 @@
         <v>44103</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -35617,7 +35617,7 @@
         <v>44104</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -35679,7 +35679,7 @@
         <v>44104</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -35741,7 +35741,7 @@
         <v>44104</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -35803,7 +35803,7 @@
         <v>44108</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -35860,7 +35860,7 @@
         <v>44109</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -35922,7 +35922,7 @@
         <v>44109</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -35984,7 +35984,7 @@
         <v>44110</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -36046,7 +36046,7 @@
         <v>44111</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -36108,7 +36108,7 @@
         <v>44112</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -36170,7 +36170,7 @@
         <v>44112</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -36227,7 +36227,7 @@
         <v>44112</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -36289,7 +36289,7 @@
         <v>44116</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -36351,7 +36351,7 @@
         <v>44116</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -36413,7 +36413,7 @@
         <v>44116</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -36470,7 +36470,7 @@
         <v>44116</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -36532,7 +36532,7 @@
         <v>44116</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -36594,7 +36594,7 @@
         <v>44117</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -36656,7 +36656,7 @@
         <v>44119</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -36718,7 +36718,7 @@
         <v>44119</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -36780,7 +36780,7 @@
         <v>44119</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -36842,7 +36842,7 @@
         <v>44120</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -36904,7 +36904,7 @@
         <v>44123</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -36966,7 +36966,7 @@
         <v>44124</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -37028,7 +37028,7 @@
         <v>44124</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -37085,7 +37085,7 @@
         <v>44125</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -37142,7 +37142,7 @@
         <v>44125</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -37204,7 +37204,7 @@
         <v>44125</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -37266,7 +37266,7 @@
         <v>44125</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -37328,7 +37328,7 @@
         <v>44126</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -37390,7 +37390,7 @@
         <v>44126</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -37452,7 +37452,7 @@
         <v>44126</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -37509,7 +37509,7 @@
         <v>44126</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -37571,7 +37571,7 @@
         <v>44133</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -37633,7 +37633,7 @@
         <v>44141</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -37695,7 +37695,7 @@
         <v>44144</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -37757,7 +37757,7 @@
         <v>44145</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -37819,7 +37819,7 @@
         <v>44146</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -37876,7 +37876,7 @@
         <v>44147</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -37938,7 +37938,7 @@
         <v>44148</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -38000,7 +38000,7 @@
         <v>44148</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -38062,7 +38062,7 @@
         <v>44150</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -38124,7 +38124,7 @@
         <v>44151</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -38186,7 +38186,7 @@
         <v>44159</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -38248,7 +38248,7 @@
         <v>44159</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -38305,7 +38305,7 @@
         <v>44160</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -38367,7 +38367,7 @@
         <v>44161</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -38424,7 +38424,7 @@
         <v>44162</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -38486,7 +38486,7 @@
         <v>44162</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -38548,7 +38548,7 @@
         <v>44166</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -38605,7 +38605,7 @@
         <v>44167</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -38667,7 +38667,7 @@
         <v>44179</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -38729,7 +38729,7 @@
         <v>44180</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -38791,7 +38791,7 @@
         <v>44180</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -38853,7 +38853,7 @@
         <v>44194</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -38910,7 +38910,7 @@
         <v>44194</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -38987,7 +38987,7 @@
         <v>44199</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -39044,7 +39044,7 @@
         <v>44200</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -39101,7 +39101,7 @@
         <v>44203</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -39163,7 +39163,7 @@
         <v>44208</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -39225,7 +39225,7 @@
         <v>44221</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -39282,7 +39282,7 @@
         <v>44223</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -39344,7 +39344,7 @@
         <v>44228</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -39401,7 +39401,7 @@
         <v>44229</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -39458,7 +39458,7 @@
         <v>44236</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -39515,7 +39515,7 @@
         <v>44239</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -39572,7 +39572,7 @@
         <v>44243</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -39629,7 +39629,7 @@
         <v>44250</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -39686,7 +39686,7 @@
         <v>44251</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -39743,7 +39743,7 @@
         <v>44253</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -39800,7 +39800,7 @@
         <v>44259</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -39857,7 +39857,7 @@
         <v>44265</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -39914,7 +39914,7 @@
         <v>44265</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -39971,7 +39971,7 @@
         <v>44267</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -40028,7 +40028,7 @@
         <v>44273</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -40090,7 +40090,7 @@
         <v>44273</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -40152,7 +40152,7 @@
         <v>44294</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -40214,7 +40214,7 @@
         <v>44294</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -40276,7 +40276,7 @@
         <v>44295</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -40338,7 +40338,7 @@
         <v>44302</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -40400,7 +40400,7 @@
         <v>44307</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -40457,7 +40457,7 @@
         <v>44308</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -40514,7 +40514,7 @@
         <v>44308</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -40576,7 +40576,7 @@
         <v>44309</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -40633,7 +40633,7 @@
         <v>44313</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -40695,7 +40695,7 @@
         <v>44313</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -40757,7 +40757,7 @@
         <v>44322</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -40819,7 +40819,7 @@
         <v>44322</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -40881,7 +40881,7 @@
         <v>44322</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -40943,7 +40943,7 @@
         <v>44322</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -41005,7 +41005,7 @@
         <v>44326</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -41062,7 +41062,7 @@
         <v>44326</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -41119,7 +41119,7 @@
         <v>44333</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -41176,7 +41176,7 @@
         <v>44336</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -41233,7 +41233,7 @@
         <v>44341</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -41290,7 +41290,7 @@
         <v>44341</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -41347,7 +41347,7 @@
         <v>44350</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -41409,7 +41409,7 @@
         <v>44350</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -41471,7 +41471,7 @@
         <v>44354</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -41533,7 +41533,7 @@
         <v>44358</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -41595,7 +41595,7 @@
         <v>44358</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -41657,7 +41657,7 @@
         <v>44361</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -41714,7 +41714,7 @@
         <v>44361</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -41776,7 +41776,7 @@
         <v>44361</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -41833,7 +41833,7 @@
         <v>44361</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -41890,7 +41890,7 @@
         <v>44361</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -41947,7 +41947,7 @@
         <v>44361</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -42004,7 +42004,7 @@
         <v>44363</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -42061,7 +42061,7 @@
         <v>44364</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -42118,7 +42118,7 @@
         <v>44365</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -42175,7 +42175,7 @@
         <v>44368</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -42237,7 +42237,7 @@
         <v>44368</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -42299,7 +42299,7 @@
         <v>44378</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -42361,7 +42361,7 @@
         <v>44382</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -42423,7 +42423,7 @@
         <v>44382</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -42485,7 +42485,7 @@
         <v>44382</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -42547,7 +42547,7 @@
         <v>44384</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -42609,7 +42609,7 @@
         <v>44385</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -42666,7 +42666,7 @@
         <v>44390</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -42723,7 +42723,7 @@
         <v>44391</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -42780,7 +42780,7 @@
         <v>44397</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -42842,7 +42842,7 @@
         <v>44400</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -42904,7 +42904,7 @@
         <v>44400</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -42966,7 +42966,7 @@
         <v>44400</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -43028,7 +43028,7 @@
         <v>44403</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -43090,7 +43090,7 @@
         <v>44403</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -43147,7 +43147,7 @@
         <v>44404</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -43204,7 +43204,7 @@
         <v>44406</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -43266,7 +43266,7 @@
         <v>44418</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -43328,7 +43328,7 @@
         <v>44418</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -43390,7 +43390,7 @@
         <v>44419</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -43452,7 +43452,7 @@
         <v>44425</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -43514,7 +43514,7 @@
         <v>44425</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -43576,7 +43576,7 @@
         <v>44426</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -43633,7 +43633,7 @@
         <v>44427</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -43690,7 +43690,7 @@
         <v>44428</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -43752,7 +43752,7 @@
         <v>44431</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -43809,7 +43809,7 @@
         <v>44435</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -43871,7 +43871,7 @@
         <v>44435</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -43933,7 +43933,7 @@
         <v>44435</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -43990,7 +43990,7 @@
         <v>44435</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -44052,7 +44052,7 @@
         <v>44438</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -44114,7 +44114,7 @@
         <v>44439</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -44171,7 +44171,7 @@
         <v>44440</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -44228,7 +44228,7 @@
         <v>44445</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -44290,7 +44290,7 @@
         <v>44445</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -44352,7 +44352,7 @@
         <v>44445</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -44409,7 +44409,7 @@
         <v>44447</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -44471,7 +44471,7 @@
         <v>44447</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -44528,7 +44528,7 @@
         <v>44448</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -44585,7 +44585,7 @@
         <v>44448</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -44642,7 +44642,7 @@
         <v>44449</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -44699,7 +44699,7 @@
         <v>44452</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -44761,7 +44761,7 @@
         <v>44453</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -44823,7 +44823,7 @@
         <v>44455</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -44885,7 +44885,7 @@
         <v>44460</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -44942,7 +44942,7 @@
         <v>44460</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -45004,7 +45004,7 @@
         <v>44460</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -45066,7 +45066,7 @@
         <v>44461</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -45123,7 +45123,7 @@
         <v>44466</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -45180,7 +45180,7 @@
         <v>44467</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -45242,7 +45242,7 @@
         <v>44470</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -45299,7 +45299,7 @@
         <v>44473</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -45356,7 +45356,7 @@
         <v>44475</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -45418,7 +45418,7 @@
         <v>44475</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -45480,7 +45480,7 @@
         <v>44475</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -45537,7 +45537,7 @@
         <v>44480</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -45599,7 +45599,7 @@
         <v>44481</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -45656,7 +45656,7 @@
         <v>44483</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -45718,7 +45718,7 @@
         <v>44484</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -45780,7 +45780,7 @@
         <v>44488</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -45837,7 +45837,7 @@
         <v>44489</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -45899,7 +45899,7 @@
         <v>44489</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -45961,7 +45961,7 @@
         <v>44489</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -46023,7 +46023,7 @@
         <v>44489</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -46085,7 +46085,7 @@
         <v>44490</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -46147,7 +46147,7 @@
         <v>44497</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -46209,7 +46209,7 @@
         <v>44497</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -46266,7 +46266,7 @@
         <v>44497</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -46328,7 +46328,7 @@
         <v>44497</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -46385,7 +46385,7 @@
         <v>44502</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -46442,7 +46442,7 @@
         <v>44503</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -46504,7 +46504,7 @@
         <v>44504</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -46566,7 +46566,7 @@
         <v>44510</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -46628,7 +46628,7 @@
         <v>44511</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -46690,7 +46690,7 @@
         <v>44511</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -46752,7 +46752,7 @@
         <v>44523</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -46814,7 +46814,7 @@
         <v>44523</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -46871,7 +46871,7 @@
         <v>44531</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -46928,7 +46928,7 @@
         <v>44536</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -46985,7 +46985,7 @@
         <v>44538</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -47042,7 +47042,7 @@
         <v>44544</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -47104,7 +47104,7 @@
         <v>44550</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -47166,7 +47166,7 @@
         <v>44551</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -47223,7 +47223,7 @@
         <v>44552</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -47280,7 +47280,7 @@
         <v>44552</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -47337,7 +47337,7 @@
         <v>44564</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -47394,7 +47394,7 @@
         <v>44566</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -47451,7 +47451,7 @@
         <v>44572</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -47508,7 +47508,7 @@
         <v>44579</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -47570,7 +47570,7 @@
         <v>44582</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -47627,7 +47627,7 @@
         <v>44587</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -47689,7 +47689,7 @@
         <v>44592</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -47751,7 +47751,7 @@
         <v>44595</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -47808,7 +47808,7 @@
         <v>44615</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -47865,7 +47865,7 @@
         <v>44615</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -47922,7 +47922,7 @@
         <v>44616</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -47979,7 +47979,7 @@
         <v>44621</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -48041,7 +48041,7 @@
         <v>44627</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -48098,7 +48098,7 @@
         <v>44627</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -48155,7 +48155,7 @@
         <v>44629</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -48212,7 +48212,7 @@
         <v>44648</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -48269,7 +48269,7 @@
         <v>44650</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -48326,7 +48326,7 @@
         <v>44657</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -48383,7 +48383,7 @@
         <v>44662</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -48445,7 +48445,7 @@
         <v>44663</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -48502,7 +48502,7 @@
         <v>44663</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -48559,7 +48559,7 @@
         <v>44685</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -48621,7 +48621,7 @@
         <v>44691</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -48683,7 +48683,7 @@
         <v>44692</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -48745,7 +48745,7 @@
         <v>44692</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -48807,7 +48807,7 @@
         <v>44693</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -48869,7 +48869,7 @@
         <v>44697</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -48926,7 +48926,7 @@
         <v>44701</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -48988,7 +48988,7 @@
         <v>44711</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -49050,7 +49050,7 @@
         <v>44711</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -49112,7 +49112,7 @@
         <v>44712</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -49169,7 +49169,7 @@
         <v>44714</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -49226,7 +49226,7 @@
         <v>44719</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -49283,7 +49283,7 @@
         <v>44726</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -49340,7 +49340,7 @@
         <v>44726</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -49397,7 +49397,7 @@
         <v>44726</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -49454,7 +49454,7 @@
         <v>44726</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -49516,7 +49516,7 @@
         <v>44726</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -49573,7 +49573,7 @@
         <v>44732</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -49635,7 +49635,7 @@
         <v>44743</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -49697,7 +49697,7 @@
         <v>44743</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -49759,7 +49759,7 @@
         <v>44743</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -49821,7 +49821,7 @@
         <v>44743</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -49883,7 +49883,7 @@
         <v>44743</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -49945,7 +49945,7 @@
         <v>44743</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -50007,7 +50007,7 @@
         <v>44743</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -50069,7 +50069,7 @@
         <v>44747</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -50126,7 +50126,7 @@
         <v>44747</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -50183,7 +50183,7 @@
         <v>44748</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -50240,7 +50240,7 @@
         <v>44749</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -50297,7 +50297,7 @@
         <v>44757</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -50359,7 +50359,7 @@
         <v>44757</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -50421,7 +50421,7 @@
         <v>44762</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -50483,7 +50483,7 @@
         <v>44774</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -50545,7 +50545,7 @@
         <v>44774</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -50607,7 +50607,7 @@
         <v>44774</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -50669,7 +50669,7 @@
         <v>44777</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -50726,7 +50726,7 @@
         <v>44778</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -50788,7 +50788,7 @@
         <v>44781</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -50850,7 +50850,7 @@
         <v>44781</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -50912,7 +50912,7 @@
         <v>44789</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -50969,7 +50969,7 @@
         <v>44791</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -51031,7 +51031,7 @@
         <v>44791</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -51088,7 +51088,7 @@
         <v>44792</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -51150,7 +51150,7 @@
         <v>44792</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -51212,7 +51212,7 @@
         <v>44792</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -51269,7 +51269,7 @@
         <v>44792</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -51331,7 +51331,7 @@
         <v>44792</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -51393,7 +51393,7 @@
         <v>44795</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -51455,7 +51455,7 @@
         <v>44795</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -51512,7 +51512,7 @@
         <v>44797</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -51569,7 +51569,7 @@
         <v>44798</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -51626,7 +51626,7 @@
         <v>44799</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -51688,7 +51688,7 @@
         <v>44799</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -51750,7 +51750,7 @@
         <v>44799</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -51812,7 +51812,7 @@
         <v>44799</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -51874,7 +51874,7 @@
         <v>44803</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -51931,7 +51931,7 @@
         <v>44804</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -51988,7 +51988,7 @@
         <v>44806</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -52050,7 +52050,7 @@
         <v>44812</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -52107,7 +52107,7 @@
         <v>44813</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -52169,7 +52169,7 @@
         <v>44813</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -52226,7 +52226,7 @@
         <v>44813</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -52288,7 +52288,7 @@
         <v>44817</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -52350,7 +52350,7 @@
         <v>44824</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -52412,7 +52412,7 @@
         <v>44824</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -52474,7 +52474,7 @@
         <v>44824</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -52536,7 +52536,7 @@
         <v>44825</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -52598,7 +52598,7 @@
         <v>44827</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -52660,7 +52660,7 @@
         <v>44827</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -52722,7 +52722,7 @@
         <v>44832</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -52784,7 +52784,7 @@
         <v>44833</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -52846,7 +52846,7 @@
         <v>44833</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -52908,7 +52908,7 @@
         <v>44833</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -52965,7 +52965,7 @@
         <v>44833</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -53027,7 +53027,7 @@
         <v>44833</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -53084,7 +53084,7 @@
         <v>44833</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -53146,7 +53146,7 @@
         <v>44834</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -53208,7 +53208,7 @@
         <v>44834</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -53270,7 +53270,7 @@
         <v>44837</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -53332,7 +53332,7 @@
         <v>44837</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -53389,7 +53389,7 @@
         <v>44837</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -53451,7 +53451,7 @@
         <v>44838</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -53508,7 +53508,7 @@
         <v>44838</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -53565,7 +53565,7 @@
         <v>44844</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -53627,7 +53627,7 @@
         <v>44846</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -53689,7 +53689,7 @@
         <v>44846</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -53746,7 +53746,7 @@
         <v>44847</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -53808,7 +53808,7 @@
         <v>44847</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -53870,7 +53870,7 @@
         <v>44847</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -53932,7 +53932,7 @@
         <v>44848</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -53994,7 +53994,7 @@
         <v>44853</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -54051,7 +54051,7 @@
         <v>44855</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -54113,7 +54113,7 @@
         <v>44858</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -54175,7 +54175,7 @@
         <v>44860</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -54232,7 +54232,7 @@
         <v>44864</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -54289,7 +54289,7 @@
         <v>44866</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -54351,7 +54351,7 @@
         <v>44866</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -54413,7 +54413,7 @@
         <v>44867</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -54475,7 +54475,7 @@
         <v>44867</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -54532,7 +54532,7 @@
         <v>44867</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -54594,7 +54594,7 @@
         <v>44868</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -54656,7 +54656,7 @@
         <v>44872</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -54718,7 +54718,7 @@
         <v>44872</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -54780,7 +54780,7 @@
         <v>44872</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -54842,7 +54842,7 @@
         <v>44872</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -54899,7 +54899,7 @@
         <v>44873</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -54956,7 +54956,7 @@
         <v>44873</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -55013,7 +55013,7 @@
         <v>44874</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -55075,7 +55075,7 @@
         <v>44874</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -55137,7 +55137,7 @@
         <v>44874</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -55199,7 +55199,7 @@
         <v>44875</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -55256,7 +55256,7 @@
         <v>44875</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -55318,7 +55318,7 @@
         <v>44876</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -55380,7 +55380,7 @@
         <v>44880</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -55442,7 +55442,7 @@
         <v>44880</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -55504,7 +55504,7 @@
         <v>44882</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -55566,7 +55566,7 @@
         <v>44886</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -55628,7 +55628,7 @@
         <v>44886</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -55690,7 +55690,7 @@
         <v>44886</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -55752,7 +55752,7 @@
         <v>44888</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -55814,7 +55814,7 @@
         <v>44889</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -55871,7 +55871,7 @@
         <v>44894</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -55933,7 +55933,7 @@
         <v>44895</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -55990,7 +55990,7 @@
         <v>44900</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -56052,7 +56052,7 @@
         <v>44902</v>
       </c>
       <c r="C876" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -56109,7 +56109,7 @@
         <v>44903</v>
       </c>
       <c r="C877" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -56171,7 +56171,7 @@
         <v>44903</v>
       </c>
       <c r="C878" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -56253,7 +56253,7 @@
         <v>44903</v>
       </c>
       <c r="C879" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -56315,7 +56315,7 @@
         <v>44904</v>
       </c>
       <c r="C880" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -56377,7 +56377,7 @@
         <v>44904</v>
       </c>
       <c r="C881" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -56434,7 +56434,7 @@
         <v>44909</v>
       </c>
       <c r="C882" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -56496,7 +56496,7 @@
         <v>44909</v>
       </c>
       <c r="C883" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>
@@ -56558,7 +56558,7 @@
         <v>44909</v>
       </c>
       <c r="C884" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D884" t="inlineStr">
         <is>
@@ -56620,7 +56620,7 @@
         <v>44910</v>
       </c>
       <c r="C885" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D885" t="inlineStr">
         <is>
@@ -56682,7 +56682,7 @@
         <v>44911</v>
       </c>
       <c r="C886" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D886" t="inlineStr">
         <is>
@@ -56744,7 +56744,7 @@
         <v>44911</v>
       </c>
       <c r="C887" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D887" t="inlineStr">
         <is>
@@ -56806,7 +56806,7 @@
         <v>44915</v>
       </c>
       <c r="C888" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D888" t="inlineStr">
         <is>
@@ -56868,7 +56868,7 @@
         <v>44916</v>
       </c>
       <c r="C889" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D889" t="inlineStr">
         <is>
@@ -56925,7 +56925,7 @@
         <v>44924</v>
       </c>
       <c r="C890" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D890" t="inlineStr">
         <is>
@@ -56982,7 +56982,7 @@
         <v>44924</v>
       </c>
       <c r="C891" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D891" t="inlineStr">
         <is>
@@ -57039,7 +57039,7 @@
         <v>44925</v>
       </c>
       <c r="C892" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D892" t="inlineStr">
         <is>
@@ -57096,7 +57096,7 @@
         <v>44931</v>
       </c>
       <c r="C893" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D893" t="inlineStr">
         <is>
@@ -57153,7 +57153,7 @@
         <v>44935</v>
       </c>
       <c r="C894" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D894" t="inlineStr">
         <is>
@@ -57215,7 +57215,7 @@
         <v>44937</v>
       </c>
       <c r="C895" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D895" t="inlineStr">
         <is>
@@ -57277,7 +57277,7 @@
         <v>44939</v>
       </c>
       <c r="C896" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D896" t="inlineStr">
         <is>
@@ -57339,7 +57339,7 @@
         <v>44942</v>
       </c>
       <c r="C897" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D897" t="inlineStr">
         <is>
@@ -57396,7 +57396,7 @@
         <v>44942</v>
       </c>
       <c r="C898" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D898" t="inlineStr">
         <is>
@@ -57453,7 +57453,7 @@
         <v>44946</v>
       </c>
       <c r="C899" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D899" t="inlineStr">
         <is>
@@ -57515,7 +57515,7 @@
         <v>44946</v>
       </c>
       <c r="C900" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D900" t="inlineStr">
         <is>
@@ -57572,7 +57572,7 @@
         <v>44949</v>
       </c>
       <c r="C901" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D901" t="inlineStr">
         <is>
@@ -57634,7 +57634,7 @@
         <v>44950</v>
       </c>
       <c r="C902" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D902" t="inlineStr">
         <is>
@@ -57691,7 +57691,7 @@
         <v>44950</v>
       </c>
       <c r="C903" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D903" t="inlineStr">
         <is>
@@ -57748,7 +57748,7 @@
         <v>44952</v>
       </c>
       <c r="C904" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D904" t="inlineStr">
         <is>
@@ -57805,7 +57805,7 @@
         <v>44953</v>
       </c>
       <c r="C905" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D905" t="inlineStr">
         <is>
@@ -57867,7 +57867,7 @@
         <v>44953</v>
       </c>
       <c r="C906" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D906" t="inlineStr">
         <is>
@@ -57929,7 +57929,7 @@
         <v>44956</v>
       </c>
       <c r="C907" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D907" t="inlineStr">
         <is>
@@ -57986,7 +57986,7 @@
         <v>44957</v>
       </c>
       <c r="C908" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D908" t="inlineStr">
         <is>
@@ -58048,7 +58048,7 @@
         <v>44957</v>
       </c>
       <c r="C909" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D909" t="inlineStr">
         <is>
@@ -58105,7 +58105,7 @@
         <v>44959</v>
       </c>
       <c r="C910" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D910" t="inlineStr">
         <is>
@@ -58162,7 +58162,7 @@
         <v>44960</v>
       </c>
       <c r="C911" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D911" t="inlineStr">
         <is>
@@ -58219,7 +58219,7 @@
         <v>44963</v>
       </c>
       <c r="C912" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D912" t="inlineStr">
         <is>
@@ -58276,7 +58276,7 @@
         <v>44964</v>
       </c>
       <c r="C913" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D913" t="inlineStr">
         <is>
@@ -58338,7 +58338,7 @@
         <v>44965</v>
       </c>
       <c r="C914" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D914" t="inlineStr">
         <is>
@@ -58400,7 +58400,7 @@
         <v>44967</v>
       </c>
       <c r="C915" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D915" t="inlineStr">
         <is>
@@ -58457,7 +58457,7 @@
         <v>44970</v>
       </c>
       <c r="C916" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D916" t="inlineStr">
         <is>
@@ -58514,7 +58514,7 @@
         <v>44970</v>
       </c>
       <c r="C917" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D917" t="inlineStr">
         <is>
@@ -58571,7 +58571,7 @@
         <v>44970</v>
       </c>
       <c r="C918" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D918" t="inlineStr">
         <is>
@@ -58628,7 +58628,7 @@
         <v>44972</v>
       </c>
       <c r="C919" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D919" t="inlineStr">
         <is>
@@ -58690,7 +58690,7 @@
         <v>44974</v>
       </c>
       <c r="C920" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D920" t="inlineStr">
         <is>
@@ -58747,7 +58747,7 @@
         <v>44977</v>
       </c>
       <c r="C921" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D921" t="inlineStr">
         <is>
@@ -58809,7 +58809,7 @@
         <v>44977</v>
       </c>
       <c r="C922" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D922" t="inlineStr">
         <is>
@@ -58871,7 +58871,7 @@
         <v>44977</v>
       </c>
       <c r="C923" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D923" t="inlineStr">
         <is>
@@ -58933,7 +58933,7 @@
         <v>44977</v>
       </c>
       <c r="C924" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D924" t="inlineStr">
         <is>
@@ -58995,7 +58995,7 @@
         <v>44977</v>
       </c>
       <c r="C925" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D925" t="inlineStr">
         <is>
@@ -59057,7 +59057,7 @@
         <v>44977</v>
       </c>
       <c r="C926" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D926" t="inlineStr">
         <is>
@@ -59119,7 +59119,7 @@
         <v>44980</v>
       </c>
       <c r="C927" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D927" t="inlineStr">
         <is>
@@ -59181,7 +59181,7 @@
         <v>44980</v>
       </c>
       <c r="C928" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D928" t="inlineStr">
         <is>
@@ -59238,7 +59238,7 @@
         <v>44984</v>
       </c>
       <c r="C929" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D929" t="inlineStr">
         <is>
@@ -59295,7 +59295,7 @@
         <v>44985</v>
       </c>
       <c r="C930" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D930" t="inlineStr">
         <is>
@@ -59357,7 +59357,7 @@
         <v>44985</v>
       </c>
       <c r="C931" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D931" t="inlineStr">
         <is>
@@ -59419,7 +59419,7 @@
         <v>44985</v>
       </c>
       <c r="C932" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D932" t="inlineStr">
         <is>
@@ -59476,7 +59476,7 @@
         <v>44985</v>
       </c>
       <c r="C933" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D933" t="inlineStr">
         <is>
@@ -59538,7 +59538,7 @@
         <v>44986</v>
       </c>
       <c r="C934" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D934" t="inlineStr">
         <is>
@@ -59600,7 +59600,7 @@
         <v>45000</v>
       </c>
       <c r="C935" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D935" t="inlineStr">
         <is>
@@ -59662,7 +59662,7 @@
         <v>45006</v>
       </c>
       <c r="C936" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D936" t="inlineStr">
         <is>
@@ -59719,7 +59719,7 @@
         <v>45007</v>
       </c>
       <c r="C937" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D937" t="inlineStr">
         <is>
@@ -59776,7 +59776,7 @@
         <v>45007</v>
       </c>
       <c r="C938" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D938" t="inlineStr">
         <is>
@@ -59838,7 +59838,7 @@
         <v>45012</v>
       </c>
       <c r="C939" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D939" t="inlineStr">
         <is>
@@ -59900,7 +59900,7 @@
         <v>45012</v>
       </c>
       <c r="C940" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D940" t="inlineStr">
         <is>
@@ -59962,7 +59962,7 @@
         <v>45016</v>
       </c>
       <c r="C941" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D941" t="inlineStr">
         <is>
@@ -60019,7 +60019,7 @@
         <v>45020</v>
       </c>
       <c r="C942" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D942" t="inlineStr">
         <is>
@@ -60076,7 +60076,7 @@
         <v>45027</v>
       </c>
       <c r="C943" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D943" t="inlineStr">
         <is>
@@ -60138,7 +60138,7 @@
         <v>45027</v>
       </c>
       <c r="C944" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D944" t="inlineStr">
         <is>
@@ -60200,7 +60200,7 @@
         <v>45028</v>
       </c>
       <c r="C945" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D945" t="inlineStr">
         <is>
@@ -60257,7 +60257,7 @@
         <v>45033</v>
       </c>
       <c r="C946" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D946" t="inlineStr">
         <is>
@@ -60319,7 +60319,7 @@
         <v>45036</v>
       </c>
       <c r="C947" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D947" t="inlineStr">
         <is>
@@ -60376,7 +60376,7 @@
         <v>45037</v>
       </c>
       <c r="C948" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D948" t="inlineStr">
         <is>
@@ -60433,7 +60433,7 @@
         <v>45041</v>
       </c>
       <c r="C949" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D949" t="inlineStr">
         <is>
@@ -60495,7 +60495,7 @@
         <v>45047</v>
       </c>
       <c r="C950" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D950" t="inlineStr">
         <is>
@@ -60552,7 +60552,7 @@
         <v>45055</v>
       </c>
       <c r="C951" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D951" t="inlineStr">
         <is>
@@ -60614,7 +60614,7 @@
         <v>45056</v>
       </c>
       <c r="C952" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D952" t="inlineStr">
         <is>
@@ -60676,7 +60676,7 @@
         <v>45058</v>
       </c>
       <c r="C953" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D953" t="inlineStr">
         <is>
@@ -60733,7 +60733,7 @@
         <v>45058</v>
       </c>
       <c r="C954" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D954" t="inlineStr">
         <is>
@@ -60790,7 +60790,7 @@
         <v>45060</v>
       </c>
       <c r="C955" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D955" t="inlineStr">
         <is>
@@ -60847,7 +60847,7 @@
         <v>45061</v>
       </c>
       <c r="C956" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D956" t="inlineStr">
         <is>
@@ -60909,7 +60909,7 @@
         <v>45061</v>
       </c>
       <c r="C957" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D957" t="inlineStr">
         <is>
@@ -60971,7 +60971,7 @@
         <v>45061</v>
       </c>
       <c r="C958" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D958" t="inlineStr">
         <is>
@@ -61033,7 +61033,7 @@
         <v>45063</v>
       </c>
       <c r="C959" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D959" t="inlineStr">
         <is>
@@ -61090,7 +61090,7 @@
         <v>45065</v>
       </c>
       <c r="C960" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D960" t="inlineStr">
         <is>
@@ -61152,7 +61152,7 @@
         <v>45068</v>
       </c>
       <c r="C961" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D961" t="inlineStr">
         <is>
@@ -61214,7 +61214,7 @@
         <v>45068</v>
       </c>
       <c r="C962" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D962" t="inlineStr">
         <is>
@@ -61276,7 +61276,7 @@
         <v>45069</v>
       </c>
       <c r="C963" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D963" t="inlineStr">
         <is>
@@ -61338,7 +61338,7 @@
         <v>45069</v>
       </c>
       <c r="C964" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D964" t="inlineStr">
         <is>
@@ -61395,7 +61395,7 @@
         <v>45069</v>
       </c>
       <c r="C965" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D965" t="inlineStr">
         <is>
@@ -61452,7 +61452,7 @@
         <v>45070</v>
       </c>
       <c r="C966" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D966" t="inlineStr">
         <is>
@@ -61514,7 +61514,7 @@
         <v>45070</v>
       </c>
       <c r="C967" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D967" t="inlineStr">
         <is>
@@ -61571,7 +61571,7 @@
         <v>45070</v>
       </c>
       <c r="C968" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D968" t="inlineStr">
         <is>
@@ -61628,7 +61628,7 @@
         <v>45070</v>
       </c>
       <c r="C969" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D969" t="inlineStr">
         <is>
@@ -61685,7 +61685,7 @@
         <v>45070</v>
       </c>
       <c r="C970" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D970" t="inlineStr">
         <is>
@@ -61742,7 +61742,7 @@
         <v>45071</v>
       </c>
       <c r="C971" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D971" t="inlineStr">
         <is>
@@ -61804,7 +61804,7 @@
         <v>45071</v>
       </c>
       <c r="C972" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D972" t="inlineStr">
         <is>
@@ -61861,7 +61861,7 @@
         <v>45071</v>
       </c>
       <c r="C973" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D973" t="inlineStr">
         <is>
@@ -61918,7 +61918,7 @@
         <v>45071</v>
       </c>
       <c r="C974" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D974" t="inlineStr">
         <is>
@@ -61975,7 +61975,7 @@
         <v>45072</v>
       </c>
       <c r="C975" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D975" t="inlineStr">
         <is>
@@ -62032,7 +62032,7 @@
         <v>45077</v>
       </c>
       <c r="C976" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D976" t="inlineStr">
         <is>
@@ -62094,7 +62094,7 @@
         <v>45078</v>
       </c>
       <c r="C977" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D977" t="inlineStr">
         <is>
@@ -62156,7 +62156,7 @@
         <v>45078</v>
       </c>
       <c r="C978" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D978" t="inlineStr">
         <is>
@@ -62213,7 +62213,7 @@
         <v>45078</v>
       </c>
       <c r="C979" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D979" t="inlineStr">
         <is>
@@ -62270,7 +62270,7 @@
         <v>45079</v>
       </c>
       <c r="C980" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D980" t="inlineStr">
         <is>
@@ -62327,7 +62327,7 @@
         <v>45084</v>
       </c>
       <c r="C981" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D981" t="inlineStr">
         <is>
@@ -62389,7 +62389,7 @@
         <v>45090</v>
       </c>
       <c r="C982" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D982" t="inlineStr">
         <is>
@@ -62451,7 +62451,7 @@
         <v>45090</v>
       </c>
       <c r="C983" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D983" t="inlineStr">
         <is>
@@ -62508,7 +62508,7 @@
         <v>45092</v>
       </c>
       <c r="C984" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D984" t="inlineStr">
         <is>
@@ -62570,7 +62570,7 @@
         <v>45092</v>
       </c>
       <c r="C985" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D985" t="inlineStr">
         <is>
@@ -62632,7 +62632,7 @@
         <v>45092</v>
       </c>
       <c r="C986" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D986" t="inlineStr">
         <is>
@@ -62694,7 +62694,7 @@
         <v>45092</v>
       </c>
       <c r="C987" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D987" t="inlineStr">
         <is>
@@ -62756,7 +62756,7 @@
         <v>45093</v>
       </c>
       <c r="C988" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D988" t="inlineStr">
         <is>
@@ -62818,7 +62818,7 @@
         <v>45097</v>
       </c>
       <c r="C989" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D989" t="inlineStr">
         <is>
@@ -62880,7 +62880,7 @@
         <v>45097</v>
       </c>
       <c r="C990" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D990" t="inlineStr">
         <is>
@@ -62937,7 +62937,7 @@
         <v>45097</v>
       </c>
       <c r="C991" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D991" t="inlineStr">
         <is>
@@ -62994,7 +62994,7 @@
         <v>45097</v>
       </c>
       <c r="C992" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D992" t="inlineStr">
         <is>
@@ -63056,7 +63056,7 @@
         <v>45097</v>
       </c>
       <c r="C993" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D993" t="inlineStr">
         <is>
@@ -63118,7 +63118,7 @@
         <v>45098</v>
       </c>
       <c r="C994" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D994" t="inlineStr">
         <is>
@@ -63180,7 +63180,7 @@
         <v>45099</v>
       </c>
       <c r="C995" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D995" t="inlineStr">
         <is>
@@ -63237,7 +63237,7 @@
         <v>45099</v>
       </c>
       <c r="C996" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D996" t="inlineStr">
         <is>
@@ -63294,7 +63294,7 @@
         <v>45099</v>
       </c>
       <c r="C997" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D997" t="inlineStr">
         <is>
@@ -63351,7 +63351,7 @@
         <v>45099</v>
       </c>
       <c r="C998" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D998" t="inlineStr">
         <is>
@@ -63408,7 +63408,7 @@
         <v>45099</v>
       </c>
       <c r="C999" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D999" t="inlineStr">
         <is>
@@ -63465,7 +63465,7 @@
         <v>45104</v>
       </c>
       <c r="C1000" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D1000" t="inlineStr">
         <is>
@@ -63522,7 +63522,7 @@
         <v>45105</v>
       </c>
       <c r="C1001" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D1001" t="inlineStr">
         <is>
@@ -63579,7 +63579,7 @@
         <v>45106</v>
       </c>
       <c r="C1002" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D1002" t="inlineStr">
         <is>
@@ -63636,7 +63636,7 @@
         <v>45107</v>
       </c>
       <c r="C1003" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D1003" t="inlineStr">
         <is>
@@ -63693,7 +63693,7 @@
         <v>45107</v>
       </c>
       <c r="C1004" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D1004" t="inlineStr">
         <is>
@@ -63750,7 +63750,7 @@
         <v>45107</v>
       </c>
       <c r="C1005" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D1005" t="inlineStr">
         <is>
@@ -63812,7 +63812,7 @@
         <v>45107</v>
       </c>
       <c r="C1006" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D1006" t="inlineStr">
         <is>
@@ -63869,7 +63869,7 @@
         <v>45107</v>
       </c>
       <c r="C1007" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D1007" t="inlineStr">
         <is>
@@ -63926,7 +63926,7 @@
         <v>45110</v>
       </c>
       <c r="C1008" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D1008" t="inlineStr">
         <is>
@@ -63983,7 +63983,7 @@
         <v>45110</v>
       </c>
       <c r="C1009" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D1009" t="inlineStr">
         <is>
@@ -64045,7 +64045,7 @@
         <v>45112</v>
       </c>
       <c r="C1010" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D1010" t="inlineStr">
         <is>
@@ -64102,7 +64102,7 @@
         <v>45112</v>
       </c>
       <c r="C1011" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D1011" t="inlineStr">
         <is>
@@ -64164,7 +64164,7 @@
         <v>45113</v>
       </c>
       <c r="C1012" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D1012" t="inlineStr">
         <is>
@@ -64221,7 +64221,7 @@
         <v>45113</v>
       </c>
       <c r="C1013" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D1013" t="inlineStr">
         <is>
@@ -64278,7 +64278,7 @@
         <v>45114</v>
       </c>
       <c r="C1014" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D1014" t="inlineStr">
         <is>
@@ -64340,7 +64340,7 @@
         <v>45118</v>
       </c>
       <c r="C1015" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D1015" t="inlineStr">
         <is>
@@ -64397,7 +64397,7 @@
         <v>45118</v>
       </c>
       <c r="C1016" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D1016" t="inlineStr">
         <is>
@@ -64454,7 +64454,7 @@
         <v>45119</v>
       </c>
       <c r="C1017" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D1017" t="inlineStr">
         <is>
@@ -64511,7 +64511,7 @@
         <v>45119</v>
       </c>
       <c r="C1018" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D1018" t="inlineStr">
         <is>
@@ -64568,7 +64568,7 @@
         <v>45121</v>
       </c>
       <c r="C1019" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D1019" t="inlineStr">
         <is>
@@ -64630,7 +64630,7 @@
         <v>45124</v>
       </c>
       <c r="C1020" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D1020" t="inlineStr">
         <is>
@@ -64692,7 +64692,7 @@
         <v>45125</v>
       </c>
       <c r="C1021" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D1021" t="inlineStr">
         <is>
@@ -64749,7 +64749,7 @@
         <v>45125</v>
       </c>
       <c r="C1022" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D1022" t="inlineStr">
         <is>
@@ -64806,7 +64806,7 @@
         <v>45125</v>
       </c>
       <c r="C1023" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D1023" t="inlineStr">
         <is>
@@ -64868,7 +64868,7 @@
         <v>45125</v>
       </c>
       <c r="C1024" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D1024" t="inlineStr">
         <is>
@@ -64925,7 +64925,7 @@
         <v>45127</v>
       </c>
       <c r="C1025" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D1025" t="inlineStr">
         <is>
@@ -64987,7 +64987,7 @@
         <v>45127</v>
       </c>
       <c r="C1026" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D1026" t="inlineStr">
         <is>
@@ -65049,7 +65049,7 @@
         <v>45127</v>
       </c>
       <c r="C1027" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D1027" t="inlineStr">
         <is>
@@ -65106,7 +65106,7 @@
         <v>45127</v>
       </c>
       <c r="C1028" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D1028" t="inlineStr">
         <is>
@@ -65168,7 +65168,7 @@
         <v>45141</v>
       </c>
       <c r="C1029" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D1029" t="inlineStr">
         <is>
@@ -65225,7 +65225,7 @@
         <v>45142</v>
       </c>
       <c r="C1030" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D1030" t="inlineStr">
         <is>
@@ -65282,7 +65282,7 @@
         <v>45145</v>
       </c>
       <c r="C1031" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D1031" t="inlineStr">
         <is>
@@ -65339,7 +65339,7 @@
         <v>45145</v>
       </c>
       <c r="C1032" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D1032" t="inlineStr">
         <is>
@@ -65396,7 +65396,7 @@
         <v>45147</v>
       </c>
       <c r="C1033" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D1033" t="inlineStr">
         <is>
@@ -65453,7 +65453,7 @@
         <v>45148</v>
       </c>
       <c r="C1034" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D1034" t="inlineStr">
         <is>
@@ -65510,7 +65510,7 @@
         <v>45148</v>
       </c>
       <c r="C1035" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D1035" t="inlineStr">
         <is>
@@ -65567,7 +65567,7 @@
         <v>45159</v>
       </c>
       <c r="C1036" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D1036" t="inlineStr">
         <is>
@@ -65629,7 +65629,7 @@
         <v>45159</v>
       </c>
       <c r="C1037" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D1037" t="inlineStr">
         <is>
@@ -65691,7 +65691,7 @@
         <v>45160</v>
       </c>
       <c r="C1038" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D1038" t="inlineStr">
         <is>
@@ -65753,7 +65753,7 @@
         <v>45160</v>
       </c>
       <c r="C1039" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D1039" t="inlineStr">
         <is>
@@ -65815,7 +65815,7 @@
         <v>45162</v>
       </c>
       <c r="C1040" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D1040" t="inlineStr">
         <is>
@@ -65872,7 +65872,7 @@
         <v>45167</v>
       </c>
       <c r="C1041" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D1041" t="inlineStr">
         <is>
@@ -65929,7 +65929,7 @@
         <v>45168</v>
       </c>
       <c r="C1042" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D1042" t="inlineStr">
         <is>
@@ -65991,7 +65991,7 @@
         <v>45173</v>
       </c>
       <c r="C1043" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D1043" t="inlineStr">
         <is>

--- a/Översikt LJUSDAL.xlsx
+++ b/Översikt LJUSDAL.xlsx
@@ -572,7 +572,7 @@
         <v>44358</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -675,7 +675,7 @@
         <v>43922</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -781,7 +781,7 @@
         <v>44449</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -881,7 +881,7 @@
         <v>43354</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         <v>43798</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1081,7 +1081,7 @@
         <v>43872</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1174,7 +1174,7 @@
         <v>44722</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1271,7 +1271,7 @@
         <v>44743</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1369,7 +1369,7 @@
         <v>44194</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1465,7 +1465,7 @@
         <v>45096</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1557,7 +1557,7 @@
         <v>43343</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1648,7 +1648,7 @@
         <v>44869</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1744,7 +1744,7 @@
         <v>44687</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1843,7 +1843,7 @@
         <v>44687</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1942,7 +1942,7 @@
         <v>44700</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2037,7 +2037,7 @@
         <v>43711</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2131,7 +2131,7 @@
         <v>44530</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2224,7 +2224,7 @@
         <v>44755</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2322,7 +2322,7 @@
         <v>44774</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2420,7 +2420,7 @@
         <v>44775</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2514,7 +2514,7 @@
         <v>44902</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2607,7 +2607,7 @@
         <v>45089</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2700,7 +2700,7 @@
         <v>45090</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2793,7 +2793,7 @@
         <v>43367</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2881,7 +2881,7 @@
         <v>43432</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2974,7 +2974,7 @@
         <v>43872</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3062,7 +3062,7 @@
         <v>44449</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3155,7 +3155,7 @@
         <v>44686</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3247,7 +3247,7 @@
         <v>45072</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3339,7 +3339,7 @@
         <v>45093</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3432,7 +3432,7 @@
         <v>43357</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3519,7 +3519,7 @@
         <v>43628</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3615,7 +3615,7 @@
         <v>43852</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3711,7 +3711,7 @@
         <v>43872</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3798,7 +3798,7 @@
         <v>43977</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3890,7 +3890,7 @@
         <v>44137</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3981,7 +3981,7 @@
         <v>44148</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4073,7 +4073,7 @@
         <v>44152</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4165,7 +4165,7 @@
         <v>44169</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4257,7 +4257,7 @@
         <v>44326</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4349,7 +4349,7 @@
         <v>44706</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4441,7 +4441,7 @@
         <v>44708</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4533,7 +4533,7 @@
         <v>44734</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4625,7 +4625,7 @@
         <v>44821</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4717,7 +4717,7 @@
         <v>44998</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4808,7 +4808,7 @@
         <v>43338</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4894,7 +4894,7 @@
         <v>43354</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4985,7 +4985,7 @@
         <v>43377</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5071,7 +5071,7 @@
         <v>43381</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5162,7 +5162,7 @@
         <v>43476</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5248,7 +5248,7 @@
         <v>43629</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5343,7 +5343,7 @@
         <v>43977</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5434,7 +5434,7 @@
         <v>44322</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5525,7 +5525,7 @@
         <v>44351</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5616,7 +5616,7 @@
         <v>44357</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5707,7 +5707,7 @@
         <v>44438</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5798,7 +5798,7 @@
         <v>44722</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5893,7 +5893,7 @@
         <v>44988</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5979,7 +5979,7 @@
         <v>45092</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6070,7 +6070,7 @@
         <v>45110</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6161,7 +6161,7 @@
         <v>43347</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6246,7 +6246,7 @@
         <v>43355</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6336,7 +6336,7 @@
         <v>43367</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6421,7 +6421,7 @@
         <v>43385</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6511,7 +6511,7 @@
         <v>43385</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6601,7 +6601,7 @@
         <v>43389</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6691,7 +6691,7 @@
         <v>43445</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6781,7 +6781,7 @@
         <v>43481</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6866,7 +6866,7 @@
         <v>43557</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6951,7 +6951,7 @@
         <v>43811</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7036,7 +7036,7 @@
         <v>43872</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7121,7 +7121,7 @@
         <v>43936</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7206,7 +7206,7 @@
         <v>43979</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7296,7 +7296,7 @@
         <v>44062</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7390,7 +7390,7 @@
         <v>44069</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7480,7 +7480,7 @@
         <v>44342</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7569,7 +7569,7 @@
         <v>44379</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7659,7 +7659,7 @@
         <v>44405</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7753,7 +7753,7 @@
         <v>44406</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7843,7 +7843,7 @@
         <v>44432</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7933,7 +7933,7 @@
         <v>44438</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8023,7 +8023,7 @@
         <v>44449</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8113,7 +8113,7 @@
         <v>44480</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8198,7 +8198,7 @@
         <v>44489</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8288,7 +8288,7 @@
         <v>44491</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8382,7 +8382,7 @@
         <v>44662</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8476,7 +8476,7 @@
         <v>44684</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8566,7 +8566,7 @@
         <v>44742</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8656,7 +8656,7 @@
         <v>44743</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8746,7 +8746,7 @@
         <v>44763</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8836,7 +8836,7 @@
         <v>44778</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8926,7 +8926,7 @@
         <v>44784</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -9016,7 +9016,7 @@
         <v>44833</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -9101,7 +9101,7 @@
         <v>44839</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9191,7 +9191,7 @@
         <v>44988</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9276,7 +9276,7 @@
         <v>45086</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9365,7 +9365,7 @@
         <v>45090</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9455,7 +9455,7 @@
         <v>45092</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9545,7 +9545,7 @@
         <v>45107</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9630,7 +9630,7 @@
         <v>45162</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9719,7 +9719,7 @@
         <v>43319</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -9781,7 +9781,7 @@
         <v>43320</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -9838,7 +9838,7 @@
         <v>43329</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9895,7 +9895,7 @@
         <v>43329</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9957,7 +9957,7 @@
         <v>43329</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -10014,7 +10014,7 @@
         <v>43329</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -10071,7 +10071,7 @@
         <v>43329</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -10128,7 +10128,7 @@
         <v>43333</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -10185,7 +10185,7 @@
         <v>43334</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -10242,7 +10242,7 @@
         <v>43342</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -10304,7 +10304,7 @@
         <v>43347</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -10361,7 +10361,7 @@
         <v>43348</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -10418,7 +10418,7 @@
         <v>43348</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -10480,7 +10480,7 @@
         <v>43349</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -10537,7 +10537,7 @@
         <v>43349</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -10594,7 +10594,7 @@
         <v>43349</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -10651,7 +10651,7 @@
         <v>43353</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -10708,7 +10708,7 @@
         <v>43353</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -10765,7 +10765,7 @@
         <v>43354</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -10827,7 +10827,7 @@
         <v>43355</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -10889,7 +10889,7 @@
         <v>43355</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -10951,7 +10951,7 @@
         <v>43369</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -11008,7 +11008,7 @@
         <v>43369</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -11070,7 +11070,7 @@
         <v>43370</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -11132,7 +11132,7 @@
         <v>43376</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -11189,7 +11189,7 @@
         <v>43377</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -11251,7 +11251,7 @@
         <v>43381</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -11308,7 +11308,7 @@
         <v>43381</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -11365,7 +11365,7 @@
         <v>43381</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -11422,7 +11422,7 @@
         <v>43381</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -11479,7 +11479,7 @@
         <v>43382</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -11541,7 +11541,7 @@
         <v>43382</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -11603,7 +11603,7 @@
         <v>43385</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -11665,7 +11665,7 @@
         <v>43385</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -11727,7 +11727,7 @@
         <v>43389</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -11789,7 +11789,7 @@
         <v>43391</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -11846,7 +11846,7 @@
         <v>43391</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -11903,7 +11903,7 @@
         <v>43395</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -11960,7 +11960,7 @@
         <v>43403</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -12022,7 +12022,7 @@
         <v>43409</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -12079,7 +12079,7 @@
         <v>43409</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -12136,7 +12136,7 @@
         <v>43410</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -12193,7 +12193,7 @@
         <v>43410</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -12255,7 +12255,7 @@
         <v>43410</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -12317,7 +12317,7 @@
         <v>43411</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -12374,7 +12374,7 @@
         <v>43412</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -12431,7 +12431,7 @@
         <v>43412</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -12488,7 +12488,7 @@
         <v>43412</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -12545,7 +12545,7 @@
         <v>43416</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -12607,7 +12607,7 @@
         <v>43416</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -12669,7 +12669,7 @@
         <v>43419</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -12726,7 +12726,7 @@
         <v>43419</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -12783,7 +12783,7 @@
         <v>43420</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -12840,7 +12840,7 @@
         <v>43420</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -12897,7 +12897,7 @@
         <v>43424</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -12954,7 +12954,7 @@
         <v>43425</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -13016,7 +13016,7 @@
         <v>43425</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -13073,7 +13073,7 @@
         <v>43425</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -13135,7 +13135,7 @@
         <v>43425</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -13192,7 +13192,7 @@
         <v>43427</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -13254,7 +13254,7 @@
         <v>43430</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -13316,7 +13316,7 @@
         <v>43431</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -13378,7 +13378,7 @@
         <v>43431</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -13435,7 +13435,7 @@
         <v>43432</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -13497,7 +13497,7 @@
         <v>43432</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -13554,7 +13554,7 @@
         <v>43432</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -13616,7 +13616,7 @@
         <v>43434</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -13678,7 +13678,7 @@
         <v>43437</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -13740,7 +13740,7 @@
         <v>43438</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -13802,7 +13802,7 @@
         <v>43439</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -13859,7 +13859,7 @@
         <v>43439</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -13916,7 +13916,7 @@
         <v>43439</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -13973,7 +13973,7 @@
         <v>43441</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -14035,7 +14035,7 @@
         <v>43441</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -14092,7 +14092,7 @@
         <v>43444</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -14149,7 +14149,7 @@
         <v>43444</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -14206,7 +14206,7 @@
         <v>43444</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -14263,7 +14263,7 @@
         <v>43444</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -14320,7 +14320,7 @@
         <v>43445</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -14382,7 +14382,7 @@
         <v>43445</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -14444,7 +14444,7 @@
         <v>43448</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -14506,7 +14506,7 @@
         <v>43448</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -14568,7 +14568,7 @@
         <v>43448</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -14630,7 +14630,7 @@
         <v>43449</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -14687,7 +14687,7 @@
         <v>43452</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -14744,7 +14744,7 @@
         <v>43452</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -14806,7 +14806,7 @@
         <v>43453</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -14863,7 +14863,7 @@
         <v>43455</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -14925,7 +14925,7 @@
         <v>43455</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -14982,7 +14982,7 @@
         <v>43468</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -15039,7 +15039,7 @@
         <v>43469</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -15096,7 +15096,7 @@
         <v>43472</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -15153,7 +15153,7 @@
         <v>43472</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -15215,7 +15215,7 @@
         <v>43472</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -15277,7 +15277,7 @@
         <v>43474</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -15339,7 +15339,7 @@
         <v>43481</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -15396,7 +15396,7 @@
         <v>43483</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -15453,7 +15453,7 @@
         <v>43486</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -15515,7 +15515,7 @@
         <v>43487</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -15572,7 +15572,7 @@
         <v>43489</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -15629,7 +15629,7 @@
         <v>43490</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -15691,7 +15691,7 @@
         <v>43493</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -15748,7 +15748,7 @@
         <v>43497</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -15810,7 +15810,7 @@
         <v>43501</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -15867,7 +15867,7 @@
         <v>43508</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -15924,7 +15924,7 @@
         <v>43508</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -15981,7 +15981,7 @@
         <v>43510</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -16038,7 +16038,7 @@
         <v>43510</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -16095,7 +16095,7 @@
         <v>43514</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -16152,7 +16152,7 @@
         <v>43514</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -16209,7 +16209,7 @@
         <v>43515</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -16271,7 +16271,7 @@
         <v>43516</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -16328,7 +16328,7 @@
         <v>43516</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -16385,7 +16385,7 @@
         <v>43517</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -16442,7 +16442,7 @@
         <v>43517</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -16499,7 +16499,7 @@
         <v>43521</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -16556,7 +16556,7 @@
         <v>43521</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -16613,7 +16613,7 @@
         <v>43524</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -16670,7 +16670,7 @@
         <v>43524</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -16727,7 +16727,7 @@
         <v>43524</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -16784,7 +16784,7 @@
         <v>43525</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -16841,7 +16841,7 @@
         <v>43525</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -16898,7 +16898,7 @@
         <v>43528</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -16955,7 +16955,7 @@
         <v>43535</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -17012,7 +17012,7 @@
         <v>43536</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -17069,7 +17069,7 @@
         <v>43542</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -17126,7 +17126,7 @@
         <v>43549</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -17183,7 +17183,7 @@
         <v>43549</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -17240,7 +17240,7 @@
         <v>43550</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -17297,7 +17297,7 @@
         <v>43552</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -17354,7 +17354,7 @@
         <v>43552</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -17411,7 +17411,7 @@
         <v>43552</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -17468,7 +17468,7 @@
         <v>43557</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -17525,7 +17525,7 @@
         <v>43557</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -17587,7 +17587,7 @@
         <v>43578</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -17664,7 +17664,7 @@
         <v>43581</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -17726,7 +17726,7 @@
         <v>43584</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -17788,7 +17788,7 @@
         <v>43600</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -17850,7 +17850,7 @@
         <v>43600</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -17912,7 +17912,7 @@
         <v>43601</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -17969,7 +17969,7 @@
         <v>43601</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -18026,7 +18026,7 @@
         <v>43605</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -18083,7 +18083,7 @@
         <v>43607</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -18140,7 +18140,7 @@
         <v>43612</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -18202,7 +18202,7 @@
         <v>43613</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -18264,7 +18264,7 @@
         <v>43616</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -18326,7 +18326,7 @@
         <v>43619</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -18383,7 +18383,7 @@
         <v>43619</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -18445,7 +18445,7 @@
         <v>43619</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -18507,7 +18507,7 @@
         <v>43619</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -18569,7 +18569,7 @@
         <v>43619</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -18631,7 +18631,7 @@
         <v>43620</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -18688,7 +18688,7 @@
         <v>43628</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -18745,7 +18745,7 @@
         <v>43628</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -18807,7 +18807,7 @@
         <v>43628</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -18869,7 +18869,7 @@
         <v>43629</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -18926,7 +18926,7 @@
         <v>43629</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -18988,7 +18988,7 @@
         <v>43630</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -19050,7 +19050,7 @@
         <v>43630</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -19112,7 +19112,7 @@
         <v>43636</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -19174,7 +19174,7 @@
         <v>43636</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -19236,7 +19236,7 @@
         <v>43641</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -19293,7 +19293,7 @@
         <v>43642</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -19355,7 +19355,7 @@
         <v>43642</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -19417,7 +19417,7 @@
         <v>43644</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -19474,7 +19474,7 @@
         <v>43650</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -19531,7 +19531,7 @@
         <v>43651</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -19593,7 +19593,7 @@
         <v>43651</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -19655,7 +19655,7 @@
         <v>43655</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -19712,7 +19712,7 @@
         <v>43656</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -19769,7 +19769,7 @@
         <v>43661</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -19826,7 +19826,7 @@
         <v>43661</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -19883,7 +19883,7 @@
         <v>43661</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -19940,7 +19940,7 @@
         <v>43662</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -20002,7 +20002,7 @@
         <v>43663</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -20059,7 +20059,7 @@
         <v>43663</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -20116,7 +20116,7 @@
         <v>43665</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -20173,7 +20173,7 @@
         <v>43665</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -20235,7 +20235,7 @@
         <v>43668</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -20292,7 +20292,7 @@
         <v>43668</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -20354,7 +20354,7 @@
         <v>43669</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -20411,7 +20411,7 @@
         <v>43677</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -20468,7 +20468,7 @@
         <v>43679</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -20525,7 +20525,7 @@
         <v>43679</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -20582,7 +20582,7 @@
         <v>43686</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -20639,7 +20639,7 @@
         <v>43691</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -20696,7 +20696,7 @@
         <v>43692</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -20753,7 +20753,7 @@
         <v>43693</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -20815,7 +20815,7 @@
         <v>43693</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -20877,7 +20877,7 @@
         <v>43693</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -20939,7 +20939,7 @@
         <v>43697</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -21001,7 +21001,7 @@
         <v>43698</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -21058,7 +21058,7 @@
         <v>43698</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -21120,7 +21120,7 @@
         <v>43700</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -21177,7 +21177,7 @@
         <v>43700</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -21239,7 +21239,7 @@
         <v>43700</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -21296,7 +21296,7 @@
         <v>43704</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -21353,7 +21353,7 @@
         <v>43705</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -21415,7 +21415,7 @@
         <v>43710</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -21477,7 +21477,7 @@
         <v>43710</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -21539,7 +21539,7 @@
         <v>43710</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -21601,7 +21601,7 @@
         <v>43712</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -21658,7 +21658,7 @@
         <v>43713</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -21720,7 +21720,7 @@
         <v>43714</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -21782,7 +21782,7 @@
         <v>43714</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -21844,7 +21844,7 @@
         <v>43717</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -21901,7 +21901,7 @@
         <v>43719</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -21963,7 +21963,7 @@
         <v>43720</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -22025,7 +22025,7 @@
         <v>43721</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -22082,7 +22082,7 @@
         <v>43721</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -22139,7 +22139,7 @@
         <v>43721</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -22196,7 +22196,7 @@
         <v>43726</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -22258,7 +22258,7 @@
         <v>43726</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -22320,7 +22320,7 @@
         <v>43727</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -22382,7 +22382,7 @@
         <v>43728</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -22444,7 +22444,7 @@
         <v>43731</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -22501,7 +22501,7 @@
         <v>43732</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -22563,7 +22563,7 @@
         <v>43732</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -22625,7 +22625,7 @@
         <v>43734</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -22682,7 +22682,7 @@
         <v>43735</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -22739,7 +22739,7 @@
         <v>43738</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -22796,7 +22796,7 @@
         <v>43738</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -22853,7 +22853,7 @@
         <v>43741</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -22915,7 +22915,7 @@
         <v>43742</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -22972,7 +22972,7 @@
         <v>43745</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -23029,7 +23029,7 @@
         <v>43745</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -23091,7 +23091,7 @@
         <v>43746</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -23148,7 +23148,7 @@
         <v>43747</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -23210,7 +23210,7 @@
         <v>43748</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -23272,7 +23272,7 @@
         <v>43749</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -23334,7 +23334,7 @@
         <v>43754</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -23396,7 +23396,7 @@
         <v>43754</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -23458,7 +23458,7 @@
         <v>43755</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -23520,7 +23520,7 @@
         <v>43755</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -23582,7 +23582,7 @@
         <v>43759</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -23644,7 +23644,7 @@
         <v>43759</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -23701,7 +23701,7 @@
         <v>43760</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -23763,7 +23763,7 @@
         <v>43763</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -23820,7 +23820,7 @@
         <v>43763</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -23877,7 +23877,7 @@
         <v>43767</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -23939,7 +23939,7 @@
         <v>43774</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -23996,7 +23996,7 @@
         <v>43774</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -24053,7 +24053,7 @@
         <v>43775</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -24110,7 +24110,7 @@
         <v>43775</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -24167,7 +24167,7 @@
         <v>43776</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -24224,7 +24224,7 @@
         <v>43776</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -24281,7 +24281,7 @@
         <v>43777</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -24343,7 +24343,7 @@
         <v>43781</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -24405,7 +24405,7 @@
         <v>43781</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -24467,7 +24467,7 @@
         <v>43782</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -24524,7 +24524,7 @@
         <v>43782</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -24581,7 +24581,7 @@
         <v>43784</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -24643,7 +24643,7 @@
         <v>43787</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -24705,7 +24705,7 @@
         <v>43787</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -24767,7 +24767,7 @@
         <v>43789</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -24829,7 +24829,7 @@
         <v>43789</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -24891,7 +24891,7 @@
         <v>43791</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -24953,7 +24953,7 @@
         <v>43791</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -25015,7 +25015,7 @@
         <v>43791</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -25077,7 +25077,7 @@
         <v>43794</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -25134,7 +25134,7 @@
         <v>43794</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -25191,7 +25191,7 @@
         <v>43797</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -25248,7 +25248,7 @@
         <v>43801</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -25310,7 +25310,7 @@
         <v>43802</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -25367,7 +25367,7 @@
         <v>43802</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -25424,7 +25424,7 @@
         <v>43808</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -25481,7 +25481,7 @@
         <v>43810</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -25543,7 +25543,7 @@
         <v>43810</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -25605,7 +25605,7 @@
         <v>43815</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -25662,7 +25662,7 @@
         <v>43815</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -25719,7 +25719,7 @@
         <v>43816</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -25776,7 +25776,7 @@
         <v>43837</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -25833,7 +25833,7 @@
         <v>43838</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -25890,7 +25890,7 @@
         <v>43840</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -25952,7 +25952,7 @@
         <v>43850</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -26009,7 +26009,7 @@
         <v>43850</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -26066,7 +26066,7 @@
         <v>43850</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -26123,7 +26123,7 @@
         <v>43850</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -26180,7 +26180,7 @@
         <v>43851</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -26237,7 +26237,7 @@
         <v>43851</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -26294,7 +26294,7 @@
         <v>43858</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -26351,7 +26351,7 @@
         <v>43861</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -26408,7 +26408,7 @@
         <v>43865</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -26465,7 +26465,7 @@
         <v>43866</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -26522,7 +26522,7 @@
         <v>43879</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -26579,7 +26579,7 @@
         <v>43882</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -26636,7 +26636,7 @@
         <v>43885</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -26693,7 +26693,7 @@
         <v>43886</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -26750,7 +26750,7 @@
         <v>43886</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -26807,7 +26807,7 @@
         <v>43892</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -26864,7 +26864,7 @@
         <v>43892</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -26921,7 +26921,7 @@
         <v>43894</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -26983,7 +26983,7 @@
         <v>43902</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -27045,7 +27045,7 @@
         <v>43903</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -27102,7 +27102,7 @@
         <v>43908</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -27159,7 +27159,7 @@
         <v>43913</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -27216,7 +27216,7 @@
         <v>43913</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -27273,7 +27273,7 @@
         <v>43922</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -27335,7 +27335,7 @@
         <v>43924</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -27392,7 +27392,7 @@
         <v>43924</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -27449,7 +27449,7 @@
         <v>43930</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -27506,7 +27506,7 @@
         <v>43935</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -27568,7 +27568,7 @@
         <v>43943</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -27625,7 +27625,7 @@
         <v>43943</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -27682,7 +27682,7 @@
         <v>43943</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -27739,7 +27739,7 @@
         <v>43944</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -27796,7 +27796,7 @@
         <v>43944</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -27853,7 +27853,7 @@
         <v>43945</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -27910,7 +27910,7 @@
         <v>43945</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -27972,7 +27972,7 @@
         <v>43945</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -28029,7 +28029,7 @@
         <v>43945</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -28091,7 +28091,7 @@
         <v>43949</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -28153,7 +28153,7 @@
         <v>43951</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -28215,7 +28215,7 @@
         <v>43951</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -28277,7 +28277,7 @@
         <v>43951</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -28339,7 +28339,7 @@
         <v>43951</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -28401,7 +28401,7 @@
         <v>43951</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -28458,7 +28458,7 @@
         <v>43955</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -28520,7 +28520,7 @@
         <v>43959</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -28582,7 +28582,7 @@
         <v>43959</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -28644,7 +28644,7 @@
         <v>43959</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -28706,7 +28706,7 @@
         <v>43959</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -28768,7 +28768,7 @@
         <v>43962</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -28830,7 +28830,7 @@
         <v>43962</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -28892,7 +28892,7 @@
         <v>43962</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -28954,7 +28954,7 @@
         <v>43962</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -29016,7 +29016,7 @@
         <v>43964</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -29078,7 +29078,7 @@
         <v>43965</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -29140,7 +29140,7 @@
         <v>43965</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -29202,7 +29202,7 @@
         <v>43966</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -29264,7 +29264,7 @@
         <v>43966</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -29326,7 +29326,7 @@
         <v>43966</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -29388,7 +29388,7 @@
         <v>43969</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -29450,7 +29450,7 @@
         <v>43971</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -29512,7 +29512,7 @@
         <v>43971</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -29574,7 +29574,7 @@
         <v>43971</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -29636,7 +29636,7 @@
         <v>43977</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -29698,7 +29698,7 @@
         <v>43978</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -29755,7 +29755,7 @@
         <v>43979</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -29817,7 +29817,7 @@
         <v>43979</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -29879,7 +29879,7 @@
         <v>43979</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -29941,7 +29941,7 @@
         <v>43979</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -30003,7 +30003,7 @@
         <v>43979</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -30065,7 +30065,7 @@
         <v>43986</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -30122,7 +30122,7 @@
         <v>43990</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -30184,7 +30184,7 @@
         <v>43990</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -30246,7 +30246,7 @@
         <v>43991</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -30308,7 +30308,7 @@
         <v>43993</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -30370,7 +30370,7 @@
         <v>44000</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -30432,7 +30432,7 @@
         <v>44000</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -30494,7 +30494,7 @@
         <v>44005</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -30556,7 +30556,7 @@
         <v>44005</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -30618,7 +30618,7 @@
         <v>44006</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -30675,7 +30675,7 @@
         <v>44007</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -30737,7 +30737,7 @@
         <v>44007</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -30799,7 +30799,7 @@
         <v>44008</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -30861,7 +30861,7 @@
         <v>44008</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -30923,7 +30923,7 @@
         <v>44014</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -30985,7 +30985,7 @@
         <v>44014</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -31047,7 +31047,7 @@
         <v>44014</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -31109,7 +31109,7 @@
         <v>44022</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -31171,7 +31171,7 @@
         <v>44022</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -31228,7 +31228,7 @@
         <v>44025</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -31285,7 +31285,7 @@
         <v>44026</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -31347,7 +31347,7 @@
         <v>44027</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -31404,7 +31404,7 @@
         <v>44028</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -31466,7 +31466,7 @@
         <v>44029</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -31528,7 +31528,7 @@
         <v>44029</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -31590,7 +31590,7 @@
         <v>44031</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -31652,7 +31652,7 @@
         <v>44032</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -31709,7 +31709,7 @@
         <v>44032</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -31771,7 +31771,7 @@
         <v>44032</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -31833,7 +31833,7 @@
         <v>44033</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -31890,7 +31890,7 @@
         <v>44041</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -31952,7 +31952,7 @@
         <v>44041</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -32014,7 +32014,7 @@
         <v>44041</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -32076,7 +32076,7 @@
         <v>44042</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -32138,7 +32138,7 @@
         <v>44049</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -32200,7 +32200,7 @@
         <v>44049</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -32262,7 +32262,7 @@
         <v>44053</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -32319,7 +32319,7 @@
         <v>44056</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -32381,7 +32381,7 @@
         <v>44057</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -32443,7 +32443,7 @@
         <v>44060</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -32505,7 +32505,7 @@
         <v>44061</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -32562,7 +32562,7 @@
         <v>44061</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -32619,7 +32619,7 @@
         <v>44061</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -32676,7 +32676,7 @@
         <v>44061</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -32738,7 +32738,7 @@
         <v>44062</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -32800,7 +32800,7 @@
         <v>44064</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -32862,7 +32862,7 @@
         <v>44064</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -32924,7 +32924,7 @@
         <v>44064</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -32986,7 +32986,7 @@
         <v>44064</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -33048,7 +33048,7 @@
         <v>44067</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -33110,7 +33110,7 @@
         <v>44068</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -33172,7 +33172,7 @@
         <v>44069</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -33234,7 +33234,7 @@
         <v>44069</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -33296,7 +33296,7 @@
         <v>44069</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -33358,7 +33358,7 @@
         <v>44069</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -33420,7 +33420,7 @@
         <v>44070</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -33477,7 +33477,7 @@
         <v>44074</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -33539,7 +33539,7 @@
         <v>44074</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -33601,7 +33601,7 @@
         <v>44075</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -33663,7 +33663,7 @@
         <v>44075</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -33725,7 +33725,7 @@
         <v>44075</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -33787,7 +33787,7 @@
         <v>44078</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -33844,7 +33844,7 @@
         <v>44078</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -33901,7 +33901,7 @@
         <v>44078</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -33963,7 +33963,7 @@
         <v>44080</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -34025,7 +34025,7 @@
         <v>44081</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -34087,7 +34087,7 @@
         <v>44081</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -34149,7 +34149,7 @@
         <v>44082</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -34211,7 +34211,7 @@
         <v>44082</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -34268,7 +34268,7 @@
         <v>44082</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -34330,7 +34330,7 @@
         <v>44083</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -34387,7 +34387,7 @@
         <v>44084</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -34449,7 +34449,7 @@
         <v>44085</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -34511,7 +34511,7 @@
         <v>44085</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -34573,7 +34573,7 @@
         <v>44085</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -34635,7 +34635,7 @@
         <v>44085</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -34697,7 +34697,7 @@
         <v>44085</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -34754,7 +34754,7 @@
         <v>44088</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -34816,7 +34816,7 @@
         <v>44088</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -34878,7 +34878,7 @@
         <v>44088</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -34940,7 +34940,7 @@
         <v>44088</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -35002,7 +35002,7 @@
         <v>44091</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -35064,7 +35064,7 @@
         <v>44092</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -35126,7 +35126,7 @@
         <v>44092</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -35188,7 +35188,7 @@
         <v>44092</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -35250,7 +35250,7 @@
         <v>44095</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -35307,7 +35307,7 @@
         <v>44099</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -35369,7 +35369,7 @@
         <v>44099</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -35431,7 +35431,7 @@
         <v>44099</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -35493,7 +35493,7 @@
         <v>44103</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -35555,7 +35555,7 @@
         <v>44103</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -35617,7 +35617,7 @@
         <v>44104</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -35679,7 +35679,7 @@
         <v>44104</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -35741,7 +35741,7 @@
         <v>44104</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -35803,7 +35803,7 @@
         <v>44108</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -35860,7 +35860,7 @@
         <v>44109</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -35922,7 +35922,7 @@
         <v>44109</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -35984,7 +35984,7 @@
         <v>44110</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -36046,7 +36046,7 @@
         <v>44111</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -36108,7 +36108,7 @@
         <v>44112</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -36170,7 +36170,7 @@
         <v>44112</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -36227,7 +36227,7 @@
         <v>44112</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -36289,7 +36289,7 @@
         <v>44116</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -36351,7 +36351,7 @@
         <v>44116</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -36413,7 +36413,7 @@
         <v>44116</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -36470,7 +36470,7 @@
         <v>44116</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -36532,7 +36532,7 @@
         <v>44116</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -36594,7 +36594,7 @@
         <v>44117</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -36656,7 +36656,7 @@
         <v>44119</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -36718,7 +36718,7 @@
         <v>44119</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -36780,7 +36780,7 @@
         <v>44119</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -36842,7 +36842,7 @@
         <v>44120</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -36904,7 +36904,7 @@
         <v>44123</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -36966,7 +36966,7 @@
         <v>44124</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -37028,7 +37028,7 @@
         <v>44124</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -37085,7 +37085,7 @@
         <v>44125</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -37142,7 +37142,7 @@
         <v>44125</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -37204,7 +37204,7 @@
         <v>44125</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -37266,7 +37266,7 @@
         <v>44125</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -37328,7 +37328,7 @@
         <v>44126</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -37390,7 +37390,7 @@
         <v>44126</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -37452,7 +37452,7 @@
         <v>44126</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -37509,7 +37509,7 @@
         <v>44126</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -37571,7 +37571,7 @@
         <v>44133</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -37633,7 +37633,7 @@
         <v>44141</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -37695,7 +37695,7 @@
         <v>44144</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -37757,7 +37757,7 @@
         <v>44145</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -37819,7 +37819,7 @@
         <v>44146</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -37876,7 +37876,7 @@
         <v>44147</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -37938,7 +37938,7 @@
         <v>44148</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -38000,7 +38000,7 @@
         <v>44148</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -38062,7 +38062,7 @@
         <v>44150</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -38124,7 +38124,7 @@
         <v>44151</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -38186,7 +38186,7 @@
         <v>44159</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -38248,7 +38248,7 @@
         <v>44159</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -38305,7 +38305,7 @@
         <v>44160</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -38367,7 +38367,7 @@
         <v>44161</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -38424,7 +38424,7 @@
         <v>44162</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -38486,7 +38486,7 @@
         <v>44162</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -38548,7 +38548,7 @@
         <v>44166</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -38605,7 +38605,7 @@
         <v>44167</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -38667,7 +38667,7 @@
         <v>44179</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -38729,7 +38729,7 @@
         <v>44180</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -38791,7 +38791,7 @@
         <v>44180</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -38853,7 +38853,7 @@
         <v>44194</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -38910,7 +38910,7 @@
         <v>44194</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -38987,7 +38987,7 @@
         <v>44199</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -39044,7 +39044,7 @@
         <v>44200</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -39101,7 +39101,7 @@
         <v>44203</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -39163,7 +39163,7 @@
         <v>44208</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -39225,7 +39225,7 @@
         <v>44221</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -39282,7 +39282,7 @@
         <v>44223</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -39344,7 +39344,7 @@
         <v>44228</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -39401,7 +39401,7 @@
         <v>44229</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -39458,7 +39458,7 @@
         <v>44236</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -39515,7 +39515,7 @@
         <v>44239</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -39572,7 +39572,7 @@
         <v>44243</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -39629,7 +39629,7 @@
         <v>44250</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -39686,7 +39686,7 @@
         <v>44251</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -39743,7 +39743,7 @@
         <v>44253</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -39800,7 +39800,7 @@
         <v>44259</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -39857,7 +39857,7 @@
         <v>44265</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -39914,7 +39914,7 @@
         <v>44265</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -39971,7 +39971,7 @@
         <v>44267</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -40028,7 +40028,7 @@
         <v>44273</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -40090,7 +40090,7 @@
         <v>44273</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -40152,7 +40152,7 @@
         <v>44294</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -40214,7 +40214,7 @@
         <v>44294</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -40276,7 +40276,7 @@
         <v>44295</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -40338,7 +40338,7 @@
         <v>44302</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -40400,7 +40400,7 @@
         <v>44307</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -40457,7 +40457,7 @@
         <v>44308</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -40514,7 +40514,7 @@
         <v>44308</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -40576,7 +40576,7 @@
         <v>44309</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -40633,7 +40633,7 @@
         <v>44313</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -40695,7 +40695,7 @@
         <v>44313</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -40757,7 +40757,7 @@
         <v>44322</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -40819,7 +40819,7 @@
         <v>44322</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -40881,7 +40881,7 @@
         <v>44322</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -40943,7 +40943,7 @@
         <v>44322</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -41005,7 +41005,7 @@
         <v>44326</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -41062,7 +41062,7 @@
         <v>44326</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -41119,7 +41119,7 @@
         <v>44333</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -41176,7 +41176,7 @@
         <v>44336</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -41233,7 +41233,7 @@
         <v>44341</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -41290,7 +41290,7 @@
         <v>44341</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -41347,7 +41347,7 @@
         <v>44350</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -41409,7 +41409,7 @@
         <v>44350</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -41471,7 +41471,7 @@
         <v>44354</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -41533,7 +41533,7 @@
         <v>44358</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -41595,7 +41595,7 @@
         <v>44358</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -41657,7 +41657,7 @@
         <v>44361</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -41714,7 +41714,7 @@
         <v>44361</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -41776,7 +41776,7 @@
         <v>44361</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -41833,7 +41833,7 @@
         <v>44361</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -41890,7 +41890,7 @@
         <v>44361</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -41947,7 +41947,7 @@
         <v>44361</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -42004,7 +42004,7 @@
         <v>44363</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -42061,7 +42061,7 @@
         <v>44364</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -42118,7 +42118,7 @@
         <v>44365</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -42175,7 +42175,7 @@
         <v>44368</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -42237,7 +42237,7 @@
         <v>44368</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -42299,7 +42299,7 @@
         <v>44378</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -42361,7 +42361,7 @@
         <v>44382</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -42423,7 +42423,7 @@
         <v>44382</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -42485,7 +42485,7 @@
         <v>44382</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -42547,7 +42547,7 @@
         <v>44384</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -42609,7 +42609,7 @@
         <v>44385</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -42666,7 +42666,7 @@
         <v>44390</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -42723,7 +42723,7 @@
         <v>44391</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -42780,7 +42780,7 @@
         <v>44397</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -42842,7 +42842,7 @@
         <v>44400</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -42904,7 +42904,7 @@
         <v>44400</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -42966,7 +42966,7 @@
         <v>44400</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -43028,7 +43028,7 @@
         <v>44403</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -43090,7 +43090,7 @@
         <v>44403</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -43147,7 +43147,7 @@
         <v>44404</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -43204,7 +43204,7 @@
         <v>44406</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -43266,7 +43266,7 @@
         <v>44418</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -43328,7 +43328,7 @@
         <v>44418</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -43390,7 +43390,7 @@
         <v>44419</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -43452,7 +43452,7 @@
         <v>44425</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -43514,7 +43514,7 @@
         <v>44425</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -43576,7 +43576,7 @@
         <v>44426</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -43633,7 +43633,7 @@
         <v>44427</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -43690,7 +43690,7 @@
         <v>44428</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -43752,7 +43752,7 @@
         <v>44431</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -43809,7 +43809,7 @@
         <v>44435</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -43871,7 +43871,7 @@
         <v>44435</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -43933,7 +43933,7 @@
         <v>44435</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -43990,7 +43990,7 @@
         <v>44435</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -44052,7 +44052,7 @@
         <v>44438</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -44114,7 +44114,7 @@
         <v>44439</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -44171,7 +44171,7 @@
         <v>44440</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -44228,7 +44228,7 @@
         <v>44445</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -44290,7 +44290,7 @@
         <v>44445</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -44352,7 +44352,7 @@
         <v>44445</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -44409,7 +44409,7 @@
         <v>44447</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -44471,7 +44471,7 @@
         <v>44447</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -44528,7 +44528,7 @@
         <v>44448</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -44585,7 +44585,7 @@
         <v>44448</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -44642,7 +44642,7 @@
         <v>44449</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -44699,7 +44699,7 @@
         <v>44452</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -44761,7 +44761,7 @@
         <v>44453</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -44823,7 +44823,7 @@
         <v>44455</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -44885,7 +44885,7 @@
         <v>44460</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -44942,7 +44942,7 @@
         <v>44460</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -45004,7 +45004,7 @@
         <v>44460</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -45066,7 +45066,7 @@
         <v>44461</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -45123,7 +45123,7 @@
         <v>44466</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -45180,7 +45180,7 @@
         <v>44467</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -45242,7 +45242,7 @@
         <v>44470</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -45299,7 +45299,7 @@
         <v>44473</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -45356,7 +45356,7 @@
         <v>44475</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -45418,7 +45418,7 @@
         <v>44475</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -45480,7 +45480,7 @@
         <v>44475</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -45537,7 +45537,7 @@
         <v>44480</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -45599,7 +45599,7 @@
         <v>44481</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -45656,7 +45656,7 @@
         <v>44483</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -45718,7 +45718,7 @@
         <v>44484</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -45780,7 +45780,7 @@
         <v>44488</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -45837,7 +45837,7 @@
         <v>44489</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -45899,7 +45899,7 @@
         <v>44489</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -45961,7 +45961,7 @@
         <v>44489</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -46023,7 +46023,7 @@
         <v>44489</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -46085,7 +46085,7 @@
         <v>44490</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -46147,7 +46147,7 @@
         <v>44497</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -46209,7 +46209,7 @@
         <v>44497</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -46266,7 +46266,7 @@
         <v>44497</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -46328,7 +46328,7 @@
         <v>44497</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -46385,7 +46385,7 @@
         <v>44502</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -46442,7 +46442,7 @@
         <v>44503</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -46504,7 +46504,7 @@
         <v>44504</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -46566,7 +46566,7 @@
         <v>44510</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -46628,7 +46628,7 @@
         <v>44511</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -46690,7 +46690,7 @@
         <v>44511</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -46752,7 +46752,7 @@
         <v>44523</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -46814,7 +46814,7 @@
         <v>44523</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -46871,7 +46871,7 @@
         <v>44531</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -46928,7 +46928,7 @@
         <v>44536</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -46985,7 +46985,7 @@
         <v>44538</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -47042,7 +47042,7 @@
         <v>44544</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -47104,7 +47104,7 @@
         <v>44550</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -47166,7 +47166,7 @@
         <v>44551</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -47223,7 +47223,7 @@
         <v>44552</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -47280,7 +47280,7 @@
         <v>44552</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -47337,7 +47337,7 @@
         <v>44564</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -47394,7 +47394,7 @@
         <v>44566</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -47451,7 +47451,7 @@
         <v>44572</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -47508,7 +47508,7 @@
         <v>44579</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -47570,7 +47570,7 @@
         <v>44582</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -47627,7 +47627,7 @@
         <v>44587</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -47689,7 +47689,7 @@
         <v>44592</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -47751,7 +47751,7 @@
         <v>44595</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -47808,7 +47808,7 @@
         <v>44615</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -47865,7 +47865,7 @@
         <v>44615</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -47922,7 +47922,7 @@
         <v>44616</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -47979,7 +47979,7 @@
         <v>44621</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -48041,7 +48041,7 @@
         <v>44627</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -48098,7 +48098,7 @@
         <v>44627</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -48155,7 +48155,7 @@
         <v>44629</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -48212,7 +48212,7 @@
         <v>44648</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -48269,7 +48269,7 @@
         <v>44650</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -48326,7 +48326,7 @@
         <v>44657</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -48383,7 +48383,7 @@
         <v>44662</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -48445,7 +48445,7 @@
         <v>44663</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -48502,7 +48502,7 @@
         <v>44663</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -48559,7 +48559,7 @@
         <v>44685</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -48621,7 +48621,7 @@
         <v>44691</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -48683,7 +48683,7 @@
         <v>44692</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -48745,7 +48745,7 @@
         <v>44692</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -48807,7 +48807,7 @@
         <v>44693</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -48869,7 +48869,7 @@
         <v>44697</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -48926,7 +48926,7 @@
         <v>44701</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -48988,7 +48988,7 @@
         <v>44711</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -49050,7 +49050,7 @@
         <v>44711</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -49112,7 +49112,7 @@
         <v>44712</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -49169,7 +49169,7 @@
         <v>44714</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -49226,7 +49226,7 @@
         <v>44719</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -49283,7 +49283,7 @@
         <v>44726</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -49340,7 +49340,7 @@
         <v>44726</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -49397,7 +49397,7 @@
         <v>44726</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -49454,7 +49454,7 @@
         <v>44726</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -49516,7 +49516,7 @@
         <v>44726</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -49573,7 +49573,7 @@
         <v>44732</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -49635,7 +49635,7 @@
         <v>44743</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -49697,7 +49697,7 @@
         <v>44743</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -49759,7 +49759,7 @@
         <v>44743</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -49821,7 +49821,7 @@
         <v>44743</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -49883,7 +49883,7 @@
         <v>44743</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -49945,7 +49945,7 @@
         <v>44743</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -50007,7 +50007,7 @@
         <v>44743</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -50069,7 +50069,7 @@
         <v>44747</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -50126,7 +50126,7 @@
         <v>44747</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -50183,7 +50183,7 @@
         <v>44748</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -50240,7 +50240,7 @@
         <v>44749</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -50297,7 +50297,7 @@
         <v>44757</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -50359,7 +50359,7 @@
         <v>44757</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -50421,7 +50421,7 @@
         <v>44762</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -50483,7 +50483,7 @@
         <v>44774</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -50545,7 +50545,7 @@
         <v>44774</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -50607,7 +50607,7 @@
         <v>44774</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -50669,7 +50669,7 @@
         <v>44777</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -50726,7 +50726,7 @@
         <v>44778</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -50788,7 +50788,7 @@
         <v>44781</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -50850,7 +50850,7 @@
         <v>44781</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -50912,7 +50912,7 @@
         <v>44789</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -50969,7 +50969,7 @@
         <v>44791</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -51031,7 +51031,7 @@
         <v>44791</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -51088,7 +51088,7 @@
         <v>44792</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -51150,7 +51150,7 @@
         <v>44792</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -51212,7 +51212,7 @@
         <v>44792</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -51269,7 +51269,7 @@
         <v>44792</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -51331,7 +51331,7 @@
         <v>44792</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -51393,7 +51393,7 @@
         <v>44795</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -51455,7 +51455,7 @@
         <v>44795</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -51512,7 +51512,7 @@
         <v>44797</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -51569,7 +51569,7 @@
         <v>44798</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -51626,7 +51626,7 @@
         <v>44799</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -51688,7 +51688,7 @@
         <v>44799</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -51750,7 +51750,7 @@
         <v>44799</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -51812,7 +51812,7 @@
         <v>44799</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -51874,7 +51874,7 @@
         <v>44803</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -51931,7 +51931,7 @@
         <v>44804</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -51988,7 +51988,7 @@
         <v>44806</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -52050,7 +52050,7 @@
         <v>44812</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -52107,7 +52107,7 @@
         <v>44813</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -52169,7 +52169,7 @@
         <v>44813</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -52226,7 +52226,7 @@
         <v>44813</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -52288,7 +52288,7 @@
         <v>44817</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -52350,7 +52350,7 @@
         <v>44824</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -52412,7 +52412,7 @@
         <v>44824</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -52474,7 +52474,7 @@
         <v>44824</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -52536,7 +52536,7 @@
         <v>44825</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -52598,7 +52598,7 @@
         <v>44827</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -52660,7 +52660,7 @@
         <v>44827</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -52722,7 +52722,7 @@
         <v>44832</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -52784,7 +52784,7 @@
         <v>44833</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -52846,7 +52846,7 @@
         <v>44833</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -52908,7 +52908,7 @@
         <v>44833</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -52965,7 +52965,7 @@
         <v>44833</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -53027,7 +53027,7 @@
         <v>44833</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -53084,7 +53084,7 @@
         <v>44833</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -53146,7 +53146,7 @@
         <v>44834</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -53208,7 +53208,7 @@
         <v>44834</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -53270,7 +53270,7 @@
         <v>44837</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -53332,7 +53332,7 @@
         <v>44837</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -53389,7 +53389,7 @@
         <v>44837</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -53451,7 +53451,7 @@
         <v>44838</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -53508,7 +53508,7 @@
         <v>44838</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -53565,7 +53565,7 @@
         <v>44844</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -53627,7 +53627,7 @@
         <v>44846</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -53689,7 +53689,7 @@
         <v>44846</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -53746,7 +53746,7 @@
         <v>44847</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -53808,7 +53808,7 @@
         <v>44847</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -53870,7 +53870,7 @@
         <v>44847</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -53932,7 +53932,7 @@
         <v>44848</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -53994,7 +53994,7 @@
         <v>44853</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -54051,7 +54051,7 @@
         <v>44855</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -54113,7 +54113,7 @@
         <v>44858</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -54175,7 +54175,7 @@
         <v>44860</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -54232,7 +54232,7 @@
         <v>44864</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -54289,7 +54289,7 @@
         <v>44866</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -54351,7 +54351,7 @@
         <v>44866</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -54413,7 +54413,7 @@
         <v>44867</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -54475,7 +54475,7 @@
         <v>44867</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -54532,7 +54532,7 @@
         <v>44867</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -54594,7 +54594,7 @@
         <v>44868</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -54656,7 +54656,7 @@
         <v>44872</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -54718,7 +54718,7 @@
         <v>44872</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -54780,7 +54780,7 @@
         <v>44872</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -54842,7 +54842,7 @@
         <v>44872</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -54899,7 +54899,7 @@
         <v>44873</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -54956,7 +54956,7 @@
         <v>44873</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -55013,7 +55013,7 @@
         <v>44874</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -55075,7 +55075,7 @@
         <v>44874</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -55137,7 +55137,7 @@
         <v>44874</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -55199,7 +55199,7 @@
         <v>44875</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -55256,7 +55256,7 @@
         <v>44875</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -55318,7 +55318,7 @@
         <v>44876</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -55380,7 +55380,7 @@
         <v>44880</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -55442,7 +55442,7 @@
         <v>44880</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -55504,7 +55504,7 @@
         <v>44882</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -55566,7 +55566,7 @@
         <v>44886</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -55628,7 +55628,7 @@
         <v>44886</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -55690,7 +55690,7 @@
         <v>44886</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -55752,7 +55752,7 @@
         <v>44888</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -55814,7 +55814,7 @@
         <v>44889</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -55871,7 +55871,7 @@
         <v>44894</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -55933,7 +55933,7 @@
         <v>44895</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -55990,7 +55990,7 @@
         <v>44900</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -56052,7 +56052,7 @@
         <v>44902</v>
       </c>
       <c r="C876" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -56109,7 +56109,7 @@
         <v>44903</v>
       </c>
       <c r="C877" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -56171,7 +56171,7 @@
         <v>44903</v>
       </c>
       <c r="C878" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -56253,7 +56253,7 @@
         <v>44903</v>
       </c>
       <c r="C879" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -56315,7 +56315,7 @@
         <v>44904</v>
       </c>
       <c r="C880" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -56377,7 +56377,7 @@
         <v>44904</v>
       </c>
       <c r="C881" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -56434,7 +56434,7 @@
         <v>44909</v>
       </c>
       <c r="C882" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -56496,7 +56496,7 @@
         <v>44909</v>
       </c>
       <c r="C883" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>
@@ -56558,7 +56558,7 @@
         <v>44909</v>
       </c>
       <c r="C884" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D884" t="inlineStr">
         <is>
@@ -56620,7 +56620,7 @@
         <v>44910</v>
       </c>
       <c r="C885" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D885" t="inlineStr">
         <is>
@@ -56682,7 +56682,7 @@
         <v>44911</v>
       </c>
       <c r="C886" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D886" t="inlineStr">
         <is>
@@ -56744,7 +56744,7 @@
         <v>44911</v>
       </c>
       <c r="C887" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D887" t="inlineStr">
         <is>
@@ -56806,7 +56806,7 @@
         <v>44915</v>
       </c>
       <c r="C888" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D888" t="inlineStr">
         <is>
@@ -56868,7 +56868,7 @@
         <v>44916</v>
       </c>
       <c r="C889" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D889" t="inlineStr">
         <is>
@@ -56925,7 +56925,7 @@
         <v>44924</v>
       </c>
       <c r="C890" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D890" t="inlineStr">
         <is>
@@ -56982,7 +56982,7 @@
         <v>44924</v>
       </c>
       <c r="C891" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D891" t="inlineStr">
         <is>
@@ -57039,7 +57039,7 @@
         <v>44925</v>
       </c>
       <c r="C892" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D892" t="inlineStr">
         <is>
@@ -57096,7 +57096,7 @@
         <v>44931</v>
       </c>
       <c r="C893" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D893" t="inlineStr">
         <is>
@@ -57153,7 +57153,7 @@
         <v>44935</v>
       </c>
       <c r="C894" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D894" t="inlineStr">
         <is>
@@ -57215,7 +57215,7 @@
         <v>44937</v>
       </c>
       <c r="C895" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D895" t="inlineStr">
         <is>
@@ -57277,7 +57277,7 @@
         <v>44939</v>
       </c>
       <c r="C896" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D896" t="inlineStr">
         <is>
@@ -57339,7 +57339,7 @@
         <v>44942</v>
       </c>
       <c r="C897" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D897" t="inlineStr">
         <is>
@@ -57396,7 +57396,7 @@
         <v>44942</v>
       </c>
       <c r="C898" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D898" t="inlineStr">
         <is>
@@ -57453,7 +57453,7 @@
         <v>44946</v>
       </c>
       <c r="C899" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D899" t="inlineStr">
         <is>
@@ -57515,7 +57515,7 @@
         <v>44946</v>
       </c>
       <c r="C900" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D900" t="inlineStr">
         <is>
@@ -57572,7 +57572,7 @@
         <v>44949</v>
       </c>
       <c r="C901" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D901" t="inlineStr">
         <is>
@@ -57634,7 +57634,7 @@
         <v>44950</v>
       </c>
       <c r="C902" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D902" t="inlineStr">
         <is>
@@ -57691,7 +57691,7 @@
         <v>44950</v>
       </c>
       <c r="C903" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D903" t="inlineStr">
         <is>
@@ -57748,7 +57748,7 @@
         <v>44952</v>
       </c>
       <c r="C904" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D904" t="inlineStr">
         <is>
@@ -57805,7 +57805,7 @@
         <v>44953</v>
       </c>
       <c r="C905" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D905" t="inlineStr">
         <is>
@@ -57867,7 +57867,7 @@
         <v>44953</v>
       </c>
       <c r="C906" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D906" t="inlineStr">
         <is>
@@ -57929,7 +57929,7 @@
         <v>44956</v>
       </c>
       <c r="C907" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D907" t="inlineStr">
         <is>
@@ -57986,7 +57986,7 @@
         <v>44957</v>
       </c>
       <c r="C908" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D908" t="inlineStr">
         <is>
@@ -58048,7 +58048,7 @@
         <v>44957</v>
       </c>
       <c r="C909" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D909" t="inlineStr">
         <is>
@@ -58105,7 +58105,7 @@
         <v>44959</v>
       </c>
       <c r="C910" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D910" t="inlineStr">
         <is>
@@ -58162,7 +58162,7 @@
         <v>44960</v>
       </c>
       <c r="C911" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D911" t="inlineStr">
         <is>
@@ -58219,7 +58219,7 @@
         <v>44963</v>
       </c>
       <c r="C912" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D912" t="inlineStr">
         <is>
@@ -58276,7 +58276,7 @@
         <v>44964</v>
       </c>
       <c r="C913" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D913" t="inlineStr">
         <is>
@@ -58338,7 +58338,7 @@
         <v>44965</v>
       </c>
       <c r="C914" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D914" t="inlineStr">
         <is>
@@ -58400,7 +58400,7 @@
         <v>44967</v>
       </c>
       <c r="C915" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D915" t="inlineStr">
         <is>
@@ -58457,7 +58457,7 @@
         <v>44970</v>
       </c>
       <c r="C916" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D916" t="inlineStr">
         <is>
@@ -58514,7 +58514,7 @@
         <v>44970</v>
       </c>
       <c r="C917" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D917" t="inlineStr">
         <is>
@@ -58571,7 +58571,7 @@
         <v>44970</v>
       </c>
       <c r="C918" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D918" t="inlineStr">
         <is>
@@ -58628,7 +58628,7 @@
         <v>44972</v>
       </c>
       <c r="C919" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D919" t="inlineStr">
         <is>
@@ -58690,7 +58690,7 @@
         <v>44974</v>
       </c>
       <c r="C920" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D920" t="inlineStr">
         <is>
@@ -58747,7 +58747,7 @@
         <v>44977</v>
       </c>
       <c r="C921" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D921" t="inlineStr">
         <is>
@@ -58809,7 +58809,7 @@
         <v>44977</v>
       </c>
       <c r="C922" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D922" t="inlineStr">
         <is>
@@ -58871,7 +58871,7 @@
         <v>44977</v>
       </c>
       <c r="C923" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D923" t="inlineStr">
         <is>
@@ -58933,7 +58933,7 @@
         <v>44977</v>
       </c>
       <c r="C924" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D924" t="inlineStr">
         <is>
@@ -58995,7 +58995,7 @@
         <v>44977</v>
       </c>
       <c r="C925" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D925" t="inlineStr">
         <is>
@@ -59057,7 +59057,7 @@
         <v>44977</v>
       </c>
       <c r="C926" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D926" t="inlineStr">
         <is>
@@ -59119,7 +59119,7 @@
         <v>44980</v>
       </c>
       <c r="C927" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D927" t="inlineStr">
         <is>
@@ -59181,7 +59181,7 @@
         <v>44980</v>
       </c>
       <c r="C928" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D928" t="inlineStr">
         <is>
@@ -59238,7 +59238,7 @@
         <v>44984</v>
       </c>
       <c r="C929" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D929" t="inlineStr">
         <is>
@@ -59295,7 +59295,7 @@
         <v>44985</v>
       </c>
       <c r="C930" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D930" t="inlineStr">
         <is>
@@ -59357,7 +59357,7 @@
         <v>44985</v>
       </c>
       <c r="C931" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D931" t="inlineStr">
         <is>
@@ -59419,7 +59419,7 @@
         <v>44985</v>
       </c>
       <c r="C932" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D932" t="inlineStr">
         <is>
@@ -59476,7 +59476,7 @@
         <v>44985</v>
       </c>
       <c r="C933" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D933" t="inlineStr">
         <is>
@@ -59538,7 +59538,7 @@
         <v>44986</v>
       </c>
       <c r="C934" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D934" t="inlineStr">
         <is>
@@ -59600,7 +59600,7 @@
         <v>45000</v>
       </c>
       <c r="C935" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D935" t="inlineStr">
         <is>
@@ -59662,7 +59662,7 @@
         <v>45006</v>
       </c>
       <c r="C936" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D936" t="inlineStr">
         <is>
@@ -59719,7 +59719,7 @@
         <v>45007</v>
       </c>
       <c r="C937" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D937" t="inlineStr">
         <is>
@@ -59776,7 +59776,7 @@
         <v>45007</v>
       </c>
       <c r="C938" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D938" t="inlineStr">
         <is>
@@ -59838,7 +59838,7 @@
         <v>45012</v>
       </c>
       <c r="C939" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D939" t="inlineStr">
         <is>
@@ -59900,7 +59900,7 @@
         <v>45012</v>
       </c>
       <c r="C940" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D940" t="inlineStr">
         <is>
@@ -59962,7 +59962,7 @@
         <v>45016</v>
       </c>
       <c r="C941" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D941" t="inlineStr">
         <is>
@@ -60019,7 +60019,7 @@
         <v>45020</v>
       </c>
       <c r="C942" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D942" t="inlineStr">
         <is>
@@ -60076,7 +60076,7 @@
         <v>45027</v>
       </c>
       <c r="C943" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D943" t="inlineStr">
         <is>
@@ -60138,7 +60138,7 @@
         <v>45027</v>
       </c>
       <c r="C944" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D944" t="inlineStr">
         <is>
@@ -60200,7 +60200,7 @@
         <v>45028</v>
       </c>
       <c r="C945" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D945" t="inlineStr">
         <is>
@@ -60257,7 +60257,7 @@
         <v>45033</v>
       </c>
       <c r="C946" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D946" t="inlineStr">
         <is>
@@ -60319,7 +60319,7 @@
         <v>45036</v>
       </c>
       <c r="C947" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D947" t="inlineStr">
         <is>
@@ -60376,7 +60376,7 @@
         <v>45037</v>
       </c>
       <c r="C948" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D948" t="inlineStr">
         <is>
@@ -60433,7 +60433,7 @@
         <v>45041</v>
       </c>
       <c r="C949" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D949" t="inlineStr">
         <is>
@@ -60495,7 +60495,7 @@
         <v>45047</v>
       </c>
       <c r="C950" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D950" t="inlineStr">
         <is>
@@ -60552,7 +60552,7 @@
         <v>45055</v>
       </c>
       <c r="C951" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D951" t="inlineStr">
         <is>
@@ -60614,7 +60614,7 @@
         <v>45056</v>
       </c>
       <c r="C952" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D952" t="inlineStr">
         <is>
@@ -60676,7 +60676,7 @@
         <v>45058</v>
       </c>
       <c r="C953" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D953" t="inlineStr">
         <is>
@@ -60733,7 +60733,7 @@
         <v>45058</v>
       </c>
       <c r="C954" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D954" t="inlineStr">
         <is>
@@ -60790,7 +60790,7 @@
         <v>45060</v>
       </c>
       <c r="C955" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D955" t="inlineStr">
         <is>
@@ -60847,7 +60847,7 @@
         <v>45061</v>
       </c>
       <c r="C956" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D956" t="inlineStr">
         <is>
@@ -60909,7 +60909,7 @@
         <v>45061</v>
       </c>
       <c r="C957" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D957" t="inlineStr">
         <is>
@@ -60971,7 +60971,7 @@
         <v>45061</v>
       </c>
       <c r="C958" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D958" t="inlineStr">
         <is>
@@ -61033,7 +61033,7 @@
         <v>45063</v>
       </c>
       <c r="C959" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D959" t="inlineStr">
         <is>
@@ -61090,7 +61090,7 @@
         <v>45065</v>
       </c>
       <c r="C960" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D960" t="inlineStr">
         <is>
@@ -61152,7 +61152,7 @@
         <v>45068</v>
       </c>
       <c r="C961" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D961" t="inlineStr">
         <is>
@@ -61214,7 +61214,7 @@
         <v>45068</v>
       </c>
       <c r="C962" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D962" t="inlineStr">
         <is>
@@ -61276,7 +61276,7 @@
         <v>45069</v>
       </c>
       <c r="C963" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D963" t="inlineStr">
         <is>
@@ -61338,7 +61338,7 @@
         <v>45069</v>
       </c>
       <c r="C964" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D964" t="inlineStr">
         <is>
@@ -61395,7 +61395,7 @@
         <v>45069</v>
       </c>
       <c r="C965" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D965" t="inlineStr">
         <is>
@@ -61452,7 +61452,7 @@
         <v>45070</v>
       </c>
       <c r="C966" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D966" t="inlineStr">
         <is>
@@ -61514,7 +61514,7 @@
         <v>45070</v>
       </c>
       <c r="C967" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D967" t="inlineStr">
         <is>
@@ -61571,7 +61571,7 @@
         <v>45070</v>
       </c>
       <c r="C968" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D968" t="inlineStr">
         <is>
@@ -61628,7 +61628,7 @@
         <v>45070</v>
       </c>
       <c r="C969" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D969" t="inlineStr">
         <is>
@@ -61685,7 +61685,7 @@
         <v>45070</v>
       </c>
       <c r="C970" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D970" t="inlineStr">
         <is>
@@ -61742,7 +61742,7 @@
         <v>45071</v>
       </c>
       <c r="C971" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D971" t="inlineStr">
         <is>
@@ -61804,7 +61804,7 @@
         <v>45071</v>
       </c>
       <c r="C972" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D972" t="inlineStr">
         <is>
@@ -61861,7 +61861,7 @@
         <v>45071</v>
       </c>
       <c r="C973" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D973" t="inlineStr">
         <is>
@@ -61918,7 +61918,7 @@
         <v>45071</v>
       </c>
       <c r="C974" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D974" t="inlineStr">
         <is>
@@ -61975,7 +61975,7 @@
         <v>45072</v>
       </c>
       <c r="C975" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D975" t="inlineStr">
         <is>
@@ -62032,7 +62032,7 @@
         <v>45077</v>
       </c>
       <c r="C976" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D976" t="inlineStr">
         <is>
@@ -62094,7 +62094,7 @@
         <v>45078</v>
       </c>
       <c r="C977" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D977" t="inlineStr">
         <is>
@@ -62156,7 +62156,7 @@
         <v>45078</v>
       </c>
       <c r="C978" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D978" t="inlineStr">
         <is>
@@ -62213,7 +62213,7 @@
         <v>45078</v>
       </c>
       <c r="C979" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D979" t="inlineStr">
         <is>
@@ -62270,7 +62270,7 @@
         <v>45079</v>
       </c>
       <c r="C980" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D980" t="inlineStr">
         <is>
@@ -62327,7 +62327,7 @@
         <v>45084</v>
       </c>
       <c r="C981" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D981" t="inlineStr">
         <is>
@@ -62389,7 +62389,7 @@
         <v>45090</v>
       </c>
       <c r="C982" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D982" t="inlineStr">
         <is>
@@ -62451,7 +62451,7 @@
         <v>45090</v>
       </c>
       <c r="C983" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D983" t="inlineStr">
         <is>
@@ -62508,7 +62508,7 @@
         <v>45092</v>
       </c>
       <c r="C984" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D984" t="inlineStr">
         <is>
@@ -62570,7 +62570,7 @@
         <v>45092</v>
       </c>
       <c r="C985" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D985" t="inlineStr">
         <is>
@@ -62632,7 +62632,7 @@
         <v>45092</v>
       </c>
       <c r="C986" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D986" t="inlineStr">
         <is>
@@ -62694,7 +62694,7 @@
         <v>45092</v>
       </c>
       <c r="C987" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D987" t="inlineStr">
         <is>
@@ -62756,7 +62756,7 @@
         <v>45093</v>
       </c>
       <c r="C988" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D988" t="inlineStr">
         <is>
@@ -62818,7 +62818,7 @@
         <v>45097</v>
       </c>
       <c r="C989" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D989" t="inlineStr">
         <is>
@@ -62880,7 +62880,7 @@
         <v>45097</v>
       </c>
       <c r="C990" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D990" t="inlineStr">
         <is>
@@ -62937,7 +62937,7 @@
         <v>45097</v>
       </c>
       <c r="C991" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D991" t="inlineStr">
         <is>
@@ -62994,7 +62994,7 @@
         <v>45097</v>
       </c>
       <c r="C992" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D992" t="inlineStr">
         <is>
@@ -63056,7 +63056,7 @@
         <v>45097</v>
       </c>
       <c r="C993" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D993" t="inlineStr">
         <is>
@@ -63118,7 +63118,7 @@
         <v>45098</v>
       </c>
       <c r="C994" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D994" t="inlineStr">
         <is>
@@ -63180,7 +63180,7 @@
         <v>45099</v>
       </c>
       <c r="C995" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D995" t="inlineStr">
         <is>
@@ -63237,7 +63237,7 @@
         <v>45099</v>
       </c>
       <c r="C996" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D996" t="inlineStr">
         <is>
@@ -63294,7 +63294,7 @@
         <v>45099</v>
       </c>
       <c r="C997" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D997" t="inlineStr">
         <is>
@@ -63351,7 +63351,7 @@
         <v>45099</v>
       </c>
       <c r="C998" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D998" t="inlineStr">
         <is>
@@ -63408,7 +63408,7 @@
         <v>45099</v>
       </c>
       <c r="C999" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D999" t="inlineStr">
         <is>
@@ -63465,7 +63465,7 @@
         <v>45104</v>
       </c>
       <c r="C1000" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D1000" t="inlineStr">
         <is>
@@ -63522,7 +63522,7 @@
         <v>45105</v>
       </c>
       <c r="C1001" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D1001" t="inlineStr">
         <is>
@@ -63579,7 +63579,7 @@
         <v>45106</v>
       </c>
       <c r="C1002" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D1002" t="inlineStr">
         <is>
@@ -63636,7 +63636,7 @@
         <v>45107</v>
       </c>
       <c r="C1003" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D1003" t="inlineStr">
         <is>
@@ -63693,7 +63693,7 @@
         <v>45107</v>
       </c>
       <c r="C1004" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D1004" t="inlineStr">
         <is>
@@ -63750,7 +63750,7 @@
         <v>45107</v>
       </c>
       <c r="C1005" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D1005" t="inlineStr">
         <is>
@@ -63812,7 +63812,7 @@
         <v>45107</v>
       </c>
       <c r="C1006" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D1006" t="inlineStr">
         <is>
@@ -63869,7 +63869,7 @@
         <v>45107</v>
       </c>
       <c r="C1007" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D1007" t="inlineStr">
         <is>
@@ -63926,7 +63926,7 @@
         <v>45110</v>
       </c>
       <c r="C1008" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D1008" t="inlineStr">
         <is>
@@ -63983,7 +63983,7 @@
         <v>45110</v>
       </c>
       <c r="C1009" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D1009" t="inlineStr">
         <is>
@@ -64045,7 +64045,7 @@
         <v>45112</v>
       </c>
       <c r="C1010" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D1010" t="inlineStr">
         <is>
@@ -64102,7 +64102,7 @@
         <v>45112</v>
       </c>
       <c r="C1011" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D1011" t="inlineStr">
         <is>
@@ -64164,7 +64164,7 @@
         <v>45113</v>
       </c>
       <c r="C1012" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D1012" t="inlineStr">
         <is>
@@ -64221,7 +64221,7 @@
         <v>45113</v>
       </c>
       <c r="C1013" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D1013" t="inlineStr">
         <is>
@@ -64278,7 +64278,7 @@
         <v>45114</v>
       </c>
       <c r="C1014" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D1014" t="inlineStr">
         <is>
@@ -64340,7 +64340,7 @@
         <v>45118</v>
       </c>
       <c r="C1015" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D1015" t="inlineStr">
         <is>
@@ -64397,7 +64397,7 @@
         <v>45118</v>
       </c>
       <c r="C1016" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D1016" t="inlineStr">
         <is>
@@ -64454,7 +64454,7 @@
         <v>45119</v>
       </c>
       <c r="C1017" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D1017" t="inlineStr">
         <is>
@@ -64511,7 +64511,7 @@
         <v>45119</v>
       </c>
       <c r="C1018" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D1018" t="inlineStr">
         <is>
@@ -64568,7 +64568,7 @@
         <v>45121</v>
       </c>
       <c r="C1019" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D1019" t="inlineStr">
         <is>
@@ -64630,7 +64630,7 @@
         <v>45124</v>
       </c>
       <c r="C1020" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D1020" t="inlineStr">
         <is>
@@ -64692,7 +64692,7 @@
         <v>45125</v>
       </c>
       <c r="C1021" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D1021" t="inlineStr">
         <is>
@@ -64749,7 +64749,7 @@
         <v>45125</v>
       </c>
       <c r="C1022" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D1022" t="inlineStr">
         <is>
@@ -64806,7 +64806,7 @@
         <v>45125</v>
       </c>
       <c r="C1023" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D1023" t="inlineStr">
         <is>
@@ -64868,7 +64868,7 @@
         <v>45125</v>
       </c>
       <c r="C1024" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D1024" t="inlineStr">
         <is>
@@ -64925,7 +64925,7 @@
         <v>45127</v>
       </c>
       <c r="C1025" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D1025" t="inlineStr">
         <is>
@@ -64987,7 +64987,7 @@
         <v>45127</v>
       </c>
       <c r="C1026" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D1026" t="inlineStr">
         <is>
@@ -65049,7 +65049,7 @@
         <v>45127</v>
       </c>
       <c r="C1027" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D1027" t="inlineStr">
         <is>
@@ -65106,7 +65106,7 @@
         <v>45127</v>
       </c>
       <c r="C1028" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D1028" t="inlineStr">
         <is>
@@ -65168,7 +65168,7 @@
         <v>45141</v>
       </c>
       <c r="C1029" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D1029" t="inlineStr">
         <is>
@@ -65225,7 +65225,7 @@
         <v>45142</v>
       </c>
       <c r="C1030" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D1030" t="inlineStr">
         <is>
@@ -65282,7 +65282,7 @@
         <v>45145</v>
       </c>
       <c r="C1031" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D1031" t="inlineStr">
         <is>
@@ -65339,7 +65339,7 @@
         <v>45145</v>
       </c>
       <c r="C1032" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D1032" t="inlineStr">
         <is>
@@ -65396,7 +65396,7 @@
         <v>45147</v>
       </c>
       <c r="C1033" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D1033" t="inlineStr">
         <is>
@@ -65453,7 +65453,7 @@
         <v>45148</v>
       </c>
       <c r="C1034" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D1034" t="inlineStr">
         <is>
@@ -65510,7 +65510,7 @@
         <v>45148</v>
       </c>
       <c r="C1035" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D1035" t="inlineStr">
         <is>
@@ -65567,7 +65567,7 @@
         <v>45159</v>
       </c>
       <c r="C1036" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D1036" t="inlineStr">
         <is>
@@ -65629,7 +65629,7 @@
         <v>45159</v>
       </c>
       <c r="C1037" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D1037" t="inlineStr">
         <is>
@@ -65691,7 +65691,7 @@
         <v>45160</v>
       </c>
       <c r="C1038" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D1038" t="inlineStr">
         <is>
@@ -65753,7 +65753,7 @@
         <v>45160</v>
       </c>
       <c r="C1039" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D1039" t="inlineStr">
         <is>
@@ -65815,7 +65815,7 @@
         <v>45162</v>
       </c>
       <c r="C1040" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D1040" t="inlineStr">
         <is>
@@ -65872,7 +65872,7 @@
         <v>45167</v>
       </c>
       <c r="C1041" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D1041" t="inlineStr">
         <is>
@@ -65929,7 +65929,7 @@
         <v>45168</v>
       </c>
       <c r="C1042" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D1042" t="inlineStr">
         <is>
@@ -65991,7 +65991,7 @@
         <v>45173</v>
       </c>
       <c r="C1043" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D1043" t="inlineStr">
         <is>

--- a/Översikt LJUSDAL.xlsx
+++ b/Översikt LJUSDAL.xlsx
@@ -572,7 +572,7 @@
         <v>44358</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -675,7 +675,7 @@
         <v>43922</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -781,7 +781,7 @@
         <v>44449</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -881,7 +881,7 @@
         <v>43354</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         <v>43798</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1081,7 +1081,7 @@
         <v>43872</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1174,7 +1174,7 @@
         <v>44722</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1271,7 +1271,7 @@
         <v>44743</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1369,7 +1369,7 @@
         <v>44194</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1465,7 +1465,7 @@
         <v>45096</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1557,7 +1557,7 @@
         <v>43343</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1648,7 +1648,7 @@
         <v>44869</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1744,7 +1744,7 @@
         <v>44687</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1843,7 +1843,7 @@
         <v>44687</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1942,7 +1942,7 @@
         <v>44700</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2037,7 +2037,7 @@
         <v>43711</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2131,7 +2131,7 @@
         <v>44530</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2224,7 +2224,7 @@
         <v>44755</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2322,7 +2322,7 @@
         <v>44774</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2420,7 +2420,7 @@
         <v>44775</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2514,7 +2514,7 @@
         <v>44902</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2607,7 +2607,7 @@
         <v>45089</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2700,7 +2700,7 @@
         <v>45090</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2793,7 +2793,7 @@
         <v>43367</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2881,7 +2881,7 @@
         <v>43432</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2974,7 +2974,7 @@
         <v>43872</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3062,7 +3062,7 @@
         <v>44449</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3155,7 +3155,7 @@
         <v>44686</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3247,7 +3247,7 @@
         <v>45072</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3339,7 +3339,7 @@
         <v>45093</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3432,7 +3432,7 @@
         <v>43357</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3519,7 +3519,7 @@
         <v>43628</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3615,7 +3615,7 @@
         <v>43852</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3711,7 +3711,7 @@
         <v>43872</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3798,7 +3798,7 @@
         <v>43977</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3890,7 +3890,7 @@
         <v>44137</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3981,7 +3981,7 @@
         <v>44148</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4073,7 +4073,7 @@
         <v>44152</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4165,7 +4165,7 @@
         <v>44169</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4257,7 +4257,7 @@
         <v>44326</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4349,7 +4349,7 @@
         <v>44706</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4441,7 +4441,7 @@
         <v>44708</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4533,7 +4533,7 @@
         <v>44734</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4625,7 +4625,7 @@
         <v>44821</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4717,7 +4717,7 @@
         <v>44998</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4808,7 +4808,7 @@
         <v>43338</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4894,7 +4894,7 @@
         <v>43354</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4985,7 +4985,7 @@
         <v>43377</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5071,7 +5071,7 @@
         <v>43381</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5162,7 +5162,7 @@
         <v>43476</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5248,7 +5248,7 @@
         <v>43629</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5343,7 +5343,7 @@
         <v>43977</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5434,7 +5434,7 @@
         <v>44322</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5525,7 +5525,7 @@
         <v>44351</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5616,7 +5616,7 @@
         <v>44357</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5707,7 +5707,7 @@
         <v>44438</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5798,7 +5798,7 @@
         <v>44722</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5893,7 +5893,7 @@
         <v>44988</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5979,7 +5979,7 @@
         <v>45092</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6070,7 +6070,7 @@
         <v>45110</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6161,7 +6161,7 @@
         <v>43347</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6246,7 +6246,7 @@
         <v>43355</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6336,7 +6336,7 @@
         <v>43367</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6421,7 +6421,7 @@
         <v>43385</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6511,7 +6511,7 @@
         <v>43385</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6601,7 +6601,7 @@
         <v>43389</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6691,7 +6691,7 @@
         <v>43445</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6781,7 +6781,7 @@
         <v>43481</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6866,7 +6866,7 @@
         <v>43557</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6951,7 +6951,7 @@
         <v>43811</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7036,7 +7036,7 @@
         <v>43872</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7121,7 +7121,7 @@
         <v>43936</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7206,7 +7206,7 @@
         <v>43979</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7296,7 +7296,7 @@
         <v>44062</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7390,7 +7390,7 @@
         <v>44069</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7480,7 +7480,7 @@
         <v>44342</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7569,7 +7569,7 @@
         <v>44379</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7659,7 +7659,7 @@
         <v>44405</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7753,7 +7753,7 @@
         <v>44406</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7843,7 +7843,7 @@
         <v>44432</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7933,7 +7933,7 @@
         <v>44438</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8023,7 +8023,7 @@
         <v>44449</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8113,7 +8113,7 @@
         <v>44480</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8198,7 +8198,7 @@
         <v>44489</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8288,7 +8288,7 @@
         <v>44491</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8382,7 +8382,7 @@
         <v>44662</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8476,7 +8476,7 @@
         <v>44684</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8566,7 +8566,7 @@
         <v>44742</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8656,7 +8656,7 @@
         <v>44743</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8746,7 +8746,7 @@
         <v>44763</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8836,7 +8836,7 @@
         <v>44778</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8926,7 +8926,7 @@
         <v>44784</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -9016,7 +9016,7 @@
         <v>44833</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -9101,7 +9101,7 @@
         <v>44839</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9191,7 +9191,7 @@
         <v>44988</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9276,7 +9276,7 @@
         <v>45086</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9365,7 +9365,7 @@
         <v>45090</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9455,7 +9455,7 @@
         <v>45092</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9545,7 +9545,7 @@
         <v>45107</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9630,7 +9630,7 @@
         <v>45162</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9719,7 +9719,7 @@
         <v>43319</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -9781,7 +9781,7 @@
         <v>43320</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -9838,7 +9838,7 @@
         <v>43329</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9895,7 +9895,7 @@
         <v>43329</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9957,7 +9957,7 @@
         <v>43329</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -10014,7 +10014,7 @@
         <v>43329</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -10071,7 +10071,7 @@
         <v>43329</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -10128,7 +10128,7 @@
         <v>43333</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -10185,7 +10185,7 @@
         <v>43334</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -10242,7 +10242,7 @@
         <v>43342</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -10304,7 +10304,7 @@
         <v>43347</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -10361,7 +10361,7 @@
         <v>43348</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -10418,7 +10418,7 @@
         <v>43348</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -10480,7 +10480,7 @@
         <v>43349</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -10537,7 +10537,7 @@
         <v>43349</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -10594,7 +10594,7 @@
         <v>43349</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -10651,7 +10651,7 @@
         <v>43353</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -10708,7 +10708,7 @@
         <v>43353</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -10765,7 +10765,7 @@
         <v>43354</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -10827,7 +10827,7 @@
         <v>43355</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -10889,7 +10889,7 @@
         <v>43355</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -10951,7 +10951,7 @@
         <v>43369</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -11008,7 +11008,7 @@
         <v>43369</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -11070,7 +11070,7 @@
         <v>43370</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -11132,7 +11132,7 @@
         <v>43376</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -11189,7 +11189,7 @@
         <v>43377</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -11251,7 +11251,7 @@
         <v>43381</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -11308,7 +11308,7 @@
         <v>43381</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -11365,7 +11365,7 @@
         <v>43381</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -11422,7 +11422,7 @@
         <v>43381</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -11479,7 +11479,7 @@
         <v>43382</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -11541,7 +11541,7 @@
         <v>43382</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -11603,7 +11603,7 @@
         <v>43385</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -11665,7 +11665,7 @@
         <v>43385</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -11727,7 +11727,7 @@
         <v>43389</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -11789,7 +11789,7 @@
         <v>43391</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -11846,7 +11846,7 @@
         <v>43391</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -11903,7 +11903,7 @@
         <v>43395</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -11960,7 +11960,7 @@
         <v>43403</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -12022,7 +12022,7 @@
         <v>43409</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -12079,7 +12079,7 @@
         <v>43409</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -12136,7 +12136,7 @@
         <v>43410</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -12193,7 +12193,7 @@
         <v>43410</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -12255,7 +12255,7 @@
         <v>43410</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -12317,7 +12317,7 @@
         <v>43411</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -12374,7 +12374,7 @@
         <v>43412</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -12431,7 +12431,7 @@
         <v>43412</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -12488,7 +12488,7 @@
         <v>43412</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -12545,7 +12545,7 @@
         <v>43416</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -12607,7 +12607,7 @@
         <v>43416</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -12669,7 +12669,7 @@
         <v>43419</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -12726,7 +12726,7 @@
         <v>43419</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -12783,7 +12783,7 @@
         <v>43420</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -12840,7 +12840,7 @@
         <v>43420</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -12897,7 +12897,7 @@
         <v>43424</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -12954,7 +12954,7 @@
         <v>43425</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -13016,7 +13016,7 @@
         <v>43425</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -13073,7 +13073,7 @@
         <v>43425</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -13135,7 +13135,7 @@
         <v>43425</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -13192,7 +13192,7 @@
         <v>43427</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -13254,7 +13254,7 @@
         <v>43430</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -13316,7 +13316,7 @@
         <v>43431</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -13378,7 +13378,7 @@
         <v>43431</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -13435,7 +13435,7 @@
         <v>43432</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -13497,7 +13497,7 @@
         <v>43432</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -13554,7 +13554,7 @@
         <v>43432</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -13616,7 +13616,7 @@
         <v>43434</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -13678,7 +13678,7 @@
         <v>43437</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -13740,7 +13740,7 @@
         <v>43438</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -13802,7 +13802,7 @@
         <v>43439</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -13859,7 +13859,7 @@
         <v>43439</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -13916,7 +13916,7 @@
         <v>43439</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -13973,7 +13973,7 @@
         <v>43441</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -14035,7 +14035,7 @@
         <v>43441</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -14092,7 +14092,7 @@
         <v>43444</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -14149,7 +14149,7 @@
         <v>43444</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -14206,7 +14206,7 @@
         <v>43444</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -14263,7 +14263,7 @@
         <v>43444</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -14320,7 +14320,7 @@
         <v>43445</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -14382,7 +14382,7 @@
         <v>43445</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -14444,7 +14444,7 @@
         <v>43448</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -14506,7 +14506,7 @@
         <v>43448</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -14568,7 +14568,7 @@
         <v>43448</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -14630,7 +14630,7 @@
         <v>43449</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -14687,7 +14687,7 @@
         <v>43452</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -14744,7 +14744,7 @@
         <v>43452</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -14806,7 +14806,7 @@
         <v>43453</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -14863,7 +14863,7 @@
         <v>43455</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -14925,7 +14925,7 @@
         <v>43455</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -14982,7 +14982,7 @@
         <v>43468</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -15039,7 +15039,7 @@
         <v>43469</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -15096,7 +15096,7 @@
         <v>43472</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -15153,7 +15153,7 @@
         <v>43472</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -15215,7 +15215,7 @@
         <v>43472</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -15277,7 +15277,7 @@
         <v>43474</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -15339,7 +15339,7 @@
         <v>43481</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -15396,7 +15396,7 @@
         <v>43483</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -15453,7 +15453,7 @@
         <v>43486</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -15515,7 +15515,7 @@
         <v>43487</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -15572,7 +15572,7 @@
         <v>43489</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -15629,7 +15629,7 @@
         <v>43490</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -15691,7 +15691,7 @@
         <v>43493</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -15748,7 +15748,7 @@
         <v>43497</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -15810,7 +15810,7 @@
         <v>43501</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -15867,7 +15867,7 @@
         <v>43508</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -15924,7 +15924,7 @@
         <v>43508</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -15981,7 +15981,7 @@
         <v>43510</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -16038,7 +16038,7 @@
         <v>43510</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -16095,7 +16095,7 @@
         <v>43514</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -16152,7 +16152,7 @@
         <v>43514</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -16209,7 +16209,7 @@
         <v>43515</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -16271,7 +16271,7 @@
         <v>43516</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -16328,7 +16328,7 @@
         <v>43516</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -16385,7 +16385,7 @@
         <v>43517</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -16442,7 +16442,7 @@
         <v>43517</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -16499,7 +16499,7 @@
         <v>43521</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -16556,7 +16556,7 @@
         <v>43521</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -16613,7 +16613,7 @@
         <v>43524</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -16670,7 +16670,7 @@
         <v>43524</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -16727,7 +16727,7 @@
         <v>43524</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -16784,7 +16784,7 @@
         <v>43525</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -16841,7 +16841,7 @@
         <v>43525</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -16898,7 +16898,7 @@
         <v>43528</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -16955,7 +16955,7 @@
         <v>43535</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -17012,7 +17012,7 @@
         <v>43536</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -17069,7 +17069,7 @@
         <v>43542</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -17126,7 +17126,7 @@
         <v>43549</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -17183,7 +17183,7 @@
         <v>43549</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -17240,7 +17240,7 @@
         <v>43550</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -17297,7 +17297,7 @@
         <v>43552</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -17354,7 +17354,7 @@
         <v>43552</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -17411,7 +17411,7 @@
         <v>43552</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -17468,7 +17468,7 @@
         <v>43557</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -17525,7 +17525,7 @@
         <v>43557</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -17587,7 +17587,7 @@
         <v>43578</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -17664,7 +17664,7 @@
         <v>43581</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -17726,7 +17726,7 @@
         <v>43584</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -17788,7 +17788,7 @@
         <v>43600</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -17850,7 +17850,7 @@
         <v>43600</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -17912,7 +17912,7 @@
         <v>43601</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -17969,7 +17969,7 @@
         <v>43601</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -18026,7 +18026,7 @@
         <v>43605</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -18083,7 +18083,7 @@
         <v>43607</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -18140,7 +18140,7 @@
         <v>43612</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -18202,7 +18202,7 @@
         <v>43613</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -18264,7 +18264,7 @@
         <v>43616</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -18326,7 +18326,7 @@
         <v>43619</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -18383,7 +18383,7 @@
         <v>43619</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -18445,7 +18445,7 @@
         <v>43619</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -18507,7 +18507,7 @@
         <v>43619</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -18569,7 +18569,7 @@
         <v>43619</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -18631,7 +18631,7 @@
         <v>43620</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -18688,7 +18688,7 @@
         <v>43628</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -18745,7 +18745,7 @@
         <v>43628</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -18807,7 +18807,7 @@
         <v>43628</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -18869,7 +18869,7 @@
         <v>43629</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -18926,7 +18926,7 @@
         <v>43629</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -18988,7 +18988,7 @@
         <v>43630</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -19050,7 +19050,7 @@
         <v>43630</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -19112,7 +19112,7 @@
         <v>43636</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -19174,7 +19174,7 @@
         <v>43636</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -19236,7 +19236,7 @@
         <v>43641</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -19293,7 +19293,7 @@
         <v>43642</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -19355,7 +19355,7 @@
         <v>43642</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -19417,7 +19417,7 @@
         <v>43644</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -19474,7 +19474,7 @@
         <v>43650</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -19531,7 +19531,7 @@
         <v>43651</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -19593,7 +19593,7 @@
         <v>43651</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -19655,7 +19655,7 @@
         <v>43655</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -19712,7 +19712,7 @@
         <v>43656</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -19769,7 +19769,7 @@
         <v>43661</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -19826,7 +19826,7 @@
         <v>43661</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -19883,7 +19883,7 @@
         <v>43661</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -19940,7 +19940,7 @@
         <v>43662</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -20002,7 +20002,7 @@
         <v>43663</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -20059,7 +20059,7 @@
         <v>43663</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -20116,7 +20116,7 @@
         <v>43665</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -20173,7 +20173,7 @@
         <v>43665</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -20235,7 +20235,7 @@
         <v>43668</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -20292,7 +20292,7 @@
         <v>43668</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -20354,7 +20354,7 @@
         <v>43669</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -20411,7 +20411,7 @@
         <v>43677</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -20468,7 +20468,7 @@
         <v>43679</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -20525,7 +20525,7 @@
         <v>43679</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -20582,7 +20582,7 @@
         <v>43686</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -20639,7 +20639,7 @@
         <v>43691</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -20696,7 +20696,7 @@
         <v>43692</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -20753,7 +20753,7 @@
         <v>43693</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -20815,7 +20815,7 @@
         <v>43693</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -20877,7 +20877,7 @@
         <v>43693</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -20939,7 +20939,7 @@
         <v>43697</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -21001,7 +21001,7 @@
         <v>43698</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -21058,7 +21058,7 @@
         <v>43698</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -21120,7 +21120,7 @@
         <v>43700</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -21177,7 +21177,7 @@
         <v>43700</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -21239,7 +21239,7 @@
         <v>43700</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -21296,7 +21296,7 @@
         <v>43704</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -21353,7 +21353,7 @@
         <v>43705</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -21415,7 +21415,7 @@
         <v>43710</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -21477,7 +21477,7 @@
         <v>43710</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -21539,7 +21539,7 @@
         <v>43710</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -21601,7 +21601,7 @@
         <v>43712</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -21658,7 +21658,7 @@
         <v>43713</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -21720,7 +21720,7 @@
         <v>43714</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -21782,7 +21782,7 @@
         <v>43714</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -21844,7 +21844,7 @@
         <v>43717</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -21901,7 +21901,7 @@
         <v>43719</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -21963,7 +21963,7 @@
         <v>43720</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -22025,7 +22025,7 @@
         <v>43721</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -22082,7 +22082,7 @@
         <v>43721</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -22139,7 +22139,7 @@
         <v>43721</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -22196,7 +22196,7 @@
         <v>43726</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -22258,7 +22258,7 @@
         <v>43726</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -22320,7 +22320,7 @@
         <v>43727</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -22382,7 +22382,7 @@
         <v>43728</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -22444,7 +22444,7 @@
         <v>43731</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -22501,7 +22501,7 @@
         <v>43732</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -22563,7 +22563,7 @@
         <v>43732</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -22625,7 +22625,7 @@
         <v>43734</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -22682,7 +22682,7 @@
         <v>43735</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -22739,7 +22739,7 @@
         <v>43738</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -22796,7 +22796,7 @@
         <v>43738</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -22853,7 +22853,7 @@
         <v>43741</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -22915,7 +22915,7 @@
         <v>43742</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -22972,7 +22972,7 @@
         <v>43745</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -23029,7 +23029,7 @@
         <v>43745</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -23091,7 +23091,7 @@
         <v>43746</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -23148,7 +23148,7 @@
         <v>43747</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -23210,7 +23210,7 @@
         <v>43748</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -23272,7 +23272,7 @@
         <v>43749</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -23334,7 +23334,7 @@
         <v>43754</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -23396,7 +23396,7 @@
         <v>43754</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -23458,7 +23458,7 @@
         <v>43755</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -23520,7 +23520,7 @@
         <v>43755</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -23582,7 +23582,7 @@
         <v>43759</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -23644,7 +23644,7 @@
         <v>43759</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -23701,7 +23701,7 @@
         <v>43760</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -23763,7 +23763,7 @@
         <v>43763</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -23820,7 +23820,7 @@
         <v>43763</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -23877,7 +23877,7 @@
         <v>43767</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -23939,7 +23939,7 @@
         <v>43774</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -23996,7 +23996,7 @@
         <v>43774</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -24053,7 +24053,7 @@
         <v>43775</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -24110,7 +24110,7 @@
         <v>43775</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -24167,7 +24167,7 @@
         <v>43776</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -24224,7 +24224,7 @@
         <v>43776</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -24281,7 +24281,7 @@
         <v>43777</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -24343,7 +24343,7 @@
         <v>43781</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -24405,7 +24405,7 @@
         <v>43781</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -24467,7 +24467,7 @@
         <v>43782</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -24524,7 +24524,7 @@
         <v>43782</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -24581,7 +24581,7 @@
         <v>43784</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -24643,7 +24643,7 @@
         <v>43787</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -24705,7 +24705,7 @@
         <v>43787</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -24767,7 +24767,7 @@
         <v>43789</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -24829,7 +24829,7 @@
         <v>43789</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -24891,7 +24891,7 @@
         <v>43791</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -24953,7 +24953,7 @@
         <v>43791</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -25015,7 +25015,7 @@
         <v>43791</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -25077,7 +25077,7 @@
         <v>43794</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -25134,7 +25134,7 @@
         <v>43794</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -25191,7 +25191,7 @@
         <v>43797</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -25248,7 +25248,7 @@
         <v>43801</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -25310,7 +25310,7 @@
         <v>43802</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -25367,7 +25367,7 @@
         <v>43802</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -25424,7 +25424,7 @@
         <v>43808</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -25481,7 +25481,7 @@
         <v>43810</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -25543,7 +25543,7 @@
         <v>43810</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -25605,7 +25605,7 @@
         <v>43815</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -25662,7 +25662,7 @@
         <v>43815</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -25719,7 +25719,7 @@
         <v>43816</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -25776,7 +25776,7 @@
         <v>43837</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -25833,7 +25833,7 @@
         <v>43838</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -25890,7 +25890,7 @@
         <v>43840</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -25952,7 +25952,7 @@
         <v>43850</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -26009,7 +26009,7 @@
         <v>43850</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -26066,7 +26066,7 @@
         <v>43850</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -26123,7 +26123,7 @@
         <v>43850</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -26180,7 +26180,7 @@
         <v>43851</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -26237,7 +26237,7 @@
         <v>43851</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -26294,7 +26294,7 @@
         <v>43858</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -26351,7 +26351,7 @@
         <v>43861</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -26408,7 +26408,7 @@
         <v>43865</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -26465,7 +26465,7 @@
         <v>43866</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -26522,7 +26522,7 @@
         <v>43879</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -26579,7 +26579,7 @@
         <v>43882</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -26636,7 +26636,7 @@
         <v>43885</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -26693,7 +26693,7 @@
         <v>43886</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -26750,7 +26750,7 @@
         <v>43886</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -26807,7 +26807,7 @@
         <v>43892</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -26864,7 +26864,7 @@
         <v>43892</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -26921,7 +26921,7 @@
         <v>43894</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -26983,7 +26983,7 @@
         <v>43902</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -27045,7 +27045,7 @@
         <v>43903</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -27102,7 +27102,7 @@
         <v>43908</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -27159,7 +27159,7 @@
         <v>43913</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -27216,7 +27216,7 @@
         <v>43913</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -27273,7 +27273,7 @@
         <v>43922</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -27335,7 +27335,7 @@
         <v>43924</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -27392,7 +27392,7 @@
         <v>43924</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -27449,7 +27449,7 @@
         <v>43930</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -27506,7 +27506,7 @@
         <v>43935</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -27568,7 +27568,7 @@
         <v>43943</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -27625,7 +27625,7 @@
         <v>43943</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -27682,7 +27682,7 @@
         <v>43943</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -27739,7 +27739,7 @@
         <v>43944</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -27796,7 +27796,7 @@
         <v>43944</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -27853,7 +27853,7 @@
         <v>43945</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -27910,7 +27910,7 @@
         <v>43945</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -27972,7 +27972,7 @@
         <v>43945</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -28029,7 +28029,7 @@
         <v>43945</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -28091,7 +28091,7 @@
         <v>43949</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -28153,7 +28153,7 @@
         <v>43951</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -28215,7 +28215,7 @@
         <v>43951</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -28277,7 +28277,7 @@
         <v>43951</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -28339,7 +28339,7 @@
         <v>43951</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -28401,7 +28401,7 @@
         <v>43951</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -28458,7 +28458,7 @@
         <v>43955</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -28520,7 +28520,7 @@
         <v>43959</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -28582,7 +28582,7 @@
         <v>43959</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -28644,7 +28644,7 @@
         <v>43959</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -28706,7 +28706,7 @@
         <v>43959</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -28768,7 +28768,7 @@
         <v>43962</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -28830,7 +28830,7 @@
         <v>43962</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -28892,7 +28892,7 @@
         <v>43962</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -28954,7 +28954,7 @@
         <v>43962</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -29016,7 +29016,7 @@
         <v>43964</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -29078,7 +29078,7 @@
         <v>43965</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -29140,7 +29140,7 @@
         <v>43965</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -29202,7 +29202,7 @@
         <v>43966</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -29264,7 +29264,7 @@
         <v>43966</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -29326,7 +29326,7 @@
         <v>43966</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -29388,7 +29388,7 @@
         <v>43969</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -29450,7 +29450,7 @@
         <v>43971</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -29512,7 +29512,7 @@
         <v>43971</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -29574,7 +29574,7 @@
         <v>43971</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -29636,7 +29636,7 @@
         <v>43977</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -29698,7 +29698,7 @@
         <v>43978</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -29755,7 +29755,7 @@
         <v>43979</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -29817,7 +29817,7 @@
         <v>43979</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -29879,7 +29879,7 @@
         <v>43979</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -29941,7 +29941,7 @@
         <v>43979</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -30003,7 +30003,7 @@
         <v>43979</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -30065,7 +30065,7 @@
         <v>43986</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -30122,7 +30122,7 @@
         <v>43990</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -30184,7 +30184,7 @@
         <v>43990</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -30246,7 +30246,7 @@
         <v>43991</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -30308,7 +30308,7 @@
         <v>43993</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -30370,7 +30370,7 @@
         <v>44000</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -30432,7 +30432,7 @@
         <v>44000</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -30494,7 +30494,7 @@
         <v>44005</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -30556,7 +30556,7 @@
         <v>44005</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -30618,7 +30618,7 @@
         <v>44006</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -30675,7 +30675,7 @@
         <v>44007</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -30737,7 +30737,7 @@
         <v>44007</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -30799,7 +30799,7 @@
         <v>44008</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -30861,7 +30861,7 @@
         <v>44008</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -30923,7 +30923,7 @@
         <v>44014</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -30985,7 +30985,7 @@
         <v>44014</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -31047,7 +31047,7 @@
         <v>44014</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -31109,7 +31109,7 @@
         <v>44022</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -31171,7 +31171,7 @@
         <v>44022</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -31228,7 +31228,7 @@
         <v>44025</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -31285,7 +31285,7 @@
         <v>44026</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -31347,7 +31347,7 @@
         <v>44027</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -31404,7 +31404,7 @@
         <v>44028</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -31466,7 +31466,7 @@
         <v>44029</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -31528,7 +31528,7 @@
         <v>44029</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -31590,7 +31590,7 @@
         <v>44031</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -31652,7 +31652,7 @@
         <v>44032</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -31709,7 +31709,7 @@
         <v>44032</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -31771,7 +31771,7 @@
         <v>44032</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -31833,7 +31833,7 @@
         <v>44033</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -31890,7 +31890,7 @@
         <v>44041</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -31952,7 +31952,7 @@
         <v>44041</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -32014,7 +32014,7 @@
         <v>44041</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -32076,7 +32076,7 @@
         <v>44042</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -32138,7 +32138,7 @@
         <v>44049</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -32200,7 +32200,7 @@
         <v>44049</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -32262,7 +32262,7 @@
         <v>44053</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -32319,7 +32319,7 @@
         <v>44056</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -32381,7 +32381,7 @@
         <v>44057</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -32443,7 +32443,7 @@
         <v>44060</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -32505,7 +32505,7 @@
         <v>44061</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -32562,7 +32562,7 @@
         <v>44061</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -32619,7 +32619,7 @@
         <v>44061</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -32676,7 +32676,7 @@
         <v>44061</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -32738,7 +32738,7 @@
         <v>44062</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -32800,7 +32800,7 @@
         <v>44064</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -32862,7 +32862,7 @@
         <v>44064</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -32924,7 +32924,7 @@
         <v>44064</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -32986,7 +32986,7 @@
         <v>44064</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -33048,7 +33048,7 @@
         <v>44067</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -33110,7 +33110,7 @@
         <v>44068</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -33172,7 +33172,7 @@
         <v>44069</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -33234,7 +33234,7 @@
         <v>44069</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -33296,7 +33296,7 @@
         <v>44069</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -33358,7 +33358,7 @@
         <v>44069</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -33420,7 +33420,7 @@
         <v>44070</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -33477,7 +33477,7 @@
         <v>44074</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -33539,7 +33539,7 @@
         <v>44074</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -33601,7 +33601,7 @@
         <v>44075</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -33663,7 +33663,7 @@
         <v>44075</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -33725,7 +33725,7 @@
         <v>44075</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -33787,7 +33787,7 @@
         <v>44078</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -33844,7 +33844,7 @@
         <v>44078</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -33901,7 +33901,7 @@
         <v>44078</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -33963,7 +33963,7 @@
         <v>44080</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -34025,7 +34025,7 @@
         <v>44081</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -34087,7 +34087,7 @@
         <v>44081</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -34149,7 +34149,7 @@
         <v>44082</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -34211,7 +34211,7 @@
         <v>44082</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -34268,7 +34268,7 @@
         <v>44082</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -34330,7 +34330,7 @@
         <v>44083</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -34387,7 +34387,7 @@
         <v>44084</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -34449,7 +34449,7 @@
         <v>44085</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -34511,7 +34511,7 @@
         <v>44085</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -34573,7 +34573,7 @@
         <v>44085</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -34635,7 +34635,7 @@
         <v>44085</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -34697,7 +34697,7 @@
         <v>44085</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -34754,7 +34754,7 @@
         <v>44088</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -34816,7 +34816,7 @@
         <v>44088</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -34878,7 +34878,7 @@
         <v>44088</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -34940,7 +34940,7 @@
         <v>44088</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -35002,7 +35002,7 @@
         <v>44091</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -35064,7 +35064,7 @@
         <v>44092</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -35126,7 +35126,7 @@
         <v>44092</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -35188,7 +35188,7 @@
         <v>44092</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -35250,7 +35250,7 @@
         <v>44095</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -35307,7 +35307,7 @@
         <v>44099</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -35369,7 +35369,7 @@
         <v>44099</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -35431,7 +35431,7 @@
         <v>44099</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -35493,7 +35493,7 @@
         <v>44103</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -35555,7 +35555,7 @@
         <v>44103</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -35617,7 +35617,7 @@
         <v>44104</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -35679,7 +35679,7 @@
         <v>44104</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -35741,7 +35741,7 @@
         <v>44104</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -35803,7 +35803,7 @@
         <v>44108</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -35860,7 +35860,7 @@
         <v>44109</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -35922,7 +35922,7 @@
         <v>44109</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -35984,7 +35984,7 @@
         <v>44110</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -36046,7 +36046,7 @@
         <v>44111</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -36108,7 +36108,7 @@
         <v>44112</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -36170,7 +36170,7 @@
         <v>44112</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -36227,7 +36227,7 @@
         <v>44112</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -36289,7 +36289,7 @@
         <v>44116</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -36351,7 +36351,7 @@
         <v>44116</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -36413,7 +36413,7 @@
         <v>44116</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -36470,7 +36470,7 @@
         <v>44116</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -36532,7 +36532,7 @@
         <v>44116</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -36594,7 +36594,7 @@
         <v>44117</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -36656,7 +36656,7 @@
         <v>44119</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -36718,7 +36718,7 @@
         <v>44119</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -36780,7 +36780,7 @@
         <v>44119</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -36842,7 +36842,7 @@
         <v>44120</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -36904,7 +36904,7 @@
         <v>44123</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -36966,7 +36966,7 @@
         <v>44124</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -37028,7 +37028,7 @@
         <v>44124</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -37085,7 +37085,7 @@
         <v>44125</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -37142,7 +37142,7 @@
         <v>44125</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -37204,7 +37204,7 @@
         <v>44125</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -37266,7 +37266,7 @@
         <v>44125</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -37328,7 +37328,7 @@
         <v>44126</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -37390,7 +37390,7 @@
         <v>44126</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -37452,7 +37452,7 @@
         <v>44126</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -37509,7 +37509,7 @@
         <v>44126</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -37571,7 +37571,7 @@
         <v>44133</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -37633,7 +37633,7 @@
         <v>44141</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -37695,7 +37695,7 @@
         <v>44144</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -37757,7 +37757,7 @@
         <v>44145</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -37819,7 +37819,7 @@
         <v>44146</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -37876,7 +37876,7 @@
         <v>44147</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -37938,7 +37938,7 @@
         <v>44148</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -38000,7 +38000,7 @@
         <v>44148</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -38062,7 +38062,7 @@
         <v>44150</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -38124,7 +38124,7 @@
         <v>44151</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -38186,7 +38186,7 @@
         <v>44159</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -38248,7 +38248,7 @@
         <v>44159</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -38305,7 +38305,7 @@
         <v>44160</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -38367,7 +38367,7 @@
         <v>44161</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -38424,7 +38424,7 @@
         <v>44162</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -38486,7 +38486,7 @@
         <v>44162</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -38548,7 +38548,7 @@
         <v>44166</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -38605,7 +38605,7 @@
         <v>44167</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -38667,7 +38667,7 @@
         <v>44179</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -38729,7 +38729,7 @@
         <v>44180</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -38791,7 +38791,7 @@
         <v>44180</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -38853,7 +38853,7 @@
         <v>44194</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -38910,7 +38910,7 @@
         <v>44194</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -38987,7 +38987,7 @@
         <v>44199</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -39044,7 +39044,7 @@
         <v>44200</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -39101,7 +39101,7 @@
         <v>44203</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -39163,7 +39163,7 @@
         <v>44208</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -39225,7 +39225,7 @@
         <v>44221</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -39282,7 +39282,7 @@
         <v>44223</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -39344,7 +39344,7 @@
         <v>44228</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -39401,7 +39401,7 @@
         <v>44229</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -39458,7 +39458,7 @@
         <v>44236</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -39515,7 +39515,7 @@
         <v>44239</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -39572,7 +39572,7 @@
         <v>44243</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -39629,7 +39629,7 @@
         <v>44250</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -39686,7 +39686,7 @@
         <v>44251</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -39743,7 +39743,7 @@
         <v>44253</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -39800,7 +39800,7 @@
         <v>44259</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -39857,7 +39857,7 @@
         <v>44265</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -39914,7 +39914,7 @@
         <v>44265</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -39971,7 +39971,7 @@
         <v>44267</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -40028,7 +40028,7 @@
         <v>44273</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -40090,7 +40090,7 @@
         <v>44273</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -40152,7 +40152,7 @@
         <v>44294</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -40214,7 +40214,7 @@
         <v>44294</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -40276,7 +40276,7 @@
         <v>44295</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -40338,7 +40338,7 @@
         <v>44302</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -40400,7 +40400,7 @@
         <v>44307</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -40457,7 +40457,7 @@
         <v>44308</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -40514,7 +40514,7 @@
         <v>44308</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -40576,7 +40576,7 @@
         <v>44309</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -40633,7 +40633,7 @@
         <v>44313</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -40695,7 +40695,7 @@
         <v>44313</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -40757,7 +40757,7 @@
         <v>44322</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -40819,7 +40819,7 @@
         <v>44322</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -40881,7 +40881,7 @@
         <v>44322</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -40943,7 +40943,7 @@
         <v>44322</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -41005,7 +41005,7 @@
         <v>44326</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -41062,7 +41062,7 @@
         <v>44326</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -41119,7 +41119,7 @@
         <v>44333</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -41176,7 +41176,7 @@
         <v>44336</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -41233,7 +41233,7 @@
         <v>44341</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -41290,7 +41290,7 @@
         <v>44341</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -41347,7 +41347,7 @@
         <v>44350</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -41409,7 +41409,7 @@
         <v>44350</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -41471,7 +41471,7 @@
         <v>44354</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -41533,7 +41533,7 @@
         <v>44358</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -41595,7 +41595,7 @@
         <v>44358</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -41657,7 +41657,7 @@
         <v>44361</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -41714,7 +41714,7 @@
         <v>44361</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -41776,7 +41776,7 @@
         <v>44361</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -41833,7 +41833,7 @@
         <v>44361</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -41890,7 +41890,7 @@
         <v>44361</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -41947,7 +41947,7 @@
         <v>44361</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -42004,7 +42004,7 @@
         <v>44363</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -42061,7 +42061,7 @@
         <v>44364</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -42118,7 +42118,7 @@
         <v>44365</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -42175,7 +42175,7 @@
         <v>44368</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -42237,7 +42237,7 @@
         <v>44368</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -42299,7 +42299,7 @@
         <v>44378</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -42361,7 +42361,7 @@
         <v>44382</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -42423,7 +42423,7 @@
         <v>44382</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -42485,7 +42485,7 @@
         <v>44382</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -42547,7 +42547,7 @@
         <v>44384</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -42609,7 +42609,7 @@
         <v>44385</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -42666,7 +42666,7 @@
         <v>44390</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -42723,7 +42723,7 @@
         <v>44391</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -42780,7 +42780,7 @@
         <v>44397</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -42842,7 +42842,7 @@
         <v>44400</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -42904,7 +42904,7 @@
         <v>44400</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -42966,7 +42966,7 @@
         <v>44400</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -43028,7 +43028,7 @@
         <v>44403</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -43090,7 +43090,7 @@
         <v>44403</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -43147,7 +43147,7 @@
         <v>44404</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -43204,7 +43204,7 @@
         <v>44406</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -43266,7 +43266,7 @@
         <v>44418</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -43328,7 +43328,7 @@
         <v>44418</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -43390,7 +43390,7 @@
         <v>44419</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -43452,7 +43452,7 @@
         <v>44425</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -43514,7 +43514,7 @@
         <v>44425</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -43576,7 +43576,7 @@
         <v>44426</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -43633,7 +43633,7 @@
         <v>44427</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -43690,7 +43690,7 @@
         <v>44428</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -43752,7 +43752,7 @@
         <v>44431</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -43809,7 +43809,7 @@
         <v>44435</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -43871,7 +43871,7 @@
         <v>44435</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -43933,7 +43933,7 @@
         <v>44435</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -43990,7 +43990,7 @@
         <v>44435</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -44052,7 +44052,7 @@
         <v>44438</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -44114,7 +44114,7 @@
         <v>44439</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -44171,7 +44171,7 @@
         <v>44440</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -44228,7 +44228,7 @@
         <v>44445</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -44290,7 +44290,7 @@
         <v>44445</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -44352,7 +44352,7 @@
         <v>44445</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -44409,7 +44409,7 @@
         <v>44447</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -44471,7 +44471,7 @@
         <v>44447</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -44528,7 +44528,7 @@
         <v>44448</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -44585,7 +44585,7 @@
         <v>44448</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -44642,7 +44642,7 @@
         <v>44449</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -44699,7 +44699,7 @@
         <v>44452</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -44761,7 +44761,7 @@
         <v>44453</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -44823,7 +44823,7 @@
         <v>44455</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -44885,7 +44885,7 @@
         <v>44460</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -44942,7 +44942,7 @@
         <v>44460</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -45004,7 +45004,7 @@
         <v>44460</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -45066,7 +45066,7 @@
         <v>44461</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -45123,7 +45123,7 @@
         <v>44466</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -45180,7 +45180,7 @@
         <v>44467</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -45242,7 +45242,7 @@
         <v>44470</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -45299,7 +45299,7 @@
         <v>44473</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -45356,7 +45356,7 @@
         <v>44475</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -45418,7 +45418,7 @@
         <v>44475</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -45480,7 +45480,7 @@
         <v>44475</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -45537,7 +45537,7 @@
         <v>44480</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -45599,7 +45599,7 @@
         <v>44481</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -45656,7 +45656,7 @@
         <v>44483</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -45718,7 +45718,7 @@
         <v>44484</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -45780,7 +45780,7 @@
         <v>44488</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -45837,7 +45837,7 @@
         <v>44489</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -45899,7 +45899,7 @@
         <v>44489</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -45961,7 +45961,7 @@
         <v>44489</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -46023,7 +46023,7 @@
         <v>44489</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -46085,7 +46085,7 @@
         <v>44490</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -46147,7 +46147,7 @@
         <v>44497</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -46209,7 +46209,7 @@
         <v>44497</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -46266,7 +46266,7 @@
         <v>44497</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -46328,7 +46328,7 @@
         <v>44497</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -46385,7 +46385,7 @@
         <v>44502</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -46442,7 +46442,7 @@
         <v>44503</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -46504,7 +46504,7 @@
         <v>44504</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -46566,7 +46566,7 @@
         <v>44510</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -46628,7 +46628,7 @@
         <v>44511</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -46690,7 +46690,7 @@
         <v>44511</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -46752,7 +46752,7 @@
         <v>44523</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -46814,7 +46814,7 @@
         <v>44523</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -46871,7 +46871,7 @@
         <v>44531</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -46928,7 +46928,7 @@
         <v>44536</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -46985,7 +46985,7 @@
         <v>44538</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -47042,7 +47042,7 @@
         <v>44544</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -47104,7 +47104,7 @@
         <v>44550</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -47166,7 +47166,7 @@
         <v>44551</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -47223,7 +47223,7 @@
         <v>44552</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -47280,7 +47280,7 @@
         <v>44552</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -47337,7 +47337,7 @@
         <v>44564</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -47394,7 +47394,7 @@
         <v>44566</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -47451,7 +47451,7 @@
         <v>44572</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -47508,7 +47508,7 @@
         <v>44579</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -47570,7 +47570,7 @@
         <v>44582</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -47627,7 +47627,7 @@
         <v>44587</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -47689,7 +47689,7 @@
         <v>44592</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -47751,7 +47751,7 @@
         <v>44595</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -47808,7 +47808,7 @@
         <v>44615</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -47865,7 +47865,7 @@
         <v>44615</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -47922,7 +47922,7 @@
         <v>44616</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -47979,7 +47979,7 @@
         <v>44621</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -48041,7 +48041,7 @@
         <v>44627</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -48098,7 +48098,7 @@
         <v>44627</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -48155,7 +48155,7 @@
         <v>44629</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -48212,7 +48212,7 @@
         <v>44648</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -48269,7 +48269,7 @@
         <v>44650</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -48326,7 +48326,7 @@
         <v>44657</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -48383,7 +48383,7 @@
         <v>44662</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -48445,7 +48445,7 @@
         <v>44663</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -48502,7 +48502,7 @@
         <v>44663</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -48559,7 +48559,7 @@
         <v>44685</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -48621,7 +48621,7 @@
         <v>44691</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -48683,7 +48683,7 @@
         <v>44692</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -48745,7 +48745,7 @@
         <v>44692</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -48807,7 +48807,7 @@
         <v>44693</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -48869,7 +48869,7 @@
         <v>44697</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -48926,7 +48926,7 @@
         <v>44701</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -48988,7 +48988,7 @@
         <v>44711</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -49050,7 +49050,7 @@
         <v>44711</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -49112,7 +49112,7 @@
         <v>44712</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -49169,7 +49169,7 @@
         <v>44714</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -49226,7 +49226,7 @@
         <v>44719</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -49283,7 +49283,7 @@
         <v>44726</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -49340,7 +49340,7 @@
         <v>44726</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -49397,7 +49397,7 @@
         <v>44726</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -49454,7 +49454,7 @@
         <v>44726</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -49516,7 +49516,7 @@
         <v>44726</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -49573,7 +49573,7 @@
         <v>44732</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -49635,7 +49635,7 @@
         <v>44743</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -49697,7 +49697,7 @@
         <v>44743</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -49759,7 +49759,7 @@
         <v>44743</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -49821,7 +49821,7 @@
         <v>44743</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -49883,7 +49883,7 @@
         <v>44743</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -49945,7 +49945,7 @@
         <v>44743</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -50007,7 +50007,7 @@
         <v>44743</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -50069,7 +50069,7 @@
         <v>44747</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -50126,7 +50126,7 @@
         <v>44747</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -50183,7 +50183,7 @@
         <v>44748</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -50240,7 +50240,7 @@
         <v>44749</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -50297,7 +50297,7 @@
         <v>44757</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -50359,7 +50359,7 @@
         <v>44757</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -50421,7 +50421,7 @@
         <v>44762</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -50483,7 +50483,7 @@
         <v>44774</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -50545,7 +50545,7 @@
         <v>44774</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -50607,7 +50607,7 @@
         <v>44774</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -50669,7 +50669,7 @@
         <v>44777</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -50726,7 +50726,7 @@
         <v>44778</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -50788,7 +50788,7 @@
         <v>44781</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -50850,7 +50850,7 @@
         <v>44781</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -50912,7 +50912,7 @@
         <v>44789</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -50969,7 +50969,7 @@
         <v>44791</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -51031,7 +51031,7 @@
         <v>44791</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -51088,7 +51088,7 @@
         <v>44792</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -51150,7 +51150,7 @@
         <v>44792</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -51212,7 +51212,7 @@
         <v>44792</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -51269,7 +51269,7 @@
         <v>44792</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -51331,7 +51331,7 @@
         <v>44792</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -51393,7 +51393,7 @@
         <v>44795</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -51455,7 +51455,7 @@
         <v>44795</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -51512,7 +51512,7 @@
         <v>44797</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -51569,7 +51569,7 @@
         <v>44798</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -51626,7 +51626,7 @@
         <v>44799</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -51688,7 +51688,7 @@
         <v>44799</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -51750,7 +51750,7 @@
         <v>44799</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -51812,7 +51812,7 @@
         <v>44799</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -51874,7 +51874,7 @@
         <v>44803</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -51931,7 +51931,7 @@
         <v>44804</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -51988,7 +51988,7 @@
         <v>44806</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -52050,7 +52050,7 @@
         <v>44812</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -52107,7 +52107,7 @@
         <v>44813</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -52169,7 +52169,7 @@
         <v>44813</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -52226,7 +52226,7 @@
         <v>44813</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -52288,7 +52288,7 @@
         <v>44817</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -52350,7 +52350,7 @@
         <v>44824</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -52412,7 +52412,7 @@
         <v>44824</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -52474,7 +52474,7 @@
         <v>44824</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -52536,7 +52536,7 @@
         <v>44825</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -52598,7 +52598,7 @@
         <v>44827</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -52660,7 +52660,7 @@
         <v>44827</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -52722,7 +52722,7 @@
         <v>44832</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -52784,7 +52784,7 @@
         <v>44833</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -52846,7 +52846,7 @@
         <v>44833</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -52908,7 +52908,7 @@
         <v>44833</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -52965,7 +52965,7 @@
         <v>44833</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -53027,7 +53027,7 @@
         <v>44833</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -53084,7 +53084,7 @@
         <v>44833</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -53146,7 +53146,7 @@
         <v>44834</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -53208,7 +53208,7 @@
         <v>44834</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -53270,7 +53270,7 @@
         <v>44837</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -53332,7 +53332,7 @@
         <v>44837</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -53389,7 +53389,7 @@
         <v>44837</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -53451,7 +53451,7 @@
         <v>44838</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -53508,7 +53508,7 @@
         <v>44838</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -53565,7 +53565,7 @@
         <v>44844</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -53627,7 +53627,7 @@
         <v>44846</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -53689,7 +53689,7 @@
         <v>44846</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -53746,7 +53746,7 @@
         <v>44847</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -53808,7 +53808,7 @@
         <v>44847</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -53870,7 +53870,7 @@
         <v>44847</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -53932,7 +53932,7 @@
         <v>44848</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -53994,7 +53994,7 @@
         <v>44853</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -54051,7 +54051,7 @@
         <v>44855</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -54113,7 +54113,7 @@
         <v>44858</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -54175,7 +54175,7 @@
         <v>44860</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -54232,7 +54232,7 @@
         <v>44864</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -54289,7 +54289,7 @@
         <v>44866</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -54351,7 +54351,7 @@
         <v>44866</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -54413,7 +54413,7 @@
         <v>44867</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -54475,7 +54475,7 @@
         <v>44867</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -54532,7 +54532,7 @@
         <v>44867</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -54594,7 +54594,7 @@
         <v>44868</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -54656,7 +54656,7 @@
         <v>44872</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -54718,7 +54718,7 @@
         <v>44872</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -54780,7 +54780,7 @@
         <v>44872</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -54842,7 +54842,7 @@
         <v>44872</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -54899,7 +54899,7 @@
         <v>44873</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -54956,7 +54956,7 @@
         <v>44873</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -55013,7 +55013,7 @@
         <v>44874</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -55075,7 +55075,7 @@
         <v>44874</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -55137,7 +55137,7 @@
         <v>44874</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -55199,7 +55199,7 @@
         <v>44875</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -55256,7 +55256,7 @@
         <v>44875</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -55318,7 +55318,7 @@
         <v>44876</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -55380,7 +55380,7 @@
         <v>44880</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -55442,7 +55442,7 @@
         <v>44880</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -55504,7 +55504,7 @@
         <v>44882</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -55566,7 +55566,7 @@
         <v>44886</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -55628,7 +55628,7 @@
         <v>44886</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -55690,7 +55690,7 @@
         <v>44886</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -55752,7 +55752,7 @@
         <v>44888</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -55814,7 +55814,7 @@
         <v>44889</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -55871,7 +55871,7 @@
         <v>44894</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -55933,7 +55933,7 @@
         <v>44895</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -55990,7 +55990,7 @@
         <v>44900</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -56052,7 +56052,7 @@
         <v>44902</v>
       </c>
       <c r="C876" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -56109,7 +56109,7 @@
         <v>44903</v>
       </c>
       <c r="C877" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -56171,7 +56171,7 @@
         <v>44903</v>
       </c>
       <c r="C878" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -56253,7 +56253,7 @@
         <v>44903</v>
       </c>
       <c r="C879" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -56315,7 +56315,7 @@
         <v>44904</v>
       </c>
       <c r="C880" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -56377,7 +56377,7 @@
         <v>44904</v>
       </c>
       <c r="C881" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -56434,7 +56434,7 @@
         <v>44909</v>
       </c>
       <c r="C882" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -56496,7 +56496,7 @@
         <v>44909</v>
       </c>
       <c r="C883" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>
@@ -56558,7 +56558,7 @@
         <v>44909</v>
       </c>
       <c r="C884" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D884" t="inlineStr">
         <is>
@@ -56620,7 +56620,7 @@
         <v>44910</v>
       </c>
       <c r="C885" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D885" t="inlineStr">
         <is>
@@ -56682,7 +56682,7 @@
         <v>44911</v>
       </c>
       <c r="C886" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D886" t="inlineStr">
         <is>
@@ -56744,7 +56744,7 @@
         <v>44911</v>
       </c>
       <c r="C887" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D887" t="inlineStr">
         <is>
@@ -56806,7 +56806,7 @@
         <v>44915</v>
       </c>
       <c r="C888" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D888" t="inlineStr">
         <is>
@@ -56868,7 +56868,7 @@
         <v>44916</v>
       </c>
       <c r="C889" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D889" t="inlineStr">
         <is>
@@ -56925,7 +56925,7 @@
         <v>44924</v>
       </c>
       <c r="C890" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D890" t="inlineStr">
         <is>
@@ -56982,7 +56982,7 @@
         <v>44924</v>
       </c>
       <c r="C891" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D891" t="inlineStr">
         <is>
@@ -57039,7 +57039,7 @@
         <v>44925</v>
       </c>
       <c r="C892" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D892" t="inlineStr">
         <is>
@@ -57096,7 +57096,7 @@
         <v>44931</v>
       </c>
       <c r="C893" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D893" t="inlineStr">
         <is>
@@ -57153,7 +57153,7 @@
         <v>44935</v>
       </c>
       <c r="C894" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D894" t="inlineStr">
         <is>
@@ -57215,7 +57215,7 @@
         <v>44937</v>
       </c>
       <c r="C895" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D895" t="inlineStr">
         <is>
@@ -57277,7 +57277,7 @@
         <v>44939</v>
       </c>
       <c r="C896" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D896" t="inlineStr">
         <is>
@@ -57339,7 +57339,7 @@
         <v>44942</v>
       </c>
       <c r="C897" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D897" t="inlineStr">
         <is>
@@ -57396,7 +57396,7 @@
         <v>44942</v>
       </c>
       <c r="C898" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D898" t="inlineStr">
         <is>
@@ -57453,7 +57453,7 @@
         <v>44946</v>
       </c>
       <c r="C899" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D899" t="inlineStr">
         <is>
@@ -57515,7 +57515,7 @@
         <v>44946</v>
       </c>
       <c r="C900" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D900" t="inlineStr">
         <is>
@@ -57572,7 +57572,7 @@
         <v>44949</v>
       </c>
       <c r="C901" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D901" t="inlineStr">
         <is>
@@ -57634,7 +57634,7 @@
         <v>44950</v>
       </c>
       <c r="C902" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D902" t="inlineStr">
         <is>
@@ -57691,7 +57691,7 @@
         <v>44950</v>
       </c>
       <c r="C903" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D903" t="inlineStr">
         <is>
@@ -57748,7 +57748,7 @@
         <v>44952</v>
       </c>
       <c r="C904" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D904" t="inlineStr">
         <is>
@@ -57805,7 +57805,7 @@
         <v>44953</v>
       </c>
       <c r="C905" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D905" t="inlineStr">
         <is>
@@ -57867,7 +57867,7 @@
         <v>44953</v>
       </c>
       <c r="C906" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D906" t="inlineStr">
         <is>
@@ -57929,7 +57929,7 @@
         <v>44956</v>
       </c>
       <c r="C907" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D907" t="inlineStr">
         <is>
@@ -57986,7 +57986,7 @@
         <v>44957</v>
       </c>
       <c r="C908" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D908" t="inlineStr">
         <is>
@@ -58048,7 +58048,7 @@
         <v>44957</v>
       </c>
       <c r="C909" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D909" t="inlineStr">
         <is>
@@ -58105,7 +58105,7 @@
         <v>44959</v>
       </c>
       <c r="C910" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D910" t="inlineStr">
         <is>
@@ -58162,7 +58162,7 @@
         <v>44960</v>
       </c>
       <c r="C911" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D911" t="inlineStr">
         <is>
@@ -58219,7 +58219,7 @@
         <v>44963</v>
       </c>
       <c r="C912" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D912" t="inlineStr">
         <is>
@@ -58276,7 +58276,7 @@
         <v>44964</v>
       </c>
       <c r="C913" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D913" t="inlineStr">
         <is>
@@ -58338,7 +58338,7 @@
         <v>44965</v>
       </c>
       <c r="C914" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D914" t="inlineStr">
         <is>
@@ -58400,7 +58400,7 @@
         <v>44967</v>
       </c>
       <c r="C915" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D915" t="inlineStr">
         <is>
@@ -58457,7 +58457,7 @@
         <v>44970</v>
       </c>
       <c r="C916" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D916" t="inlineStr">
         <is>
@@ -58514,7 +58514,7 @@
         <v>44970</v>
       </c>
       <c r="C917" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D917" t="inlineStr">
         <is>
@@ -58571,7 +58571,7 @@
         <v>44970</v>
       </c>
       <c r="C918" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D918" t="inlineStr">
         <is>
@@ -58628,7 +58628,7 @@
         <v>44972</v>
       </c>
       <c r="C919" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D919" t="inlineStr">
         <is>
@@ -58690,7 +58690,7 @@
         <v>44974</v>
       </c>
       <c r="C920" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D920" t="inlineStr">
         <is>
@@ -58747,7 +58747,7 @@
         <v>44977</v>
       </c>
       <c r="C921" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D921" t="inlineStr">
         <is>
@@ -58809,7 +58809,7 @@
         <v>44977</v>
       </c>
       <c r="C922" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D922" t="inlineStr">
         <is>
@@ -58871,7 +58871,7 @@
         <v>44977</v>
       </c>
       <c r="C923" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D923" t="inlineStr">
         <is>
@@ -58933,7 +58933,7 @@
         <v>44977</v>
       </c>
       <c r="C924" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D924" t="inlineStr">
         <is>
@@ -58995,7 +58995,7 @@
         <v>44977</v>
       </c>
       <c r="C925" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D925" t="inlineStr">
         <is>
@@ -59057,7 +59057,7 @@
         <v>44977</v>
       </c>
       <c r="C926" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D926" t="inlineStr">
         <is>
@@ -59119,7 +59119,7 @@
         <v>44980</v>
       </c>
       <c r="C927" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D927" t="inlineStr">
         <is>
@@ -59181,7 +59181,7 @@
         <v>44980</v>
       </c>
       <c r="C928" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D928" t="inlineStr">
         <is>
@@ -59238,7 +59238,7 @@
         <v>44984</v>
       </c>
       <c r="C929" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D929" t="inlineStr">
         <is>
@@ -59295,7 +59295,7 @@
         <v>44985</v>
       </c>
       <c r="C930" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D930" t="inlineStr">
         <is>
@@ -59357,7 +59357,7 @@
         <v>44985</v>
       </c>
       <c r="C931" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D931" t="inlineStr">
         <is>
@@ -59419,7 +59419,7 @@
         <v>44985</v>
       </c>
       <c r="C932" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D932" t="inlineStr">
         <is>
@@ -59476,7 +59476,7 @@
         <v>44985</v>
       </c>
       <c r="C933" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D933" t="inlineStr">
         <is>
@@ -59538,7 +59538,7 @@
         <v>44986</v>
       </c>
       <c r="C934" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D934" t="inlineStr">
         <is>
@@ -59600,7 +59600,7 @@
         <v>45000</v>
       </c>
       <c r="C935" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D935" t="inlineStr">
         <is>
@@ -59662,7 +59662,7 @@
         <v>45006</v>
       </c>
       <c r="C936" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D936" t="inlineStr">
         <is>
@@ -59719,7 +59719,7 @@
         <v>45007</v>
       </c>
       <c r="C937" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D937" t="inlineStr">
         <is>
@@ -59776,7 +59776,7 @@
         <v>45007</v>
       </c>
       <c r="C938" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D938" t="inlineStr">
         <is>
@@ -59838,7 +59838,7 @@
         <v>45012</v>
       </c>
       <c r="C939" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D939" t="inlineStr">
         <is>
@@ -59900,7 +59900,7 @@
         <v>45012</v>
       </c>
       <c r="C940" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D940" t="inlineStr">
         <is>
@@ -59962,7 +59962,7 @@
         <v>45016</v>
       </c>
       <c r="C941" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D941" t="inlineStr">
         <is>
@@ -60019,7 +60019,7 @@
         <v>45020</v>
       </c>
       <c r="C942" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D942" t="inlineStr">
         <is>
@@ -60076,7 +60076,7 @@
         <v>45027</v>
       </c>
       <c r="C943" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D943" t="inlineStr">
         <is>
@@ -60138,7 +60138,7 @@
         <v>45027</v>
       </c>
       <c r="C944" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D944" t="inlineStr">
         <is>
@@ -60200,7 +60200,7 @@
         <v>45028</v>
       </c>
       <c r="C945" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D945" t="inlineStr">
         <is>
@@ -60257,7 +60257,7 @@
         <v>45033</v>
       </c>
       <c r="C946" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D946" t="inlineStr">
         <is>
@@ -60319,7 +60319,7 @@
         <v>45036</v>
       </c>
       <c r="C947" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D947" t="inlineStr">
         <is>
@@ -60376,7 +60376,7 @@
         <v>45037</v>
       </c>
       <c r="C948" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D948" t="inlineStr">
         <is>
@@ -60433,7 +60433,7 @@
         <v>45041</v>
       </c>
       <c r="C949" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D949" t="inlineStr">
         <is>
@@ -60495,7 +60495,7 @@
         <v>45047</v>
       </c>
       <c r="C950" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D950" t="inlineStr">
         <is>
@@ -60552,7 +60552,7 @@
         <v>45055</v>
       </c>
       <c r="C951" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D951" t="inlineStr">
         <is>
@@ -60614,7 +60614,7 @@
         <v>45056</v>
       </c>
       <c r="C952" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D952" t="inlineStr">
         <is>
@@ -60676,7 +60676,7 @@
         <v>45058</v>
       </c>
       <c r="C953" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D953" t="inlineStr">
         <is>
@@ -60733,7 +60733,7 @@
         <v>45058</v>
       </c>
       <c r="C954" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D954" t="inlineStr">
         <is>
@@ -60790,7 +60790,7 @@
         <v>45060</v>
       </c>
       <c r="C955" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D955" t="inlineStr">
         <is>
@@ -60847,7 +60847,7 @@
         <v>45061</v>
       </c>
       <c r="C956" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D956" t="inlineStr">
         <is>
@@ -60909,7 +60909,7 @@
         <v>45061</v>
       </c>
       <c r="C957" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D957" t="inlineStr">
         <is>
@@ -60971,7 +60971,7 @@
         <v>45061</v>
       </c>
       <c r="C958" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D958" t="inlineStr">
         <is>
@@ -61033,7 +61033,7 @@
         <v>45063</v>
       </c>
       <c r="C959" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D959" t="inlineStr">
         <is>
@@ -61090,7 +61090,7 @@
         <v>45065</v>
       </c>
       <c r="C960" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D960" t="inlineStr">
         <is>
@@ -61152,7 +61152,7 @@
         <v>45068</v>
       </c>
       <c r="C961" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D961" t="inlineStr">
         <is>
@@ -61214,7 +61214,7 @@
         <v>45068</v>
       </c>
       <c r="C962" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D962" t="inlineStr">
         <is>
@@ -61276,7 +61276,7 @@
         <v>45069</v>
       </c>
       <c r="C963" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D963" t="inlineStr">
         <is>
@@ -61338,7 +61338,7 @@
         <v>45069</v>
       </c>
       <c r="C964" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D964" t="inlineStr">
         <is>
@@ -61395,7 +61395,7 @@
         <v>45069</v>
       </c>
       <c r="C965" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D965" t="inlineStr">
         <is>
@@ -61452,7 +61452,7 @@
         <v>45070</v>
       </c>
       <c r="C966" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D966" t="inlineStr">
         <is>
@@ -61514,7 +61514,7 @@
         <v>45070</v>
       </c>
       <c r="C967" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D967" t="inlineStr">
         <is>
@@ -61571,7 +61571,7 @@
         <v>45070</v>
       </c>
       <c r="C968" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D968" t="inlineStr">
         <is>
@@ -61628,7 +61628,7 @@
         <v>45070</v>
       </c>
       <c r="C969" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D969" t="inlineStr">
         <is>
@@ -61685,7 +61685,7 @@
         <v>45070</v>
       </c>
       <c r="C970" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D970" t="inlineStr">
         <is>
@@ -61742,7 +61742,7 @@
         <v>45071</v>
       </c>
       <c r="C971" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D971" t="inlineStr">
         <is>
@@ -61804,7 +61804,7 @@
         <v>45071</v>
       </c>
       <c r="C972" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D972" t="inlineStr">
         <is>
@@ -61861,7 +61861,7 @@
         <v>45071</v>
       </c>
       <c r="C973" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D973" t="inlineStr">
         <is>
@@ -61918,7 +61918,7 @@
         <v>45071</v>
       </c>
       <c r="C974" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D974" t="inlineStr">
         <is>
@@ -61975,7 +61975,7 @@
         <v>45072</v>
       </c>
       <c r="C975" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D975" t="inlineStr">
         <is>
@@ -62032,7 +62032,7 @@
         <v>45077</v>
       </c>
       <c r="C976" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D976" t="inlineStr">
         <is>
@@ -62094,7 +62094,7 @@
         <v>45078</v>
       </c>
       <c r="C977" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D977" t="inlineStr">
         <is>
@@ -62156,7 +62156,7 @@
         <v>45078</v>
       </c>
       <c r="C978" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D978" t="inlineStr">
         <is>
@@ -62213,7 +62213,7 @@
         <v>45078</v>
       </c>
       <c r="C979" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D979" t="inlineStr">
         <is>
@@ -62270,7 +62270,7 @@
         <v>45079</v>
       </c>
       <c r="C980" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D980" t="inlineStr">
         <is>
@@ -62327,7 +62327,7 @@
         <v>45084</v>
       </c>
       <c r="C981" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D981" t="inlineStr">
         <is>
@@ -62389,7 +62389,7 @@
         <v>45090</v>
       </c>
       <c r="C982" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D982" t="inlineStr">
         <is>
@@ -62451,7 +62451,7 @@
         <v>45090</v>
       </c>
       <c r="C983" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D983" t="inlineStr">
         <is>
@@ -62508,7 +62508,7 @@
         <v>45092</v>
       </c>
       <c r="C984" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D984" t="inlineStr">
         <is>
@@ -62570,7 +62570,7 @@
         <v>45092</v>
       </c>
       <c r="C985" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D985" t="inlineStr">
         <is>
@@ -62632,7 +62632,7 @@
         <v>45092</v>
       </c>
       <c r="C986" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D986" t="inlineStr">
         <is>
@@ -62694,7 +62694,7 @@
         <v>45092</v>
       </c>
       <c r="C987" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D987" t="inlineStr">
         <is>
@@ -62756,7 +62756,7 @@
         <v>45093</v>
       </c>
       <c r="C988" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D988" t="inlineStr">
         <is>
@@ -62818,7 +62818,7 @@
         <v>45097</v>
       </c>
       <c r="C989" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D989" t="inlineStr">
         <is>
@@ -62880,7 +62880,7 @@
         <v>45097</v>
       </c>
       <c r="C990" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D990" t="inlineStr">
         <is>
@@ -62937,7 +62937,7 @@
         <v>45097</v>
       </c>
       <c r="C991" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D991" t="inlineStr">
         <is>
@@ -62994,7 +62994,7 @@
         <v>45097</v>
       </c>
       <c r="C992" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D992" t="inlineStr">
         <is>
@@ -63056,7 +63056,7 @@
         <v>45097</v>
       </c>
       <c r="C993" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D993" t="inlineStr">
         <is>
@@ -63118,7 +63118,7 @@
         <v>45098</v>
       </c>
       <c r="C994" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D994" t="inlineStr">
         <is>
@@ -63180,7 +63180,7 @@
         <v>45099</v>
       </c>
       <c r="C995" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D995" t="inlineStr">
         <is>
@@ -63237,7 +63237,7 @@
         <v>45099</v>
       </c>
       <c r="C996" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D996" t="inlineStr">
         <is>
@@ -63294,7 +63294,7 @@
         <v>45099</v>
       </c>
       <c r="C997" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D997" t="inlineStr">
         <is>
@@ -63351,7 +63351,7 @@
         <v>45099</v>
       </c>
       <c r="C998" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D998" t="inlineStr">
         <is>
@@ -63408,7 +63408,7 @@
         <v>45099</v>
       </c>
       <c r="C999" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D999" t="inlineStr">
         <is>
@@ -63465,7 +63465,7 @@
         <v>45104</v>
       </c>
       <c r="C1000" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D1000" t="inlineStr">
         <is>
@@ -63522,7 +63522,7 @@
         <v>45105</v>
       </c>
       <c r="C1001" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D1001" t="inlineStr">
         <is>
@@ -63579,7 +63579,7 @@
         <v>45106</v>
       </c>
       <c r="C1002" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D1002" t="inlineStr">
         <is>
@@ -63636,7 +63636,7 @@
         <v>45107</v>
       </c>
       <c r="C1003" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D1003" t="inlineStr">
         <is>
@@ -63693,7 +63693,7 @@
         <v>45107</v>
       </c>
       <c r="C1004" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D1004" t="inlineStr">
         <is>
@@ -63750,7 +63750,7 @@
         <v>45107</v>
       </c>
       <c r="C1005" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D1005" t="inlineStr">
         <is>
@@ -63812,7 +63812,7 @@
         <v>45107</v>
       </c>
       <c r="C1006" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D1006" t="inlineStr">
         <is>
@@ -63869,7 +63869,7 @@
         <v>45107</v>
       </c>
       <c r="C1007" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D1007" t="inlineStr">
         <is>
@@ -63926,7 +63926,7 @@
         <v>45110</v>
       </c>
       <c r="C1008" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D1008" t="inlineStr">
         <is>
@@ -63983,7 +63983,7 @@
         <v>45110</v>
       </c>
       <c r="C1009" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D1009" t="inlineStr">
         <is>
@@ -64045,7 +64045,7 @@
         <v>45112</v>
       </c>
       <c r="C1010" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D1010" t="inlineStr">
         <is>
@@ -64102,7 +64102,7 @@
         <v>45112</v>
       </c>
       <c r="C1011" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D1011" t="inlineStr">
         <is>
@@ -64164,7 +64164,7 @@
         <v>45113</v>
       </c>
       <c r="C1012" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D1012" t="inlineStr">
         <is>
@@ -64221,7 +64221,7 @@
         <v>45113</v>
       </c>
       <c r="C1013" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D1013" t="inlineStr">
         <is>
@@ -64278,7 +64278,7 @@
         <v>45114</v>
       </c>
       <c r="C1014" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D1014" t="inlineStr">
         <is>
@@ -64340,7 +64340,7 @@
         <v>45118</v>
       </c>
       <c r="C1015" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D1015" t="inlineStr">
         <is>
@@ -64397,7 +64397,7 @@
         <v>45118</v>
       </c>
       <c r="C1016" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D1016" t="inlineStr">
         <is>
@@ -64454,7 +64454,7 @@
         <v>45119</v>
       </c>
       <c r="C1017" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D1017" t="inlineStr">
         <is>
@@ -64511,7 +64511,7 @@
         <v>45119</v>
       </c>
       <c r="C1018" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D1018" t="inlineStr">
         <is>
@@ -64568,7 +64568,7 @@
         <v>45121</v>
       </c>
       <c r="C1019" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D1019" t="inlineStr">
         <is>
@@ -64630,7 +64630,7 @@
         <v>45124</v>
       </c>
       <c r="C1020" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D1020" t="inlineStr">
         <is>
@@ -64692,7 +64692,7 @@
         <v>45125</v>
       </c>
       <c r="C1021" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D1021" t="inlineStr">
         <is>
@@ -64749,7 +64749,7 @@
         <v>45125</v>
       </c>
       <c r="C1022" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D1022" t="inlineStr">
         <is>
@@ -64806,7 +64806,7 @@
         <v>45125</v>
       </c>
       <c r="C1023" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D1023" t="inlineStr">
         <is>
@@ -64868,7 +64868,7 @@
         <v>45125</v>
       </c>
       <c r="C1024" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D1024" t="inlineStr">
         <is>
@@ -64925,7 +64925,7 @@
         <v>45127</v>
       </c>
       <c r="C1025" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D1025" t="inlineStr">
         <is>
@@ -64987,7 +64987,7 @@
         <v>45127</v>
       </c>
       <c r="C1026" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D1026" t="inlineStr">
         <is>
@@ -65049,7 +65049,7 @@
         <v>45127</v>
       </c>
       <c r="C1027" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D1027" t="inlineStr">
         <is>
@@ -65106,7 +65106,7 @@
         <v>45127</v>
       </c>
       <c r="C1028" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D1028" t="inlineStr">
         <is>
@@ -65168,7 +65168,7 @@
         <v>45141</v>
       </c>
       <c r="C1029" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D1029" t="inlineStr">
         <is>
@@ -65225,7 +65225,7 @@
         <v>45142</v>
       </c>
       <c r="C1030" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D1030" t="inlineStr">
         <is>
@@ -65282,7 +65282,7 @@
         <v>45145</v>
       </c>
       <c r="C1031" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D1031" t="inlineStr">
         <is>
@@ -65339,7 +65339,7 @@
         <v>45145</v>
       </c>
       <c r="C1032" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D1032" t="inlineStr">
         <is>
@@ -65396,7 +65396,7 @@
         <v>45147</v>
       </c>
       <c r="C1033" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D1033" t="inlineStr">
         <is>
@@ -65453,7 +65453,7 @@
         <v>45148</v>
       </c>
       <c r="C1034" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D1034" t="inlineStr">
         <is>
@@ -65510,7 +65510,7 @@
         <v>45148</v>
       </c>
       <c r="C1035" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D1035" t="inlineStr">
         <is>
@@ -65567,7 +65567,7 @@
         <v>45159</v>
       </c>
       <c r="C1036" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D1036" t="inlineStr">
         <is>
@@ -65629,7 +65629,7 @@
         <v>45159</v>
       </c>
       <c r="C1037" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D1037" t="inlineStr">
         <is>
@@ -65691,7 +65691,7 @@
         <v>45160</v>
       </c>
       <c r="C1038" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D1038" t="inlineStr">
         <is>
@@ -65753,7 +65753,7 @@
         <v>45160</v>
       </c>
       <c r="C1039" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D1039" t="inlineStr">
         <is>
@@ -65815,7 +65815,7 @@
         <v>45162</v>
       </c>
       <c r="C1040" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D1040" t="inlineStr">
         <is>
@@ -65872,7 +65872,7 @@
         <v>45167</v>
       </c>
       <c r="C1041" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D1041" t="inlineStr">
         <is>
@@ -65929,7 +65929,7 @@
         <v>45168</v>
       </c>
       <c r="C1042" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D1042" t="inlineStr">
         <is>
@@ -65991,7 +65991,7 @@
         <v>45173</v>
       </c>
       <c r="C1043" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D1043" t="inlineStr">
         <is>

--- a/Översikt LJUSDAL.xlsx
+++ b/Översikt LJUSDAL.xlsx
@@ -572,7 +572,7 @@
         <v>44358</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -675,7 +675,7 @@
         <v>43922</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -781,7 +781,7 @@
         <v>44449</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -881,7 +881,7 @@
         <v>43354</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         <v>43798</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1081,7 +1081,7 @@
         <v>43872</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1174,7 +1174,7 @@
         <v>44722</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1271,7 +1271,7 @@
         <v>44743</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1369,7 +1369,7 @@
         <v>44194</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1465,7 +1465,7 @@
         <v>45096</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1557,7 +1557,7 @@
         <v>43343</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1648,7 +1648,7 @@
         <v>44869</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1744,7 +1744,7 @@
         <v>44687</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1843,7 +1843,7 @@
         <v>44687</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1942,7 +1942,7 @@
         <v>44700</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2037,7 +2037,7 @@
         <v>43711</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2131,7 +2131,7 @@
         <v>44530</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2224,7 +2224,7 @@
         <v>44755</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2322,7 +2322,7 @@
         <v>44774</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2420,7 +2420,7 @@
         <v>44775</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2514,7 +2514,7 @@
         <v>44902</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2607,7 +2607,7 @@
         <v>45089</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2700,7 +2700,7 @@
         <v>45090</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2793,7 +2793,7 @@
         <v>43367</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2881,7 +2881,7 @@
         <v>43432</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2974,7 +2974,7 @@
         <v>43872</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3062,7 +3062,7 @@
         <v>44449</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3155,7 +3155,7 @@
         <v>44686</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3247,7 +3247,7 @@
         <v>45072</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3339,7 +3339,7 @@
         <v>45093</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3432,7 +3432,7 @@
         <v>43357</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3519,7 +3519,7 @@
         <v>43628</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3615,7 +3615,7 @@
         <v>43852</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3711,7 +3711,7 @@
         <v>43872</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3798,7 +3798,7 @@
         <v>43977</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3890,7 +3890,7 @@
         <v>44137</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3981,7 +3981,7 @@
         <v>44148</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4073,7 +4073,7 @@
         <v>44152</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4165,7 +4165,7 @@
         <v>44169</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4257,7 +4257,7 @@
         <v>44326</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4349,7 +4349,7 @@
         <v>44706</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4441,7 +4441,7 @@
         <v>44708</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4533,7 +4533,7 @@
         <v>44734</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4625,7 +4625,7 @@
         <v>44821</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4717,7 +4717,7 @@
         <v>44998</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4808,7 +4808,7 @@
         <v>43338</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4894,7 +4894,7 @@
         <v>43354</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4985,7 +4985,7 @@
         <v>43377</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5071,7 +5071,7 @@
         <v>43381</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5162,7 +5162,7 @@
         <v>43476</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5248,7 +5248,7 @@
         <v>43629</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5343,7 +5343,7 @@
         <v>43977</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5434,7 +5434,7 @@
         <v>44322</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5525,7 +5525,7 @@
         <v>44351</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5616,7 +5616,7 @@
         <v>44357</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5707,7 +5707,7 @@
         <v>44438</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5798,7 +5798,7 @@
         <v>44722</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5893,7 +5893,7 @@
         <v>44988</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5979,7 +5979,7 @@
         <v>45092</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6070,7 +6070,7 @@
         <v>45110</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6161,7 +6161,7 @@
         <v>43347</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6246,7 +6246,7 @@
         <v>43355</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6336,7 +6336,7 @@
         <v>43367</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6421,7 +6421,7 @@
         <v>43385</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6511,7 +6511,7 @@
         <v>43385</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6601,7 +6601,7 @@
         <v>43389</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6691,7 +6691,7 @@
         <v>43445</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6781,7 +6781,7 @@
         <v>43481</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6866,7 +6866,7 @@
         <v>43557</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6951,7 +6951,7 @@
         <v>43811</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7036,7 +7036,7 @@
         <v>43872</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7121,7 +7121,7 @@
         <v>43936</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7206,7 +7206,7 @@
         <v>43979</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7296,7 +7296,7 @@
         <v>44062</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7390,7 +7390,7 @@
         <v>44069</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7480,7 +7480,7 @@
         <v>44342</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7569,7 +7569,7 @@
         <v>44379</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7659,7 +7659,7 @@
         <v>44405</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7753,7 +7753,7 @@
         <v>44406</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7843,7 +7843,7 @@
         <v>44432</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7933,7 +7933,7 @@
         <v>44438</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8023,7 +8023,7 @@
         <v>44449</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8113,7 +8113,7 @@
         <v>44480</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8198,7 +8198,7 @@
         <v>44489</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8288,7 +8288,7 @@
         <v>44491</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8382,7 +8382,7 @@
         <v>44662</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8476,7 +8476,7 @@
         <v>44684</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8566,7 +8566,7 @@
         <v>44742</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8656,7 +8656,7 @@
         <v>44743</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8746,7 +8746,7 @@
         <v>44763</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8836,7 +8836,7 @@
         <v>44778</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8926,7 +8926,7 @@
         <v>44784</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -9016,7 +9016,7 @@
         <v>44833</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -9101,7 +9101,7 @@
         <v>44839</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9191,7 +9191,7 @@
         <v>44988</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9276,7 +9276,7 @@
         <v>45086</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9365,7 +9365,7 @@
         <v>45090</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9455,7 +9455,7 @@
         <v>45092</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9545,7 +9545,7 @@
         <v>45107</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9630,7 +9630,7 @@
         <v>45162</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9719,7 +9719,7 @@
         <v>43319</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -9781,7 +9781,7 @@
         <v>43320</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -9838,7 +9838,7 @@
         <v>43329</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9895,7 +9895,7 @@
         <v>43329</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9957,7 +9957,7 @@
         <v>43329</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -10014,7 +10014,7 @@
         <v>43329</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -10071,7 +10071,7 @@
         <v>43329</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -10128,7 +10128,7 @@
         <v>43333</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -10185,7 +10185,7 @@
         <v>43334</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -10242,7 +10242,7 @@
         <v>43342</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -10304,7 +10304,7 @@
         <v>43347</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -10361,7 +10361,7 @@
         <v>43348</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -10418,7 +10418,7 @@
         <v>43348</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -10480,7 +10480,7 @@
         <v>43349</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -10537,7 +10537,7 @@
         <v>43349</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -10594,7 +10594,7 @@
         <v>43349</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -10651,7 +10651,7 @@
         <v>43353</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -10708,7 +10708,7 @@
         <v>43353</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -10765,7 +10765,7 @@
         <v>43354</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -10827,7 +10827,7 @@
         <v>43355</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -10889,7 +10889,7 @@
         <v>43355</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -10951,7 +10951,7 @@
         <v>43369</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -11008,7 +11008,7 @@
         <v>43369</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -11070,7 +11070,7 @@
         <v>43370</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -11132,7 +11132,7 @@
         <v>43376</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -11189,7 +11189,7 @@
         <v>43377</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -11251,7 +11251,7 @@
         <v>43381</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -11308,7 +11308,7 @@
         <v>43381</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -11365,7 +11365,7 @@
         <v>43381</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -11422,7 +11422,7 @@
         <v>43381</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -11479,7 +11479,7 @@
         <v>43382</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -11541,7 +11541,7 @@
         <v>43382</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -11603,7 +11603,7 @@
         <v>43385</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -11665,7 +11665,7 @@
         <v>43385</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -11727,7 +11727,7 @@
         <v>43389</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -11789,7 +11789,7 @@
         <v>43391</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -11846,7 +11846,7 @@
         <v>43391</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -11903,7 +11903,7 @@
         <v>43395</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -11960,7 +11960,7 @@
         <v>43403</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -12022,7 +12022,7 @@
         <v>43409</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -12079,7 +12079,7 @@
         <v>43409</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -12136,7 +12136,7 @@
         <v>43410</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -12193,7 +12193,7 @@
         <v>43410</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -12255,7 +12255,7 @@
         <v>43410</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -12317,7 +12317,7 @@
         <v>43411</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -12374,7 +12374,7 @@
         <v>43412</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -12431,7 +12431,7 @@
         <v>43412</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -12488,7 +12488,7 @@
         <v>43412</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -12545,7 +12545,7 @@
         <v>43416</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -12607,7 +12607,7 @@
         <v>43416</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -12669,7 +12669,7 @@
         <v>43419</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -12726,7 +12726,7 @@
         <v>43419</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -12783,7 +12783,7 @@
         <v>43420</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -12840,7 +12840,7 @@
         <v>43420</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -12897,7 +12897,7 @@
         <v>43424</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -12954,7 +12954,7 @@
         <v>43425</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -13016,7 +13016,7 @@
         <v>43425</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -13073,7 +13073,7 @@
         <v>43425</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -13135,7 +13135,7 @@
         <v>43425</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -13192,7 +13192,7 @@
         <v>43427</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -13254,7 +13254,7 @@
         <v>43430</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -13316,7 +13316,7 @@
         <v>43431</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -13378,7 +13378,7 @@
         <v>43431</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -13435,7 +13435,7 @@
         <v>43432</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -13497,7 +13497,7 @@
         <v>43432</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -13554,7 +13554,7 @@
         <v>43432</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -13616,7 +13616,7 @@
         <v>43434</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -13678,7 +13678,7 @@
         <v>43437</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -13740,7 +13740,7 @@
         <v>43438</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -13802,7 +13802,7 @@
         <v>43439</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -13859,7 +13859,7 @@
         <v>43439</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -13916,7 +13916,7 @@
         <v>43439</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -13973,7 +13973,7 @@
         <v>43441</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -14035,7 +14035,7 @@
         <v>43441</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -14092,7 +14092,7 @@
         <v>43444</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -14149,7 +14149,7 @@
         <v>43444</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -14206,7 +14206,7 @@
         <v>43444</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -14263,7 +14263,7 @@
         <v>43444</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -14320,7 +14320,7 @@
         <v>43445</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -14382,7 +14382,7 @@
         <v>43445</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -14444,7 +14444,7 @@
         <v>43448</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -14506,7 +14506,7 @@
         <v>43448</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -14568,7 +14568,7 @@
         <v>43448</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -14630,7 +14630,7 @@
         <v>43449</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -14687,7 +14687,7 @@
         <v>43452</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -14744,7 +14744,7 @@
         <v>43452</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -14806,7 +14806,7 @@
         <v>43453</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -14863,7 +14863,7 @@
         <v>43455</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -14925,7 +14925,7 @@
         <v>43455</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -14982,7 +14982,7 @@
         <v>43468</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -15039,7 +15039,7 @@
         <v>43469</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -15096,7 +15096,7 @@
         <v>43472</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -15153,7 +15153,7 @@
         <v>43472</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -15215,7 +15215,7 @@
         <v>43472</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -15277,7 +15277,7 @@
         <v>43474</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -15339,7 +15339,7 @@
         <v>43481</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -15396,7 +15396,7 @@
         <v>43483</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -15453,7 +15453,7 @@
         <v>43486</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -15515,7 +15515,7 @@
         <v>43487</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -15572,7 +15572,7 @@
         <v>43489</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -15629,7 +15629,7 @@
         <v>43490</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -15691,7 +15691,7 @@
         <v>43493</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -15748,7 +15748,7 @@
         <v>43497</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -15810,7 +15810,7 @@
         <v>43501</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -15867,7 +15867,7 @@
         <v>43508</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -15924,7 +15924,7 @@
         <v>43508</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -15981,7 +15981,7 @@
         <v>43510</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -16038,7 +16038,7 @@
         <v>43510</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -16095,7 +16095,7 @@
         <v>43514</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -16152,7 +16152,7 @@
         <v>43514</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -16209,7 +16209,7 @@
         <v>43515</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -16271,7 +16271,7 @@
         <v>43516</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -16328,7 +16328,7 @@
         <v>43516</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -16385,7 +16385,7 @@
         <v>43517</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -16442,7 +16442,7 @@
         <v>43517</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -16499,7 +16499,7 @@
         <v>43521</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -16556,7 +16556,7 @@
         <v>43521</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -16613,7 +16613,7 @@
         <v>43524</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -16670,7 +16670,7 @@
         <v>43524</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -16727,7 +16727,7 @@
         <v>43524</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -16784,7 +16784,7 @@
         <v>43525</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -16841,7 +16841,7 @@
         <v>43525</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -16898,7 +16898,7 @@
         <v>43528</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -16955,7 +16955,7 @@
         <v>43535</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -17012,7 +17012,7 @@
         <v>43536</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -17069,7 +17069,7 @@
         <v>43542</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -17126,7 +17126,7 @@
         <v>43549</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -17183,7 +17183,7 @@
         <v>43549</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -17240,7 +17240,7 @@
         <v>43550</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -17297,7 +17297,7 @@
         <v>43552</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -17354,7 +17354,7 @@
         <v>43552</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -17411,7 +17411,7 @@
         <v>43552</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -17468,7 +17468,7 @@
         <v>43557</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -17525,7 +17525,7 @@
         <v>43557</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -17587,7 +17587,7 @@
         <v>43578</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -17664,7 +17664,7 @@
         <v>43581</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -17726,7 +17726,7 @@
         <v>43584</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -17788,7 +17788,7 @@
         <v>43600</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -17850,7 +17850,7 @@
         <v>43600</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -17912,7 +17912,7 @@
         <v>43601</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -17969,7 +17969,7 @@
         <v>43601</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -18026,7 +18026,7 @@
         <v>43605</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -18083,7 +18083,7 @@
         <v>43607</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -18140,7 +18140,7 @@
         <v>43612</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -18202,7 +18202,7 @@
         <v>43613</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -18264,7 +18264,7 @@
         <v>43616</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -18326,7 +18326,7 @@
         <v>43619</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -18383,7 +18383,7 @@
         <v>43619</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -18445,7 +18445,7 @@
         <v>43619</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -18507,7 +18507,7 @@
         <v>43619</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -18569,7 +18569,7 @@
         <v>43619</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -18631,7 +18631,7 @@
         <v>43620</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -18688,7 +18688,7 @@
         <v>43628</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -18745,7 +18745,7 @@
         <v>43628</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -18807,7 +18807,7 @@
         <v>43628</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -18869,7 +18869,7 @@
         <v>43629</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -18926,7 +18926,7 @@
         <v>43629</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -18988,7 +18988,7 @@
         <v>43630</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -19050,7 +19050,7 @@
         <v>43630</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -19112,7 +19112,7 @@
         <v>43636</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -19174,7 +19174,7 @@
         <v>43636</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -19236,7 +19236,7 @@
         <v>43641</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -19293,7 +19293,7 @@
         <v>43642</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -19355,7 +19355,7 @@
         <v>43642</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -19417,7 +19417,7 @@
         <v>43644</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -19474,7 +19474,7 @@
         <v>43650</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -19531,7 +19531,7 @@
         <v>43651</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -19593,7 +19593,7 @@
         <v>43651</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -19655,7 +19655,7 @@
         <v>43655</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -19712,7 +19712,7 @@
         <v>43656</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -19769,7 +19769,7 @@
         <v>43661</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -19826,7 +19826,7 @@
         <v>43661</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -19883,7 +19883,7 @@
         <v>43661</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -19940,7 +19940,7 @@
         <v>43662</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -20002,7 +20002,7 @@
         <v>43663</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -20059,7 +20059,7 @@
         <v>43663</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -20116,7 +20116,7 @@
         <v>43665</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -20173,7 +20173,7 @@
         <v>43665</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -20235,7 +20235,7 @@
         <v>43668</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -20292,7 +20292,7 @@
         <v>43668</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -20354,7 +20354,7 @@
         <v>43669</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -20411,7 +20411,7 @@
         <v>43677</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -20468,7 +20468,7 @@
         <v>43679</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -20525,7 +20525,7 @@
         <v>43679</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -20582,7 +20582,7 @@
         <v>43686</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -20639,7 +20639,7 @@
         <v>43691</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -20696,7 +20696,7 @@
         <v>43692</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -20753,7 +20753,7 @@
         <v>43693</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -20815,7 +20815,7 @@
         <v>43693</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -20877,7 +20877,7 @@
         <v>43693</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -20939,7 +20939,7 @@
         <v>43697</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -21001,7 +21001,7 @@
         <v>43698</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -21058,7 +21058,7 @@
         <v>43698</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -21120,7 +21120,7 @@
         <v>43700</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -21177,7 +21177,7 @@
         <v>43700</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -21239,7 +21239,7 @@
         <v>43700</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -21296,7 +21296,7 @@
         <v>43704</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -21353,7 +21353,7 @@
         <v>43705</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -21415,7 +21415,7 @@
         <v>43710</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -21477,7 +21477,7 @@
         <v>43710</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -21539,7 +21539,7 @@
         <v>43710</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -21601,7 +21601,7 @@
         <v>43712</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -21658,7 +21658,7 @@
         <v>43713</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -21720,7 +21720,7 @@
         <v>43714</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -21782,7 +21782,7 @@
         <v>43714</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -21844,7 +21844,7 @@
         <v>43717</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -21901,7 +21901,7 @@
         <v>43719</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -21963,7 +21963,7 @@
         <v>43720</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -22025,7 +22025,7 @@
         <v>43721</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -22082,7 +22082,7 @@
         <v>43721</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -22139,7 +22139,7 @@
         <v>43721</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -22196,7 +22196,7 @@
         <v>43726</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -22258,7 +22258,7 @@
         <v>43726</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -22320,7 +22320,7 @@
         <v>43727</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -22382,7 +22382,7 @@
         <v>43728</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -22444,7 +22444,7 @@
         <v>43731</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -22501,7 +22501,7 @@
         <v>43732</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -22563,7 +22563,7 @@
         <v>43732</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -22625,7 +22625,7 @@
         <v>43734</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -22682,7 +22682,7 @@
         <v>43735</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -22739,7 +22739,7 @@
         <v>43738</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -22796,7 +22796,7 @@
         <v>43738</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -22853,7 +22853,7 @@
         <v>43741</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -22915,7 +22915,7 @@
         <v>43742</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -22972,7 +22972,7 @@
         <v>43745</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -23029,7 +23029,7 @@
         <v>43745</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -23091,7 +23091,7 @@
         <v>43746</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -23148,7 +23148,7 @@
         <v>43747</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -23210,7 +23210,7 @@
         <v>43748</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -23272,7 +23272,7 @@
         <v>43749</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -23334,7 +23334,7 @@
         <v>43754</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -23396,7 +23396,7 @@
         <v>43754</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -23458,7 +23458,7 @@
         <v>43755</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -23520,7 +23520,7 @@
         <v>43755</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -23582,7 +23582,7 @@
         <v>43759</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -23644,7 +23644,7 @@
         <v>43759</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -23701,7 +23701,7 @@
         <v>43760</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -23763,7 +23763,7 @@
         <v>43763</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -23820,7 +23820,7 @@
         <v>43763</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -23877,7 +23877,7 @@
         <v>43767</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -23939,7 +23939,7 @@
         <v>43774</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -23996,7 +23996,7 @@
         <v>43774</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -24053,7 +24053,7 @@
         <v>43775</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -24110,7 +24110,7 @@
         <v>43775</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -24167,7 +24167,7 @@
         <v>43776</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -24224,7 +24224,7 @@
         <v>43776</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -24281,7 +24281,7 @@
         <v>43777</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -24343,7 +24343,7 @@
         <v>43781</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -24405,7 +24405,7 @@
         <v>43781</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -24467,7 +24467,7 @@
         <v>43782</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -24524,7 +24524,7 @@
         <v>43782</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -24581,7 +24581,7 @@
         <v>43784</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -24643,7 +24643,7 @@
         <v>43787</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -24705,7 +24705,7 @@
         <v>43787</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -24767,7 +24767,7 @@
         <v>43789</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -24829,7 +24829,7 @@
         <v>43789</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -24891,7 +24891,7 @@
         <v>43791</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -24953,7 +24953,7 @@
         <v>43791</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -25015,7 +25015,7 @@
         <v>43791</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -25077,7 +25077,7 @@
         <v>43794</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -25134,7 +25134,7 @@
         <v>43794</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -25191,7 +25191,7 @@
         <v>43797</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -25248,7 +25248,7 @@
         <v>43801</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -25310,7 +25310,7 @@
         <v>43802</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -25367,7 +25367,7 @@
         <v>43802</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -25424,7 +25424,7 @@
         <v>43808</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -25481,7 +25481,7 @@
         <v>43810</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -25543,7 +25543,7 @@
         <v>43810</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -25605,7 +25605,7 @@
         <v>43815</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -25662,7 +25662,7 @@
         <v>43815</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -25719,7 +25719,7 @@
         <v>43816</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -25776,7 +25776,7 @@
         <v>43837</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -25833,7 +25833,7 @@
         <v>43838</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -25890,7 +25890,7 @@
         <v>43840</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -25952,7 +25952,7 @@
         <v>43850</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -26009,7 +26009,7 @@
         <v>43850</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -26066,7 +26066,7 @@
         <v>43850</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -26123,7 +26123,7 @@
         <v>43850</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -26180,7 +26180,7 @@
         <v>43851</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -26237,7 +26237,7 @@
         <v>43851</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -26294,7 +26294,7 @@
         <v>43858</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -26351,7 +26351,7 @@
         <v>43861</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -26408,7 +26408,7 @@
         <v>43865</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -26465,7 +26465,7 @@
         <v>43866</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -26522,7 +26522,7 @@
         <v>43879</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -26579,7 +26579,7 @@
         <v>43882</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -26636,7 +26636,7 @@
         <v>43885</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -26693,7 +26693,7 @@
         <v>43886</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -26750,7 +26750,7 @@
         <v>43886</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -26807,7 +26807,7 @@
         <v>43892</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -26864,7 +26864,7 @@
         <v>43892</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -26921,7 +26921,7 @@
         <v>43894</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -26983,7 +26983,7 @@
         <v>43902</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -27045,7 +27045,7 @@
         <v>43903</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -27102,7 +27102,7 @@
         <v>43908</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -27159,7 +27159,7 @@
         <v>43913</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -27216,7 +27216,7 @@
         <v>43913</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -27273,7 +27273,7 @@
         <v>43922</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -27335,7 +27335,7 @@
         <v>43924</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -27392,7 +27392,7 @@
         <v>43924</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -27449,7 +27449,7 @@
         <v>43930</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -27506,7 +27506,7 @@
         <v>43935</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -27568,7 +27568,7 @@
         <v>43943</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -27625,7 +27625,7 @@
         <v>43943</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -27682,7 +27682,7 @@
         <v>43943</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -27739,7 +27739,7 @@
         <v>43944</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -27796,7 +27796,7 @@
         <v>43944</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -27853,7 +27853,7 @@
         <v>43945</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -27910,7 +27910,7 @@
         <v>43945</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -27972,7 +27972,7 @@
         <v>43945</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -28029,7 +28029,7 @@
         <v>43945</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -28091,7 +28091,7 @@
         <v>43949</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -28153,7 +28153,7 @@
         <v>43951</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -28215,7 +28215,7 @@
         <v>43951</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -28277,7 +28277,7 @@
         <v>43951</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -28339,7 +28339,7 @@
         <v>43951</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -28401,7 +28401,7 @@
         <v>43951</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -28458,7 +28458,7 @@
         <v>43955</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -28520,7 +28520,7 @@
         <v>43959</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -28582,7 +28582,7 @@
         <v>43959</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -28644,7 +28644,7 @@
         <v>43959</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -28706,7 +28706,7 @@
         <v>43959</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -28768,7 +28768,7 @@
         <v>43962</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -28830,7 +28830,7 @@
         <v>43962</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -28892,7 +28892,7 @@
         <v>43962</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -28954,7 +28954,7 @@
         <v>43962</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -29016,7 +29016,7 @@
         <v>43964</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -29078,7 +29078,7 @@
         <v>43965</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -29140,7 +29140,7 @@
         <v>43965</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -29202,7 +29202,7 @@
         <v>43966</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -29264,7 +29264,7 @@
         <v>43966</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -29326,7 +29326,7 @@
         <v>43966</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -29388,7 +29388,7 @@
         <v>43969</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -29450,7 +29450,7 @@
         <v>43971</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -29512,7 +29512,7 @@
         <v>43971</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -29574,7 +29574,7 @@
         <v>43971</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -29636,7 +29636,7 @@
         <v>43977</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -29698,7 +29698,7 @@
         <v>43978</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -29755,7 +29755,7 @@
         <v>43979</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -29817,7 +29817,7 @@
         <v>43979</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -29879,7 +29879,7 @@
         <v>43979</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -29941,7 +29941,7 @@
         <v>43979</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -30003,7 +30003,7 @@
         <v>43979</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -30065,7 +30065,7 @@
         <v>43986</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -30122,7 +30122,7 @@
         <v>43990</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -30184,7 +30184,7 @@
         <v>43990</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -30246,7 +30246,7 @@
         <v>43991</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -30308,7 +30308,7 @@
         <v>43993</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -30370,7 +30370,7 @@
         <v>44000</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -30432,7 +30432,7 @@
         <v>44000</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -30494,7 +30494,7 @@
         <v>44005</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -30556,7 +30556,7 @@
         <v>44005</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -30618,7 +30618,7 @@
         <v>44006</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -30675,7 +30675,7 @@
         <v>44007</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -30737,7 +30737,7 @@
         <v>44007</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -30799,7 +30799,7 @@
         <v>44008</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -30861,7 +30861,7 @@
         <v>44008</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -30923,7 +30923,7 @@
         <v>44014</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -30985,7 +30985,7 @@
         <v>44014</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -31047,7 +31047,7 @@
         <v>44014</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -31109,7 +31109,7 @@
         <v>44022</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -31171,7 +31171,7 @@
         <v>44022</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -31228,7 +31228,7 @@
         <v>44025</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -31285,7 +31285,7 @@
         <v>44026</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -31347,7 +31347,7 @@
         <v>44027</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -31404,7 +31404,7 @@
         <v>44028</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -31466,7 +31466,7 @@
         <v>44029</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -31528,7 +31528,7 @@
         <v>44029</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -31590,7 +31590,7 @@
         <v>44031</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -31652,7 +31652,7 @@
         <v>44032</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -31709,7 +31709,7 @@
         <v>44032</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -31771,7 +31771,7 @@
         <v>44032</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -31833,7 +31833,7 @@
         <v>44033</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -31890,7 +31890,7 @@
         <v>44041</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -31952,7 +31952,7 @@
         <v>44041</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -32014,7 +32014,7 @@
         <v>44041</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -32076,7 +32076,7 @@
         <v>44042</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -32138,7 +32138,7 @@
         <v>44049</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -32200,7 +32200,7 @@
         <v>44049</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -32262,7 +32262,7 @@
         <v>44053</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -32319,7 +32319,7 @@
         <v>44056</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -32381,7 +32381,7 @@
         <v>44057</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -32443,7 +32443,7 @@
         <v>44060</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -32505,7 +32505,7 @@
         <v>44061</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -32562,7 +32562,7 @@
         <v>44061</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -32619,7 +32619,7 @@
         <v>44061</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -32676,7 +32676,7 @@
         <v>44061</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -32738,7 +32738,7 @@
         <v>44062</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -32800,7 +32800,7 @@
         <v>44064</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -32862,7 +32862,7 @@
         <v>44064</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -32924,7 +32924,7 @@
         <v>44064</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -32986,7 +32986,7 @@
         <v>44064</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -33048,7 +33048,7 @@
         <v>44067</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -33110,7 +33110,7 @@
         <v>44068</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -33172,7 +33172,7 @@
         <v>44069</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -33234,7 +33234,7 @@
         <v>44069</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -33296,7 +33296,7 @@
         <v>44069</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -33358,7 +33358,7 @@
         <v>44069</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -33420,7 +33420,7 @@
         <v>44070</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -33477,7 +33477,7 @@
         <v>44074</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -33539,7 +33539,7 @@
         <v>44074</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -33601,7 +33601,7 @@
         <v>44075</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -33663,7 +33663,7 @@
         <v>44075</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -33725,7 +33725,7 @@
         <v>44075</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -33787,7 +33787,7 @@
         <v>44078</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -33844,7 +33844,7 @@
         <v>44078</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -33901,7 +33901,7 @@
         <v>44078</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -33963,7 +33963,7 @@
         <v>44080</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -34025,7 +34025,7 @@
         <v>44081</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -34087,7 +34087,7 @@
         <v>44081</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -34149,7 +34149,7 @@
         <v>44082</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -34211,7 +34211,7 @@
         <v>44082</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -34268,7 +34268,7 @@
         <v>44082</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -34330,7 +34330,7 @@
         <v>44083</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -34387,7 +34387,7 @@
         <v>44084</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -34449,7 +34449,7 @@
         <v>44085</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -34511,7 +34511,7 @@
         <v>44085</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -34573,7 +34573,7 @@
         <v>44085</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -34635,7 +34635,7 @@
         <v>44085</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -34697,7 +34697,7 @@
         <v>44085</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -34754,7 +34754,7 @@
         <v>44088</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -34816,7 +34816,7 @@
         <v>44088</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -34878,7 +34878,7 @@
         <v>44088</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -34940,7 +34940,7 @@
         <v>44088</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -35002,7 +35002,7 @@
         <v>44091</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -35064,7 +35064,7 @@
         <v>44092</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -35126,7 +35126,7 @@
         <v>44092</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -35188,7 +35188,7 @@
         <v>44092</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -35250,7 +35250,7 @@
         <v>44095</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -35307,7 +35307,7 @@
         <v>44099</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -35369,7 +35369,7 @@
         <v>44099</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -35431,7 +35431,7 @@
         <v>44099</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -35493,7 +35493,7 @@
         <v>44103</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -35555,7 +35555,7 @@
         <v>44103</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -35617,7 +35617,7 @@
         <v>44104</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -35679,7 +35679,7 @@
         <v>44104</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -35741,7 +35741,7 @@
         <v>44104</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -35803,7 +35803,7 @@
         <v>44108</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -35860,7 +35860,7 @@
         <v>44109</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -35922,7 +35922,7 @@
         <v>44109</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -35984,7 +35984,7 @@
         <v>44110</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -36046,7 +36046,7 @@
         <v>44111</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -36108,7 +36108,7 @@
         <v>44112</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -36170,7 +36170,7 @@
         <v>44112</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -36227,7 +36227,7 @@
         <v>44112</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -36289,7 +36289,7 @@
         <v>44116</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -36351,7 +36351,7 @@
         <v>44116</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -36413,7 +36413,7 @@
         <v>44116</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -36470,7 +36470,7 @@
         <v>44116</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -36532,7 +36532,7 @@
         <v>44116</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -36594,7 +36594,7 @@
         <v>44117</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -36656,7 +36656,7 @@
         <v>44119</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -36718,7 +36718,7 @@
         <v>44119</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -36780,7 +36780,7 @@
         <v>44119</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -36842,7 +36842,7 @@
         <v>44120</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -36904,7 +36904,7 @@
         <v>44123</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -36966,7 +36966,7 @@
         <v>44124</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -37028,7 +37028,7 @@
         <v>44124</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -37085,7 +37085,7 @@
         <v>44125</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -37142,7 +37142,7 @@
         <v>44125</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -37204,7 +37204,7 @@
         <v>44125</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -37266,7 +37266,7 @@
         <v>44125</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -37328,7 +37328,7 @@
         <v>44126</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -37390,7 +37390,7 @@
         <v>44126</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -37452,7 +37452,7 @@
         <v>44126</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -37509,7 +37509,7 @@
         <v>44126</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -37571,7 +37571,7 @@
         <v>44133</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -37633,7 +37633,7 @@
         <v>44141</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -37695,7 +37695,7 @@
         <v>44144</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -37757,7 +37757,7 @@
         <v>44145</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -37819,7 +37819,7 @@
         <v>44146</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -37876,7 +37876,7 @@
         <v>44147</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -37938,7 +37938,7 @@
         <v>44148</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -38000,7 +38000,7 @@
         <v>44148</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -38062,7 +38062,7 @@
         <v>44150</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -38124,7 +38124,7 @@
         <v>44151</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -38186,7 +38186,7 @@
         <v>44159</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -38248,7 +38248,7 @@
         <v>44159</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -38305,7 +38305,7 @@
         <v>44160</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -38367,7 +38367,7 @@
         <v>44161</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -38424,7 +38424,7 @@
         <v>44162</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -38486,7 +38486,7 @@
         <v>44162</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -38548,7 +38548,7 @@
         <v>44166</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -38605,7 +38605,7 @@
         <v>44167</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -38667,7 +38667,7 @@
         <v>44179</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -38729,7 +38729,7 @@
         <v>44180</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -38791,7 +38791,7 @@
         <v>44180</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -38853,7 +38853,7 @@
         <v>44194</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -38910,7 +38910,7 @@
         <v>44194</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -38987,7 +38987,7 @@
         <v>44199</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -39044,7 +39044,7 @@
         <v>44200</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -39101,7 +39101,7 @@
         <v>44203</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -39163,7 +39163,7 @@
         <v>44208</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -39225,7 +39225,7 @@
         <v>44221</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -39282,7 +39282,7 @@
         <v>44223</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -39344,7 +39344,7 @@
         <v>44228</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -39401,7 +39401,7 @@
         <v>44229</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -39458,7 +39458,7 @@
         <v>44236</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -39515,7 +39515,7 @@
         <v>44239</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -39572,7 +39572,7 @@
         <v>44243</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -39629,7 +39629,7 @@
         <v>44250</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -39686,7 +39686,7 @@
         <v>44251</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -39743,7 +39743,7 @@
         <v>44253</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -39800,7 +39800,7 @@
         <v>44259</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -39857,7 +39857,7 @@
         <v>44265</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -39914,7 +39914,7 @@
         <v>44265</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -39971,7 +39971,7 @@
         <v>44267</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -40028,7 +40028,7 @@
         <v>44273</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -40090,7 +40090,7 @@
         <v>44273</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -40152,7 +40152,7 @@
         <v>44294</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -40214,7 +40214,7 @@
         <v>44294</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -40276,7 +40276,7 @@
         <v>44295</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -40338,7 +40338,7 @@
         <v>44302</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -40400,7 +40400,7 @@
         <v>44307</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -40457,7 +40457,7 @@
         <v>44308</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -40514,7 +40514,7 @@
         <v>44308</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -40576,7 +40576,7 @@
         <v>44309</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -40633,7 +40633,7 @@
         <v>44313</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -40695,7 +40695,7 @@
         <v>44313</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -40757,7 +40757,7 @@
         <v>44322</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -40819,7 +40819,7 @@
         <v>44322</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -40881,7 +40881,7 @@
         <v>44322</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -40943,7 +40943,7 @@
         <v>44322</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -41005,7 +41005,7 @@
         <v>44326</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -41062,7 +41062,7 @@
         <v>44326</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -41119,7 +41119,7 @@
         <v>44333</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -41176,7 +41176,7 @@
         <v>44336</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -41233,7 +41233,7 @@
         <v>44341</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -41290,7 +41290,7 @@
         <v>44341</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -41347,7 +41347,7 @@
         <v>44350</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -41409,7 +41409,7 @@
         <v>44350</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -41471,7 +41471,7 @@
         <v>44354</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -41533,7 +41533,7 @@
         <v>44358</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -41595,7 +41595,7 @@
         <v>44358</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -41657,7 +41657,7 @@
         <v>44361</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -41714,7 +41714,7 @@
         <v>44361</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -41776,7 +41776,7 @@
         <v>44361</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -41833,7 +41833,7 @@
         <v>44361</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -41890,7 +41890,7 @@
         <v>44361</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -41947,7 +41947,7 @@
         <v>44361</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -42004,7 +42004,7 @@
         <v>44363</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -42061,7 +42061,7 @@
         <v>44364</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -42118,7 +42118,7 @@
         <v>44365</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -42175,7 +42175,7 @@
         <v>44368</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -42237,7 +42237,7 @@
         <v>44368</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -42299,7 +42299,7 @@
         <v>44378</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -42361,7 +42361,7 @@
         <v>44382</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -42423,7 +42423,7 @@
         <v>44382</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -42485,7 +42485,7 @@
         <v>44382</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -42547,7 +42547,7 @@
         <v>44384</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -42609,7 +42609,7 @@
         <v>44385</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -42666,7 +42666,7 @@
         <v>44390</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -42723,7 +42723,7 @@
         <v>44391</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -42780,7 +42780,7 @@
         <v>44397</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -42842,7 +42842,7 @@
         <v>44400</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -42904,7 +42904,7 @@
         <v>44400</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -42966,7 +42966,7 @@
         <v>44400</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -43028,7 +43028,7 @@
         <v>44403</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -43090,7 +43090,7 @@
         <v>44403</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -43147,7 +43147,7 @@
         <v>44404</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -43204,7 +43204,7 @@
         <v>44406</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -43266,7 +43266,7 @@
         <v>44418</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -43328,7 +43328,7 @@
         <v>44418</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -43390,7 +43390,7 @@
         <v>44419</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -43452,7 +43452,7 @@
         <v>44425</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -43514,7 +43514,7 @@
         <v>44425</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -43576,7 +43576,7 @@
         <v>44426</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -43633,7 +43633,7 @@
         <v>44427</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -43690,7 +43690,7 @@
         <v>44428</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -43752,7 +43752,7 @@
         <v>44431</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -43809,7 +43809,7 @@
         <v>44435</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -43871,7 +43871,7 @@
         <v>44435</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -43933,7 +43933,7 @@
         <v>44435</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -43990,7 +43990,7 @@
         <v>44435</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -44052,7 +44052,7 @@
         <v>44438</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -44114,7 +44114,7 @@
         <v>44439</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -44171,7 +44171,7 @@
         <v>44440</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -44228,7 +44228,7 @@
         <v>44445</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -44290,7 +44290,7 @@
         <v>44445</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -44352,7 +44352,7 @@
         <v>44445</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -44409,7 +44409,7 @@
         <v>44447</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -44471,7 +44471,7 @@
         <v>44447</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -44528,7 +44528,7 @@
         <v>44448</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -44585,7 +44585,7 @@
         <v>44448</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -44642,7 +44642,7 @@
         <v>44449</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -44699,7 +44699,7 @@
         <v>44452</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -44761,7 +44761,7 @@
         <v>44453</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -44823,7 +44823,7 @@
         <v>44455</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -44885,7 +44885,7 @@
         <v>44460</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -44942,7 +44942,7 @@
         <v>44460</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -45004,7 +45004,7 @@
         <v>44460</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -45066,7 +45066,7 @@
         <v>44461</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -45123,7 +45123,7 @@
         <v>44466</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -45180,7 +45180,7 @@
         <v>44467</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -45242,7 +45242,7 @@
         <v>44470</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -45299,7 +45299,7 @@
         <v>44473</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -45356,7 +45356,7 @@
         <v>44475</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -45418,7 +45418,7 @@
         <v>44475</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -45480,7 +45480,7 @@
         <v>44475</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -45537,7 +45537,7 @@
         <v>44480</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -45599,7 +45599,7 @@
         <v>44481</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -45656,7 +45656,7 @@
         <v>44483</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -45718,7 +45718,7 @@
         <v>44484</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -45780,7 +45780,7 @@
         <v>44488</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -45837,7 +45837,7 @@
         <v>44489</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -45899,7 +45899,7 @@
         <v>44489</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -45961,7 +45961,7 @@
         <v>44489</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -46023,7 +46023,7 @@
         <v>44489</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -46085,7 +46085,7 @@
         <v>44490</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -46147,7 +46147,7 @@
         <v>44497</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -46209,7 +46209,7 @@
         <v>44497</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -46266,7 +46266,7 @@
         <v>44497</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -46328,7 +46328,7 @@
         <v>44497</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -46385,7 +46385,7 @@
         <v>44502</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -46442,7 +46442,7 @@
         <v>44503</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -46504,7 +46504,7 @@
         <v>44504</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -46566,7 +46566,7 @@
         <v>44510</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -46628,7 +46628,7 @@
         <v>44511</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -46690,7 +46690,7 @@
         <v>44511</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -46752,7 +46752,7 @@
         <v>44523</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -46814,7 +46814,7 @@
         <v>44523</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -46871,7 +46871,7 @@
         <v>44531</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -46928,7 +46928,7 @@
         <v>44536</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -46985,7 +46985,7 @@
         <v>44538</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -47042,7 +47042,7 @@
         <v>44544</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -47104,7 +47104,7 @@
         <v>44550</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -47166,7 +47166,7 @@
         <v>44551</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -47223,7 +47223,7 @@
         <v>44552</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -47280,7 +47280,7 @@
         <v>44552</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -47337,7 +47337,7 @@
         <v>44564</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -47394,7 +47394,7 @@
         <v>44566</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -47451,7 +47451,7 @@
         <v>44572</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -47508,7 +47508,7 @@
         <v>44579</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -47570,7 +47570,7 @@
         <v>44582</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -47627,7 +47627,7 @@
         <v>44587</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -47689,7 +47689,7 @@
         <v>44592</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -47751,7 +47751,7 @@
         <v>44595</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -47808,7 +47808,7 @@
         <v>44615</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -47865,7 +47865,7 @@
         <v>44615</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -47922,7 +47922,7 @@
         <v>44616</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -47979,7 +47979,7 @@
         <v>44621</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -48041,7 +48041,7 @@
         <v>44627</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -48098,7 +48098,7 @@
         <v>44627</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -48155,7 +48155,7 @@
         <v>44629</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -48212,7 +48212,7 @@
         <v>44648</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -48269,7 +48269,7 @@
         <v>44650</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -48326,7 +48326,7 @@
         <v>44657</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -48383,7 +48383,7 @@
         <v>44662</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -48445,7 +48445,7 @@
         <v>44663</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -48502,7 +48502,7 @@
         <v>44663</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -48559,7 +48559,7 @@
         <v>44685</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -48621,7 +48621,7 @@
         <v>44691</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -48683,7 +48683,7 @@
         <v>44692</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -48745,7 +48745,7 @@
         <v>44692</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -48807,7 +48807,7 @@
         <v>44693</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -48869,7 +48869,7 @@
         <v>44697</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -48926,7 +48926,7 @@
         <v>44701</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -48988,7 +48988,7 @@
         <v>44711</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -49050,7 +49050,7 @@
         <v>44711</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -49112,7 +49112,7 @@
         <v>44712</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -49169,7 +49169,7 @@
         <v>44714</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -49226,7 +49226,7 @@
         <v>44719</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -49283,7 +49283,7 @@
         <v>44726</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -49340,7 +49340,7 @@
         <v>44726</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -49397,7 +49397,7 @@
         <v>44726</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -49454,7 +49454,7 @@
         <v>44726</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -49516,7 +49516,7 @@
         <v>44726</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -49573,7 +49573,7 @@
         <v>44732</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -49635,7 +49635,7 @@
         <v>44743</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -49697,7 +49697,7 @@
         <v>44743</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -49759,7 +49759,7 @@
         <v>44743</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -49821,7 +49821,7 @@
         <v>44743</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -49883,7 +49883,7 @@
         <v>44743</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -49945,7 +49945,7 @@
         <v>44743</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -50007,7 +50007,7 @@
         <v>44743</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -50069,7 +50069,7 @@
         <v>44747</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -50126,7 +50126,7 @@
         <v>44747</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -50183,7 +50183,7 @@
         <v>44748</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -50240,7 +50240,7 @@
         <v>44749</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -50297,7 +50297,7 @@
         <v>44757</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -50359,7 +50359,7 @@
         <v>44757</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -50421,7 +50421,7 @@
         <v>44762</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -50483,7 +50483,7 @@
         <v>44774</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -50545,7 +50545,7 @@
         <v>44774</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -50607,7 +50607,7 @@
         <v>44774</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -50669,7 +50669,7 @@
         <v>44777</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -50726,7 +50726,7 @@
         <v>44778</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -50788,7 +50788,7 @@
         <v>44781</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -50850,7 +50850,7 @@
         <v>44781</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -50912,7 +50912,7 @@
         <v>44789</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -50969,7 +50969,7 @@
         <v>44791</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -51031,7 +51031,7 @@
         <v>44791</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -51088,7 +51088,7 @@
         <v>44792</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -51150,7 +51150,7 @@
         <v>44792</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -51212,7 +51212,7 @@
         <v>44792</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -51269,7 +51269,7 @@
         <v>44792</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -51331,7 +51331,7 @@
         <v>44792</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -51393,7 +51393,7 @@
         <v>44795</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -51455,7 +51455,7 @@
         <v>44795</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -51512,7 +51512,7 @@
         <v>44797</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -51569,7 +51569,7 @@
         <v>44798</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -51626,7 +51626,7 @@
         <v>44799</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -51688,7 +51688,7 @@
         <v>44799</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -51750,7 +51750,7 @@
         <v>44799</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -51812,7 +51812,7 @@
         <v>44799</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -51874,7 +51874,7 @@
         <v>44803</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -51931,7 +51931,7 @@
         <v>44804</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -51988,7 +51988,7 @@
         <v>44806</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -52050,7 +52050,7 @@
         <v>44812</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -52107,7 +52107,7 @@
         <v>44813</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -52169,7 +52169,7 @@
         <v>44813</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -52226,7 +52226,7 @@
         <v>44813</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -52288,7 +52288,7 @@
         <v>44817</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -52350,7 +52350,7 @@
         <v>44824</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -52412,7 +52412,7 @@
         <v>44824</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -52474,7 +52474,7 @@
         <v>44824</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -52536,7 +52536,7 @@
         <v>44825</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -52598,7 +52598,7 @@
         <v>44827</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -52660,7 +52660,7 @@
         <v>44827</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -52722,7 +52722,7 @@
         <v>44832</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -52784,7 +52784,7 @@
         <v>44833</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -52846,7 +52846,7 @@
         <v>44833</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -52908,7 +52908,7 @@
         <v>44833</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -52965,7 +52965,7 @@
         <v>44833</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -53027,7 +53027,7 @@
         <v>44833</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -53084,7 +53084,7 @@
         <v>44833</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -53146,7 +53146,7 @@
         <v>44834</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -53208,7 +53208,7 @@
         <v>44834</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -53270,7 +53270,7 @@
         <v>44837</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -53332,7 +53332,7 @@
         <v>44837</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -53389,7 +53389,7 @@
         <v>44837</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -53451,7 +53451,7 @@
         <v>44838</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -53508,7 +53508,7 @@
         <v>44838</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -53565,7 +53565,7 @@
         <v>44844</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -53627,7 +53627,7 @@
         <v>44846</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -53689,7 +53689,7 @@
         <v>44846</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -53746,7 +53746,7 @@
         <v>44847</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -53808,7 +53808,7 @@
         <v>44847</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -53870,7 +53870,7 @@
         <v>44847</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -53932,7 +53932,7 @@
         <v>44848</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -53994,7 +53994,7 @@
         <v>44853</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -54051,7 +54051,7 @@
         <v>44855</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -54113,7 +54113,7 @@
         <v>44858</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -54175,7 +54175,7 @@
         <v>44860</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -54232,7 +54232,7 @@
         <v>44864</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -54289,7 +54289,7 @@
         <v>44866</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -54351,7 +54351,7 @@
         <v>44866</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -54413,7 +54413,7 @@
         <v>44867</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -54475,7 +54475,7 @@
         <v>44867</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -54532,7 +54532,7 @@
         <v>44867</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -54594,7 +54594,7 @@
         <v>44868</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -54656,7 +54656,7 @@
         <v>44872</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -54718,7 +54718,7 @@
         <v>44872</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -54780,7 +54780,7 @@
         <v>44872</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -54842,7 +54842,7 @@
         <v>44872</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -54899,7 +54899,7 @@
         <v>44873</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -54956,7 +54956,7 @@
         <v>44873</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -55013,7 +55013,7 @@
         <v>44874</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -55075,7 +55075,7 @@
         <v>44874</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -55137,7 +55137,7 @@
         <v>44874</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -55199,7 +55199,7 @@
         <v>44875</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -55256,7 +55256,7 @@
         <v>44875</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -55318,7 +55318,7 @@
         <v>44876</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -55380,7 +55380,7 @@
         <v>44880</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -55442,7 +55442,7 @@
         <v>44880</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -55504,7 +55504,7 @@
         <v>44882</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -55566,7 +55566,7 @@
         <v>44886</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -55628,7 +55628,7 @@
         <v>44886</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -55690,7 +55690,7 @@
         <v>44886</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -55752,7 +55752,7 @@
         <v>44888</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -55814,7 +55814,7 @@
         <v>44889</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -55871,7 +55871,7 @@
         <v>44894</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -55933,7 +55933,7 @@
         <v>44895</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -55990,7 +55990,7 @@
         <v>44900</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -56052,7 +56052,7 @@
         <v>44902</v>
       </c>
       <c r="C876" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -56109,7 +56109,7 @@
         <v>44903</v>
       </c>
       <c r="C877" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -56171,7 +56171,7 @@
         <v>44903</v>
       </c>
       <c r="C878" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -56253,7 +56253,7 @@
         <v>44903</v>
       </c>
       <c r="C879" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -56315,7 +56315,7 @@
         <v>44904</v>
       </c>
       <c r="C880" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -56377,7 +56377,7 @@
         <v>44904</v>
       </c>
       <c r="C881" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -56434,7 +56434,7 @@
         <v>44909</v>
       </c>
       <c r="C882" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -56496,7 +56496,7 @@
         <v>44909</v>
       </c>
       <c r="C883" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>
@@ -56558,7 +56558,7 @@
         <v>44909</v>
       </c>
       <c r="C884" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D884" t="inlineStr">
         <is>
@@ -56620,7 +56620,7 @@
         <v>44910</v>
       </c>
       <c r="C885" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D885" t="inlineStr">
         <is>
@@ -56682,7 +56682,7 @@
         <v>44911</v>
       </c>
       <c r="C886" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D886" t="inlineStr">
         <is>
@@ -56744,7 +56744,7 @@
         <v>44911</v>
       </c>
       <c r="C887" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D887" t="inlineStr">
         <is>
@@ -56806,7 +56806,7 @@
         <v>44915</v>
       </c>
       <c r="C888" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D888" t="inlineStr">
         <is>
@@ -56868,7 +56868,7 @@
         <v>44916</v>
       </c>
       <c r="C889" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D889" t="inlineStr">
         <is>
@@ -56925,7 +56925,7 @@
         <v>44924</v>
       </c>
       <c r="C890" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D890" t="inlineStr">
         <is>
@@ -56982,7 +56982,7 @@
         <v>44924</v>
       </c>
       <c r="C891" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D891" t="inlineStr">
         <is>
@@ -57039,7 +57039,7 @@
         <v>44925</v>
       </c>
       <c r="C892" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D892" t="inlineStr">
         <is>
@@ -57096,7 +57096,7 @@
         <v>44931</v>
       </c>
       <c r="C893" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D893" t="inlineStr">
         <is>
@@ -57153,7 +57153,7 @@
         <v>44935</v>
       </c>
       <c r="C894" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D894" t="inlineStr">
         <is>
@@ -57215,7 +57215,7 @@
         <v>44937</v>
       </c>
       <c r="C895" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D895" t="inlineStr">
         <is>
@@ -57277,7 +57277,7 @@
         <v>44939</v>
       </c>
       <c r="C896" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D896" t="inlineStr">
         <is>
@@ -57339,7 +57339,7 @@
         <v>44942</v>
       </c>
       <c r="C897" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D897" t="inlineStr">
         <is>
@@ -57396,7 +57396,7 @@
         <v>44942</v>
       </c>
       <c r="C898" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D898" t="inlineStr">
         <is>
@@ -57453,7 +57453,7 @@
         <v>44946</v>
       </c>
       <c r="C899" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D899" t="inlineStr">
         <is>
@@ -57515,7 +57515,7 @@
         <v>44946</v>
       </c>
       <c r="C900" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D900" t="inlineStr">
         <is>
@@ -57572,7 +57572,7 @@
         <v>44949</v>
       </c>
       <c r="C901" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D901" t="inlineStr">
         <is>
@@ -57634,7 +57634,7 @@
         <v>44950</v>
       </c>
       <c r="C902" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D902" t="inlineStr">
         <is>
@@ -57691,7 +57691,7 @@
         <v>44950</v>
       </c>
       <c r="C903" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D903" t="inlineStr">
         <is>
@@ -57748,7 +57748,7 @@
         <v>44952</v>
       </c>
       <c r="C904" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D904" t="inlineStr">
         <is>
@@ -57805,7 +57805,7 @@
         <v>44953</v>
       </c>
       <c r="C905" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D905" t="inlineStr">
         <is>
@@ -57867,7 +57867,7 @@
         <v>44953</v>
       </c>
       <c r="C906" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D906" t="inlineStr">
         <is>
@@ -57929,7 +57929,7 @@
         <v>44956</v>
       </c>
       <c r="C907" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D907" t="inlineStr">
         <is>
@@ -57986,7 +57986,7 @@
         <v>44957</v>
       </c>
       <c r="C908" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D908" t="inlineStr">
         <is>
@@ -58048,7 +58048,7 @@
         <v>44957</v>
       </c>
       <c r="C909" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D909" t="inlineStr">
         <is>
@@ -58105,7 +58105,7 @@
         <v>44959</v>
       </c>
       <c r="C910" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D910" t="inlineStr">
         <is>
@@ -58162,7 +58162,7 @@
         <v>44960</v>
       </c>
       <c r="C911" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D911" t="inlineStr">
         <is>
@@ -58219,7 +58219,7 @@
         <v>44963</v>
       </c>
       <c r="C912" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D912" t="inlineStr">
         <is>
@@ -58276,7 +58276,7 @@
         <v>44964</v>
       </c>
       <c r="C913" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D913" t="inlineStr">
         <is>
@@ -58338,7 +58338,7 @@
         <v>44965</v>
       </c>
       <c r="C914" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D914" t="inlineStr">
         <is>
@@ -58400,7 +58400,7 @@
         <v>44967</v>
       </c>
       <c r="C915" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D915" t="inlineStr">
         <is>
@@ -58457,7 +58457,7 @@
         <v>44970</v>
       </c>
       <c r="C916" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D916" t="inlineStr">
         <is>
@@ -58514,7 +58514,7 @@
         <v>44970</v>
       </c>
       <c r="C917" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D917" t="inlineStr">
         <is>
@@ -58571,7 +58571,7 @@
         <v>44970</v>
       </c>
       <c r="C918" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D918" t="inlineStr">
         <is>
@@ -58628,7 +58628,7 @@
         <v>44972</v>
       </c>
       <c r="C919" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D919" t="inlineStr">
         <is>
@@ -58690,7 +58690,7 @@
         <v>44974</v>
       </c>
       <c r="C920" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D920" t="inlineStr">
         <is>
@@ -58747,7 +58747,7 @@
         <v>44977</v>
       </c>
       <c r="C921" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D921" t="inlineStr">
         <is>
@@ -58809,7 +58809,7 @@
         <v>44977</v>
       </c>
       <c r="C922" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D922" t="inlineStr">
         <is>
@@ -58871,7 +58871,7 @@
         <v>44977</v>
       </c>
       <c r="C923" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D923" t="inlineStr">
         <is>
@@ -58933,7 +58933,7 @@
         <v>44977</v>
       </c>
       <c r="C924" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D924" t="inlineStr">
         <is>
@@ -58995,7 +58995,7 @@
         <v>44977</v>
       </c>
       <c r="C925" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D925" t="inlineStr">
         <is>
@@ -59057,7 +59057,7 @@
         <v>44977</v>
       </c>
       <c r="C926" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D926" t="inlineStr">
         <is>
@@ -59119,7 +59119,7 @@
         <v>44980</v>
       </c>
       <c r="C927" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D927" t="inlineStr">
         <is>
@@ -59181,7 +59181,7 @@
         <v>44980</v>
       </c>
       <c r="C928" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D928" t="inlineStr">
         <is>
@@ -59238,7 +59238,7 @@
         <v>44984</v>
       </c>
       <c r="C929" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D929" t="inlineStr">
         <is>
@@ -59295,7 +59295,7 @@
         <v>44985</v>
       </c>
       <c r="C930" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D930" t="inlineStr">
         <is>
@@ -59357,7 +59357,7 @@
         <v>44985</v>
       </c>
       <c r="C931" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D931" t="inlineStr">
         <is>
@@ -59419,7 +59419,7 @@
         <v>44985</v>
       </c>
       <c r="C932" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D932" t="inlineStr">
         <is>
@@ -59476,7 +59476,7 @@
         <v>44985</v>
       </c>
       <c r="C933" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D933" t="inlineStr">
         <is>
@@ -59538,7 +59538,7 @@
         <v>44986</v>
       </c>
       <c r="C934" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D934" t="inlineStr">
         <is>
@@ -59600,7 +59600,7 @@
         <v>45000</v>
       </c>
       <c r="C935" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D935" t="inlineStr">
         <is>
@@ -59662,7 +59662,7 @@
         <v>45006</v>
       </c>
       <c r="C936" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D936" t="inlineStr">
         <is>
@@ -59719,7 +59719,7 @@
         <v>45007</v>
       </c>
       <c r="C937" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D937" t="inlineStr">
         <is>
@@ -59776,7 +59776,7 @@
         <v>45007</v>
       </c>
       <c r="C938" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D938" t="inlineStr">
         <is>
@@ -59838,7 +59838,7 @@
         <v>45012</v>
       </c>
       <c r="C939" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D939" t="inlineStr">
         <is>
@@ -59900,7 +59900,7 @@
         <v>45012</v>
       </c>
       <c r="C940" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D940" t="inlineStr">
         <is>
@@ -59962,7 +59962,7 @@
         <v>45016</v>
       </c>
       <c r="C941" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D941" t="inlineStr">
         <is>
@@ -60019,7 +60019,7 @@
         <v>45020</v>
       </c>
       <c r="C942" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D942" t="inlineStr">
         <is>
@@ -60076,7 +60076,7 @@
         <v>45027</v>
       </c>
       <c r="C943" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D943" t="inlineStr">
         <is>
@@ -60138,7 +60138,7 @@
         <v>45027</v>
       </c>
       <c r="C944" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D944" t="inlineStr">
         <is>
@@ -60200,7 +60200,7 @@
         <v>45028</v>
       </c>
       <c r="C945" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D945" t="inlineStr">
         <is>
@@ -60257,7 +60257,7 @@
         <v>45033</v>
       </c>
       <c r="C946" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D946" t="inlineStr">
         <is>
@@ -60319,7 +60319,7 @@
         <v>45036</v>
       </c>
       <c r="C947" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D947" t="inlineStr">
         <is>
@@ -60376,7 +60376,7 @@
         <v>45037</v>
       </c>
       <c r="C948" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D948" t="inlineStr">
         <is>
@@ -60433,7 +60433,7 @@
         <v>45041</v>
       </c>
       <c r="C949" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D949" t="inlineStr">
         <is>
@@ -60495,7 +60495,7 @@
         <v>45047</v>
       </c>
       <c r="C950" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D950" t="inlineStr">
         <is>
@@ -60552,7 +60552,7 @@
         <v>45055</v>
       </c>
       <c r="C951" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D951" t="inlineStr">
         <is>
@@ -60614,7 +60614,7 @@
         <v>45056</v>
       </c>
       <c r="C952" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D952" t="inlineStr">
         <is>
@@ -60676,7 +60676,7 @@
         <v>45058</v>
       </c>
       <c r="C953" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D953" t="inlineStr">
         <is>
@@ -60733,7 +60733,7 @@
         <v>45058</v>
       </c>
       <c r="C954" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D954" t="inlineStr">
         <is>
@@ -60790,7 +60790,7 @@
         <v>45060</v>
       </c>
       <c r="C955" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D955" t="inlineStr">
         <is>
@@ -60847,7 +60847,7 @@
         <v>45061</v>
       </c>
       <c r="C956" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D956" t="inlineStr">
         <is>
@@ -60909,7 +60909,7 @@
         <v>45061</v>
       </c>
       <c r="C957" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D957" t="inlineStr">
         <is>
@@ -60971,7 +60971,7 @@
         <v>45061</v>
       </c>
       <c r="C958" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D958" t="inlineStr">
         <is>
@@ -61033,7 +61033,7 @@
         <v>45063</v>
       </c>
       <c r="C959" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D959" t="inlineStr">
         <is>
@@ -61090,7 +61090,7 @@
         <v>45065</v>
       </c>
       <c r="C960" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D960" t="inlineStr">
         <is>
@@ -61152,7 +61152,7 @@
         <v>45068</v>
       </c>
       <c r="C961" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D961" t="inlineStr">
         <is>
@@ -61214,7 +61214,7 @@
         <v>45068</v>
       </c>
       <c r="C962" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D962" t="inlineStr">
         <is>
@@ -61276,7 +61276,7 @@
         <v>45069</v>
       </c>
       <c r="C963" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D963" t="inlineStr">
         <is>
@@ -61338,7 +61338,7 @@
         <v>45069</v>
       </c>
       <c r="C964" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D964" t="inlineStr">
         <is>
@@ -61395,7 +61395,7 @@
         <v>45069</v>
       </c>
       <c r="C965" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D965" t="inlineStr">
         <is>
@@ -61452,7 +61452,7 @@
         <v>45070</v>
       </c>
       <c r="C966" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D966" t="inlineStr">
         <is>
@@ -61514,7 +61514,7 @@
         <v>45070</v>
       </c>
       <c r="C967" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D967" t="inlineStr">
         <is>
@@ -61571,7 +61571,7 @@
         <v>45070</v>
       </c>
       <c r="C968" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D968" t="inlineStr">
         <is>
@@ -61628,7 +61628,7 @@
         <v>45070</v>
       </c>
       <c r="C969" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D969" t="inlineStr">
         <is>
@@ -61685,7 +61685,7 @@
         <v>45070</v>
       </c>
       <c r="C970" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D970" t="inlineStr">
         <is>
@@ -61742,7 +61742,7 @@
         <v>45071</v>
       </c>
       <c r="C971" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D971" t="inlineStr">
         <is>
@@ -61804,7 +61804,7 @@
         <v>45071</v>
       </c>
       <c r="C972" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D972" t="inlineStr">
         <is>
@@ -61861,7 +61861,7 @@
         <v>45071</v>
       </c>
       <c r="C973" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D973" t="inlineStr">
         <is>
@@ -61918,7 +61918,7 @@
         <v>45071</v>
       </c>
       <c r="C974" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D974" t="inlineStr">
         <is>
@@ -61975,7 +61975,7 @@
         <v>45072</v>
       </c>
       <c r="C975" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D975" t="inlineStr">
         <is>
@@ -62032,7 +62032,7 @@
         <v>45077</v>
       </c>
       <c r="C976" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D976" t="inlineStr">
         <is>
@@ -62094,7 +62094,7 @@
         <v>45078</v>
       </c>
       <c r="C977" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D977" t="inlineStr">
         <is>
@@ -62156,7 +62156,7 @@
         <v>45078</v>
       </c>
       <c r="C978" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D978" t="inlineStr">
         <is>
@@ -62213,7 +62213,7 @@
         <v>45078</v>
       </c>
       <c r="C979" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D979" t="inlineStr">
         <is>
@@ -62270,7 +62270,7 @@
         <v>45079</v>
       </c>
       <c r="C980" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D980" t="inlineStr">
         <is>
@@ -62327,7 +62327,7 @@
         <v>45084</v>
       </c>
       <c r="C981" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D981" t="inlineStr">
         <is>
@@ -62389,7 +62389,7 @@
         <v>45090</v>
       </c>
       <c r="C982" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D982" t="inlineStr">
         <is>
@@ -62451,7 +62451,7 @@
         <v>45090</v>
       </c>
       <c r="C983" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D983" t="inlineStr">
         <is>
@@ -62508,7 +62508,7 @@
         <v>45092</v>
       </c>
       <c r="C984" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D984" t="inlineStr">
         <is>
@@ -62570,7 +62570,7 @@
         <v>45092</v>
       </c>
       <c r="C985" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D985" t="inlineStr">
         <is>
@@ -62632,7 +62632,7 @@
         <v>45092</v>
       </c>
       <c r="C986" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D986" t="inlineStr">
         <is>
@@ -62694,7 +62694,7 @@
         <v>45092</v>
       </c>
       <c r="C987" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D987" t="inlineStr">
         <is>
@@ -62756,7 +62756,7 @@
         <v>45093</v>
       </c>
       <c r="C988" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D988" t="inlineStr">
         <is>
@@ -62818,7 +62818,7 @@
         <v>45097</v>
       </c>
       <c r="C989" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D989" t="inlineStr">
         <is>
@@ -62880,7 +62880,7 @@
         <v>45097</v>
       </c>
       <c r="C990" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D990" t="inlineStr">
         <is>
@@ -62937,7 +62937,7 @@
         <v>45097</v>
       </c>
       <c r="C991" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D991" t="inlineStr">
         <is>
@@ -62994,7 +62994,7 @@
         <v>45097</v>
       </c>
       <c r="C992" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D992" t="inlineStr">
         <is>
@@ -63056,7 +63056,7 @@
         <v>45097</v>
       </c>
       <c r="C993" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D993" t="inlineStr">
         <is>
@@ -63118,7 +63118,7 @@
         <v>45098</v>
       </c>
       <c r="C994" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D994" t="inlineStr">
         <is>
@@ -63180,7 +63180,7 @@
         <v>45099</v>
       </c>
       <c r="C995" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D995" t="inlineStr">
         <is>
@@ -63237,7 +63237,7 @@
         <v>45099</v>
       </c>
       <c r="C996" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D996" t="inlineStr">
         <is>
@@ -63294,7 +63294,7 @@
         <v>45099</v>
       </c>
       <c r="C997" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D997" t="inlineStr">
         <is>
@@ -63351,7 +63351,7 @@
         <v>45099</v>
       </c>
       <c r="C998" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D998" t="inlineStr">
         <is>
@@ -63408,7 +63408,7 @@
         <v>45099</v>
       </c>
       <c r="C999" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D999" t="inlineStr">
         <is>
@@ -63465,7 +63465,7 @@
         <v>45104</v>
       </c>
       <c r="C1000" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D1000" t="inlineStr">
         <is>
@@ -63522,7 +63522,7 @@
         <v>45105</v>
       </c>
       <c r="C1001" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D1001" t="inlineStr">
         <is>
@@ -63579,7 +63579,7 @@
         <v>45106</v>
       </c>
       <c r="C1002" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D1002" t="inlineStr">
         <is>
@@ -63636,7 +63636,7 @@
         <v>45107</v>
       </c>
       <c r="C1003" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D1003" t="inlineStr">
         <is>
@@ -63693,7 +63693,7 @@
         <v>45107</v>
       </c>
       <c r="C1004" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D1004" t="inlineStr">
         <is>
@@ -63750,7 +63750,7 @@
         <v>45107</v>
       </c>
       <c r="C1005" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D1005" t="inlineStr">
         <is>
@@ -63812,7 +63812,7 @@
         <v>45107</v>
       </c>
       <c r="C1006" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D1006" t="inlineStr">
         <is>
@@ -63869,7 +63869,7 @@
         <v>45107</v>
       </c>
       <c r="C1007" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D1007" t="inlineStr">
         <is>
@@ -63926,7 +63926,7 @@
         <v>45110</v>
       </c>
       <c r="C1008" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D1008" t="inlineStr">
         <is>
@@ -63983,7 +63983,7 @@
         <v>45110</v>
       </c>
       <c r="C1009" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D1009" t="inlineStr">
         <is>
@@ -64045,7 +64045,7 @@
         <v>45112</v>
       </c>
       <c r="C1010" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D1010" t="inlineStr">
         <is>
@@ -64102,7 +64102,7 @@
         <v>45112</v>
       </c>
       <c r="C1011" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D1011" t="inlineStr">
         <is>
@@ -64164,7 +64164,7 @@
         <v>45113</v>
       </c>
       <c r="C1012" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D1012" t="inlineStr">
         <is>
@@ -64221,7 +64221,7 @@
         <v>45113</v>
       </c>
       <c r="C1013" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D1013" t="inlineStr">
         <is>
@@ -64278,7 +64278,7 @@
         <v>45114</v>
       </c>
       <c r="C1014" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D1014" t="inlineStr">
         <is>
@@ -64340,7 +64340,7 @@
         <v>45118</v>
       </c>
       <c r="C1015" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D1015" t="inlineStr">
         <is>
@@ -64397,7 +64397,7 @@
         <v>45118</v>
       </c>
       <c r="C1016" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D1016" t="inlineStr">
         <is>
@@ -64454,7 +64454,7 @@
         <v>45119</v>
       </c>
       <c r="C1017" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D1017" t="inlineStr">
         <is>
@@ -64511,7 +64511,7 @@
         <v>45119</v>
       </c>
       <c r="C1018" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D1018" t="inlineStr">
         <is>
@@ -64568,7 +64568,7 @@
         <v>45121</v>
       </c>
       <c r="C1019" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D1019" t="inlineStr">
         <is>
@@ -64630,7 +64630,7 @@
         <v>45124</v>
       </c>
       <c r="C1020" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D1020" t="inlineStr">
         <is>
@@ -64692,7 +64692,7 @@
         <v>45125</v>
       </c>
       <c r="C1021" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D1021" t="inlineStr">
         <is>
@@ -64749,7 +64749,7 @@
         <v>45125</v>
       </c>
       <c r="C1022" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D1022" t="inlineStr">
         <is>
@@ -64806,7 +64806,7 @@
         <v>45125</v>
       </c>
       <c r="C1023" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D1023" t="inlineStr">
         <is>
@@ -64868,7 +64868,7 @@
         <v>45125</v>
       </c>
       <c r="C1024" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D1024" t="inlineStr">
         <is>
@@ -64925,7 +64925,7 @@
         <v>45127</v>
       </c>
       <c r="C1025" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D1025" t="inlineStr">
         <is>
@@ -64987,7 +64987,7 @@
         <v>45127</v>
       </c>
       <c r="C1026" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D1026" t="inlineStr">
         <is>
@@ -65049,7 +65049,7 @@
         <v>45127</v>
       </c>
       <c r="C1027" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D1027" t="inlineStr">
         <is>
@@ -65106,7 +65106,7 @@
         <v>45127</v>
       </c>
       <c r="C1028" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D1028" t="inlineStr">
         <is>
@@ -65168,7 +65168,7 @@
         <v>45141</v>
       </c>
       <c r="C1029" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D1029" t="inlineStr">
         <is>
@@ -65225,7 +65225,7 @@
         <v>45142</v>
       </c>
       <c r="C1030" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D1030" t="inlineStr">
         <is>
@@ -65282,7 +65282,7 @@
         <v>45145</v>
       </c>
       <c r="C1031" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D1031" t="inlineStr">
         <is>
@@ -65339,7 +65339,7 @@
         <v>45145</v>
       </c>
       <c r="C1032" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D1032" t="inlineStr">
         <is>
@@ -65396,7 +65396,7 @@
         <v>45147</v>
       </c>
       <c r="C1033" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D1033" t="inlineStr">
         <is>
@@ -65453,7 +65453,7 @@
         <v>45148</v>
       </c>
       <c r="C1034" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D1034" t="inlineStr">
         <is>
@@ -65510,7 +65510,7 @@
         <v>45148</v>
       </c>
       <c r="C1035" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D1035" t="inlineStr">
         <is>
@@ -65567,7 +65567,7 @@
         <v>45159</v>
       </c>
       <c r="C1036" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D1036" t="inlineStr">
         <is>
@@ -65629,7 +65629,7 @@
         <v>45159</v>
       </c>
       <c r="C1037" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D1037" t="inlineStr">
         <is>
@@ -65691,7 +65691,7 @@
         <v>45160</v>
       </c>
       <c r="C1038" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D1038" t="inlineStr">
         <is>
@@ -65753,7 +65753,7 @@
         <v>45160</v>
       </c>
       <c r="C1039" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D1039" t="inlineStr">
         <is>
@@ -65815,7 +65815,7 @@
         <v>45162</v>
       </c>
       <c r="C1040" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D1040" t="inlineStr">
         <is>
@@ -65872,7 +65872,7 @@
         <v>45167</v>
       </c>
       <c r="C1041" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D1041" t="inlineStr">
         <is>
@@ -65929,7 +65929,7 @@
         <v>45168</v>
       </c>
       <c r="C1042" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D1042" t="inlineStr">
         <is>
@@ -65991,7 +65991,7 @@
         <v>45173</v>
       </c>
       <c r="C1043" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D1043" t="inlineStr">
         <is>

--- a/Översikt LJUSDAL.xlsx
+++ b/Översikt LJUSDAL.xlsx
@@ -572,7 +572,7 @@
         <v>44358</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -675,7 +675,7 @@
         <v>43922</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -781,7 +781,7 @@
         <v>44449</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -881,7 +881,7 @@
         <v>43354</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         <v>43798</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1081,7 +1081,7 @@
         <v>43872</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1174,7 +1174,7 @@
         <v>44722</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1271,7 +1271,7 @@
         <v>44743</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1369,7 +1369,7 @@
         <v>44194</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1465,7 +1465,7 @@
         <v>45096</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1557,7 +1557,7 @@
         <v>43343</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1648,7 +1648,7 @@
         <v>44869</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1744,7 +1744,7 @@
         <v>44687</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1843,7 +1843,7 @@
         <v>44687</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1942,7 +1942,7 @@
         <v>44700</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2037,7 +2037,7 @@
         <v>43711</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2131,7 +2131,7 @@
         <v>44530</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2224,7 +2224,7 @@
         <v>44755</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2322,7 +2322,7 @@
         <v>44774</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2420,7 +2420,7 @@
         <v>44775</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2514,7 +2514,7 @@
         <v>44902</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2607,7 +2607,7 @@
         <v>45089</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2700,7 +2700,7 @@
         <v>45090</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2793,7 +2793,7 @@
         <v>43367</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2881,7 +2881,7 @@
         <v>43432</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2974,7 +2974,7 @@
         <v>43872</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3062,7 +3062,7 @@
         <v>44449</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3155,7 +3155,7 @@
         <v>44686</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3247,7 +3247,7 @@
         <v>45072</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3339,7 +3339,7 @@
         <v>45093</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3432,7 +3432,7 @@
         <v>43357</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3519,7 +3519,7 @@
         <v>43628</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3615,7 +3615,7 @@
         <v>43852</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3711,7 +3711,7 @@
         <v>43872</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3798,7 +3798,7 @@
         <v>43977</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3890,7 +3890,7 @@
         <v>44137</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3981,7 +3981,7 @@
         <v>44148</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4073,7 +4073,7 @@
         <v>44152</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4165,7 +4165,7 @@
         <v>44169</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4257,7 +4257,7 @@
         <v>44326</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4349,7 +4349,7 @@
         <v>44706</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4441,7 +4441,7 @@
         <v>44708</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4533,7 +4533,7 @@
         <v>44734</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4625,7 +4625,7 @@
         <v>44821</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4717,7 +4717,7 @@
         <v>44998</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4808,7 +4808,7 @@
         <v>43338</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4894,7 +4894,7 @@
         <v>43354</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4985,7 +4985,7 @@
         <v>43377</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5071,7 +5071,7 @@
         <v>43381</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5162,7 +5162,7 @@
         <v>43476</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5248,7 +5248,7 @@
         <v>43629</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5343,7 +5343,7 @@
         <v>43977</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5434,7 +5434,7 @@
         <v>44322</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5525,7 +5525,7 @@
         <v>44351</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5616,7 +5616,7 @@
         <v>44357</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5707,7 +5707,7 @@
         <v>44438</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5798,7 +5798,7 @@
         <v>44722</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5893,7 +5893,7 @@
         <v>44988</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5979,7 +5979,7 @@
         <v>45092</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6070,7 +6070,7 @@
         <v>45110</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6161,7 +6161,7 @@
         <v>43347</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6246,7 +6246,7 @@
         <v>43355</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6336,7 +6336,7 @@
         <v>43367</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6421,7 +6421,7 @@
         <v>43385</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6511,7 +6511,7 @@
         <v>43385</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6601,7 +6601,7 @@
         <v>43389</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6691,7 +6691,7 @@
         <v>43445</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6781,7 +6781,7 @@
         <v>43481</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6866,7 +6866,7 @@
         <v>43557</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6951,7 +6951,7 @@
         <v>43811</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7036,7 +7036,7 @@
         <v>43872</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7121,7 +7121,7 @@
         <v>43936</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7206,7 +7206,7 @@
         <v>43979</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7296,7 +7296,7 @@
         <v>44062</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7390,7 +7390,7 @@
         <v>44069</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7480,7 +7480,7 @@
         <v>44342</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7569,7 +7569,7 @@
         <v>44379</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7659,7 +7659,7 @@
         <v>44405</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7753,7 +7753,7 @@
         <v>44406</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7843,7 +7843,7 @@
         <v>44432</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7933,7 +7933,7 @@
         <v>44438</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8023,7 +8023,7 @@
         <v>44449</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8113,7 +8113,7 @@
         <v>44480</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8198,7 +8198,7 @@
         <v>44489</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8288,7 +8288,7 @@
         <v>44491</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8382,7 +8382,7 @@
         <v>44662</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8476,7 +8476,7 @@
         <v>44684</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8566,7 +8566,7 @@
         <v>44742</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8656,7 +8656,7 @@
         <v>44743</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8746,7 +8746,7 @@
         <v>44763</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8836,7 +8836,7 @@
         <v>44778</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8926,7 +8926,7 @@
         <v>44784</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -9016,7 +9016,7 @@
         <v>44833</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -9101,7 +9101,7 @@
         <v>44839</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9191,7 +9191,7 @@
         <v>44988</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9276,7 +9276,7 @@
         <v>45086</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9365,7 +9365,7 @@
         <v>45090</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9455,7 +9455,7 @@
         <v>45092</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9545,7 +9545,7 @@
         <v>45107</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9630,7 +9630,7 @@
         <v>45162</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9719,7 +9719,7 @@
         <v>43319</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -9781,7 +9781,7 @@
         <v>43320</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -9838,7 +9838,7 @@
         <v>43329</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9895,7 +9895,7 @@
         <v>43329</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9957,7 +9957,7 @@
         <v>43329</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -10014,7 +10014,7 @@
         <v>43329</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -10071,7 +10071,7 @@
         <v>43329</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -10128,7 +10128,7 @@
         <v>43333</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -10185,7 +10185,7 @@
         <v>43334</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -10242,7 +10242,7 @@
         <v>43342</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -10304,7 +10304,7 @@
         <v>43347</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -10361,7 +10361,7 @@
         <v>43348</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -10418,7 +10418,7 @@
         <v>43348</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -10480,7 +10480,7 @@
         <v>43349</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -10537,7 +10537,7 @@
         <v>43349</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -10594,7 +10594,7 @@
         <v>43349</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -10651,7 +10651,7 @@
         <v>43353</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -10708,7 +10708,7 @@
         <v>43353</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -10765,7 +10765,7 @@
         <v>43354</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -10827,7 +10827,7 @@
         <v>43355</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -10889,7 +10889,7 @@
         <v>43355</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -10951,7 +10951,7 @@
         <v>43369</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -11008,7 +11008,7 @@
         <v>43369</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -11070,7 +11070,7 @@
         <v>43370</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -11132,7 +11132,7 @@
         <v>43376</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -11189,7 +11189,7 @@
         <v>43377</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -11251,7 +11251,7 @@
         <v>43381</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -11308,7 +11308,7 @@
         <v>43381</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -11365,7 +11365,7 @@
         <v>43381</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -11422,7 +11422,7 @@
         <v>43381</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -11479,7 +11479,7 @@
         <v>43382</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -11541,7 +11541,7 @@
         <v>43382</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -11603,7 +11603,7 @@
         <v>43385</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -11665,7 +11665,7 @@
         <v>43385</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -11727,7 +11727,7 @@
         <v>43389</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -11789,7 +11789,7 @@
         <v>43391</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -11846,7 +11846,7 @@
         <v>43391</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -11903,7 +11903,7 @@
         <v>43395</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -11960,7 +11960,7 @@
         <v>43403</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -12022,7 +12022,7 @@
         <v>43409</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -12079,7 +12079,7 @@
         <v>43409</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -12136,7 +12136,7 @@
         <v>43410</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -12193,7 +12193,7 @@
         <v>43410</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -12255,7 +12255,7 @@
         <v>43410</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -12317,7 +12317,7 @@
         <v>43411</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -12374,7 +12374,7 @@
         <v>43412</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -12431,7 +12431,7 @@
         <v>43412</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -12488,7 +12488,7 @@
         <v>43412</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -12545,7 +12545,7 @@
         <v>43416</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -12607,7 +12607,7 @@
         <v>43416</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -12669,7 +12669,7 @@
         <v>43419</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -12726,7 +12726,7 @@
         <v>43419</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -12783,7 +12783,7 @@
         <v>43420</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -12840,7 +12840,7 @@
         <v>43420</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -12897,7 +12897,7 @@
         <v>43424</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -12954,7 +12954,7 @@
         <v>43425</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -13016,7 +13016,7 @@
         <v>43425</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -13073,7 +13073,7 @@
         <v>43425</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -13135,7 +13135,7 @@
         <v>43425</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -13192,7 +13192,7 @@
         <v>43427</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -13254,7 +13254,7 @@
         <v>43430</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -13316,7 +13316,7 @@
         <v>43431</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -13378,7 +13378,7 @@
         <v>43431</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -13435,7 +13435,7 @@
         <v>43432</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -13497,7 +13497,7 @@
         <v>43432</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -13554,7 +13554,7 @@
         <v>43432</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -13616,7 +13616,7 @@
         <v>43434</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -13678,7 +13678,7 @@
         <v>43437</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -13740,7 +13740,7 @@
         <v>43438</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -13802,7 +13802,7 @@
         <v>43439</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -13859,7 +13859,7 @@
         <v>43439</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -13916,7 +13916,7 @@
         <v>43439</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -13973,7 +13973,7 @@
         <v>43441</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -14035,7 +14035,7 @@
         <v>43441</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -14092,7 +14092,7 @@
         <v>43444</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -14149,7 +14149,7 @@
         <v>43444</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -14206,7 +14206,7 @@
         <v>43444</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -14263,7 +14263,7 @@
         <v>43444</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -14320,7 +14320,7 @@
         <v>43445</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -14382,7 +14382,7 @@
         <v>43445</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -14444,7 +14444,7 @@
         <v>43448</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -14506,7 +14506,7 @@
         <v>43448</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -14568,7 +14568,7 @@
         <v>43448</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -14630,7 +14630,7 @@
         <v>43449</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -14687,7 +14687,7 @@
         <v>43452</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -14744,7 +14744,7 @@
         <v>43452</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -14806,7 +14806,7 @@
         <v>43453</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -14863,7 +14863,7 @@
         <v>43455</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -14925,7 +14925,7 @@
         <v>43455</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -14982,7 +14982,7 @@
         <v>43468</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -15039,7 +15039,7 @@
         <v>43469</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -15096,7 +15096,7 @@
         <v>43472</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -15153,7 +15153,7 @@
         <v>43472</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -15215,7 +15215,7 @@
         <v>43472</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -15277,7 +15277,7 @@
         <v>43474</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -15339,7 +15339,7 @@
         <v>43481</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -15396,7 +15396,7 @@
         <v>43483</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -15453,7 +15453,7 @@
         <v>43486</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -15515,7 +15515,7 @@
         <v>43487</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -15572,7 +15572,7 @@
         <v>43489</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -15629,7 +15629,7 @@
         <v>43490</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -15691,7 +15691,7 @@
         <v>43493</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -15748,7 +15748,7 @@
         <v>43497</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -15810,7 +15810,7 @@
         <v>43501</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -15867,7 +15867,7 @@
         <v>43508</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -15924,7 +15924,7 @@
         <v>43508</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -15981,7 +15981,7 @@
         <v>43510</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -16038,7 +16038,7 @@
         <v>43510</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -16095,7 +16095,7 @@
         <v>43514</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -16152,7 +16152,7 @@
         <v>43514</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -16209,7 +16209,7 @@
         <v>43515</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -16271,7 +16271,7 @@
         <v>43516</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -16328,7 +16328,7 @@
         <v>43516</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -16385,7 +16385,7 @@
         <v>43517</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -16442,7 +16442,7 @@
         <v>43517</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -16499,7 +16499,7 @@
         <v>43521</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -16556,7 +16556,7 @@
         <v>43521</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -16613,7 +16613,7 @@
         <v>43524</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -16670,7 +16670,7 @@
         <v>43524</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -16727,7 +16727,7 @@
         <v>43524</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -16784,7 +16784,7 @@
         <v>43525</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -16841,7 +16841,7 @@
         <v>43525</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -16898,7 +16898,7 @@
         <v>43528</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -16955,7 +16955,7 @@
         <v>43535</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -17012,7 +17012,7 @@
         <v>43536</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -17069,7 +17069,7 @@
         <v>43542</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -17126,7 +17126,7 @@
         <v>43549</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -17183,7 +17183,7 @@
         <v>43549</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -17240,7 +17240,7 @@
         <v>43550</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -17297,7 +17297,7 @@
         <v>43552</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -17354,7 +17354,7 @@
         <v>43552</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -17411,7 +17411,7 @@
         <v>43552</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -17468,7 +17468,7 @@
         <v>43557</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -17525,7 +17525,7 @@
         <v>43557</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -17587,7 +17587,7 @@
         <v>43578</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -17664,7 +17664,7 @@
         <v>43581</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -17726,7 +17726,7 @@
         <v>43584</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -17788,7 +17788,7 @@
         <v>43600</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -17850,7 +17850,7 @@
         <v>43600</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -17912,7 +17912,7 @@
         <v>43601</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -17969,7 +17969,7 @@
         <v>43601</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -18026,7 +18026,7 @@
         <v>43605</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -18083,7 +18083,7 @@
         <v>43607</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -18140,7 +18140,7 @@
         <v>43612</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -18202,7 +18202,7 @@
         <v>43613</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -18264,7 +18264,7 @@
         <v>43616</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -18326,7 +18326,7 @@
         <v>43619</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -18383,7 +18383,7 @@
         <v>43619</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -18445,7 +18445,7 @@
         <v>43619</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -18507,7 +18507,7 @@
         <v>43619</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -18569,7 +18569,7 @@
         <v>43619</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -18631,7 +18631,7 @@
         <v>43620</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -18688,7 +18688,7 @@
         <v>43628</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -18745,7 +18745,7 @@
         <v>43628</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -18807,7 +18807,7 @@
         <v>43628</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -18869,7 +18869,7 @@
         <v>43629</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -18926,7 +18926,7 @@
         <v>43629</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -18988,7 +18988,7 @@
         <v>43630</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -19050,7 +19050,7 @@
         <v>43630</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -19112,7 +19112,7 @@
         <v>43636</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -19174,7 +19174,7 @@
         <v>43636</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -19236,7 +19236,7 @@
         <v>43641</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -19293,7 +19293,7 @@
         <v>43642</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -19355,7 +19355,7 @@
         <v>43642</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -19417,7 +19417,7 @@
         <v>43644</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -19474,7 +19474,7 @@
         <v>43650</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -19531,7 +19531,7 @@
         <v>43651</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -19593,7 +19593,7 @@
         <v>43651</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -19655,7 +19655,7 @@
         <v>43655</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -19712,7 +19712,7 @@
         <v>43656</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -19769,7 +19769,7 @@
         <v>43661</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -19826,7 +19826,7 @@
         <v>43661</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -19883,7 +19883,7 @@
         <v>43661</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -19940,7 +19940,7 @@
         <v>43662</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -20002,7 +20002,7 @@
         <v>43663</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -20059,7 +20059,7 @@
         <v>43663</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -20116,7 +20116,7 @@
         <v>43665</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -20173,7 +20173,7 @@
         <v>43665</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -20235,7 +20235,7 @@
         <v>43668</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -20292,7 +20292,7 @@
         <v>43668</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -20354,7 +20354,7 @@
         <v>43669</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -20411,7 +20411,7 @@
         <v>43677</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -20468,7 +20468,7 @@
         <v>43679</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -20525,7 +20525,7 @@
         <v>43679</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -20582,7 +20582,7 @@
         <v>43686</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -20639,7 +20639,7 @@
         <v>43691</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -20696,7 +20696,7 @@
         <v>43692</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -20753,7 +20753,7 @@
         <v>43693</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -20815,7 +20815,7 @@
         <v>43693</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -20877,7 +20877,7 @@
         <v>43693</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -20939,7 +20939,7 @@
         <v>43697</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -21001,7 +21001,7 @@
         <v>43698</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -21058,7 +21058,7 @@
         <v>43698</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -21120,7 +21120,7 @@
         <v>43700</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -21177,7 +21177,7 @@
         <v>43700</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -21239,7 +21239,7 @@
         <v>43700</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -21296,7 +21296,7 @@
         <v>43704</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -21353,7 +21353,7 @@
         <v>43705</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -21415,7 +21415,7 @@
         <v>43710</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -21477,7 +21477,7 @@
         <v>43710</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -21539,7 +21539,7 @@
         <v>43710</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -21601,7 +21601,7 @@
         <v>43712</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -21658,7 +21658,7 @@
         <v>43713</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -21720,7 +21720,7 @@
         <v>43714</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -21782,7 +21782,7 @@
         <v>43714</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -21844,7 +21844,7 @@
         <v>43717</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -21901,7 +21901,7 @@
         <v>43719</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -21963,7 +21963,7 @@
         <v>43720</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -22025,7 +22025,7 @@
         <v>43721</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -22082,7 +22082,7 @@
         <v>43721</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -22139,7 +22139,7 @@
         <v>43721</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -22196,7 +22196,7 @@
         <v>43726</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -22258,7 +22258,7 @@
         <v>43726</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -22320,7 +22320,7 @@
         <v>43727</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -22382,7 +22382,7 @@
         <v>43728</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -22444,7 +22444,7 @@
         <v>43731</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -22501,7 +22501,7 @@
         <v>43732</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -22563,7 +22563,7 @@
         <v>43732</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -22625,7 +22625,7 @@
         <v>43734</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -22682,7 +22682,7 @@
         <v>43735</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -22739,7 +22739,7 @@
         <v>43738</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -22796,7 +22796,7 @@
         <v>43738</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -22853,7 +22853,7 @@
         <v>43741</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -22915,7 +22915,7 @@
         <v>43742</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -22972,7 +22972,7 @@
         <v>43745</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -23029,7 +23029,7 @@
         <v>43745</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -23091,7 +23091,7 @@
         <v>43746</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -23148,7 +23148,7 @@
         <v>43747</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -23210,7 +23210,7 @@
         <v>43748</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -23272,7 +23272,7 @@
         <v>43749</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -23334,7 +23334,7 @@
         <v>43754</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -23396,7 +23396,7 @@
         <v>43754</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -23458,7 +23458,7 @@
         <v>43755</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -23520,7 +23520,7 @@
         <v>43755</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -23582,7 +23582,7 @@
         <v>43759</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -23644,7 +23644,7 @@
         <v>43759</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -23701,7 +23701,7 @@
         <v>43760</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -23763,7 +23763,7 @@
         <v>43763</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -23820,7 +23820,7 @@
         <v>43763</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -23877,7 +23877,7 @@
         <v>43767</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -23939,7 +23939,7 @@
         <v>43774</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -23996,7 +23996,7 @@
         <v>43774</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -24053,7 +24053,7 @@
         <v>43775</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -24110,7 +24110,7 @@
         <v>43775</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -24167,7 +24167,7 @@
         <v>43776</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -24224,7 +24224,7 @@
         <v>43776</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -24281,7 +24281,7 @@
         <v>43777</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -24343,7 +24343,7 @@
         <v>43781</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -24405,7 +24405,7 @@
         <v>43781</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -24467,7 +24467,7 @@
         <v>43782</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -24524,7 +24524,7 @@
         <v>43782</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -24581,7 +24581,7 @@
         <v>43784</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -24643,7 +24643,7 @@
         <v>43787</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -24705,7 +24705,7 @@
         <v>43787</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -24767,7 +24767,7 @@
         <v>43789</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -24829,7 +24829,7 @@
         <v>43789</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -24891,7 +24891,7 @@
         <v>43791</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -24953,7 +24953,7 @@
         <v>43791</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -25015,7 +25015,7 @@
         <v>43791</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -25077,7 +25077,7 @@
         <v>43794</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -25134,7 +25134,7 @@
         <v>43794</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -25191,7 +25191,7 @@
         <v>43797</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -25248,7 +25248,7 @@
         <v>43801</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -25310,7 +25310,7 @@
         <v>43802</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -25367,7 +25367,7 @@
         <v>43802</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -25424,7 +25424,7 @@
         <v>43808</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -25481,7 +25481,7 @@
         <v>43810</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -25543,7 +25543,7 @@
         <v>43810</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -25605,7 +25605,7 @@
         <v>43815</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -25662,7 +25662,7 @@
         <v>43815</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -25719,7 +25719,7 @@
         <v>43816</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -25776,7 +25776,7 @@
         <v>43837</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -25833,7 +25833,7 @@
         <v>43838</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -25890,7 +25890,7 @@
         <v>43840</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -25952,7 +25952,7 @@
         <v>43850</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -26009,7 +26009,7 @@
         <v>43850</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -26066,7 +26066,7 @@
         <v>43850</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -26123,7 +26123,7 @@
         <v>43850</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -26180,7 +26180,7 @@
         <v>43851</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -26237,7 +26237,7 @@
         <v>43851</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -26294,7 +26294,7 @@
         <v>43858</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -26351,7 +26351,7 @@
         <v>43861</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -26408,7 +26408,7 @@
         <v>43865</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -26465,7 +26465,7 @@
         <v>43866</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -26522,7 +26522,7 @@
         <v>43879</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -26579,7 +26579,7 @@
         <v>43882</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -26636,7 +26636,7 @@
         <v>43885</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -26693,7 +26693,7 @@
         <v>43886</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -26750,7 +26750,7 @@
         <v>43886</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -26807,7 +26807,7 @@
         <v>43892</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -26864,7 +26864,7 @@
         <v>43892</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -26921,7 +26921,7 @@
         <v>43894</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -26983,7 +26983,7 @@
         <v>43902</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -27045,7 +27045,7 @@
         <v>43903</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -27102,7 +27102,7 @@
         <v>43908</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -27159,7 +27159,7 @@
         <v>43913</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -27216,7 +27216,7 @@
         <v>43913</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -27273,7 +27273,7 @@
         <v>43922</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -27335,7 +27335,7 @@
         <v>43924</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -27392,7 +27392,7 @@
         <v>43924</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -27449,7 +27449,7 @@
         <v>43930</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -27506,7 +27506,7 @@
         <v>43935</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -27568,7 +27568,7 @@
         <v>43943</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -27625,7 +27625,7 @@
         <v>43943</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -27682,7 +27682,7 @@
         <v>43943</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -27739,7 +27739,7 @@
         <v>43944</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -27796,7 +27796,7 @@
         <v>43944</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -27853,7 +27853,7 @@
         <v>43945</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -27910,7 +27910,7 @@
         <v>43945</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -27972,7 +27972,7 @@
         <v>43945</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -28029,7 +28029,7 @@
         <v>43945</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -28091,7 +28091,7 @@
         <v>43949</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -28153,7 +28153,7 @@
         <v>43951</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -28215,7 +28215,7 @@
         <v>43951</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -28277,7 +28277,7 @@
         <v>43951</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -28339,7 +28339,7 @@
         <v>43951</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -28401,7 +28401,7 @@
         <v>43951</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -28458,7 +28458,7 @@
         <v>43955</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -28520,7 +28520,7 @@
         <v>43959</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -28582,7 +28582,7 @@
         <v>43959</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -28644,7 +28644,7 @@
         <v>43959</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -28706,7 +28706,7 @@
         <v>43959</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -28768,7 +28768,7 @@
         <v>43962</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -28830,7 +28830,7 @@
         <v>43962</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -28892,7 +28892,7 @@
         <v>43962</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -28954,7 +28954,7 @@
         <v>43962</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -29016,7 +29016,7 @@
         <v>43964</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -29078,7 +29078,7 @@
         <v>43965</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -29140,7 +29140,7 @@
         <v>43965</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -29202,7 +29202,7 @@
         <v>43966</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -29264,7 +29264,7 @@
         <v>43966</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -29326,7 +29326,7 @@
         <v>43966</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -29388,7 +29388,7 @@
         <v>43969</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -29450,7 +29450,7 @@
         <v>43971</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -29512,7 +29512,7 @@
         <v>43971</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -29574,7 +29574,7 @@
         <v>43971</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -29636,7 +29636,7 @@
         <v>43977</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -29698,7 +29698,7 @@
         <v>43978</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -29755,7 +29755,7 @@
         <v>43979</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -29817,7 +29817,7 @@
         <v>43979</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -29879,7 +29879,7 @@
         <v>43979</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -29941,7 +29941,7 @@
         <v>43979</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -30003,7 +30003,7 @@
         <v>43979</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -30065,7 +30065,7 @@
         <v>43986</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -30122,7 +30122,7 @@
         <v>43990</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -30184,7 +30184,7 @@
         <v>43990</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -30246,7 +30246,7 @@
         <v>43991</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -30308,7 +30308,7 @@
         <v>43993</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -30370,7 +30370,7 @@
         <v>44000</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -30432,7 +30432,7 @@
         <v>44000</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -30494,7 +30494,7 @@
         <v>44005</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -30556,7 +30556,7 @@
         <v>44005</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -30618,7 +30618,7 @@
         <v>44006</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -30675,7 +30675,7 @@
         <v>44007</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -30737,7 +30737,7 @@
         <v>44007</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -30799,7 +30799,7 @@
         <v>44008</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -30861,7 +30861,7 @@
         <v>44008</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -30923,7 +30923,7 @@
         <v>44014</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -30985,7 +30985,7 @@
         <v>44014</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -31047,7 +31047,7 @@
         <v>44014</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -31109,7 +31109,7 @@
         <v>44022</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -31171,7 +31171,7 @@
         <v>44022</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -31228,7 +31228,7 @@
         <v>44025</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -31285,7 +31285,7 @@
         <v>44026</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -31347,7 +31347,7 @@
         <v>44027</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -31404,7 +31404,7 @@
         <v>44028</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -31466,7 +31466,7 @@
         <v>44029</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -31528,7 +31528,7 @@
         <v>44029</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -31590,7 +31590,7 @@
         <v>44031</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -31652,7 +31652,7 @@
         <v>44032</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -31709,7 +31709,7 @@
         <v>44032</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -31771,7 +31771,7 @@
         <v>44032</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -31833,7 +31833,7 @@
         <v>44033</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -31890,7 +31890,7 @@
         <v>44041</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -31952,7 +31952,7 @@
         <v>44041</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -32014,7 +32014,7 @@
         <v>44041</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -32076,7 +32076,7 @@
         <v>44042</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -32138,7 +32138,7 @@
         <v>44049</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -32200,7 +32200,7 @@
         <v>44049</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -32262,7 +32262,7 @@
         <v>44053</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -32319,7 +32319,7 @@
         <v>44056</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -32381,7 +32381,7 @@
         <v>44057</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -32443,7 +32443,7 @@
         <v>44060</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -32505,7 +32505,7 @@
         <v>44061</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -32562,7 +32562,7 @@
         <v>44061</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -32619,7 +32619,7 @@
         <v>44061</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -32676,7 +32676,7 @@
         <v>44061</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -32738,7 +32738,7 @@
         <v>44062</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -32800,7 +32800,7 @@
         <v>44064</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -32862,7 +32862,7 @@
         <v>44064</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -32924,7 +32924,7 @@
         <v>44064</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -32986,7 +32986,7 @@
         <v>44064</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -33048,7 +33048,7 @@
         <v>44067</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -33110,7 +33110,7 @@
         <v>44068</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -33172,7 +33172,7 @@
         <v>44069</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -33234,7 +33234,7 @@
         <v>44069</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -33296,7 +33296,7 @@
         <v>44069</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -33358,7 +33358,7 @@
         <v>44069</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -33420,7 +33420,7 @@
         <v>44070</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -33477,7 +33477,7 @@
         <v>44074</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -33539,7 +33539,7 @@
         <v>44074</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -33601,7 +33601,7 @@
         <v>44075</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -33663,7 +33663,7 @@
         <v>44075</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -33725,7 +33725,7 @@
         <v>44075</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -33787,7 +33787,7 @@
         <v>44078</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -33844,7 +33844,7 @@
         <v>44078</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -33901,7 +33901,7 @@
         <v>44078</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -33963,7 +33963,7 @@
         <v>44080</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -34025,7 +34025,7 @@
         <v>44081</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -34087,7 +34087,7 @@
         <v>44081</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -34149,7 +34149,7 @@
         <v>44082</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -34211,7 +34211,7 @@
         <v>44082</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -34268,7 +34268,7 @@
         <v>44082</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -34330,7 +34330,7 @@
         <v>44083</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -34387,7 +34387,7 @@
         <v>44084</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -34449,7 +34449,7 @@
         <v>44085</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -34511,7 +34511,7 @@
         <v>44085</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -34573,7 +34573,7 @@
         <v>44085</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -34635,7 +34635,7 @@
         <v>44085</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -34697,7 +34697,7 @@
         <v>44085</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -34754,7 +34754,7 @@
         <v>44088</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -34816,7 +34816,7 @@
         <v>44088</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -34878,7 +34878,7 @@
         <v>44088</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -34940,7 +34940,7 @@
         <v>44088</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -35002,7 +35002,7 @@
         <v>44091</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -35064,7 +35064,7 @@
         <v>44092</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -35126,7 +35126,7 @@
         <v>44092</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -35188,7 +35188,7 @@
         <v>44092</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -35250,7 +35250,7 @@
         <v>44095</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -35307,7 +35307,7 @@
         <v>44099</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -35369,7 +35369,7 @@
         <v>44099</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -35431,7 +35431,7 @@
         <v>44099</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -35493,7 +35493,7 @@
         <v>44103</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -35555,7 +35555,7 @@
         <v>44103</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -35617,7 +35617,7 @@
         <v>44104</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -35679,7 +35679,7 @@
         <v>44104</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -35741,7 +35741,7 @@
         <v>44104</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -35803,7 +35803,7 @@
         <v>44108</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -35860,7 +35860,7 @@
         <v>44109</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -35922,7 +35922,7 @@
         <v>44109</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -35984,7 +35984,7 @@
         <v>44110</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -36046,7 +36046,7 @@
         <v>44111</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -36108,7 +36108,7 @@
         <v>44112</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -36170,7 +36170,7 @@
         <v>44112</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -36227,7 +36227,7 @@
         <v>44112</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -36289,7 +36289,7 @@
         <v>44116</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -36351,7 +36351,7 @@
         <v>44116</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -36413,7 +36413,7 @@
         <v>44116</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -36470,7 +36470,7 @@
         <v>44116</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -36532,7 +36532,7 @@
         <v>44116</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -36594,7 +36594,7 @@
         <v>44117</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -36656,7 +36656,7 @@
         <v>44119</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -36718,7 +36718,7 @@
         <v>44119</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -36780,7 +36780,7 @@
         <v>44119</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -36842,7 +36842,7 @@
         <v>44120</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -36904,7 +36904,7 @@
         <v>44123</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -36966,7 +36966,7 @@
         <v>44124</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -37028,7 +37028,7 @@
         <v>44124</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -37085,7 +37085,7 @@
         <v>44125</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -37142,7 +37142,7 @@
         <v>44125</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -37204,7 +37204,7 @@
         <v>44125</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -37266,7 +37266,7 @@
         <v>44125</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -37328,7 +37328,7 @@
         <v>44126</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -37390,7 +37390,7 @@
         <v>44126</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -37452,7 +37452,7 @@
         <v>44126</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -37509,7 +37509,7 @@
         <v>44126</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -37571,7 +37571,7 @@
         <v>44133</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -37633,7 +37633,7 @@
         <v>44141</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -37695,7 +37695,7 @@
         <v>44144</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -37757,7 +37757,7 @@
         <v>44145</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -37819,7 +37819,7 @@
         <v>44146</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -37876,7 +37876,7 @@
         <v>44147</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -37938,7 +37938,7 @@
         <v>44148</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -38000,7 +38000,7 @@
         <v>44148</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -38062,7 +38062,7 @@
         <v>44150</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -38124,7 +38124,7 @@
         <v>44151</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -38186,7 +38186,7 @@
         <v>44159</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -38248,7 +38248,7 @@
         <v>44159</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -38305,7 +38305,7 @@
         <v>44160</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -38367,7 +38367,7 @@
         <v>44161</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -38424,7 +38424,7 @@
         <v>44162</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -38486,7 +38486,7 @@
         <v>44162</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -38548,7 +38548,7 @@
         <v>44166</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -38605,7 +38605,7 @@
         <v>44167</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -38667,7 +38667,7 @@
         <v>44179</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -38729,7 +38729,7 @@
         <v>44180</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -38791,7 +38791,7 @@
         <v>44180</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -38853,7 +38853,7 @@
         <v>44194</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -38910,7 +38910,7 @@
         <v>44194</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -38987,7 +38987,7 @@
         <v>44199</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -39044,7 +39044,7 @@
         <v>44200</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -39101,7 +39101,7 @@
         <v>44203</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -39163,7 +39163,7 @@
         <v>44208</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -39225,7 +39225,7 @@
         <v>44221</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -39282,7 +39282,7 @@
         <v>44223</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -39344,7 +39344,7 @@
         <v>44228</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -39401,7 +39401,7 @@
         <v>44229</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -39458,7 +39458,7 @@
         <v>44236</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -39515,7 +39515,7 @@
         <v>44239</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -39572,7 +39572,7 @@
         <v>44243</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -39629,7 +39629,7 @@
         <v>44250</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -39686,7 +39686,7 @@
         <v>44251</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -39743,7 +39743,7 @@
         <v>44253</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -39800,7 +39800,7 @@
         <v>44259</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -39857,7 +39857,7 @@
         <v>44265</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -39914,7 +39914,7 @@
         <v>44265</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -39971,7 +39971,7 @@
         <v>44267</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -40028,7 +40028,7 @@
         <v>44273</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -40090,7 +40090,7 @@
         <v>44273</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -40152,7 +40152,7 @@
         <v>44294</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -40214,7 +40214,7 @@
         <v>44294</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -40276,7 +40276,7 @@
         <v>44295</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -40338,7 +40338,7 @@
         <v>44302</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -40400,7 +40400,7 @@
         <v>44307</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -40457,7 +40457,7 @@
         <v>44308</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -40514,7 +40514,7 @@
         <v>44308</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -40576,7 +40576,7 @@
         <v>44309</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -40633,7 +40633,7 @@
         <v>44313</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -40695,7 +40695,7 @@
         <v>44313</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -40757,7 +40757,7 @@
         <v>44322</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -40819,7 +40819,7 @@
         <v>44322</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -40881,7 +40881,7 @@
         <v>44322</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -40943,7 +40943,7 @@
         <v>44322</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -41005,7 +41005,7 @@
         <v>44326</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -41062,7 +41062,7 @@
         <v>44326</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -41119,7 +41119,7 @@
         <v>44333</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -41176,7 +41176,7 @@
         <v>44336</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -41233,7 +41233,7 @@
         <v>44341</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -41290,7 +41290,7 @@
         <v>44341</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -41347,7 +41347,7 @@
         <v>44350</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -41409,7 +41409,7 @@
         <v>44350</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -41471,7 +41471,7 @@
         <v>44354</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -41533,7 +41533,7 @@
         <v>44358</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -41595,7 +41595,7 @@
         <v>44358</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -41657,7 +41657,7 @@
         <v>44361</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -41714,7 +41714,7 @@
         <v>44361</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -41776,7 +41776,7 @@
         <v>44361</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -41833,7 +41833,7 @@
         <v>44361</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -41890,7 +41890,7 @@
         <v>44361</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -41947,7 +41947,7 @@
         <v>44361</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -42004,7 +42004,7 @@
         <v>44363</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -42061,7 +42061,7 @@
         <v>44364</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -42118,7 +42118,7 @@
         <v>44365</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -42175,7 +42175,7 @@
         <v>44368</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -42237,7 +42237,7 @@
         <v>44368</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -42299,7 +42299,7 @@
         <v>44378</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -42361,7 +42361,7 @@
         <v>44382</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -42423,7 +42423,7 @@
         <v>44382</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -42485,7 +42485,7 @@
         <v>44382</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -42547,7 +42547,7 @@
         <v>44384</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -42609,7 +42609,7 @@
         <v>44385</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -42666,7 +42666,7 @@
         <v>44390</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -42723,7 +42723,7 @@
         <v>44391</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -42780,7 +42780,7 @@
         <v>44397</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -42842,7 +42842,7 @@
         <v>44400</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -42904,7 +42904,7 @@
         <v>44400</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -42966,7 +42966,7 @@
         <v>44400</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -43028,7 +43028,7 @@
         <v>44403</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -43090,7 +43090,7 @@
         <v>44403</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -43147,7 +43147,7 @@
         <v>44404</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -43204,7 +43204,7 @@
         <v>44406</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -43266,7 +43266,7 @@
         <v>44418</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -43328,7 +43328,7 @@
         <v>44418</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -43390,7 +43390,7 @@
         <v>44419</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -43452,7 +43452,7 @@
         <v>44425</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -43514,7 +43514,7 @@
         <v>44425</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -43576,7 +43576,7 @@
         <v>44426</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -43633,7 +43633,7 @@
         <v>44427</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -43690,7 +43690,7 @@
         <v>44428</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -43752,7 +43752,7 @@
         <v>44431</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -43809,7 +43809,7 @@
         <v>44435</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -43871,7 +43871,7 @@
         <v>44435</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -43933,7 +43933,7 @@
         <v>44435</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -43990,7 +43990,7 @@
         <v>44435</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -44052,7 +44052,7 @@
         <v>44438</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -44114,7 +44114,7 @@
         <v>44439</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -44171,7 +44171,7 @@
         <v>44440</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -44228,7 +44228,7 @@
         <v>44445</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -44290,7 +44290,7 @@
         <v>44445</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -44352,7 +44352,7 @@
         <v>44445</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -44409,7 +44409,7 @@
         <v>44447</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -44471,7 +44471,7 @@
         <v>44447</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -44528,7 +44528,7 @@
         <v>44448</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -44585,7 +44585,7 @@
         <v>44448</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -44642,7 +44642,7 @@
         <v>44449</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -44699,7 +44699,7 @@
         <v>44452</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -44761,7 +44761,7 @@
         <v>44453</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -44823,7 +44823,7 @@
         <v>44455</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -44885,7 +44885,7 @@
         <v>44460</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -44942,7 +44942,7 @@
         <v>44460</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -45004,7 +45004,7 @@
         <v>44460</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -45066,7 +45066,7 @@
         <v>44461</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -45123,7 +45123,7 @@
         <v>44466</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -45180,7 +45180,7 @@
         <v>44467</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -45242,7 +45242,7 @@
         <v>44470</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -45299,7 +45299,7 @@
         <v>44473</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -45356,7 +45356,7 @@
         <v>44475</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -45418,7 +45418,7 @@
         <v>44475</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -45480,7 +45480,7 @@
         <v>44475</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -45537,7 +45537,7 @@
         <v>44480</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -45599,7 +45599,7 @@
         <v>44481</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -45656,7 +45656,7 @@
         <v>44483</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -45718,7 +45718,7 @@
         <v>44484</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -45780,7 +45780,7 @@
         <v>44488</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -45837,7 +45837,7 @@
         <v>44489</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -45899,7 +45899,7 @@
         <v>44489</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -45961,7 +45961,7 @@
         <v>44489</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -46023,7 +46023,7 @@
         <v>44489</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -46085,7 +46085,7 @@
         <v>44490</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -46147,7 +46147,7 @@
         <v>44497</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -46209,7 +46209,7 @@
         <v>44497</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -46266,7 +46266,7 @@
         <v>44497</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -46328,7 +46328,7 @@
         <v>44497</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -46385,7 +46385,7 @@
         <v>44502</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -46442,7 +46442,7 @@
         <v>44503</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -46504,7 +46504,7 @@
         <v>44504</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -46566,7 +46566,7 @@
         <v>44510</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -46628,7 +46628,7 @@
         <v>44511</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -46690,7 +46690,7 @@
         <v>44511</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -46752,7 +46752,7 @@
         <v>44523</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -46814,7 +46814,7 @@
         <v>44523</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -46871,7 +46871,7 @@
         <v>44531</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -46928,7 +46928,7 @@
         <v>44536</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -46985,7 +46985,7 @@
         <v>44538</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -47042,7 +47042,7 @@
         <v>44544</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -47104,7 +47104,7 @@
         <v>44550</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -47166,7 +47166,7 @@
         <v>44551</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -47223,7 +47223,7 @@
         <v>44552</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -47280,7 +47280,7 @@
         <v>44552</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -47337,7 +47337,7 @@
         <v>44564</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -47394,7 +47394,7 @@
         <v>44566</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -47451,7 +47451,7 @@
         <v>44572</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -47508,7 +47508,7 @@
         <v>44579</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -47570,7 +47570,7 @@
         <v>44582</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -47627,7 +47627,7 @@
         <v>44587</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -47689,7 +47689,7 @@
         <v>44592</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -47751,7 +47751,7 @@
         <v>44595</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -47808,7 +47808,7 @@
         <v>44615</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -47865,7 +47865,7 @@
         <v>44615</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -47922,7 +47922,7 @@
         <v>44616</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -47979,7 +47979,7 @@
         <v>44621</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -48041,7 +48041,7 @@
         <v>44627</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -48098,7 +48098,7 @@
         <v>44627</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -48155,7 +48155,7 @@
         <v>44629</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -48212,7 +48212,7 @@
         <v>44648</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -48269,7 +48269,7 @@
         <v>44650</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -48326,7 +48326,7 @@
         <v>44657</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -48383,7 +48383,7 @@
         <v>44662</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -48445,7 +48445,7 @@
         <v>44663</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -48502,7 +48502,7 @@
         <v>44663</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -48559,7 +48559,7 @@
         <v>44685</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -48621,7 +48621,7 @@
         <v>44691</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -48683,7 +48683,7 @@
         <v>44692</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -48745,7 +48745,7 @@
         <v>44692</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -48807,7 +48807,7 @@
         <v>44693</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -48869,7 +48869,7 @@
         <v>44697</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -48926,7 +48926,7 @@
         <v>44701</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -48988,7 +48988,7 @@
         <v>44711</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -49050,7 +49050,7 @@
         <v>44711</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -49112,7 +49112,7 @@
         <v>44712</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -49169,7 +49169,7 @@
         <v>44714</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -49226,7 +49226,7 @@
         <v>44719</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -49283,7 +49283,7 @@
         <v>44726</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -49340,7 +49340,7 @@
         <v>44726</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -49397,7 +49397,7 @@
         <v>44726</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -49454,7 +49454,7 @@
         <v>44726</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -49516,7 +49516,7 @@
         <v>44726</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -49573,7 +49573,7 @@
         <v>44732</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -49635,7 +49635,7 @@
         <v>44743</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -49697,7 +49697,7 @@
         <v>44743</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -49759,7 +49759,7 @@
         <v>44743</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -49821,7 +49821,7 @@
         <v>44743</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -49883,7 +49883,7 @@
         <v>44743</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -49945,7 +49945,7 @@
         <v>44743</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -50007,7 +50007,7 @@
         <v>44743</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -50069,7 +50069,7 @@
         <v>44747</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -50126,7 +50126,7 @@
         <v>44747</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -50183,7 +50183,7 @@
         <v>44748</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -50240,7 +50240,7 @@
         <v>44749</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -50297,7 +50297,7 @@
         <v>44757</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -50359,7 +50359,7 @@
         <v>44757</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -50421,7 +50421,7 @@
         <v>44762</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -50483,7 +50483,7 @@
         <v>44774</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -50545,7 +50545,7 @@
         <v>44774</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -50607,7 +50607,7 @@
         <v>44774</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -50669,7 +50669,7 @@
         <v>44777</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -50726,7 +50726,7 @@
         <v>44778</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -50788,7 +50788,7 @@
         <v>44781</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -50850,7 +50850,7 @@
         <v>44781</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -50912,7 +50912,7 @@
         <v>44789</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -50969,7 +50969,7 @@
         <v>44791</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -51031,7 +51031,7 @@
         <v>44791</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -51088,7 +51088,7 @@
         <v>44792</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -51150,7 +51150,7 @@
         <v>44792</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -51212,7 +51212,7 @@
         <v>44792</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -51269,7 +51269,7 @@
         <v>44792</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -51331,7 +51331,7 @@
         <v>44792</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -51393,7 +51393,7 @@
         <v>44795</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -51455,7 +51455,7 @@
         <v>44795</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -51512,7 +51512,7 @@
         <v>44797</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -51569,7 +51569,7 @@
         <v>44798</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -51626,7 +51626,7 @@
         <v>44799</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -51688,7 +51688,7 @@
         <v>44799</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -51750,7 +51750,7 @@
         <v>44799</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -51812,7 +51812,7 @@
         <v>44799</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -51874,7 +51874,7 @@
         <v>44803</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -51931,7 +51931,7 @@
         <v>44804</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -51988,7 +51988,7 @@
         <v>44806</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -52050,7 +52050,7 @@
         <v>44812</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -52107,7 +52107,7 @@
         <v>44813</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -52169,7 +52169,7 @@
         <v>44813</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -52226,7 +52226,7 @@
         <v>44813</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -52288,7 +52288,7 @@
         <v>44817</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -52350,7 +52350,7 @@
         <v>44824</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -52412,7 +52412,7 @@
         <v>44824</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -52474,7 +52474,7 @@
         <v>44824</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -52536,7 +52536,7 @@
         <v>44825</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -52598,7 +52598,7 @@
         <v>44827</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -52660,7 +52660,7 @@
         <v>44827</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -52722,7 +52722,7 @@
         <v>44832</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -52784,7 +52784,7 @@
         <v>44833</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -52846,7 +52846,7 @@
         <v>44833</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -52908,7 +52908,7 @@
         <v>44833</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -52965,7 +52965,7 @@
         <v>44833</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -53027,7 +53027,7 @@
         <v>44833</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -53084,7 +53084,7 @@
         <v>44833</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -53146,7 +53146,7 @@
         <v>44834</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -53208,7 +53208,7 @@
         <v>44834</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -53270,7 +53270,7 @@
         <v>44837</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -53332,7 +53332,7 @@
         <v>44837</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -53389,7 +53389,7 @@
         <v>44837</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -53451,7 +53451,7 @@
         <v>44838</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -53508,7 +53508,7 @@
         <v>44838</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -53565,7 +53565,7 @@
         <v>44844</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -53627,7 +53627,7 @@
         <v>44846</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -53689,7 +53689,7 @@
         <v>44846</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -53746,7 +53746,7 @@
         <v>44847</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -53808,7 +53808,7 @@
         <v>44847</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -53870,7 +53870,7 @@
         <v>44847</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -53932,7 +53932,7 @@
         <v>44848</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -53994,7 +53994,7 @@
         <v>44853</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -54051,7 +54051,7 @@
         <v>44855</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -54113,7 +54113,7 @@
         <v>44858</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -54175,7 +54175,7 @@
         <v>44860</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -54232,7 +54232,7 @@
         <v>44864</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -54289,7 +54289,7 @@
         <v>44866</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -54351,7 +54351,7 @@
         <v>44866</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -54413,7 +54413,7 @@
         <v>44867</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -54475,7 +54475,7 @@
         <v>44867</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -54532,7 +54532,7 @@
         <v>44867</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -54594,7 +54594,7 @@
         <v>44868</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -54656,7 +54656,7 @@
         <v>44872</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -54718,7 +54718,7 @@
         <v>44872</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -54780,7 +54780,7 @@
         <v>44872</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -54842,7 +54842,7 @@
         <v>44872</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -54899,7 +54899,7 @@
         <v>44873</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -54956,7 +54956,7 @@
         <v>44873</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -55013,7 +55013,7 @@
         <v>44874</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -55075,7 +55075,7 @@
         <v>44874</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -55137,7 +55137,7 @@
         <v>44874</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -55199,7 +55199,7 @@
         <v>44875</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -55256,7 +55256,7 @@
         <v>44875</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -55318,7 +55318,7 @@
         <v>44876</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -55380,7 +55380,7 @@
         <v>44880</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -55442,7 +55442,7 @@
         <v>44880</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -55504,7 +55504,7 @@
         <v>44882</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -55566,7 +55566,7 @@
         <v>44886</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -55628,7 +55628,7 @@
         <v>44886</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -55690,7 +55690,7 @@
         <v>44886</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -55752,7 +55752,7 @@
         <v>44888</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -55814,7 +55814,7 @@
         <v>44889</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -55871,7 +55871,7 @@
         <v>44894</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -55933,7 +55933,7 @@
         <v>44895</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -55990,7 +55990,7 @@
         <v>44900</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -56052,7 +56052,7 @@
         <v>44902</v>
       </c>
       <c r="C876" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -56109,7 +56109,7 @@
         <v>44903</v>
       </c>
       <c r="C877" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -56171,7 +56171,7 @@
         <v>44903</v>
       </c>
       <c r="C878" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -56253,7 +56253,7 @@
         <v>44903</v>
       </c>
       <c r="C879" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -56315,7 +56315,7 @@
         <v>44904</v>
       </c>
       <c r="C880" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -56377,7 +56377,7 @@
         <v>44904</v>
       </c>
       <c r="C881" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -56434,7 +56434,7 @@
         <v>44909</v>
       </c>
       <c r="C882" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -56496,7 +56496,7 @@
         <v>44909</v>
       </c>
       <c r="C883" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>
@@ -56558,7 +56558,7 @@
         <v>44909</v>
       </c>
       <c r="C884" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D884" t="inlineStr">
         <is>
@@ -56620,7 +56620,7 @@
         <v>44910</v>
       </c>
       <c r="C885" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D885" t="inlineStr">
         <is>
@@ -56682,7 +56682,7 @@
         <v>44911</v>
       </c>
       <c r="C886" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D886" t="inlineStr">
         <is>
@@ -56744,7 +56744,7 @@
         <v>44911</v>
       </c>
       <c r="C887" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D887" t="inlineStr">
         <is>
@@ -56806,7 +56806,7 @@
         <v>44915</v>
       </c>
       <c r="C888" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D888" t="inlineStr">
         <is>
@@ -56868,7 +56868,7 @@
         <v>44916</v>
       </c>
       <c r="C889" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D889" t="inlineStr">
         <is>
@@ -56925,7 +56925,7 @@
         <v>44924</v>
       </c>
       <c r="C890" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D890" t="inlineStr">
         <is>
@@ -56982,7 +56982,7 @@
         <v>44924</v>
       </c>
       <c r="C891" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D891" t="inlineStr">
         <is>
@@ -57039,7 +57039,7 @@
         <v>44925</v>
       </c>
       <c r="C892" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D892" t="inlineStr">
         <is>
@@ -57096,7 +57096,7 @@
         <v>44931</v>
       </c>
       <c r="C893" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D893" t="inlineStr">
         <is>
@@ -57153,7 +57153,7 @@
         <v>44935</v>
       </c>
       <c r="C894" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D894" t="inlineStr">
         <is>
@@ -57215,7 +57215,7 @@
         <v>44937</v>
       </c>
       <c r="C895" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D895" t="inlineStr">
         <is>
@@ -57277,7 +57277,7 @@
         <v>44939</v>
       </c>
       <c r="C896" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D896" t="inlineStr">
         <is>
@@ -57339,7 +57339,7 @@
         <v>44942</v>
       </c>
       <c r="C897" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D897" t="inlineStr">
         <is>
@@ -57396,7 +57396,7 @@
         <v>44942</v>
       </c>
       <c r="C898" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D898" t="inlineStr">
         <is>
@@ -57453,7 +57453,7 @@
         <v>44946</v>
       </c>
       <c r="C899" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D899" t="inlineStr">
         <is>
@@ -57515,7 +57515,7 @@
         <v>44946</v>
       </c>
       <c r="C900" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D900" t="inlineStr">
         <is>
@@ -57572,7 +57572,7 @@
         <v>44949</v>
       </c>
       <c r="C901" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D901" t="inlineStr">
         <is>
@@ -57634,7 +57634,7 @@
         <v>44950</v>
       </c>
       <c r="C902" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D902" t="inlineStr">
         <is>
@@ -57691,7 +57691,7 @@
         <v>44950</v>
       </c>
       <c r="C903" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D903" t="inlineStr">
         <is>
@@ -57748,7 +57748,7 @@
         <v>44952</v>
       </c>
       <c r="C904" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D904" t="inlineStr">
         <is>
@@ -57805,7 +57805,7 @@
         <v>44953</v>
       </c>
       <c r="C905" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D905" t="inlineStr">
         <is>
@@ -57867,7 +57867,7 @@
         <v>44953</v>
       </c>
       <c r="C906" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D906" t="inlineStr">
         <is>
@@ -57929,7 +57929,7 @@
         <v>44956</v>
       </c>
       <c r="C907" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D907" t="inlineStr">
         <is>
@@ -57986,7 +57986,7 @@
         <v>44957</v>
       </c>
       <c r="C908" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D908" t="inlineStr">
         <is>
@@ -58048,7 +58048,7 @@
         <v>44957</v>
       </c>
       <c r="C909" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D909" t="inlineStr">
         <is>
@@ -58105,7 +58105,7 @@
         <v>44959</v>
       </c>
       <c r="C910" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D910" t="inlineStr">
         <is>
@@ -58162,7 +58162,7 @@
         <v>44960</v>
       </c>
       <c r="C911" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D911" t="inlineStr">
         <is>
@@ -58219,7 +58219,7 @@
         <v>44963</v>
       </c>
       <c r="C912" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D912" t="inlineStr">
         <is>
@@ -58276,7 +58276,7 @@
         <v>44964</v>
       </c>
       <c r="C913" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D913" t="inlineStr">
         <is>
@@ -58338,7 +58338,7 @@
         <v>44965</v>
       </c>
       <c r="C914" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D914" t="inlineStr">
         <is>
@@ -58400,7 +58400,7 @@
         <v>44967</v>
       </c>
       <c r="C915" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D915" t="inlineStr">
         <is>
@@ -58457,7 +58457,7 @@
         <v>44970</v>
       </c>
       <c r="C916" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D916" t="inlineStr">
         <is>
@@ -58514,7 +58514,7 @@
         <v>44970</v>
       </c>
       <c r="C917" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D917" t="inlineStr">
         <is>
@@ -58571,7 +58571,7 @@
         <v>44970</v>
       </c>
       <c r="C918" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D918" t="inlineStr">
         <is>
@@ -58628,7 +58628,7 @@
         <v>44972</v>
       </c>
       <c r="C919" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D919" t="inlineStr">
         <is>
@@ -58690,7 +58690,7 @@
         <v>44974</v>
       </c>
       <c r="C920" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D920" t="inlineStr">
         <is>
@@ -58747,7 +58747,7 @@
         <v>44977</v>
       </c>
       <c r="C921" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D921" t="inlineStr">
         <is>
@@ -58809,7 +58809,7 @@
         <v>44977</v>
       </c>
       <c r="C922" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D922" t="inlineStr">
         <is>
@@ -58871,7 +58871,7 @@
         <v>44977</v>
       </c>
       <c r="C923" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D923" t="inlineStr">
         <is>
@@ -58933,7 +58933,7 @@
         <v>44977</v>
       </c>
       <c r="C924" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D924" t="inlineStr">
         <is>
@@ -58995,7 +58995,7 @@
         <v>44977</v>
       </c>
       <c r="C925" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D925" t="inlineStr">
         <is>
@@ -59057,7 +59057,7 @@
         <v>44977</v>
       </c>
       <c r="C926" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D926" t="inlineStr">
         <is>
@@ -59119,7 +59119,7 @@
         <v>44980</v>
       </c>
       <c r="C927" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D927" t="inlineStr">
         <is>
@@ -59181,7 +59181,7 @@
         <v>44980</v>
       </c>
       <c r="C928" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D928" t="inlineStr">
         <is>
@@ -59238,7 +59238,7 @@
         <v>44984</v>
       </c>
       <c r="C929" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D929" t="inlineStr">
         <is>
@@ -59295,7 +59295,7 @@
         <v>44985</v>
       </c>
       <c r="C930" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D930" t="inlineStr">
         <is>
@@ -59357,7 +59357,7 @@
         <v>44985</v>
       </c>
       <c r="C931" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D931" t="inlineStr">
         <is>
@@ -59419,7 +59419,7 @@
         <v>44985</v>
       </c>
       <c r="C932" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D932" t="inlineStr">
         <is>
@@ -59476,7 +59476,7 @@
         <v>44985</v>
       </c>
       <c r="C933" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D933" t="inlineStr">
         <is>
@@ -59538,7 +59538,7 @@
         <v>44986</v>
       </c>
       <c r="C934" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D934" t="inlineStr">
         <is>
@@ -59600,7 +59600,7 @@
         <v>45000</v>
       </c>
       <c r="C935" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D935" t="inlineStr">
         <is>
@@ -59662,7 +59662,7 @@
         <v>45006</v>
       </c>
       <c r="C936" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D936" t="inlineStr">
         <is>
@@ -59719,7 +59719,7 @@
         <v>45007</v>
       </c>
       <c r="C937" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D937" t="inlineStr">
         <is>
@@ -59776,7 +59776,7 @@
         <v>45007</v>
       </c>
       <c r="C938" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D938" t="inlineStr">
         <is>
@@ -59838,7 +59838,7 @@
         <v>45012</v>
       </c>
       <c r="C939" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D939" t="inlineStr">
         <is>
@@ -59900,7 +59900,7 @@
         <v>45012</v>
       </c>
       <c r="C940" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D940" t="inlineStr">
         <is>
@@ -59962,7 +59962,7 @@
         <v>45016</v>
       </c>
       <c r="C941" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D941" t="inlineStr">
         <is>
@@ -60019,7 +60019,7 @@
         <v>45020</v>
       </c>
       <c r="C942" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D942" t="inlineStr">
         <is>
@@ -60076,7 +60076,7 @@
         <v>45027</v>
       </c>
       <c r="C943" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D943" t="inlineStr">
         <is>
@@ -60138,7 +60138,7 @@
         <v>45027</v>
       </c>
       <c r="C944" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D944" t="inlineStr">
         <is>
@@ -60200,7 +60200,7 @@
         <v>45028</v>
       </c>
       <c r="C945" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D945" t="inlineStr">
         <is>
@@ -60257,7 +60257,7 @@
         <v>45033</v>
       </c>
       <c r="C946" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D946" t="inlineStr">
         <is>
@@ -60319,7 +60319,7 @@
         <v>45036</v>
       </c>
       <c r="C947" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D947" t="inlineStr">
         <is>
@@ -60376,7 +60376,7 @@
         <v>45037</v>
       </c>
       <c r="C948" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D948" t="inlineStr">
         <is>
@@ -60433,7 +60433,7 @@
         <v>45041</v>
       </c>
       <c r="C949" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D949" t="inlineStr">
         <is>
@@ -60495,7 +60495,7 @@
         <v>45047</v>
       </c>
       <c r="C950" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D950" t="inlineStr">
         <is>
@@ -60552,7 +60552,7 @@
         <v>45055</v>
       </c>
       <c r="C951" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D951" t="inlineStr">
         <is>
@@ -60614,7 +60614,7 @@
         <v>45056</v>
       </c>
       <c r="C952" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D952" t="inlineStr">
         <is>
@@ -60676,7 +60676,7 @@
         <v>45058</v>
       </c>
       <c r="C953" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D953" t="inlineStr">
         <is>
@@ -60733,7 +60733,7 @@
         <v>45058</v>
       </c>
       <c r="C954" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D954" t="inlineStr">
         <is>
@@ -60790,7 +60790,7 @@
         <v>45060</v>
       </c>
       <c r="C955" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D955" t="inlineStr">
         <is>
@@ -60847,7 +60847,7 @@
         <v>45061</v>
       </c>
       <c r="C956" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D956" t="inlineStr">
         <is>
@@ -60909,7 +60909,7 @@
         <v>45061</v>
       </c>
       <c r="C957" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D957" t="inlineStr">
         <is>
@@ -60971,7 +60971,7 @@
         <v>45061</v>
       </c>
       <c r="C958" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D958" t="inlineStr">
         <is>
@@ -61033,7 +61033,7 @@
         <v>45063</v>
       </c>
       <c r="C959" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D959" t="inlineStr">
         <is>
@@ -61090,7 +61090,7 @@
         <v>45065</v>
       </c>
       <c r="C960" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D960" t="inlineStr">
         <is>
@@ -61152,7 +61152,7 @@
         <v>45068</v>
       </c>
       <c r="C961" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D961" t="inlineStr">
         <is>
@@ -61214,7 +61214,7 @@
         <v>45068</v>
       </c>
       <c r="C962" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D962" t="inlineStr">
         <is>
@@ -61276,7 +61276,7 @@
         <v>45069</v>
       </c>
       <c r="C963" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D963" t="inlineStr">
         <is>
@@ -61338,7 +61338,7 @@
         <v>45069</v>
       </c>
       <c r="C964" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D964" t="inlineStr">
         <is>
@@ -61395,7 +61395,7 @@
         <v>45069</v>
       </c>
       <c r="C965" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D965" t="inlineStr">
         <is>
@@ -61452,7 +61452,7 @@
         <v>45070</v>
       </c>
       <c r="C966" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D966" t="inlineStr">
         <is>
@@ -61514,7 +61514,7 @@
         <v>45070</v>
       </c>
       <c r="C967" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D967" t="inlineStr">
         <is>
@@ -61571,7 +61571,7 @@
         <v>45070</v>
       </c>
       <c r="C968" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D968" t="inlineStr">
         <is>
@@ -61628,7 +61628,7 @@
         <v>45070</v>
       </c>
       <c r="C969" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D969" t="inlineStr">
         <is>
@@ -61685,7 +61685,7 @@
         <v>45070</v>
       </c>
       <c r="C970" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D970" t="inlineStr">
         <is>
@@ -61742,7 +61742,7 @@
         <v>45071</v>
       </c>
       <c r="C971" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D971" t="inlineStr">
         <is>
@@ -61804,7 +61804,7 @@
         <v>45071</v>
       </c>
       <c r="C972" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D972" t="inlineStr">
         <is>
@@ -61861,7 +61861,7 @@
         <v>45071</v>
       </c>
       <c r="C973" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D973" t="inlineStr">
         <is>
@@ -61918,7 +61918,7 @@
         <v>45071</v>
       </c>
       <c r="C974" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D974" t="inlineStr">
         <is>
@@ -61975,7 +61975,7 @@
         <v>45072</v>
       </c>
       <c r="C975" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D975" t="inlineStr">
         <is>
@@ -62032,7 +62032,7 @@
         <v>45077</v>
       </c>
       <c r="C976" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D976" t="inlineStr">
         <is>
@@ -62094,7 +62094,7 @@
         <v>45078</v>
       </c>
       <c r="C977" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D977" t="inlineStr">
         <is>
@@ -62156,7 +62156,7 @@
         <v>45078</v>
       </c>
       <c r="C978" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D978" t="inlineStr">
         <is>
@@ -62213,7 +62213,7 @@
         <v>45078</v>
       </c>
       <c r="C979" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D979" t="inlineStr">
         <is>
@@ -62270,7 +62270,7 @@
         <v>45079</v>
       </c>
       <c r="C980" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D980" t="inlineStr">
         <is>
@@ -62327,7 +62327,7 @@
         <v>45084</v>
       </c>
       <c r="C981" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D981" t="inlineStr">
         <is>
@@ -62389,7 +62389,7 @@
         <v>45090</v>
       </c>
       <c r="C982" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D982" t="inlineStr">
         <is>
@@ -62451,7 +62451,7 @@
         <v>45090</v>
       </c>
       <c r="C983" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D983" t="inlineStr">
         <is>
@@ -62508,7 +62508,7 @@
         <v>45092</v>
       </c>
       <c r="C984" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D984" t="inlineStr">
         <is>
@@ -62570,7 +62570,7 @@
         <v>45092</v>
       </c>
       <c r="C985" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D985" t="inlineStr">
         <is>
@@ -62632,7 +62632,7 @@
         <v>45092</v>
       </c>
       <c r="C986" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D986" t="inlineStr">
         <is>
@@ -62694,7 +62694,7 @@
         <v>45092</v>
       </c>
       <c r="C987" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D987" t="inlineStr">
         <is>
@@ -62756,7 +62756,7 @@
         <v>45093</v>
       </c>
       <c r="C988" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D988" t="inlineStr">
         <is>
@@ -62818,7 +62818,7 @@
         <v>45097</v>
       </c>
       <c r="C989" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D989" t="inlineStr">
         <is>
@@ -62880,7 +62880,7 @@
         <v>45097</v>
       </c>
       <c r="C990" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D990" t="inlineStr">
         <is>
@@ -62937,7 +62937,7 @@
         <v>45097</v>
       </c>
       <c r="C991" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D991" t="inlineStr">
         <is>
@@ -62994,7 +62994,7 @@
         <v>45097</v>
       </c>
       <c r="C992" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D992" t="inlineStr">
         <is>
@@ -63056,7 +63056,7 @@
         <v>45097</v>
       </c>
       <c r="C993" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D993" t="inlineStr">
         <is>
@@ -63118,7 +63118,7 @@
         <v>45098</v>
       </c>
       <c r="C994" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D994" t="inlineStr">
         <is>
@@ -63180,7 +63180,7 @@
         <v>45099</v>
       </c>
       <c r="C995" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D995" t="inlineStr">
         <is>
@@ -63237,7 +63237,7 @@
         <v>45099</v>
       </c>
       <c r="C996" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D996" t="inlineStr">
         <is>
@@ -63294,7 +63294,7 @@
         <v>45099</v>
       </c>
       <c r="C997" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D997" t="inlineStr">
         <is>
@@ -63351,7 +63351,7 @@
         <v>45099</v>
       </c>
       <c r="C998" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D998" t="inlineStr">
         <is>
@@ -63408,7 +63408,7 @@
         <v>45099</v>
       </c>
       <c r="C999" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D999" t="inlineStr">
         <is>
@@ -63465,7 +63465,7 @@
         <v>45104</v>
       </c>
       <c r="C1000" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D1000" t="inlineStr">
         <is>
@@ -63522,7 +63522,7 @@
         <v>45105</v>
       </c>
       <c r="C1001" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D1001" t="inlineStr">
         <is>
@@ -63579,7 +63579,7 @@
         <v>45106</v>
       </c>
       <c r="C1002" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D1002" t="inlineStr">
         <is>
@@ -63636,7 +63636,7 @@
         <v>45107</v>
       </c>
       <c r="C1003" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D1003" t="inlineStr">
         <is>
@@ -63693,7 +63693,7 @@
         <v>45107</v>
       </c>
       <c r="C1004" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D1004" t="inlineStr">
         <is>
@@ -63750,7 +63750,7 @@
         <v>45107</v>
       </c>
       <c r="C1005" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D1005" t="inlineStr">
         <is>
@@ -63812,7 +63812,7 @@
         <v>45107</v>
       </c>
       <c r="C1006" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D1006" t="inlineStr">
         <is>
@@ -63869,7 +63869,7 @@
         <v>45107</v>
       </c>
       <c r="C1007" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D1007" t="inlineStr">
         <is>
@@ -63926,7 +63926,7 @@
         <v>45110</v>
       </c>
       <c r="C1008" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D1008" t="inlineStr">
         <is>
@@ -63983,7 +63983,7 @@
         <v>45110</v>
       </c>
       <c r="C1009" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D1009" t="inlineStr">
         <is>
@@ -64045,7 +64045,7 @@
         <v>45112</v>
       </c>
       <c r="C1010" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D1010" t="inlineStr">
         <is>
@@ -64102,7 +64102,7 @@
         <v>45112</v>
       </c>
       <c r="C1011" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D1011" t="inlineStr">
         <is>
@@ -64164,7 +64164,7 @@
         <v>45113</v>
       </c>
       <c r="C1012" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D1012" t="inlineStr">
         <is>
@@ -64221,7 +64221,7 @@
         <v>45113</v>
       </c>
       <c r="C1013" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D1013" t="inlineStr">
         <is>
@@ -64278,7 +64278,7 @@
         <v>45114</v>
       </c>
       <c r="C1014" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D1014" t="inlineStr">
         <is>
@@ -64340,7 +64340,7 @@
         <v>45118</v>
       </c>
       <c r="C1015" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D1015" t="inlineStr">
         <is>
@@ -64397,7 +64397,7 @@
         <v>45118</v>
       </c>
       <c r="C1016" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D1016" t="inlineStr">
         <is>
@@ -64454,7 +64454,7 @@
         <v>45119</v>
       </c>
       <c r="C1017" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D1017" t="inlineStr">
         <is>
@@ -64511,7 +64511,7 @@
         <v>45119</v>
       </c>
       <c r="C1018" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D1018" t="inlineStr">
         <is>
@@ -64568,7 +64568,7 @@
         <v>45121</v>
       </c>
       <c r="C1019" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D1019" t="inlineStr">
         <is>
@@ -64630,7 +64630,7 @@
         <v>45124</v>
       </c>
       <c r="C1020" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D1020" t="inlineStr">
         <is>
@@ -64692,7 +64692,7 @@
         <v>45125</v>
       </c>
       <c r="C1021" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D1021" t="inlineStr">
         <is>
@@ -64749,7 +64749,7 @@
         <v>45125</v>
       </c>
       <c r="C1022" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D1022" t="inlineStr">
         <is>
@@ -64806,7 +64806,7 @@
         <v>45125</v>
       </c>
       <c r="C1023" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D1023" t="inlineStr">
         <is>
@@ -64868,7 +64868,7 @@
         <v>45125</v>
       </c>
       <c r="C1024" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D1024" t="inlineStr">
         <is>
@@ -64925,7 +64925,7 @@
         <v>45127</v>
       </c>
       <c r="C1025" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D1025" t="inlineStr">
         <is>
@@ -64987,7 +64987,7 @@
         <v>45127</v>
       </c>
       <c r="C1026" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D1026" t="inlineStr">
         <is>
@@ -65049,7 +65049,7 @@
         <v>45127</v>
       </c>
       <c r="C1027" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D1027" t="inlineStr">
         <is>
@@ -65106,7 +65106,7 @@
         <v>45127</v>
       </c>
       <c r="C1028" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D1028" t="inlineStr">
         <is>
@@ -65168,7 +65168,7 @@
         <v>45141</v>
       </c>
       <c r="C1029" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D1029" t="inlineStr">
         <is>
@@ -65225,7 +65225,7 @@
         <v>45142</v>
       </c>
       <c r="C1030" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D1030" t="inlineStr">
         <is>
@@ -65282,7 +65282,7 @@
         <v>45145</v>
       </c>
       <c r="C1031" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D1031" t="inlineStr">
         <is>
@@ -65339,7 +65339,7 @@
         <v>45145</v>
       </c>
       <c r="C1032" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D1032" t="inlineStr">
         <is>
@@ -65396,7 +65396,7 @@
         <v>45147</v>
       </c>
       <c r="C1033" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D1033" t="inlineStr">
         <is>
@@ -65453,7 +65453,7 @@
         <v>45148</v>
       </c>
       <c r="C1034" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D1034" t="inlineStr">
         <is>
@@ -65510,7 +65510,7 @@
         <v>45148</v>
       </c>
       <c r="C1035" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D1035" t="inlineStr">
         <is>
@@ -65567,7 +65567,7 @@
         <v>45159</v>
       </c>
       <c r="C1036" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D1036" t="inlineStr">
         <is>
@@ -65629,7 +65629,7 @@
         <v>45159</v>
       </c>
       <c r="C1037" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D1037" t="inlineStr">
         <is>
@@ -65691,7 +65691,7 @@
         <v>45160</v>
       </c>
       <c r="C1038" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D1038" t="inlineStr">
         <is>
@@ -65753,7 +65753,7 @@
         <v>45160</v>
       </c>
       <c r="C1039" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D1039" t="inlineStr">
         <is>
@@ -65815,7 +65815,7 @@
         <v>45162</v>
       </c>
       <c r="C1040" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D1040" t="inlineStr">
         <is>
@@ -65872,7 +65872,7 @@
         <v>45167</v>
       </c>
       <c r="C1041" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D1041" t="inlineStr">
         <is>
@@ -65929,7 +65929,7 @@
         <v>45168</v>
       </c>
       <c r="C1042" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D1042" t="inlineStr">
         <is>
@@ -65991,7 +65991,7 @@
         <v>45173</v>
       </c>
       <c r="C1043" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D1043" t="inlineStr">
         <is>

--- a/Översikt LJUSDAL.xlsx
+++ b/Översikt LJUSDAL.xlsx
@@ -572,7 +572,7 @@
         <v>44358</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -675,7 +675,7 @@
         <v>43922</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -781,7 +781,7 @@
         <v>44449</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -881,7 +881,7 @@
         <v>43354</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         <v>43798</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1081,7 +1081,7 @@
         <v>43872</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1174,7 +1174,7 @@
         <v>44722</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1271,7 +1271,7 @@
         <v>44743</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1369,7 +1369,7 @@
         <v>44194</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1465,7 +1465,7 @@
         <v>45096</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1557,7 +1557,7 @@
         <v>43343</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1648,7 +1648,7 @@
         <v>44869</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1744,7 +1744,7 @@
         <v>44687</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1843,7 +1843,7 @@
         <v>44687</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1942,7 +1942,7 @@
         <v>44700</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2037,7 +2037,7 @@
         <v>43711</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2131,7 +2131,7 @@
         <v>44530</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2224,7 +2224,7 @@
         <v>44755</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2322,7 +2322,7 @@
         <v>44774</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2420,7 +2420,7 @@
         <v>44775</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2514,7 +2514,7 @@
         <v>44902</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2607,7 +2607,7 @@
         <v>45089</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2700,7 +2700,7 @@
         <v>45090</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2793,7 +2793,7 @@
         <v>43367</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2881,7 +2881,7 @@
         <v>43432</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2974,7 +2974,7 @@
         <v>43872</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3062,7 +3062,7 @@
         <v>44449</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3155,7 +3155,7 @@
         <v>44686</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3247,7 +3247,7 @@
         <v>45072</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3339,7 +3339,7 @@
         <v>45093</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3432,7 +3432,7 @@
         <v>43357</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3519,7 +3519,7 @@
         <v>43628</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3615,7 +3615,7 @@
         <v>43852</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3711,7 +3711,7 @@
         <v>43872</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3798,7 +3798,7 @@
         <v>43977</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3890,7 +3890,7 @@
         <v>44137</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3981,7 +3981,7 @@
         <v>44148</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4073,7 +4073,7 @@
         <v>44152</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4165,7 +4165,7 @@
         <v>44169</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4257,7 +4257,7 @@
         <v>44326</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4349,7 +4349,7 @@
         <v>44706</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4441,7 +4441,7 @@
         <v>44708</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4533,7 +4533,7 @@
         <v>44734</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4625,7 +4625,7 @@
         <v>44821</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4717,7 +4717,7 @@
         <v>44998</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4808,7 +4808,7 @@
         <v>45114</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4900,7 +4900,7 @@
         <v>43338</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4986,7 +4986,7 @@
         <v>43354</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5077,7 +5077,7 @@
         <v>43377</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5163,7 +5163,7 @@
         <v>43381</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5254,7 +5254,7 @@
         <v>43476</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5340,7 +5340,7 @@
         <v>43629</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5435,7 +5435,7 @@
         <v>43977</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5526,7 +5526,7 @@
         <v>44322</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5617,7 +5617,7 @@
         <v>44351</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5708,7 +5708,7 @@
         <v>44357</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5799,7 +5799,7 @@
         <v>44438</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5890,7 +5890,7 @@
         <v>44722</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5985,7 +5985,7 @@
         <v>44988</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6071,7 +6071,7 @@
         <v>45092</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6162,7 +6162,7 @@
         <v>45110</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6253,7 +6253,7 @@
         <v>45121</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6344,7 +6344,7 @@
         <v>43347</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6429,7 +6429,7 @@
         <v>43355</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6519,7 +6519,7 @@
         <v>43367</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6604,7 +6604,7 @@
         <v>43385</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6694,7 +6694,7 @@
         <v>43385</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6784,7 +6784,7 @@
         <v>43389</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6874,7 +6874,7 @@
         <v>43445</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6964,7 +6964,7 @@
         <v>43481</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7049,7 +7049,7 @@
         <v>43557</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7134,7 +7134,7 @@
         <v>43811</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7219,7 +7219,7 @@
         <v>43872</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7304,7 +7304,7 @@
         <v>43936</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7389,7 +7389,7 @@
         <v>43979</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7479,7 +7479,7 @@
         <v>44062</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7573,7 +7573,7 @@
         <v>44069</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7663,7 +7663,7 @@
         <v>44342</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7752,7 +7752,7 @@
         <v>44379</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7842,7 +7842,7 @@
         <v>44405</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7936,7 +7936,7 @@
         <v>44406</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8026,7 +8026,7 @@
         <v>44432</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8116,7 +8116,7 @@
         <v>44438</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8206,7 +8206,7 @@
         <v>44449</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8296,7 +8296,7 @@
         <v>44480</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8381,7 +8381,7 @@
         <v>44489</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8471,7 +8471,7 @@
         <v>44491</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8565,7 +8565,7 @@
         <v>44662</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8659,7 +8659,7 @@
         <v>44684</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8749,7 +8749,7 @@
         <v>44742</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8839,7 +8839,7 @@
         <v>44743</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8929,7 +8929,7 @@
         <v>44763</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -9019,7 +9019,7 @@
         <v>44778</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -9109,7 +9109,7 @@
         <v>44784</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9199,7 +9199,7 @@
         <v>44833</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9284,7 +9284,7 @@
         <v>44839</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9374,7 +9374,7 @@
         <v>44988</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9459,7 +9459,7 @@
         <v>45086</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9548,7 +9548,7 @@
         <v>45090</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9638,7 +9638,7 @@
         <v>45092</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9728,7 +9728,7 @@
         <v>45107</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -9813,7 +9813,7 @@
         <v>45110</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -9903,7 +9903,7 @@
         <v>45162</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9992,7 +9992,7 @@
         <v>43319</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -10054,7 +10054,7 @@
         <v>43320</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -10111,7 +10111,7 @@
         <v>43329</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -10168,7 +10168,7 @@
         <v>43329</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -10230,7 +10230,7 @@
         <v>43329</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -10287,7 +10287,7 @@
         <v>43329</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -10344,7 +10344,7 @@
         <v>43329</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -10401,7 +10401,7 @@
         <v>43333</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -10458,7 +10458,7 @@
         <v>43334</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -10515,7 +10515,7 @@
         <v>43342</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -10577,7 +10577,7 @@
         <v>43347</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -10634,7 +10634,7 @@
         <v>43348</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -10691,7 +10691,7 @@
         <v>43348</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -10753,7 +10753,7 @@
         <v>43349</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -10810,7 +10810,7 @@
         <v>43349</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -10867,7 +10867,7 @@
         <v>43349</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -10924,7 +10924,7 @@
         <v>43353</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -10981,7 +10981,7 @@
         <v>43353</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -11038,7 +11038,7 @@
         <v>43354</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -11100,7 +11100,7 @@
         <v>43355</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -11162,7 +11162,7 @@
         <v>43355</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -11224,7 +11224,7 @@
         <v>43369</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -11281,7 +11281,7 @@
         <v>43369</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -11343,7 +11343,7 @@
         <v>43370</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -11405,7 +11405,7 @@
         <v>43376</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -11462,7 +11462,7 @@
         <v>43377</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -11524,7 +11524,7 @@
         <v>43381</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -11581,7 +11581,7 @@
         <v>43381</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -11638,7 +11638,7 @@
         <v>43381</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -11695,7 +11695,7 @@
         <v>43381</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -11752,7 +11752,7 @@
         <v>43382</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -11814,7 +11814,7 @@
         <v>43382</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -11876,7 +11876,7 @@
         <v>43385</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -11938,7 +11938,7 @@
         <v>43385</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -12000,7 +12000,7 @@
         <v>43389</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -12062,7 +12062,7 @@
         <v>43391</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -12119,7 +12119,7 @@
         <v>43391</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -12176,7 +12176,7 @@
         <v>43395</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -12233,7 +12233,7 @@
         <v>43403</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -12295,7 +12295,7 @@
         <v>43409</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -12352,7 +12352,7 @@
         <v>43409</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -12409,7 +12409,7 @@
         <v>43410</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -12466,7 +12466,7 @@
         <v>43410</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -12528,7 +12528,7 @@
         <v>43410</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -12590,7 +12590,7 @@
         <v>43411</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -12647,7 +12647,7 @@
         <v>43412</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -12704,7 +12704,7 @@
         <v>43412</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -12761,7 +12761,7 @@
         <v>43412</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -12818,7 +12818,7 @@
         <v>43416</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -12880,7 +12880,7 @@
         <v>43416</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -12942,7 +12942,7 @@
         <v>43419</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -12999,7 +12999,7 @@
         <v>43419</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -13056,7 +13056,7 @@
         <v>43420</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -13113,7 +13113,7 @@
         <v>43420</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -13170,7 +13170,7 @@
         <v>43424</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -13227,7 +13227,7 @@
         <v>43425</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -13289,7 +13289,7 @@
         <v>43425</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -13346,7 +13346,7 @@
         <v>43425</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -13408,7 +13408,7 @@
         <v>43425</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -13465,7 +13465,7 @@
         <v>43427</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -13527,7 +13527,7 @@
         <v>43430</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -13589,7 +13589,7 @@
         <v>43431</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -13651,7 +13651,7 @@
         <v>43431</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -13708,7 +13708,7 @@
         <v>43432</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -13770,7 +13770,7 @@
         <v>43432</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -13827,7 +13827,7 @@
         <v>43432</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -13889,7 +13889,7 @@
         <v>43434</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -13951,7 +13951,7 @@
         <v>43437</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -14013,7 +14013,7 @@
         <v>43438</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -14075,7 +14075,7 @@
         <v>43439</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -14132,7 +14132,7 @@
         <v>43439</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -14189,7 +14189,7 @@
         <v>43439</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -14246,7 +14246,7 @@
         <v>43441</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -14308,7 +14308,7 @@
         <v>43441</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -14365,7 +14365,7 @@
         <v>43444</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -14422,7 +14422,7 @@
         <v>43444</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -14479,7 +14479,7 @@
         <v>43444</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -14536,7 +14536,7 @@
         <v>43444</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -14593,7 +14593,7 @@
         <v>43445</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -14655,7 +14655,7 @@
         <v>43445</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -14717,7 +14717,7 @@
         <v>43448</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -14779,7 +14779,7 @@
         <v>43448</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -14841,7 +14841,7 @@
         <v>43448</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -14903,7 +14903,7 @@
         <v>43449</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -14960,7 +14960,7 @@
         <v>43452</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -15017,7 +15017,7 @@
         <v>43452</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -15079,7 +15079,7 @@
         <v>43453</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -15136,7 +15136,7 @@
         <v>43455</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -15198,7 +15198,7 @@
         <v>43455</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -15255,7 +15255,7 @@
         <v>43468</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -15312,7 +15312,7 @@
         <v>43469</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -15369,7 +15369,7 @@
         <v>43472</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -15426,7 +15426,7 @@
         <v>43472</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -15488,7 +15488,7 @@
         <v>43472</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -15550,7 +15550,7 @@
         <v>43474</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -15612,7 +15612,7 @@
         <v>43481</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -15669,7 +15669,7 @@
         <v>43483</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -15726,7 +15726,7 @@
         <v>43486</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -15788,7 +15788,7 @@
         <v>43487</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -15845,7 +15845,7 @@
         <v>43489</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -15902,7 +15902,7 @@
         <v>43490</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -15964,7 +15964,7 @@
         <v>43493</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -16021,7 +16021,7 @@
         <v>43497</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -16083,7 +16083,7 @@
         <v>43501</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -16140,7 +16140,7 @@
         <v>43508</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -16197,7 +16197,7 @@
         <v>43508</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -16254,7 +16254,7 @@
         <v>43510</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -16311,7 +16311,7 @@
         <v>43510</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -16368,7 +16368,7 @@
         <v>43514</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -16425,7 +16425,7 @@
         <v>43514</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -16482,7 +16482,7 @@
         <v>43515</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -16544,7 +16544,7 @@
         <v>43516</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -16601,7 +16601,7 @@
         <v>43516</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -16658,7 +16658,7 @@
         <v>43517</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -16715,7 +16715,7 @@
         <v>43517</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -16772,7 +16772,7 @@
         <v>43521</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -16829,7 +16829,7 @@
         <v>43521</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -16886,7 +16886,7 @@
         <v>43524</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -16943,7 +16943,7 @@
         <v>43524</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -17000,7 +17000,7 @@
         <v>43524</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -17057,7 +17057,7 @@
         <v>43525</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -17114,7 +17114,7 @@
         <v>43525</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -17171,7 +17171,7 @@
         <v>43528</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -17228,7 +17228,7 @@
         <v>43535</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -17285,7 +17285,7 @@
         <v>43536</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -17342,7 +17342,7 @@
         <v>43542</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -17399,7 +17399,7 @@
         <v>43549</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -17456,7 +17456,7 @@
         <v>43549</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -17513,7 +17513,7 @@
         <v>43550</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -17570,7 +17570,7 @@
         <v>43552</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -17627,7 +17627,7 @@
         <v>43552</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -17684,7 +17684,7 @@
         <v>43552</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -17741,7 +17741,7 @@
         <v>43557</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -17798,7 +17798,7 @@
         <v>43557</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -17860,7 +17860,7 @@
         <v>43578</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -17937,7 +17937,7 @@
         <v>43581</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -17999,7 +17999,7 @@
         <v>43584</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -18061,7 +18061,7 @@
         <v>43600</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -18123,7 +18123,7 @@
         <v>43600</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -18185,7 +18185,7 @@
         <v>43601</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -18242,7 +18242,7 @@
         <v>43601</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -18299,7 +18299,7 @@
         <v>43605</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -18356,7 +18356,7 @@
         <v>43607</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -18413,7 +18413,7 @@
         <v>43612</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -18475,7 +18475,7 @@
         <v>43613</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -18537,7 +18537,7 @@
         <v>43616</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -18599,7 +18599,7 @@
         <v>43619</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -18656,7 +18656,7 @@
         <v>43619</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -18718,7 +18718,7 @@
         <v>43619</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -18780,7 +18780,7 @@
         <v>43619</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -18842,7 +18842,7 @@
         <v>43619</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -18904,7 +18904,7 @@
         <v>43620</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -18961,7 +18961,7 @@
         <v>43628</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -19018,7 +19018,7 @@
         <v>43628</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -19080,7 +19080,7 @@
         <v>43628</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -19142,7 +19142,7 @@
         <v>43629</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -19199,7 +19199,7 @@
         <v>43629</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -19261,7 +19261,7 @@
         <v>43630</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -19323,7 +19323,7 @@
         <v>43630</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -19385,7 +19385,7 @@
         <v>43636</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -19447,7 +19447,7 @@
         <v>43636</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -19509,7 +19509,7 @@
         <v>43641</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -19566,7 +19566,7 @@
         <v>43642</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -19628,7 +19628,7 @@
         <v>43642</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -19690,7 +19690,7 @@
         <v>43644</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -19747,7 +19747,7 @@
         <v>43650</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -19804,7 +19804,7 @@
         <v>43651</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -19866,7 +19866,7 @@
         <v>43651</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -19928,7 +19928,7 @@
         <v>43655</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -19985,7 +19985,7 @@
         <v>43656</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -20042,7 +20042,7 @@
         <v>43661</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -20099,7 +20099,7 @@
         <v>43661</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -20156,7 +20156,7 @@
         <v>43661</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -20213,7 +20213,7 @@
         <v>43662</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -20275,7 +20275,7 @@
         <v>43663</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -20332,7 +20332,7 @@
         <v>43663</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -20389,7 +20389,7 @@
         <v>43665</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -20446,7 +20446,7 @@
         <v>43665</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -20508,7 +20508,7 @@
         <v>43668</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -20565,7 +20565,7 @@
         <v>43668</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -20627,7 +20627,7 @@
         <v>43669</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -20684,7 +20684,7 @@
         <v>43677</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -20741,7 +20741,7 @@
         <v>43679</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -20798,7 +20798,7 @@
         <v>43679</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -20855,7 +20855,7 @@
         <v>43686</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -20912,7 +20912,7 @@
         <v>43691</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -20969,7 +20969,7 @@
         <v>43692</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -21026,7 +21026,7 @@
         <v>43693</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -21088,7 +21088,7 @@
         <v>43693</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -21150,7 +21150,7 @@
         <v>43693</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -21212,7 +21212,7 @@
         <v>43697</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -21274,7 +21274,7 @@
         <v>43698</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -21331,7 +21331,7 @@
         <v>43698</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -21393,7 +21393,7 @@
         <v>43700</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -21450,7 +21450,7 @@
         <v>43700</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -21512,7 +21512,7 @@
         <v>43700</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -21569,7 +21569,7 @@
         <v>43704</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -21626,7 +21626,7 @@
         <v>43705</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -21688,7 +21688,7 @@
         <v>43710</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -21750,7 +21750,7 @@
         <v>43710</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -21812,7 +21812,7 @@
         <v>43710</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -21874,7 +21874,7 @@
         <v>43712</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -21931,7 +21931,7 @@
         <v>43713</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -21993,7 +21993,7 @@
         <v>43714</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -22055,7 +22055,7 @@
         <v>43714</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -22117,7 +22117,7 @@
         <v>43717</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -22174,7 +22174,7 @@
         <v>43719</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -22236,7 +22236,7 @@
         <v>43720</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -22298,7 +22298,7 @@
         <v>43721</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -22355,7 +22355,7 @@
         <v>43721</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -22412,7 +22412,7 @@
         <v>43721</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -22469,7 +22469,7 @@
         <v>43726</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -22531,7 +22531,7 @@
         <v>43726</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -22593,7 +22593,7 @@
         <v>43727</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -22655,7 +22655,7 @@
         <v>43728</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -22717,7 +22717,7 @@
         <v>43731</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -22774,7 +22774,7 @@
         <v>43732</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -22836,7 +22836,7 @@
         <v>43732</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -22898,7 +22898,7 @@
         <v>43734</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -22955,7 +22955,7 @@
         <v>43735</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -23012,7 +23012,7 @@
         <v>43738</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -23069,7 +23069,7 @@
         <v>43738</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -23126,7 +23126,7 @@
         <v>43741</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -23188,7 +23188,7 @@
         <v>43742</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -23245,7 +23245,7 @@
         <v>43745</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -23302,7 +23302,7 @@
         <v>43745</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -23364,7 +23364,7 @@
         <v>43746</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -23421,7 +23421,7 @@
         <v>43747</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -23483,7 +23483,7 @@
         <v>43748</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -23545,7 +23545,7 @@
         <v>43749</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -23607,7 +23607,7 @@
         <v>43754</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -23669,7 +23669,7 @@
         <v>43754</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -23731,7 +23731,7 @@
         <v>43755</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -23793,7 +23793,7 @@
         <v>43755</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -23855,7 +23855,7 @@
         <v>43759</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -23917,7 +23917,7 @@
         <v>43759</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -23974,7 +23974,7 @@
         <v>43760</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -24036,7 +24036,7 @@
         <v>43763</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -24093,7 +24093,7 @@
         <v>43763</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -24150,7 +24150,7 @@
         <v>43767</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -24212,7 +24212,7 @@
         <v>43774</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -24269,7 +24269,7 @@
         <v>43774</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -24326,7 +24326,7 @@
         <v>43775</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -24383,7 +24383,7 @@
         <v>43775</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -24440,7 +24440,7 @@
         <v>43776</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -24497,7 +24497,7 @@
         <v>43776</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -24554,7 +24554,7 @@
         <v>43777</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -24616,7 +24616,7 @@
         <v>43781</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -24678,7 +24678,7 @@
         <v>43781</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -24740,7 +24740,7 @@
         <v>43782</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -24797,7 +24797,7 @@
         <v>43782</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -24854,7 +24854,7 @@
         <v>43784</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -24916,7 +24916,7 @@
         <v>43787</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -24978,7 +24978,7 @@
         <v>43787</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -25040,7 +25040,7 @@
         <v>43789</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -25102,7 +25102,7 @@
         <v>43789</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -25164,7 +25164,7 @@
         <v>43791</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -25226,7 +25226,7 @@
         <v>43791</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -25288,7 +25288,7 @@
         <v>43791</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -25350,7 +25350,7 @@
         <v>43794</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -25407,7 +25407,7 @@
         <v>43794</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -25464,7 +25464,7 @@
         <v>43797</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -25521,7 +25521,7 @@
         <v>43801</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -25583,7 +25583,7 @@
         <v>43802</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -25640,7 +25640,7 @@
         <v>43802</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -25697,7 +25697,7 @@
         <v>43808</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -25754,7 +25754,7 @@
         <v>43810</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -25816,7 +25816,7 @@
         <v>43810</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -25878,7 +25878,7 @@
         <v>43815</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -25935,7 +25935,7 @@
         <v>43815</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -25992,7 +25992,7 @@
         <v>43816</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -26049,7 +26049,7 @@
         <v>43837</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -26106,7 +26106,7 @@
         <v>43838</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -26163,7 +26163,7 @@
         <v>43840</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -26225,7 +26225,7 @@
         <v>43850</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -26282,7 +26282,7 @@
         <v>43850</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -26339,7 +26339,7 @@
         <v>43850</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -26396,7 +26396,7 @@
         <v>43850</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -26453,7 +26453,7 @@
         <v>43851</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -26510,7 +26510,7 @@
         <v>43851</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -26567,7 +26567,7 @@
         <v>43858</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -26624,7 +26624,7 @@
         <v>43861</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -26681,7 +26681,7 @@
         <v>43865</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -26738,7 +26738,7 @@
         <v>43866</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -26795,7 +26795,7 @@
         <v>43879</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -26852,7 +26852,7 @@
         <v>43882</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -26909,7 +26909,7 @@
         <v>43885</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -26966,7 +26966,7 @@
         <v>43886</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -27023,7 +27023,7 @@
         <v>43886</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -27080,7 +27080,7 @@
         <v>43892</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -27137,7 +27137,7 @@
         <v>43892</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -27194,7 +27194,7 @@
         <v>43894</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -27256,7 +27256,7 @@
         <v>43902</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -27318,7 +27318,7 @@
         <v>43903</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -27375,7 +27375,7 @@
         <v>43908</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -27432,7 +27432,7 @@
         <v>43913</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -27489,7 +27489,7 @@
         <v>43913</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -27546,7 +27546,7 @@
         <v>43922</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -27608,7 +27608,7 @@
         <v>43924</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -27665,7 +27665,7 @@
         <v>43924</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -27722,7 +27722,7 @@
         <v>43930</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -27779,7 +27779,7 @@
         <v>43935</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -27841,7 +27841,7 @@
         <v>43943</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -27898,7 +27898,7 @@
         <v>43943</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -27955,7 +27955,7 @@
         <v>43943</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -28012,7 +28012,7 @@
         <v>43944</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -28069,7 +28069,7 @@
         <v>43944</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -28126,7 +28126,7 @@
         <v>43945</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -28183,7 +28183,7 @@
         <v>43945</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -28245,7 +28245,7 @@
         <v>43945</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -28302,7 +28302,7 @@
         <v>43945</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -28364,7 +28364,7 @@
         <v>43949</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -28426,7 +28426,7 @@
         <v>43951</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -28488,7 +28488,7 @@
         <v>43951</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -28550,7 +28550,7 @@
         <v>43951</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -28612,7 +28612,7 @@
         <v>43951</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -28674,7 +28674,7 @@
         <v>43951</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -28731,7 +28731,7 @@
         <v>43955</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -28793,7 +28793,7 @@
         <v>43959</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -28855,7 +28855,7 @@
         <v>43959</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -28917,7 +28917,7 @@
         <v>43959</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -28979,7 +28979,7 @@
         <v>43959</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -29041,7 +29041,7 @@
         <v>43962</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -29103,7 +29103,7 @@
         <v>43962</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -29165,7 +29165,7 @@
         <v>43962</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -29227,7 +29227,7 @@
         <v>43962</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -29289,7 +29289,7 @@
         <v>43964</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -29351,7 +29351,7 @@
         <v>43965</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -29413,7 +29413,7 @@
         <v>43965</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -29475,7 +29475,7 @@
         <v>43966</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -29537,7 +29537,7 @@
         <v>43966</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -29599,7 +29599,7 @@
         <v>43966</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -29661,7 +29661,7 @@
         <v>43969</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -29723,7 +29723,7 @@
         <v>43971</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -29785,7 +29785,7 @@
         <v>43971</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -29847,7 +29847,7 @@
         <v>43971</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -29909,7 +29909,7 @@
         <v>43977</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -29971,7 +29971,7 @@
         <v>43978</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -30028,7 +30028,7 @@
         <v>43979</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -30090,7 +30090,7 @@
         <v>43979</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -30152,7 +30152,7 @@
         <v>43979</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -30214,7 +30214,7 @@
         <v>43979</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -30276,7 +30276,7 @@
         <v>43979</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -30338,7 +30338,7 @@
         <v>43986</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -30395,7 +30395,7 @@
         <v>43990</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -30457,7 +30457,7 @@
         <v>43990</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -30519,7 +30519,7 @@
         <v>43991</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -30581,7 +30581,7 @@
         <v>43993</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -30643,7 +30643,7 @@
         <v>44000</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -30705,7 +30705,7 @@
         <v>44000</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -30767,7 +30767,7 @@
         <v>44005</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -30829,7 +30829,7 @@
         <v>44005</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -30891,7 +30891,7 @@
         <v>44006</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -30948,7 +30948,7 @@
         <v>44007</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -31010,7 +31010,7 @@
         <v>44007</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -31072,7 +31072,7 @@
         <v>44008</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -31134,7 +31134,7 @@
         <v>44008</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -31196,7 +31196,7 @@
         <v>44014</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -31258,7 +31258,7 @@
         <v>44014</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -31320,7 +31320,7 @@
         <v>44014</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -31382,7 +31382,7 @@
         <v>44022</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -31444,7 +31444,7 @@
         <v>44022</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -31501,7 +31501,7 @@
         <v>44025</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -31558,7 +31558,7 @@
         <v>44026</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -31620,7 +31620,7 @@
         <v>44027</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -31677,7 +31677,7 @@
         <v>44028</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -31739,7 +31739,7 @@
         <v>44029</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -31801,7 +31801,7 @@
         <v>44029</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -31863,7 +31863,7 @@
         <v>44031</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -31925,7 +31925,7 @@
         <v>44032</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -31982,7 +31982,7 @@
         <v>44032</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -32044,7 +32044,7 @@
         <v>44032</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -32106,7 +32106,7 @@
         <v>44033</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -32163,7 +32163,7 @@
         <v>44041</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -32225,7 +32225,7 @@
         <v>44041</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -32287,7 +32287,7 @@
         <v>44041</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -32349,7 +32349,7 @@
         <v>44042</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -32411,7 +32411,7 @@
         <v>44049</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -32473,7 +32473,7 @@
         <v>44049</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -32535,7 +32535,7 @@
         <v>44053</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -32592,7 +32592,7 @@
         <v>44056</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -32654,7 +32654,7 @@
         <v>44057</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -32716,7 +32716,7 @@
         <v>44060</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -32778,7 +32778,7 @@
         <v>44061</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -32835,7 +32835,7 @@
         <v>44061</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -32892,7 +32892,7 @@
         <v>44061</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -32949,7 +32949,7 @@
         <v>44061</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -33011,7 +33011,7 @@
         <v>44062</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -33073,7 +33073,7 @@
         <v>44064</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -33135,7 +33135,7 @@
         <v>44064</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -33197,7 +33197,7 @@
         <v>44064</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -33259,7 +33259,7 @@
         <v>44064</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -33321,7 +33321,7 @@
         <v>44067</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -33383,7 +33383,7 @@
         <v>44068</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -33445,7 +33445,7 @@
         <v>44069</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -33507,7 +33507,7 @@
         <v>44069</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -33569,7 +33569,7 @@
         <v>44069</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -33631,7 +33631,7 @@
         <v>44069</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -33693,7 +33693,7 @@
         <v>44070</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -33750,7 +33750,7 @@
         <v>44074</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -33812,7 +33812,7 @@
         <v>44074</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -33874,7 +33874,7 @@
         <v>44075</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -33936,7 +33936,7 @@
         <v>44075</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -33998,7 +33998,7 @@
         <v>44075</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -34060,7 +34060,7 @@
         <v>44078</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -34117,7 +34117,7 @@
         <v>44078</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -34174,7 +34174,7 @@
         <v>44078</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -34236,7 +34236,7 @@
         <v>44080</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -34298,7 +34298,7 @@
         <v>44081</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -34360,7 +34360,7 @@
         <v>44081</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -34422,7 +34422,7 @@
         <v>44082</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -34484,7 +34484,7 @@
         <v>44082</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -34541,7 +34541,7 @@
         <v>44082</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -34603,7 +34603,7 @@
         <v>44083</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -34660,7 +34660,7 @@
         <v>44084</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -34722,7 +34722,7 @@
         <v>44085</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -34784,7 +34784,7 @@
         <v>44085</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -34846,7 +34846,7 @@
         <v>44085</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -34908,7 +34908,7 @@
         <v>44085</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -34970,7 +34970,7 @@
         <v>44085</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -35027,7 +35027,7 @@
         <v>44088</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -35089,7 +35089,7 @@
         <v>44088</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -35151,7 +35151,7 @@
         <v>44088</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -35213,7 +35213,7 @@
         <v>44088</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -35275,7 +35275,7 @@
         <v>44091</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -35337,7 +35337,7 @@
         <v>44092</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -35399,7 +35399,7 @@
         <v>44092</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -35461,7 +35461,7 @@
         <v>44092</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -35523,7 +35523,7 @@
         <v>44095</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -35580,7 +35580,7 @@
         <v>44099</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -35642,7 +35642,7 @@
         <v>44099</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -35704,7 +35704,7 @@
         <v>44099</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -35766,7 +35766,7 @@
         <v>44103</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -35828,7 +35828,7 @@
         <v>44103</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -35890,7 +35890,7 @@
         <v>44104</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -35952,7 +35952,7 @@
         <v>44104</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -36014,7 +36014,7 @@
         <v>44104</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -36076,7 +36076,7 @@
         <v>44108</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -36133,7 +36133,7 @@
         <v>44109</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -36195,7 +36195,7 @@
         <v>44109</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -36257,7 +36257,7 @@
         <v>44110</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -36319,7 +36319,7 @@
         <v>44111</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -36381,7 +36381,7 @@
         <v>44112</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -36443,7 +36443,7 @@
         <v>44112</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -36500,7 +36500,7 @@
         <v>44112</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -36562,7 +36562,7 @@
         <v>44116</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -36624,7 +36624,7 @@
         <v>44116</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -36686,7 +36686,7 @@
         <v>44116</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -36743,7 +36743,7 @@
         <v>44116</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -36805,7 +36805,7 @@
         <v>44116</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -36867,7 +36867,7 @@
         <v>44117</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -36929,7 +36929,7 @@
         <v>44119</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -36991,7 +36991,7 @@
         <v>44119</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -37053,7 +37053,7 @@
         <v>44119</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -37115,7 +37115,7 @@
         <v>44120</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -37177,7 +37177,7 @@
         <v>44123</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -37239,7 +37239,7 @@
         <v>44124</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -37301,7 +37301,7 @@
         <v>44124</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -37358,7 +37358,7 @@
         <v>44125</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -37415,7 +37415,7 @@
         <v>44125</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -37477,7 +37477,7 @@
         <v>44125</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -37539,7 +37539,7 @@
         <v>44125</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -37601,7 +37601,7 @@
         <v>44126</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -37663,7 +37663,7 @@
         <v>44126</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -37725,7 +37725,7 @@
         <v>44126</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -37782,7 +37782,7 @@
         <v>44126</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -37844,7 +37844,7 @@
         <v>44133</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -37906,7 +37906,7 @@
         <v>44141</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -37968,7 +37968,7 @@
         <v>44144</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -38030,7 +38030,7 @@
         <v>44145</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -38092,7 +38092,7 @@
         <v>44146</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -38149,7 +38149,7 @@
         <v>44147</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -38211,7 +38211,7 @@
         <v>44148</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -38273,7 +38273,7 @@
         <v>44148</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -38335,7 +38335,7 @@
         <v>44150</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -38397,7 +38397,7 @@
         <v>44151</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -38459,7 +38459,7 @@
         <v>44159</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -38521,7 +38521,7 @@
         <v>44159</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -38578,7 +38578,7 @@
         <v>44160</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -38640,7 +38640,7 @@
         <v>44161</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -38697,7 +38697,7 @@
         <v>44162</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -38759,7 +38759,7 @@
         <v>44162</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -38821,7 +38821,7 @@
         <v>44166</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -38878,7 +38878,7 @@
         <v>44167</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -38940,7 +38940,7 @@
         <v>44179</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -39002,7 +39002,7 @@
         <v>44180</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -39064,7 +39064,7 @@
         <v>44180</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -39126,7 +39126,7 @@
         <v>44194</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -39183,7 +39183,7 @@
         <v>44194</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -39260,7 +39260,7 @@
         <v>44199</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -39317,7 +39317,7 @@
         <v>44200</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -39374,7 +39374,7 @@
         <v>44203</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -39436,7 +39436,7 @@
         <v>44208</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -39498,7 +39498,7 @@
         <v>44221</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -39555,7 +39555,7 @@
         <v>44223</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -39617,7 +39617,7 @@
         <v>44228</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -39674,7 +39674,7 @@
         <v>44229</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -39731,7 +39731,7 @@
         <v>44236</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -39788,7 +39788,7 @@
         <v>44239</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -39845,7 +39845,7 @@
         <v>44243</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -39902,7 +39902,7 @@
         <v>44250</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -39959,7 +39959,7 @@
         <v>44251</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -40016,7 +40016,7 @@
         <v>44253</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -40073,7 +40073,7 @@
         <v>44259</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -40130,7 +40130,7 @@
         <v>44265</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -40187,7 +40187,7 @@
         <v>44265</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -40244,7 +40244,7 @@
         <v>44267</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -40301,7 +40301,7 @@
         <v>44273</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -40363,7 +40363,7 @@
         <v>44273</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -40425,7 +40425,7 @@
         <v>44294</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -40487,7 +40487,7 @@
         <v>44294</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -40549,7 +40549,7 @@
         <v>44295</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -40611,7 +40611,7 @@
         <v>44302</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -40673,7 +40673,7 @@
         <v>44307</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -40730,7 +40730,7 @@
         <v>44308</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -40787,7 +40787,7 @@
         <v>44308</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -40849,7 +40849,7 @@
         <v>44309</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -40906,7 +40906,7 @@
         <v>44313</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -40968,7 +40968,7 @@
         <v>44313</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -41030,7 +41030,7 @@
         <v>44322</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -41092,7 +41092,7 @@
         <v>44322</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -41154,7 +41154,7 @@
         <v>44322</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -41216,7 +41216,7 @@
         <v>44322</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -41278,7 +41278,7 @@
         <v>44326</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -41335,7 +41335,7 @@
         <v>44326</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -41392,7 +41392,7 @@
         <v>44333</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -41449,7 +41449,7 @@
         <v>44336</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -41506,7 +41506,7 @@
         <v>44341</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -41563,7 +41563,7 @@
         <v>44341</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -41620,7 +41620,7 @@
         <v>44350</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -41682,7 +41682,7 @@
         <v>44350</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -41744,7 +41744,7 @@
         <v>44354</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -41806,7 +41806,7 @@
         <v>44358</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -41868,7 +41868,7 @@
         <v>44358</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -41930,7 +41930,7 @@
         <v>44361</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -41987,7 +41987,7 @@
         <v>44361</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -42049,7 +42049,7 @@
         <v>44361</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -42106,7 +42106,7 @@
         <v>44361</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -42163,7 +42163,7 @@
         <v>44361</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -42220,7 +42220,7 @@
         <v>44361</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -42277,7 +42277,7 @@
         <v>44363</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -42334,7 +42334,7 @@
         <v>44364</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -42391,7 +42391,7 @@
         <v>44365</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -42448,7 +42448,7 @@
         <v>44368</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -42510,7 +42510,7 @@
         <v>44368</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -42572,7 +42572,7 @@
         <v>44378</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -42634,7 +42634,7 @@
         <v>44382</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -42696,7 +42696,7 @@
         <v>44382</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -42758,7 +42758,7 @@
         <v>44382</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -42820,7 +42820,7 @@
         <v>44384</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -42882,7 +42882,7 @@
         <v>44385</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -42939,7 +42939,7 @@
         <v>44390</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -42996,7 +42996,7 @@
         <v>44391</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -43053,7 +43053,7 @@
         <v>44397</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -43115,7 +43115,7 @@
         <v>44400</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -43177,7 +43177,7 @@
         <v>44400</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -43239,7 +43239,7 @@
         <v>44400</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -43301,7 +43301,7 @@
         <v>44403</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -43363,7 +43363,7 @@
         <v>44403</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -43420,7 +43420,7 @@
         <v>44404</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -43477,7 +43477,7 @@
         <v>44406</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -43539,7 +43539,7 @@
         <v>44418</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -43601,7 +43601,7 @@
         <v>44418</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -43663,7 +43663,7 @@
         <v>44419</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -43725,7 +43725,7 @@
         <v>44425</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -43787,7 +43787,7 @@
         <v>44425</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -43849,7 +43849,7 @@
         <v>44426</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -43906,7 +43906,7 @@
         <v>44427</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -43963,7 +43963,7 @@
         <v>44428</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -44025,7 +44025,7 @@
         <v>44431</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -44082,7 +44082,7 @@
         <v>44435</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -44144,7 +44144,7 @@
         <v>44435</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -44206,7 +44206,7 @@
         <v>44435</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -44263,7 +44263,7 @@
         <v>44435</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -44325,7 +44325,7 @@
         <v>44438</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -44387,7 +44387,7 @@
         <v>44439</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -44444,7 +44444,7 @@
         <v>44440</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -44501,7 +44501,7 @@
         <v>44445</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -44563,7 +44563,7 @@
         <v>44445</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -44625,7 +44625,7 @@
         <v>44445</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -44682,7 +44682,7 @@
         <v>44447</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -44744,7 +44744,7 @@
         <v>44447</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -44801,7 +44801,7 @@
         <v>44448</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -44858,7 +44858,7 @@
         <v>44448</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -44915,7 +44915,7 @@
         <v>44449</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -44972,7 +44972,7 @@
         <v>44452</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -45034,7 +45034,7 @@
         <v>44453</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -45096,7 +45096,7 @@
         <v>44455</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -45158,7 +45158,7 @@
         <v>44460</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -45215,7 +45215,7 @@
         <v>44460</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -45277,7 +45277,7 @@
         <v>44460</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -45339,7 +45339,7 @@
         <v>44461</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -45396,7 +45396,7 @@
         <v>44466</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -45453,7 +45453,7 @@
         <v>44467</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -45515,7 +45515,7 @@
         <v>44470</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -45572,7 +45572,7 @@
         <v>44473</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -45629,7 +45629,7 @@
         <v>44475</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -45691,7 +45691,7 @@
         <v>44475</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -45753,7 +45753,7 @@
         <v>44475</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -45810,7 +45810,7 @@
         <v>44480</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -45872,7 +45872,7 @@
         <v>44481</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -45929,7 +45929,7 @@
         <v>44483</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -45991,7 +45991,7 @@
         <v>44484</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -46053,7 +46053,7 @@
         <v>44488</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -46110,7 +46110,7 @@
         <v>44489</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -46172,7 +46172,7 @@
         <v>44489</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -46234,7 +46234,7 @@
         <v>44489</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -46296,7 +46296,7 @@
         <v>44489</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -46358,7 +46358,7 @@
         <v>44490</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -46420,7 +46420,7 @@
         <v>44497</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -46482,7 +46482,7 @@
         <v>44497</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -46539,7 +46539,7 @@
         <v>44497</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -46601,7 +46601,7 @@
         <v>44497</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -46658,7 +46658,7 @@
         <v>44502</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -46715,7 +46715,7 @@
         <v>44503</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -46777,7 +46777,7 @@
         <v>44504</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -46839,7 +46839,7 @@
         <v>44510</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -46901,7 +46901,7 @@
         <v>44511</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -46963,7 +46963,7 @@
         <v>44511</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -47025,7 +47025,7 @@
         <v>44523</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -47087,7 +47087,7 @@
         <v>44523</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -47144,7 +47144,7 @@
         <v>44531</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -47201,7 +47201,7 @@
         <v>44536</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -47258,7 +47258,7 @@
         <v>44538</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -47315,7 +47315,7 @@
         <v>44544</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -47377,7 +47377,7 @@
         <v>44550</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -47439,7 +47439,7 @@
         <v>44551</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -47496,7 +47496,7 @@
         <v>44552</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -47553,7 +47553,7 @@
         <v>44552</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -47610,7 +47610,7 @@
         <v>44564</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -47667,7 +47667,7 @@
         <v>44566</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -47724,7 +47724,7 @@
         <v>44572</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -47781,7 +47781,7 @@
         <v>44579</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -47843,7 +47843,7 @@
         <v>44582</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -47900,7 +47900,7 @@
         <v>44587</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -47962,7 +47962,7 @@
         <v>44592</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -48024,7 +48024,7 @@
         <v>44595</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -48081,7 +48081,7 @@
         <v>44615</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -48138,7 +48138,7 @@
         <v>44615</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -48195,7 +48195,7 @@
         <v>44616</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -48252,7 +48252,7 @@
         <v>44621</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -48314,7 +48314,7 @@
         <v>44627</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -48371,7 +48371,7 @@
         <v>44627</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -48428,7 +48428,7 @@
         <v>44629</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -48485,7 +48485,7 @@
         <v>44648</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -48542,7 +48542,7 @@
         <v>44650</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -48599,7 +48599,7 @@
         <v>44657</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -48656,7 +48656,7 @@
         <v>44662</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -48718,7 +48718,7 @@
         <v>44663</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -48775,7 +48775,7 @@
         <v>44663</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -48832,7 +48832,7 @@
         <v>44685</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -48894,7 +48894,7 @@
         <v>44691</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -48956,7 +48956,7 @@
         <v>44692</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -49018,7 +49018,7 @@
         <v>44692</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -49080,7 +49080,7 @@
         <v>44693</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -49142,7 +49142,7 @@
         <v>44697</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -49199,7 +49199,7 @@
         <v>44701</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -49261,7 +49261,7 @@
         <v>44711</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -49323,7 +49323,7 @@
         <v>44711</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -49385,7 +49385,7 @@
         <v>44712</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -49442,7 +49442,7 @@
         <v>44714</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -49499,7 +49499,7 @@
         <v>44719</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -49556,7 +49556,7 @@
         <v>44726</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -49613,7 +49613,7 @@
         <v>44726</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -49670,7 +49670,7 @@
         <v>44726</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -49727,7 +49727,7 @@
         <v>44726</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -49789,7 +49789,7 @@
         <v>44726</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -49846,7 +49846,7 @@
         <v>44732</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -49908,7 +49908,7 @@
         <v>44743</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -49970,7 +49970,7 @@
         <v>44743</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -50032,7 +50032,7 @@
         <v>44743</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -50094,7 +50094,7 @@
         <v>44743</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -50156,7 +50156,7 @@
         <v>44743</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -50218,7 +50218,7 @@
         <v>44743</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -50280,7 +50280,7 @@
         <v>44743</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -50342,7 +50342,7 @@
         <v>44747</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -50399,7 +50399,7 @@
         <v>44747</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -50456,7 +50456,7 @@
         <v>44748</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -50513,7 +50513,7 @@
         <v>44749</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -50570,7 +50570,7 @@
         <v>44757</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -50632,7 +50632,7 @@
         <v>44757</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -50694,7 +50694,7 @@
         <v>44762</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -50756,7 +50756,7 @@
         <v>44774</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -50818,7 +50818,7 @@
         <v>44774</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -50880,7 +50880,7 @@
         <v>44774</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -50942,7 +50942,7 @@
         <v>44777</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -50999,7 +50999,7 @@
         <v>44778</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -51061,7 +51061,7 @@
         <v>44781</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -51123,7 +51123,7 @@
         <v>44781</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -51185,7 +51185,7 @@
         <v>44789</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -51242,7 +51242,7 @@
         <v>44791</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -51304,7 +51304,7 @@
         <v>44791</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -51361,7 +51361,7 @@
         <v>44792</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -51423,7 +51423,7 @@
         <v>44792</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -51485,7 +51485,7 @@
         <v>44792</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -51542,7 +51542,7 @@
         <v>44792</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -51604,7 +51604,7 @@
         <v>44792</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -51666,7 +51666,7 @@
         <v>44795</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -51728,7 +51728,7 @@
         <v>44795</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -51785,7 +51785,7 @@
         <v>44797</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -51842,7 +51842,7 @@
         <v>44798</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -51899,7 +51899,7 @@
         <v>44799</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -51961,7 +51961,7 @@
         <v>44799</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -52023,7 +52023,7 @@
         <v>44799</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -52085,7 +52085,7 @@
         <v>44799</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -52147,7 +52147,7 @@
         <v>44803</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -52204,7 +52204,7 @@
         <v>44804</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -52261,7 +52261,7 @@
         <v>44806</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -52323,7 +52323,7 @@
         <v>44812</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -52380,7 +52380,7 @@
         <v>44813</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -52442,7 +52442,7 @@
         <v>44813</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -52499,7 +52499,7 @@
         <v>44813</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -52561,7 +52561,7 @@
         <v>44817</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -52623,7 +52623,7 @@
         <v>44824</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -52685,7 +52685,7 @@
         <v>44824</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -52747,7 +52747,7 @@
         <v>44824</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -52809,7 +52809,7 @@
         <v>44825</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -52871,7 +52871,7 @@
         <v>44827</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -52933,7 +52933,7 @@
         <v>44827</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -52995,7 +52995,7 @@
         <v>44832</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -53057,7 +53057,7 @@
         <v>44833</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -53119,7 +53119,7 @@
         <v>44833</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -53181,7 +53181,7 @@
         <v>44833</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -53238,7 +53238,7 @@
         <v>44833</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -53300,7 +53300,7 @@
         <v>44833</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -53357,7 +53357,7 @@
         <v>44833</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -53419,7 +53419,7 @@
         <v>44834</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -53481,7 +53481,7 @@
         <v>44834</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -53543,7 +53543,7 @@
         <v>44837</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -53605,7 +53605,7 @@
         <v>44837</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -53662,7 +53662,7 @@
         <v>44837</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -53724,7 +53724,7 @@
         <v>44838</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -53781,7 +53781,7 @@
         <v>44838</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -53838,7 +53838,7 @@
         <v>44844</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -53900,7 +53900,7 @@
         <v>44846</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -53962,7 +53962,7 @@
         <v>44846</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -54019,7 +54019,7 @@
         <v>44847</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -54081,7 +54081,7 @@
         <v>44847</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -54143,7 +54143,7 @@
         <v>44847</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -54205,7 +54205,7 @@
         <v>44848</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -54267,7 +54267,7 @@
         <v>44853</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -54324,7 +54324,7 @@
         <v>44855</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -54386,7 +54386,7 @@
         <v>44858</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -54448,7 +54448,7 @@
         <v>44860</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -54505,7 +54505,7 @@
         <v>44864</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -54562,7 +54562,7 @@
         <v>44866</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -54624,7 +54624,7 @@
         <v>44866</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -54686,7 +54686,7 @@
         <v>44867</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -54748,7 +54748,7 @@
         <v>44867</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -54805,7 +54805,7 @@
         <v>44867</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -54867,7 +54867,7 @@
         <v>44868</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -54929,7 +54929,7 @@
         <v>44872</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -54991,7 +54991,7 @@
         <v>44872</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -55053,7 +55053,7 @@
         <v>44872</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -55115,7 +55115,7 @@
         <v>44872</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -55172,7 +55172,7 @@
         <v>44873</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -55229,7 +55229,7 @@
         <v>44873</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -55286,7 +55286,7 @@
         <v>44874</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -55348,7 +55348,7 @@
         <v>44874</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -55410,7 +55410,7 @@
         <v>44874</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -55472,7 +55472,7 @@
         <v>44875</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -55529,7 +55529,7 @@
         <v>44875</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -55591,7 +55591,7 @@
         <v>44876</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -55653,7 +55653,7 @@
         <v>44880</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -55715,7 +55715,7 @@
         <v>44880</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -55777,7 +55777,7 @@
         <v>44882</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -55839,7 +55839,7 @@
         <v>44886</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -55901,7 +55901,7 @@
         <v>44886</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -55963,7 +55963,7 @@
         <v>44886</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -56025,7 +56025,7 @@
         <v>44888</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -56087,7 +56087,7 @@
         <v>44889</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -56144,7 +56144,7 @@
         <v>44894</v>
       </c>
       <c r="C876" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -56206,7 +56206,7 @@
         <v>44895</v>
       </c>
       <c r="C877" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -56263,7 +56263,7 @@
         <v>44900</v>
       </c>
       <c r="C878" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -56325,7 +56325,7 @@
         <v>44902</v>
       </c>
       <c r="C879" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -56382,7 +56382,7 @@
         <v>44903</v>
       </c>
       <c r="C880" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -56444,7 +56444,7 @@
         <v>44903</v>
       </c>
       <c r="C881" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -56526,7 +56526,7 @@
         <v>44903</v>
       </c>
       <c r="C882" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -56588,7 +56588,7 @@
         <v>44904</v>
       </c>
       <c r="C883" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>
@@ -56650,7 +56650,7 @@
         <v>44904</v>
       </c>
       <c r="C884" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D884" t="inlineStr">
         <is>
@@ -56707,7 +56707,7 @@
         <v>44909</v>
       </c>
       <c r="C885" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D885" t="inlineStr">
         <is>
@@ -56769,7 +56769,7 @@
         <v>44909</v>
       </c>
       <c r="C886" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D886" t="inlineStr">
         <is>
@@ -56831,7 +56831,7 @@
         <v>44909</v>
       </c>
       <c r="C887" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D887" t="inlineStr">
         <is>
@@ -56893,7 +56893,7 @@
         <v>44910</v>
       </c>
       <c r="C888" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D888" t="inlineStr">
         <is>
@@ -56955,7 +56955,7 @@
         <v>44911</v>
       </c>
       <c r="C889" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D889" t="inlineStr">
         <is>
@@ -57017,7 +57017,7 @@
         <v>44911</v>
       </c>
       <c r="C890" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D890" t="inlineStr">
         <is>
@@ -57079,7 +57079,7 @@
         <v>44915</v>
       </c>
       <c r="C891" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D891" t="inlineStr">
         <is>
@@ -57141,7 +57141,7 @@
         <v>44916</v>
       </c>
       <c r="C892" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D892" t="inlineStr">
         <is>
@@ -57198,7 +57198,7 @@
         <v>44924</v>
       </c>
       <c r="C893" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D893" t="inlineStr">
         <is>
@@ -57255,7 +57255,7 @@
         <v>44924</v>
       </c>
       <c r="C894" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D894" t="inlineStr">
         <is>
@@ -57312,7 +57312,7 @@
         <v>44925</v>
       </c>
       <c r="C895" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D895" t="inlineStr">
         <is>
@@ -57369,7 +57369,7 @@
         <v>44931</v>
       </c>
       <c r="C896" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D896" t="inlineStr">
         <is>
@@ -57426,7 +57426,7 @@
         <v>44935</v>
       </c>
       <c r="C897" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D897" t="inlineStr">
         <is>
@@ -57488,7 +57488,7 @@
         <v>44937</v>
       </c>
       <c r="C898" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D898" t="inlineStr">
         <is>
@@ -57550,7 +57550,7 @@
         <v>44939</v>
       </c>
       <c r="C899" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D899" t="inlineStr">
         <is>
@@ -57612,7 +57612,7 @@
         <v>44942</v>
       </c>
       <c r="C900" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D900" t="inlineStr">
         <is>
@@ -57669,7 +57669,7 @@
         <v>44942</v>
       </c>
       <c r="C901" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D901" t="inlineStr">
         <is>
@@ -57726,7 +57726,7 @@
         <v>44946</v>
       </c>
       <c r="C902" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D902" t="inlineStr">
         <is>
@@ -57788,7 +57788,7 @@
         <v>44946</v>
       </c>
       <c r="C903" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D903" t="inlineStr">
         <is>
@@ -57845,7 +57845,7 @@
         <v>44949</v>
       </c>
       <c r="C904" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D904" t="inlineStr">
         <is>
@@ -57907,7 +57907,7 @@
         <v>44950</v>
       </c>
       <c r="C905" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D905" t="inlineStr">
         <is>
@@ -57964,7 +57964,7 @@
         <v>44950</v>
       </c>
       <c r="C906" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D906" t="inlineStr">
         <is>
@@ -58021,7 +58021,7 @@
         <v>44952</v>
       </c>
       <c r="C907" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D907" t="inlineStr">
         <is>
@@ -58078,7 +58078,7 @@
         <v>44953</v>
       </c>
       <c r="C908" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D908" t="inlineStr">
         <is>
@@ -58140,7 +58140,7 @@
         <v>44953</v>
       </c>
       <c r="C909" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D909" t="inlineStr">
         <is>
@@ -58202,7 +58202,7 @@
         <v>44956</v>
       </c>
       <c r="C910" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D910" t="inlineStr">
         <is>
@@ -58259,7 +58259,7 @@
         <v>44957</v>
       </c>
       <c r="C911" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D911" t="inlineStr">
         <is>
@@ -58321,7 +58321,7 @@
         <v>44957</v>
       </c>
       <c r="C912" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D912" t="inlineStr">
         <is>
@@ -58378,7 +58378,7 @@
         <v>44959</v>
       </c>
       <c r="C913" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D913" t="inlineStr">
         <is>
@@ -58435,7 +58435,7 @@
         <v>44960</v>
       </c>
       <c r="C914" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D914" t="inlineStr">
         <is>
@@ -58492,7 +58492,7 @@
         <v>44963</v>
       </c>
       <c r="C915" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D915" t="inlineStr">
         <is>
@@ -58549,7 +58549,7 @@
         <v>44964</v>
       </c>
       <c r="C916" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D916" t="inlineStr">
         <is>
@@ -58611,7 +58611,7 @@
         <v>44965</v>
       </c>
       <c r="C917" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D917" t="inlineStr">
         <is>
@@ -58673,7 +58673,7 @@
         <v>44967</v>
       </c>
       <c r="C918" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D918" t="inlineStr">
         <is>
@@ -58730,7 +58730,7 @@
         <v>44970</v>
       </c>
       <c r="C919" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D919" t="inlineStr">
         <is>
@@ -58787,7 +58787,7 @@
         <v>44970</v>
       </c>
       <c r="C920" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D920" t="inlineStr">
         <is>
@@ -58844,7 +58844,7 @@
         <v>44970</v>
       </c>
       <c r="C921" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D921" t="inlineStr">
         <is>
@@ -58901,7 +58901,7 @@
         <v>44972</v>
       </c>
       <c r="C922" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D922" t="inlineStr">
         <is>
@@ -58963,7 +58963,7 @@
         <v>44974</v>
       </c>
       <c r="C923" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D923" t="inlineStr">
         <is>
@@ -59020,7 +59020,7 @@
         <v>44977</v>
       </c>
       <c r="C924" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D924" t="inlineStr">
         <is>
@@ -59082,7 +59082,7 @@
         <v>44977</v>
       </c>
       <c r="C925" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D925" t="inlineStr">
         <is>
@@ -59144,7 +59144,7 @@
         <v>44977</v>
       </c>
       <c r="C926" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D926" t="inlineStr">
         <is>
@@ -59206,7 +59206,7 @@
         <v>44977</v>
       </c>
       <c r="C927" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D927" t="inlineStr">
         <is>
@@ -59268,7 +59268,7 @@
         <v>44977</v>
       </c>
       <c r="C928" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D928" t="inlineStr">
         <is>
@@ -59330,7 +59330,7 @@
         <v>44977</v>
       </c>
       <c r="C929" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D929" t="inlineStr">
         <is>
@@ -59392,7 +59392,7 @@
         <v>44980</v>
       </c>
       <c r="C930" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D930" t="inlineStr">
         <is>
@@ -59454,7 +59454,7 @@
         <v>44980</v>
       </c>
       <c r="C931" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D931" t="inlineStr">
         <is>
@@ -59511,7 +59511,7 @@
         <v>44984</v>
       </c>
       <c r="C932" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D932" t="inlineStr">
         <is>
@@ -59568,7 +59568,7 @@
         <v>44985</v>
       </c>
       <c r="C933" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D933" t="inlineStr">
         <is>
@@ -59630,7 +59630,7 @@
         <v>44985</v>
       </c>
       <c r="C934" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D934" t="inlineStr">
         <is>
@@ -59692,7 +59692,7 @@
         <v>44985</v>
       </c>
       <c r="C935" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D935" t="inlineStr">
         <is>
@@ -59749,7 +59749,7 @@
         <v>44985</v>
       </c>
       <c r="C936" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D936" t="inlineStr">
         <is>
@@ -59811,7 +59811,7 @@
         <v>44986</v>
       </c>
       <c r="C937" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D937" t="inlineStr">
         <is>
@@ -59873,7 +59873,7 @@
         <v>45000</v>
       </c>
       <c r="C938" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D938" t="inlineStr">
         <is>
@@ -59935,7 +59935,7 @@
         <v>45006</v>
       </c>
       <c r="C939" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D939" t="inlineStr">
         <is>
@@ -59992,7 +59992,7 @@
         <v>45007</v>
       </c>
       <c r="C940" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D940" t="inlineStr">
         <is>
@@ -60049,7 +60049,7 @@
         <v>45007</v>
       </c>
       <c r="C941" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D941" t="inlineStr">
         <is>
@@ -60111,7 +60111,7 @@
         <v>45012</v>
       </c>
       <c r="C942" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D942" t="inlineStr">
         <is>
@@ -60173,7 +60173,7 @@
         <v>45012</v>
       </c>
       <c r="C943" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D943" t="inlineStr">
         <is>
@@ -60235,7 +60235,7 @@
         <v>45016</v>
       </c>
       <c r="C944" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D944" t="inlineStr">
         <is>
@@ -60292,7 +60292,7 @@
         <v>45020</v>
       </c>
       <c r="C945" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D945" t="inlineStr">
         <is>
@@ -60349,7 +60349,7 @@
         <v>45027</v>
       </c>
       <c r="C946" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D946" t="inlineStr">
         <is>
@@ -60411,7 +60411,7 @@
         <v>45027</v>
       </c>
       <c r="C947" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D947" t="inlineStr">
         <is>
@@ -60473,7 +60473,7 @@
         <v>45028</v>
       </c>
       <c r="C948" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D948" t="inlineStr">
         <is>
@@ -60530,7 +60530,7 @@
         <v>45033</v>
       </c>
       <c r="C949" s="1" t="n">
-        <v>451